--- a/Project_python/out/Top2vec/test_top2vec_training_files_it0_0.xlsx
+++ b/Project_python/out/Top2vec/test_top2vec_training_files_it0_0.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>x1: 0.306|x2: 0.029|x3: 0.028|x4: 0.096|x5: 0.071|x6: 0.000|x7: 0.000|x8: 0.102|x9: 0.061|x10: 0.000|x11: 0.083|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.306|x2: 0.029|x3: 0.028|x4: 0.096|x5: 0.072|x6: 0.000|x7: 0.000|x8: 0.102|x9: 0.061|x10: 0.000|x11: 0.083|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.30559201232754585]</t>
+          <t>[0.30570497797443696]</t>
         </is>
       </c>
       <c r="H2" t="b">
@@ -532,7 +532,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>x1: 0.299|x2: 0.052|x3: 0.000|x4: 0.048|x5: 0.069|x6: 0.000|x7: 0.000|x8: 0.158|x9: 0.094|x10: 0.052|x11: 0.102|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.299|x2: 0.052|x3: 0.000|x4: 0.048|x5: 0.070|x6: 0.000|x7: 0.000|x8: 0.158|x9: 0.094|x10: 0.052|x11: 0.102|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0.2992265928690915]</t>
+          <t>[0.29939841181408094]</t>
         </is>
       </c>
       <c r="H3" t="b">
@@ -629,7 +629,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.3262378054210778]</t>
+          <t>[0.3262351966780341]</t>
         </is>
       </c>
       <c r="H5" t="b">
@@ -670,7 +670,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0.2304623845069248]</t>
+          <t>[0.2302822656445208]</t>
         </is>
       </c>
       <c r="H6" t="b">
@@ -711,7 +711,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.23641441654726944]</t>
+          <t>[0.23641371462057847]</t>
         </is>
       </c>
       <c r="H7" t="b">
@@ -778,7 +778,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>x1: 0.624|x2: 0.142|x3: 0.000|x4: 0.108|x5: 0.101|x6: 0.048|x7: 0.000|x8: 0.107|x9: 0.000|x10: 0.000|x11: 0.060|x12: 0.000|x13: 0.051|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000</t>
+          <t>x1: 0.624|x2: 0.143|x3: 0.000|x4: 0.108|x5: 0.101|x6: 0.048|x7: 0.000|x8: 0.107|x9: 0.000|x10: 0.000|x11: 0.060|x12: 0.000|x13: 0.051|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[0.6243028067137075]</t>
+          <t>[0.6244690195144922]</t>
         </is>
       </c>
       <c r="H9" t="b">
@@ -834,7 +834,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0.22540369490883008]</t>
+          <t>[0.2254168342860655]</t>
         </is>
       </c>
       <c r="H10" t="b">
@@ -875,7 +875,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.2866551750094577]</t>
+          <t>[0.2867072562611004]</t>
         </is>
       </c>
       <c r="H11" t="b">
@@ -916,7 +916,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[0.42614548674501956]</t>
+          <t>[0.42626384885405344]</t>
         </is>
       </c>
       <c r="H12" t="b">
@@ -957,7 +957,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[0.34683059263252397]</t>
+          <t>[0.34685546410495144]</t>
         </is>
       </c>
       <c r="H13" t="b">
@@ -983,7 +983,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>x1: 0.181|x2: 0.044|x3: 0.098|x4: 0.000|x5: 0.047|x6: 0.000|x7: 0.000|x8: 0.036|x9: 0.000|x10: 0.041|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.181|x2: 0.044|x3: 0.098|x4: 0.000|x5: 0.046|x6: 0.000|x7: 0.000|x8: 0.036|x9: 0.000|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[0.24831516601716774]</t>
+          <t>[0.24833647083363222]</t>
         </is>
       </c>
       <c r="H15" t="b">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x1: 0.423|x2: 0.128|x3: 0.000|x4: 0.000|x5: 0.062|x6: 0.000|x7: 0.069|x8: 0.000|x9: 0.000|x10: 0.091|x11: 0.055|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.424|x2: 0.128|x3: 0.000|x4: 0.000|x5: 0.062|x6: 0.000|x7: 0.069|x8: 0.000|x9: 0.000|x10: 0.091|x11: 0.055|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[0.4234752115047906]</t>
+          <t>[0.4235055192323724]</t>
         </is>
       </c>
       <c r="H16" t="b">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>x1: 0.199|x2: 0.059|x3: 0.118|x4: 0.111|x5: 0.091|x6: 0.000|x7: 0.000|x8: 0.167|x9: 0.058|x10: 0.140|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.055|x15: 0.000|x16: 0.044|x17: 0.000</t>
+          <t>x1: 0.199|x2: 0.059|x3: 0.118|x4: 0.111|x5: 0.091|x6: 0.000|x7: 0.000|x8: 0.167|x9: 0.057|x10: 0.140|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.055|x15: 0.000|x16: 0.044|x17: 0.000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[0.31280803572053334]</t>
+          <t>[0.31274962566791503]</t>
         </is>
       </c>
       <c r="H19" t="b">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>x1: 0.117|x2: 0.000|x3: 0.040|x4: 0.022|x5: 0.043|x6: 0.000|x7: 0.000|x8: 0.038|x9: 0.000|x10: 0.025|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.117|x2: 0.000|x3: 0.039|x4: 0.022|x5: 0.043|x6: 0.000|x7: 0.000|x8: 0.038|x9: 0.000|x10: 0.024|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>x1: 0.302|x2: 0.044|x3: 0.000|x4: 0.042|x5: 0.056|x6: 0.000|x7: 0.000|x8: 0.127|x9: 0.000|x10: 0.000|x11: 0.107|x12: 0.050|x13: 0.058|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.302|x2: 0.044|x3: 0.000|x4: 0.042|x5: 0.055|x6: 0.000|x7: 0.000|x8: 0.127|x9: 0.000|x10: 0.000|x11: 0.107|x12: 0.050|x13: 0.058|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[0.3024252429774739]</t>
+          <t>[0.30248707284274856]</t>
         </is>
       </c>
       <c r="H21" t="b">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>x1: 0.271|x2: 0.000|x3: 0.000|x4: 0.044|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.085|x9: 0.000|x10: 0.000|x11: 0.051|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.271|x2: 0.000|x3: 0.000|x4: 0.043|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.085|x9: 0.000|x10: 0.000|x11: 0.051|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[0.27098261224359327]</t>
+          <t>[0.270812589115989]</t>
         </is>
       </c>
       <c r="H22" t="b">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>x1: 0.306|x2: 0.231|x3: 0.073|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.083|x9: 0.000|x10: 0.052|x11: 0.046|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.068|x16: 0.114|x17: 0.000</t>
+          <t>x1: 0.306|x2: 0.231|x3: 0.073|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.083|x9: 0.000|x10: 0.052|x11: 0.047|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.069|x16: 0.114|x17: 0.000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[0.3055328971009334, 0.23066020369268497]</t>
+          <t>[0.30559650675641753, 0.23069157028092818]</t>
         </is>
       </c>
       <c r="H23" t="b">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[0.42564249639633484]</t>
+          <t>[0.4257141544670864]</t>
         </is>
       </c>
       <c r="H25" t="b">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[0.28417932335619644]</t>
+          <t>[0.2841867639840281]</t>
         </is>
       </c>
       <c r="H28" t="b">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[0.2832109188968465]</t>
+          <t>[0.28328746829703344]</t>
         </is>
       </c>
       <c r="H29" t="b">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[0.22255157273417703]</t>
+          <t>[0.22254209084052526]</t>
         </is>
       </c>
       <c r="H30" t="b">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[0.33877027008909166]</t>
+          <t>[0.33895484072297016]</t>
         </is>
       </c>
       <c r="H31" t="b">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[0.561132120537762]</t>
+          <t>[0.5610707135329369]</t>
         </is>
       </c>
       <c r="H32" t="b">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[0.413731550310606]</t>
+          <t>[0.41373857470926795]</t>
         </is>
       </c>
       <c r="H33" t="b">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[0.32161228308711043]</t>
+          <t>[0.3216479388894704]</t>
         </is>
       </c>
       <c r="H34" t="b">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[0.4282066187971254]</t>
+          <t>[0.428345988702411]</t>
         </is>
       </c>
       <c r="H35" t="b">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>x1: 0.264|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.243|x9: 0.039|x10: 0.088|x11: 0.051|x12: 0.000|x13: 0.081|x14: 0.000|x15: 0.055|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.264|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.243|x9: 0.039|x10: 0.088|x11: 0.052|x12: 0.000|x13: 0.081|x14: 0.000|x15: 0.055|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[0.26427104680504193, 0.2430488619807757]</t>
+          <t>[0.2642687682569485, 0.24303178444005114]</t>
         </is>
       </c>
       <c r="H36" t="b">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>x1: 0.384|x2: 0.076|x3: 0.000|x4: 0.079|x5: 0.054|x6: 0.052|x7: 0.000|x8: 0.247|x9: 0.140|x10: 0.115|x11: 0.050|x12: 0.000|x13: 0.072|x14: 0.000|x15: 0.098|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.384|x2: 0.076|x3: 0.000|x4: 0.079|x5: 0.053|x6: 0.052|x7: 0.000|x8: 0.247|x9: 0.140|x10: 0.115|x11: 0.050|x12: 0.000|x13: 0.072|x14: 0.000|x15: 0.098|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[0.38423501970447294, 0.24656346064606594]</t>
+          <t>[0.384127579688121, 0.2466298076266772]</t>
         </is>
       </c>
       <c r="H38" t="b">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[0.3111919631679665]</t>
+          <t>[0.31119801574220746]</t>
         </is>
       </c>
       <c r="H40" t="b">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[0.3037770867728163]</t>
+          <t>[0.3037379307267702]</t>
         </is>
       </c>
       <c r="H41" t="b">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>x1: 0.184|x2: 0.200|x3: 0.112|x4: 0.054|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.124|x9: 0.038|x10: 0.046|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.084|x17: 0.000</t>
+          <t>x1: 0.185|x2: 0.200|x3: 0.112|x4: 0.054|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.124|x9: 0.038|x10: 0.046|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.084|x17: 0.000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[0.20026516843970926]</t>
+          <t>[0.2004099734698773]</t>
         </is>
       </c>
       <c r="H42" t="b">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>x1: 0.061|x2: 0.228|x3: 0.000|x4: 0.098|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.064|x9: 0.000|x10: 0.043|x11: 0.000|x12: 0.062|x13: 0.000|x14: 0.084|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.062|x2: 0.228|x3: 0.000|x4: 0.098|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.065|x9: 0.000|x10: 0.043|x11: 0.000|x12: 0.062|x13: 0.000|x14: 0.084|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[0.22783997966401134]</t>
+          <t>[0.22791543766775732]</t>
         </is>
       </c>
       <c r="H43" t="b">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>x1: 0.168|x2: 0.476|x3: 0.110|x4: 0.000|x5: 0.059|x6: 0.000|x7: 0.000|x8: 0.177|x9: 0.000|x10: 0.162|x11: 0.000|x12: 0.071|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.152|x17: 0.000</t>
+          <t>x1: 0.168|x2: 0.475|x3: 0.110|x4: 0.000|x5: 0.059|x6: 0.000|x7: 0.000|x8: 0.177|x9: 0.000|x10: 0.162|x11: 0.000|x12: 0.071|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.152|x17: 0.000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[0.4755411729762378]</t>
+          <t>[0.4754895885005991]</t>
         </is>
       </c>
       <c r="H44" t="b">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[0.492952769548758]</t>
+          <t>[0.49304692163498837]</t>
         </is>
       </c>
       <c r="H45" t="b">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>x1: 0.255|x2: 0.260|x3: 0.000|x4: 0.050|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.148|x9: 0.000|x10: 0.094|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.048|x17: 0.000</t>
+          <t>x1: 0.255|x2: 0.260|x3: 0.000|x4: 0.050|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.149|x9: 0.000|x10: 0.094|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.048|x17: 0.000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[0.2598285186830031, 0.2549839600139829]</t>
+          <t>[0.2597845453816983, 0.25493921245724865]</t>
         </is>
       </c>
       <c r="H46" t="b">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>x1: 0.101|x2: 0.469|x3: 0.119|x4: 0.130|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.065|x9: 0.000|x10: 0.134|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.080|x15: 0.000|x16: 0.147|x17: 0.000</t>
+          <t>x1: 0.101|x2: 0.469|x3: 0.118|x4: 0.130|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.065|x9: 0.000|x10: 0.134|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.080|x15: 0.000|x16: 0.147|x17: 0.000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[0.4694007858820832]</t>
+          <t>[0.4693620914896191]</t>
         </is>
       </c>
       <c r="H49" t="b">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.4639251414310285, 0.20070608330722106]</t>
+          <t>[0.46385985656231243, 0.20067966978379412]</t>
         </is>
       </c>
       <c r="H50" t="b">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.5467292788925979]</t>
+          <t>[0.5468302630146]</t>
         </is>
       </c>
       <c r="H51" t="b">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>x1: 0.148|x2: 0.387|x3: 0.193|x4: 0.054|x5: 0.068|x6: 0.037|x7: 0.000|x8: 0.106|x9: 0.000|x10: 0.130|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.043|x15: 0.066|x16: 0.147|x17: 0.000</t>
+          <t>x1: 0.148|x2: 0.387|x3: 0.193|x4: 0.054|x5: 0.068|x6: 0.037|x7: 0.000|x8: 0.106|x9: 0.000|x10: 0.131|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.043|x15: 0.066|x16: 0.147|x17: 0.000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.387309024000928]</t>
+          <t>[0.3874035361654819]</t>
         </is>
       </c>
       <c r="H52" t="b">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[0.41561490274016666]</t>
+          <t>[0.41557311435185196]</t>
         </is>
       </c>
       <c r="H53" t="b">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[0.41122792662549235]</t>
+          <t>[0.4111835891533908]</t>
         </is>
       </c>
       <c r="H54" t="b">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>x1: 0.122|x2: 0.419|x3: 0.050|x4: 0.000|x5: 0.048|x6: 0.000|x7: 0.000|x8: 0.062|x9: 0.042|x10: 0.174|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.101|x15: 0.000|x16: 0.067|x17: 0.000</t>
+          <t>x1: 0.122|x2: 0.420|x3: 0.050|x4: 0.000|x5: 0.048|x6: 0.000|x7: 0.000|x8: 0.062|x9: 0.042|x10: 0.174|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.101|x15: 0.000|x16: 0.068|x17: 0.000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[0.4194511634163155]</t>
+          <t>[0.41957021897658636]</t>
         </is>
       </c>
       <c r="H55" t="b">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>x1: 0.204|x2: 0.398|x3: 0.083|x4: 0.048|x5: 0.045|x6: 0.092|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.153|x11: 0.061|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.127|x17: 0.000</t>
+          <t>x1: 0.204|x2: 0.397|x3: 0.083|x4: 0.048|x5: 0.045|x6: 0.092|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.153|x11: 0.061|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.127|x17: 0.000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[0.39753368768916486, 0.20364524627351388]</t>
+          <t>[0.39748321801395164, 0.2035282582936529]</t>
         </is>
       </c>
       <c r="H56" t="b">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[0.36609005066438577]</t>
+          <t>[0.36608638372719116]</t>
         </is>
       </c>
       <c r="H57" t="b">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>x1: 0.055|x2: 0.350|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.104|x9: 0.090|x10: 0.229|x11: 0.000|x12: 0.057|x13: 0.039|x14: 0.082|x15: 0.000|x16: 0.115|x17: 0.000</t>
+          <t>x1: 0.055|x2: 0.351|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.104|x9: 0.090|x10: 0.229|x11: 0.000|x12: 0.057|x13: 0.039|x14: 0.082|x15: 0.000|x16: 0.115|x17: 0.000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[0.35049057352533747, 0.2287106716833459]</t>
+          <t>[0.3505125252612707, 0.2287233299012185]</t>
         </is>
       </c>
       <c r="H58" t="b">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[0.48746239802092883, 0.2208216209318251]</t>
+          <t>[0.4873547185715517, 0.22073032992508335]</t>
         </is>
       </c>
       <c r="H59" t="b">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[0.33909552962666945]</t>
+          <t>[0.3391618184116184]</t>
         </is>
       </c>
       <c r="H60" t="b">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[0.32085707333066504]</t>
+          <t>[0.32088694114943034]</t>
         </is>
       </c>
       <c r="H61" t="b">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[0.40920471401968433]</t>
+          <t>[0.40911629913566255]</t>
         </is>
       </c>
       <c r="H62" t="b">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[0.4667446898788052]</t>
+          <t>[0.4666012681757582]</t>
         </is>
       </c>
       <c r="H63" t="b">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>x1: 0.118|x2: 0.170|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.056|x7: 0.096|x8: 0.000|x9: 0.000|x10: 0.090|x11: 0.000|x12: 0.047|x13: 0.068|x14: 0.117|x15: 0.057|x16: 0.058|x17: 0.000</t>
+          <t>x1: 0.118|x2: 0.171|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.056|x7: 0.096|x8: 0.000|x9: 0.000|x10: 0.090|x11: 0.000|x12: 0.047|x13: 0.068|x14: 0.117|x15: 0.057|x16: 0.058|x17: 0.000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[0.4230830897934245, 0.20417270959863798]</t>
+          <t>[0.4231356638567777, 0.20422692128182665]</t>
         </is>
       </c>
       <c r="H65" t="b">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>x1: 0.198|x2: 0.401|x3: 0.068|x4: 0.056|x5: 0.049|x6: 0.063|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.154|x11: 0.103|x12: 0.000|x13: 0.000|x14: 0.055|x15: 0.000|x16: 0.112|x17: 0.000</t>
+          <t>x1: 0.199|x2: 0.401|x3: 0.068|x4: 0.056|x5: 0.049|x6: 0.063|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.154|x11: 0.103|x12: 0.000|x13: 0.000|x14: 0.055|x15: 0.000|x16: 0.112|x17: 0.000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[0.4009200973413803]</t>
+          <t>[0.40099189983756517]</t>
         </is>
       </c>
       <c r="H66" t="b">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.363|x3: 0.000|x4: 0.000|x5: 0.065|x6: 0.000|x7: 0.000|x8: 0.109|x9: 0.067|x10: 0.102|x11: 0.000|x12: 0.000|x13: 0.098|x14: 0.068|x15: 0.114|x16: 0.111|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.363|x3: 0.000|x4: 0.000|x5: 0.065|x6: 0.000|x7: 0.000|x8: 0.109|x9: 0.067|x10: 0.102|x11: 0.000|x12: 0.000|x13: 0.097|x14: 0.068|x15: 0.114|x16: 0.111|x17: 0.000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[0.3632910262370255]</t>
+          <t>[0.36319626412440564]</t>
         </is>
       </c>
       <c r="H67" t="b">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[0.31922428114880186]</t>
+          <t>[0.31923176453379093]</t>
         </is>
       </c>
       <c r="H68" t="b">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[0.4122047829152417]</t>
+          <t>[0.4122006677829166]</t>
         </is>
       </c>
       <c r="H69" t="b">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[0.4601153883294715]</t>
+          <t>[0.46034299505438797]</t>
         </is>
       </c>
       <c r="H70" t="b">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[0.41140773042045115]</t>
+          <t>[0.41129712628275317]</t>
         </is>
       </c>
       <c r="H71" t="b">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[0.47128524646619996, 0.21273535155136022]</t>
+          <t>[0.4713380574376537, 0.21273746334809882]</t>
         </is>
       </c>
       <c r="H72" t="b">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[0.5208608691551903, 0.20068362103431991]</t>
+          <t>[0.5207323114241487, 0.20070695213183481]</t>
         </is>
       </c>
       <c r="H73" t="b">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[0.4776289871255634]</t>
+          <t>[0.4776892271858461]</t>
         </is>
       </c>
       <c r="H74" t="b">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[0.4212003136340293, 0.21116089165773327]</t>
+          <t>[0.42117165184224387, 0.2111256654334844]</t>
         </is>
       </c>
       <c r="H75" t="b">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[0.3218613278611838, 0.2607505900197116]</t>
+          <t>[0.32189800806955643, 0.26081290475459734]</t>
         </is>
       </c>
       <c r="H76" t="b">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[0.32926125577598464]</t>
+          <t>[0.3292245352786112]</t>
         </is>
       </c>
       <c r="H77" t="b">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[0.34840305171347513]</t>
+          <t>[0.34833583078782976]</t>
         </is>
       </c>
       <c r="H78" t="b">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>x1: 0.331|x2: 0.343|x3: 0.000|x4: 0.129|x5: 0.108|x6: 0.000|x7: 0.000|x8: 0.103|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.150|x14: 0.000|x15: 0.099|x16: 0.261|x17: 0.000</t>
+          <t>x1: 0.330|x2: 0.343|x3: 0.000|x4: 0.129|x5: 0.108|x6: 0.000|x7: 0.000|x8: 0.103|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.150|x14: 0.000|x15: 0.099|x16: 0.261|x17: 0.000</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[0.3433074053602371, 0.3305614831062058, 0.2609028515812229]</t>
+          <t>[0.3431929972708882, 0.33044377042371087, 0.26087657293058514]</t>
         </is>
       </c>
       <c r="H79" t="b">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.395|x3: 0.167|x4: 0.000|x5: 0.000|x6: 0.084|x7: 0.051|x8: 0.000|x9: 0.000|x10: 0.232|x11: 0.000|x12: 0.000|x13: 0.081|x14: 0.000|x15: 0.000|x16: 0.143|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.395|x3: 0.167|x4: 0.000|x5: 0.000|x6: 0.084|x7: 0.051|x8: 0.000|x9: 0.000|x10: 0.232|x11: 0.000|x12: 0.000|x13: 0.081|x14: 0.000|x15: 0.000|x16: 0.142|x17: 0.000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[0.39462364512932874, 0.23204395571643008]</t>
+          <t>[0.3945182435730734, 0.23203344560962388]</t>
         </is>
       </c>
       <c r="H80" t="b">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[0.42843650186220295]</t>
+          <t>[0.42829729254197585]</t>
         </is>
       </c>
       <c r="H81" t="b">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>x1: 0.076|x2: 0.462|x3: 0.108|x4: 0.000|x5: 0.000|x6: 0.074|x7: 0.000|x8: 0.191|x9: 0.117|x10: 0.228|x11: 0.000|x12: 0.000|x13: 0.085|x14: 0.131|x15: 0.126|x16: 0.161|x17: 0.000</t>
+          <t>x1: 0.076|x2: 0.462|x3: 0.108|x4: 0.000|x5: 0.000|x6: 0.074|x7: 0.000|x8: 0.191|x9: 0.117|x10: 0.229|x11: 0.000|x12: 0.000|x13: 0.085|x14: 0.131|x15: 0.126|x16: 0.161|x17: 0.000</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[0.4621987883911428, 0.22849891036881004]</t>
+          <t>[0.46210090301328516, 0.22854429845107618]</t>
         </is>
       </c>
       <c r="H82" t="b">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[0.46239776970171487]</t>
+          <t>[0.46234054328679663]</t>
         </is>
       </c>
       <c r="H83" t="b">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[0.39871163280434974]</t>
+          <t>[0.3986717858237393]</t>
         </is>
       </c>
       <c r="H84" t="b">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.302|x4: 0.000|x5: 0.058|x6: 0.160|x7: 0.241|x8: 0.000|x9: 0.074|x10: 0.067|x11: 0.064|x12: 0.081|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.302|x4: 0.000|x5: 0.058|x6: 0.160|x7: 0.241|x8: 0.000|x9: 0.074|x10: 0.067|x11: 0.064|x12: 0.080|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[0.30185968388088535, 0.24149034616612863]</t>
+          <t>[0.30185536627435616, 0.24146808310253223]</t>
         </is>
       </c>
       <c r="H85" t="b">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>x1: 0.211|x2: 0.105|x3: 0.296|x4: 0.094|x5: 0.153|x6: 0.000|x7: 0.000|x8: 0.206|x9: 0.078|x10: 0.146|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.183|x17: 0.000</t>
+          <t>x1: 0.211|x2: 0.105|x3: 0.296|x4: 0.094|x5: 0.153|x6: 0.000|x7: 0.000|x8: 0.205|x9: 0.078|x10: 0.145|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.183|x17: 0.000</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[0.296205662434573, 0.2107519467589916, 0.20556820933041442]</t>
+          <t>[0.29627249698767866, 0.2108474818704726, 0.20547754381737368]</t>
         </is>
       </c>
       <c r="H86" t="b">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[0.3127876569069644]</t>
+          <t>[0.3127765555611119]</t>
         </is>
       </c>
       <c r="H87" t="b">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.453|x4: 0.000|x5: 0.000|x6: 0.186|x7: 0.000|x8: 0.096|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.049|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.076|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.453|x4: 0.000|x5: 0.000|x6: 0.186|x7: 0.000|x8: 0.096|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.049|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.077|x17: 0.000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[0.4528896466332135]</t>
+          <t>[0.4528636398338082]</t>
         </is>
       </c>
       <c r="H89" t="b">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[0.2743418999886849]</t>
+          <t>[0.2744224068446665]</t>
         </is>
       </c>
       <c r="H90" t="b">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[0.28804531571139536]</t>
+          <t>[0.28795340745320314]</t>
         </is>
       </c>
       <c r="H91" t="b">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[0.26756456206851775]</t>
+          <t>[0.2675790702802449]</t>
         </is>
       </c>
       <c r="H92" t="b">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[0.2728129997232875]</t>
+          <t>[0.2728002184206168]</t>
         </is>
       </c>
       <c r="H93" t="b">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[0.31737106287024713]</t>
+          <t>[0.3172852172082663]</t>
         </is>
       </c>
       <c r="H94" t="b">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[0.4083234912370744]</t>
+          <t>[0.4081948271332222]</t>
         </is>
       </c>
       <c r="H95" t="b">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[0.3380915057276419, 0.20279050982768185]</t>
+          <t>[0.3381489384103068, 0.2028491693425526]</t>
         </is>
       </c>
       <c r="H96" t="b">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.076|x3: 0.341|x4: 0.000|x5: 0.058|x6: 0.000|x7: 0.000|x8: 0.142|x9: 0.060|x10: 0.054|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.048|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.076|x3: 0.341|x4: 0.000|x5: 0.058|x6: 0.000|x7: 0.000|x8: 0.142|x9: 0.061|x10: 0.054|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.049|x17: 0.000</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[0.34066376218621364]</t>
+          <t>[0.34093125344679565]</t>
         </is>
       </c>
       <c r="H97" t="b">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.063|x3: 0.435|x4: 0.066|x5: 0.134|x6: 0.191|x7: 0.106|x8: 0.050|x9: 0.084|x10: 0.076|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.184|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.063|x3: 0.435|x4: 0.066|x5: 0.134|x6: 0.191|x7: 0.106|x8: 0.050|x9: 0.084|x10: 0.075|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.184|x17: 0.000</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[0.43502434212323243]</t>
+          <t>[0.43504727455088865]</t>
         </is>
       </c>
       <c r="H98" t="b">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>x1: 0.160|x2: 0.073|x3: 0.417|x4: 0.000|x5: 0.111|x6: 0.073|x7: 0.050|x8: 0.120|x9: 0.042|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.097|x17: 0.000</t>
+          <t>x1: 0.160|x2: 0.074|x3: 0.417|x4: 0.000|x5: 0.111|x6: 0.073|x7: 0.050|x8: 0.120|x9: 0.042|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.097|x17: 0.000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[0.4167760999907607]</t>
+          <t>[0.4167909083064853]</t>
         </is>
       </c>
       <c r="H99" t="b">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.049|x3: 0.322|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.096|x8: 0.142|x9: 0.000|x10: 0.043|x11: 0.000|x12: 0.047|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.049|x3: 0.322|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.096|x8: 0.142|x9: 0.000|x10: 0.044|x11: 0.000|x12: 0.047|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[0.32156039782006246]</t>
+          <t>[0.3215485916902128]</t>
         </is>
       </c>
       <c r="H100" t="b">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[0.4002176005823611]</t>
+          <t>[0.4002438486338236]</t>
         </is>
       </c>
       <c r="H101" t="b">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[0.23533868377136882]</t>
+          <t>[0.23532574937948092]</t>
         </is>
       </c>
       <c r="H102" t="b">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>x1: 0.069|x2: 0.000|x3: 0.380|x4: 0.097|x5: 0.048|x6: 0.000|x7: 0.000|x8: 0.119|x9: 0.095|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.041|x17: 0.000</t>
+          <t>x1: 0.069|x2: 0.000|x3: 0.379|x4: 0.097|x5: 0.048|x6: 0.000|x7: 0.000|x8: 0.119|x9: 0.094|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.041|x17: 0.000</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[0.37955016763626837]</t>
+          <t>[0.37941850679138056]</t>
         </is>
       </c>
       <c r="H103" t="b">
@@ -4673,12 +4673,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.042|x3: 0.305|x4: 0.036|x5: 0.120|x6: 0.095|x7: 0.000|x8: 0.057|x9: 0.000|x10: 0.037|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.057|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.042|x3: 0.305|x4: 0.036|x5: 0.120|x6: 0.095|x7: 0.000|x8: 0.058|x9: 0.000|x10: 0.038|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.057|x17: 0.000</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.31]</t>
+          <t>[0.00, 0.04, 0.30]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[0.3050729907714069]</t>
+          <t>[0.30488857776021794]</t>
         </is>
       </c>
       <c r="H104" t="b">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[0.4501305415978787, 0.2714015782961555]</t>
+          <t>[0.4502082352581923, 0.2714181259795916]</t>
         </is>
       </c>
       <c r="H105" t="b">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[0.32192387580392323]</t>
+          <t>[0.3219312022768196]</t>
         </is>
       </c>
       <c r="H106" t="b">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[0.22328448666224182]</t>
+          <t>[0.22305972357519668]</t>
         </is>
       </c>
       <c r="H107" t="b">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>x1: 0.070|x2: 0.043|x3: 0.368|x4: 0.090|x5: 0.200|x6: 0.127|x7: 0.000|x8: 0.113|x9: 0.000|x10: 0.045|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.144|x17: 0.000</t>
+          <t>x1: 0.070|x2: 0.044|x3: 0.368|x4: 0.090|x5: 0.200|x6: 0.127|x7: 0.000|x8: 0.113|x9: 0.000|x10: 0.045|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.144|x17: 0.000</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[0.3675507925999727]</t>
+          <t>[0.3676527565726557]</t>
         </is>
       </c>
       <c r="H108" t="b">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>x1: 0.080|x2: 0.000|x3: 0.289|x4: 0.000|x5: 0.000|x6: 0.145|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.027|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.049|x17: 0.000</t>
+          <t>x1: 0.080|x2: 0.000|x3: 0.288|x4: 0.000|x5: 0.000|x6: 0.145|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.028|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.049|x17: 0.000</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[0.2885009640802957]</t>
+          <t>[0.28840876609100147]</t>
         </is>
       </c>
       <c r="H109" t="b">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.095|x3: 0.399|x4: 0.000|x5: 0.000|x6: 0.056|x7: 0.113|x8: 0.149|x9: 0.000|x10: 0.091|x11: 0.000|x12: 0.088|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.076|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.095|x3: 0.399|x4: 0.000|x5: 0.000|x6: 0.056|x7: 0.112|x8: 0.149|x9: 0.000|x10: 0.091|x11: 0.000|x12: 0.088|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.077|x17: 0.000</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[0.39908131951118125]</t>
+          <t>[0.399048848613066]</t>
         </is>
       </c>
       <c r="H110" t="b">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[0.4482021540157813, 0.3070300223569322]</t>
+          <t>[0.44822284939950985, 0.3069744522946]</t>
         </is>
       </c>
       <c r="H111" t="b">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[0.24589187158955317]</t>
+          <t>[0.2458849867935101]</t>
         </is>
       </c>
       <c r="H112" t="b">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[0.3711989347545197]</t>
+          <t>[0.3710501843318713]</t>
         </is>
       </c>
       <c r="H113" t="b">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>x1: 0.053|x2: 0.000|x3: 0.310|x4: 0.082|x5: 0.205|x6: 0.069|x7: 0.000|x8: 0.048|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.142|x17: 0.000</t>
+          <t>x1: 0.053|x2: 0.000|x3: 0.309|x4: 0.082|x5: 0.205|x6: 0.069|x7: 0.000|x8: 0.048|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.142|x17: 0.000</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[0.3095500623128711, 0.20537376299723067]</t>
+          <t>[0.3094662056607413, 0.20527206991095193]</t>
         </is>
       </c>
       <c r="H114" t="b">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[0.24062034532648738]</t>
+          <t>[0.2407902588526528]</t>
         </is>
       </c>
       <c r="H115" t="b">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.062|x3: 0.510|x4: 0.080|x5: 0.097|x6: 0.219|x7: 0.141|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.101|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.063|x3: 0.510|x4: 0.080|x5: 0.097|x6: 0.219|x7: 0.141|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.101|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[0.5103928663370847, 0.21865964876577557]</t>
+          <t>[0.5104850180342558, 0.21860750489233127]</t>
         </is>
       </c>
       <c r="H116" t="b">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[0.3423801443568579]</t>
+          <t>[0.34237484276898683]</t>
         </is>
       </c>
       <c r="H117" t="b">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[0.3170340836580198]</t>
+          <t>[0.3170055149269922]</t>
         </is>
       </c>
       <c r="H118" t="b">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[0.27845144126954147]</t>
+          <t>[0.27830390818357265]</t>
         </is>
       </c>
       <c r="H119" t="b">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>x1: 0.041|x2: 0.000|x3: 0.296|x4: 0.000|x5: 0.043|x6: 0.114|x7: 0.041|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.076|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.142|x17: 0.000</t>
+          <t>x1: 0.041|x2: 0.000|x3: 0.296|x4: 0.000|x5: 0.043|x6: 0.114|x7: 0.041|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.076|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.143|x17: 0.000</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[0.295869033944675]</t>
+          <t>[0.29588501515910043]</t>
         </is>
       </c>
       <c r="H120" t="b">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[0.2581683647989931]</t>
+          <t>[0.2581459746361252]</t>
         </is>
       </c>
       <c r="H121" t="b">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[0.3539692073846905, 0.2001694255557058]</t>
+          <t>[0.35393889537005435, 0.20020047900299276]</t>
         </is>
       </c>
       <c r="H122" t="b">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[0.3580290134991352, 0.2144186602650522]</t>
+          <t>[0.3579797596625399, 0.21441304863421348]</t>
         </is>
       </c>
       <c r="H123" t="b">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>x1: 0.075|x2: 0.000|x3: 0.160|x4: 0.000|x5: 0.000|x6: 0.029|x7: 0.058|x8: 0.083|x9: 0.065|x10: 0.048|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.075|x2: 0.000|x3: 0.160|x4: 0.000|x5: 0.000|x6: 0.030|x7: 0.058|x8: 0.083|x9: 0.065|x10: 0.048|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[0.2587912863592851]</t>
+          <t>[0.25871932020413846]</t>
         </is>
       </c>
       <c r="H125" t="b">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[0.27508607346254527]</t>
+          <t>[0.27521837507198477]</t>
         </is>
       </c>
       <c r="H127" t="b">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.40]</t>
+          <t>[0.00, 0.07, 0.39]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[0.3950535091566559]</t>
+          <t>[0.3949390701207768]</t>
         </is>
       </c>
       <c r="H128" t="b">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[0.39906368130761194, 0.2174099032269208]</t>
+          <t>[0.39908006502146975, 0.21744161605070683]</t>
         </is>
       </c>
       <c r="H129" t="b">
@@ -5739,7 +5739,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.108|x3: 0.388|x4: 0.000|x5: 0.000|x6: 0.193|x7: 0.099|x8: 0.159|x9: 0.000|x10: 0.110|x11: 0.000|x12: 0.127|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.174|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.108|x3: 0.388|x4: 0.000|x5: 0.000|x6: 0.193|x7: 0.099|x8: 0.159|x9: 0.000|x10: 0.109|x11: 0.000|x12: 0.126|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.174|x17: 0.000</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[0.387785197483782]</t>
+          <t>[0.38779573110106325]</t>
         </is>
       </c>
       <c r="H130" t="b">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[0.251617947778398]</t>
+          <t>[0.25158061602555337]</t>
         </is>
       </c>
       <c r="H131" t="b">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.089|x3: 0.389|x4: 0.112|x5: 0.000|x6: 0.126|x7: 0.178|x8: 0.132|x9: 0.116|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.099|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.089|x3: 0.389|x4: 0.112|x5: 0.000|x6: 0.125|x7: 0.178|x8: 0.132|x9: 0.116|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.099|x17: 0.000</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[0.38892589188438004]</t>
+          <t>[0.38884095923182743]</t>
         </is>
       </c>
       <c r="H132" t="b">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[0.3852430149668056]</t>
+          <t>[0.38532207163007465]</t>
         </is>
       </c>
       <c r="H133" t="b">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>x1: 0.087|x2: 0.000|x3: 0.238|x4: 0.043|x5: 0.098|x6: 0.047|x7: 0.000|x8: 0.058|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
+          <t>x1: 0.087|x2: 0.000|x3: 0.238|x4: 0.043|x5: 0.097|x6: 0.047|x7: 0.000|x8: 0.058|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[0.23794892188942135]</t>
+          <t>[0.2376809150288307]</t>
         </is>
       </c>
       <c r="H134" t="b">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.052|x3: 0.394|x4: 0.000|x5: 0.128|x6: 0.196|x7: 0.000|x8: 0.049|x9: 0.000|x10: 0.047|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.145|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.052|x3: 0.395|x4: 0.000|x5: 0.128|x6: 0.197|x7: 0.000|x8: 0.049|x9: 0.000|x10: 0.047|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.145|x17: 0.000</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[0.39435615956661685]</t>
+          <t>[0.3945011204104024]</t>
         </is>
       </c>
       <c r="H135" t="b">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[0.41496288236472695]</t>
+          <t>[0.41484537516145975]</t>
         </is>
       </c>
       <c r="H136" t="b">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[0.41208378558554154]</t>
+          <t>[0.412234709835563]</t>
         </is>
       </c>
       <c r="H137" t="b">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[0.31086854507295786]</t>
+          <t>[0.31098465637554473]</t>
         </is>
       </c>
       <c r="H138" t="b">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[0.3949917040250918]</t>
+          <t>[0.39490943091188563]</t>
         </is>
       </c>
       <c r="H139" t="b">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[0.2916615709603133]</t>
+          <t>[0.2918433672658594]</t>
         </is>
       </c>
       <c r="H140" t="b">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[0.4042063765024712, 0.28090455914631374]</t>
+          <t>[0.40428965490480573, 0.2809607743844603]</t>
         </is>
       </c>
       <c r="H141" t="b">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[0.3877502323832268]</t>
+          <t>[0.3877225125111289]</t>
         </is>
       </c>
       <c r="H142" t="b">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[0.43106221750053275]</t>
+          <t>[0.4311841425466159]</t>
         </is>
       </c>
       <c r="H143" t="b">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[0.3361456428479888, 0.20472091449142038]</t>
+          <t>[0.3361961566994337, 0.20462936270138854]</t>
         </is>
       </c>
       <c r="H144" t="b">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[0.3815767176995786]</t>
+          <t>[0.38151865547018926]</t>
         </is>
       </c>
       <c r="H145" t="b">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[0.43212419023960774]</t>
+          <t>[0.43191395424948775]</t>
         </is>
       </c>
       <c r="H146" t="b">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[0.465756741127267]</t>
+          <t>[0.46564140850847624]</t>
         </is>
       </c>
       <c r="H147" t="b">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.140|x3: 0.320|x4: 0.000|x5: 0.056|x6: 0.000|x7: 0.075|x8: 0.187|x9: 0.089|x10: 0.153|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.113|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.140|x3: 0.320|x4: 0.000|x5: 0.056|x6: 0.000|x7: 0.075|x8: 0.188|x9: 0.089|x10: 0.153|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.113|x17: 0.000</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[0.3202926955199921]</t>
+          <t>[0.32036164507869513]</t>
         </is>
       </c>
       <c r="H148" t="b">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[0.510847063068952, 0.3111755537041523]</t>
+          <t>[0.5109871025502812, 0.31125326560491495]</t>
         </is>
       </c>
       <c r="H149" t="b">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.345|x4: 0.000|x5: 0.000|x6: 0.066|x7: 0.000|x8: 0.066|x9: 0.000|x10: 0.056|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.037|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.345|x4: 0.000|x5: 0.000|x6: 0.065|x7: 0.000|x8: 0.066|x9: 0.000|x10: 0.056|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.037|x17: 0.000</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[0.3452612345303363]</t>
+          <t>[0.34529804152798094]</t>
         </is>
       </c>
       <c r="H150" t="b">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.135|x4: 0.071|x5: 0.122|x6: 0.054|x7: 0.084|x8: 0.000|x9: 0.000|x10: 0.067|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.073|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.135|x4: 0.071|x5: 0.123|x6: 0.054|x7: 0.084|x8: 0.000|x9: 0.000|x10: 0.067|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.073|x17: 0.000</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>[0.337859337297734]</t>
+          <t>[0.3379709245258859]</t>
         </is>
       </c>
       <c r="H152" t="b">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>[0.32515502998017404]</t>
+          <t>[0.32514784038303324]</t>
         </is>
       </c>
       <c r="H153" t="b">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>[0.3787010029115273]</t>
+          <t>[0.3785012092483848]</t>
         </is>
       </c>
       <c r="H154" t="b">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>[0.44716133546521586]</t>
+          <t>[0.4472114612470747]</t>
         </is>
       </c>
       <c r="H155" t="b">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>[0.4119968586820999, 0.2039646126647057]</t>
+          <t>[0.41209850298490797, 0.20400465414907948]</t>
         </is>
       </c>
       <c r="H156" t="b">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>x1: 0.102|x2: 0.078|x3: 0.081|x4: 0.000|x5: 0.048|x6: 0.044|x7: 0.000|x8: 0.073|x9: 0.049|x10: 0.126|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.039|x16: 0.084|x17: 0.000</t>
+          <t>x1: 0.102|x2: 0.078|x3: 0.081|x4: 0.000|x5: 0.048|x6: 0.044|x7: 0.000|x8: 0.073|x9: 0.048|x10: 0.126|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.039|x16: 0.084|x17: 0.000</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>x1: 0.074|x2: 0.050|x3: 0.188|x4: 0.052|x5: 0.105|x6: 0.000|x7: 0.000|x8: 0.045|x9: 0.000|x10: 0.086|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.097|x17: 0.000</t>
+          <t>x1: 0.074|x2: 0.050|x3: 0.188|x4: 0.052|x5: 0.105|x6: 0.000|x7: 0.000|x8: 0.045|x9: 0.000|x10: 0.086|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>[0.2897900702370803]</t>
+          <t>[0.28975031581526595]</t>
         </is>
       </c>
       <c r="H159" t="b">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.045|x3: 0.285|x4: 0.111|x5: 0.137|x6: 0.000|x7: 0.000|x8: 0.049|x9: 0.071|x10: 0.124|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.109|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.045|x3: 0.285|x4: 0.111|x5: 0.137|x6: 0.000|x7: 0.000|x8: 0.049|x9: 0.071|x10: 0.124|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.108|x17: 0.000</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>[0.28464776561054167]</t>
+          <t>[0.2846034941158428]</t>
         </is>
       </c>
       <c r="H160" t="b">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>[0.3942949389950013]</t>
+          <t>[0.3943197465331854]</t>
         </is>
       </c>
       <c r="H161" t="b">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>x1: 0.087|x2: 0.096|x3: 0.307|x4: 0.063|x5: 0.069|x6: 0.111|x7: 0.000|x8: 0.095|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.067|x17: 0.000</t>
+          <t>x1: 0.087|x2: 0.096|x3: 0.307|x4: 0.063|x5: 0.069|x6: 0.111|x7: 0.000|x8: 0.094|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.067|x17: 0.000</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>[0.30719002070717477]</t>
+          <t>[0.30708980737464203]</t>
         </is>
       </c>
       <c r="H162" t="b">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>[0.4324868199456148]</t>
+          <t>[0.4324124384054674]</t>
         </is>
       </c>
       <c r="H163" t="b">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>[0.3970024040986936]</t>
+          <t>[0.3969035657532383]</t>
         </is>
       </c>
       <c r="H164" t="b">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[0.213063845123736]</t>
+          <t>[0.212982189522664]</t>
         </is>
       </c>
       <c r="H165" t="b">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>x1: 0.174|x2: 0.131|x3: 0.371|x4: 0.000|x5: 0.000|x6: 0.047|x7: 0.000|x8: 0.182|x9: 0.043|x10: 0.184|x11: 0.000|x12: 0.000|x13: 0.046|x14: 0.000|x15: 0.000|x16: 0.088|x17: 0.000</t>
+          <t>x1: 0.174|x2: 0.130|x3: 0.371|x4: 0.000|x5: 0.000|x6: 0.047|x7: 0.000|x8: 0.182|x9: 0.043|x10: 0.185|x11: 0.000|x12: 0.000|x13: 0.046|x14: 0.000|x15: 0.000|x16: 0.088|x17: 0.000</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>[0.3713637230572265]</t>
+          <t>[0.3712706097088027]</t>
         </is>
       </c>
       <c r="H166" t="b">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>x1: 0.116|x2: 0.108|x3: 0.157|x4: 0.000|x5: 0.070|x6: 0.000|x7: 0.000|x8: 0.132|x9: 0.146|x10: 0.126|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.084|x17: 0.000</t>
+          <t>x1: 0.115|x2: 0.108|x3: 0.157|x4: 0.000|x5: 0.069|x6: 0.000|x7: 0.000|x8: 0.132|x9: 0.146|x10: 0.126|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.084|x17: 0.000</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7312,7 +7312,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>[0.4480268189411819, 0.20079872330863838]</t>
+          <t>[0.44817724376147106, 0.20086325352265008]</t>
         </is>
       </c>
       <c r="H168" t="b">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.297|x4: 0.000|x5: 0.000|x6: 0.088|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.136|x13: 0.075|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.297|x4: 0.000|x5: 0.000|x6: 0.087|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.136|x13: 0.075|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>[0.29654673125762804]</t>
+          <t>[0.29660532922003663]</t>
         </is>
       </c>
       <c r="H169" t="b">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>[0.3061547615530871]</t>
+          <t>[0.3064731020363149]</t>
         </is>
       </c>
       <c r="H171" t="b">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>[0.3276359846670572]</t>
+          <t>[0.32765085498840596]</t>
         </is>
       </c>
       <c r="H172" t="b">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>x1: 0.048|x2: 0.000|x3: 0.000|x4: 0.176|x5: 0.037|x6: 0.000|x7: 0.000|x8: 0.027|x9: 0.000|x10: 0.034|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.048|x2: 0.000|x3: 0.000|x4: 0.176|x5: 0.037|x6: 0.000|x7: 0.000|x8: 0.028|x9: 0.000|x10: 0.034|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>[0.24924214366179318]</t>
+          <t>[0.2492393610878912]</t>
         </is>
       </c>
       <c r="H174" t="b">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>[0.30775669490518426]</t>
+          <t>[0.30760644707068296]</t>
         </is>
       </c>
       <c r="H175" t="b">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>x1: 0.050|x2: 0.000|x3: 0.000|x4: 0.370|x5: 0.131|x6: 0.042|x7: 0.091|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.052|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.050|x2: 0.000|x3: 0.000|x4: 0.371|x5: 0.131|x6: 0.042|x7: 0.091|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.052|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>[0.37048396734788536]</t>
+          <t>[0.3705889577021716]</t>
         </is>
       </c>
       <c r="H176" t="b">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>[0.2317843678887548]</t>
+          <t>[0.23184696896450754]</t>
         </is>
       </c>
       <c r="H177" t="b">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>[0.38239832553299924]</t>
+          <t>[0.3823625965269464]</t>
         </is>
       </c>
       <c r="H178" t="b">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>x1: 0.108|x2: 0.000|x3: 0.097|x4: 0.396|x5: 0.101|x6: 0.120|x7: 0.000|x8: 0.066|x9: 0.043|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.108|x2: 0.000|x3: 0.097|x4: 0.396|x5: 0.102|x6: 0.120|x7: 0.000|x8: 0.066|x9: 0.043|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>[0.3957630872479246]</t>
+          <t>[0.3957146237809512]</t>
         </is>
       </c>
       <c r="H179" t="b">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>[0.3828729837425913]</t>
+          <t>[0.3827708375801703]</t>
         </is>
       </c>
       <c r="H180" t="b">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>[0.47826035948003953]</t>
+          <t>[0.4783582576371882]</t>
         </is>
       </c>
       <c r="H181" t="b">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>x1: 0.183|x2: 0.076|x3: 0.105|x4: 0.331|x5: 0.086|x6: 0.000|x7: 0.000|x8: 0.087|x9: 0.037|x10: 0.050|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.094|x17: 0.000</t>
+          <t>x1: 0.183|x2: 0.076|x3: 0.105|x4: 0.331|x5: 0.086|x6: 0.000|x7: 0.000|x8: 0.087|x9: 0.037|x10: 0.050|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.095|x17: 0.000</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>[0.33127592764641534]</t>
+          <t>[0.3312964318795093]</t>
         </is>
       </c>
       <c r="H182" t="b">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.154|x5: 0.044|x6: 0.000|x7: 0.017|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.035|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.154|x5: 0.044|x6: 0.000|x7: 0.018|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.035|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>[0.23597514193209165]</t>
+          <t>[0.2360835510145569]</t>
         </is>
       </c>
       <c r="H184" t="b">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>[0.419871881282373]</t>
+          <t>[0.41986012975873505]</t>
         </is>
       </c>
       <c r="H185" t="b">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>[0.26152206433576775]</t>
+          <t>[0.26162209158468824]</t>
         </is>
       </c>
       <c r="H186" t="b">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>[0.41966141490340586, 0.24810221262727855]</t>
+          <t>[0.4196908290796609, 0.24817786418756496]</t>
         </is>
       </c>
       <c r="H187" t="b">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>x1: 0.033|x2: 0.000|x3: 0.000|x4: 0.270|x5: 0.132|x6: 0.077|x7: 0.054|x8: 0.031|x9: 0.071|x10: 0.040|x11: 0.068|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.043|x17: 0.000</t>
+          <t>x1: 0.033|x2: 0.000|x3: 0.000|x4: 0.270|x5: 0.132|x6: 0.077|x7: 0.054|x8: 0.031|x9: 0.071|x10: 0.040|x11: 0.068|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.044|x17: 0.000</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>[0.270089604102858]</t>
+          <t>[0.2700527394645809]</t>
         </is>
       </c>
       <c r="H188" t="b">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>[0.3655199419179717]</t>
+          <t>[0.36555266326432967]</t>
         </is>
       </c>
       <c r="H189" t="b">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>[0.33040141267211587]</t>
+          <t>[0.33049489044046354]</t>
         </is>
       </c>
       <c r="H190" t="b">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>x1: 0.105|x2: 0.097|x3: 0.000|x4: 0.176|x5: 0.125|x6: 0.111|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.062|x11: 0.000|x12: 0.000|x13: 0.049|x14: 0.000|x15: 0.000|x16: 0.081|x17: 0.000</t>
+          <t>x1: 0.105|x2: 0.097|x3: 0.000|x4: 0.175|x5: 0.125|x6: 0.111|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.062|x11: 0.000|x12: 0.000|x13: 0.049|x14: 0.000|x15: 0.000|x16: 0.081|x17: 0.000</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8322,7 +8322,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>x1: 0.036|x2: 0.000|x3: 0.000|x4: 0.260|x5: 0.116|x6: 0.000|x7: 0.000|x8: 0.034|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.036|x2: 0.000|x3: 0.000|x4: 0.261|x5: 0.116|x6: 0.000|x7: 0.000|x8: 0.034|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>[0.2603846134989573]</t>
+          <t>[0.26050373055986203]</t>
         </is>
       </c>
       <c r="H193" t="b">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>[0.35154718812582975]</t>
+          <t>[0.3516581695698394]</t>
         </is>
       </c>
       <c r="H194" t="b">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>[0.4355508777551586]</t>
+          <t>[0.43562055464782673]</t>
         </is>
       </c>
       <c r="H195" t="b">
@@ -8460,7 +8460,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>[0.29204964407410583]</t>
+          <t>[0.29202697677540507]</t>
         </is>
       </c>
       <c r="H196" t="b">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>x1: 0.063|x2: 0.041|x3: 0.000|x4: 0.341|x5: 0.052|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.087|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.063|x2: 0.041|x3: 0.000|x4: 0.340|x5: 0.052|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.087|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>[0.34071147812789826]</t>
+          <t>[0.3404269807221756]</t>
         </is>
       </c>
       <c r="H197" t="b">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>x1: 0.069|x2: 0.000|x3: 0.114|x4: 0.379|x5: 0.109|x6: 0.045|x7: 0.099|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.068|x2: 0.000|x3: 0.114|x4: 0.379|x5: 0.109|x6: 0.045|x7: 0.099|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>[0.37948182486418414]</t>
+          <t>[0.37928135739772584]</t>
         </is>
       </c>
       <c r="H198" t="b">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>[0.3843676227000509]</t>
+          <t>[0.3844983798477977]</t>
         </is>
       </c>
       <c r="H199" t="b">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>[0.3327799871347971]</t>
+          <t>[0.332712807967821]</t>
         </is>
       </c>
       <c r="H200" t="b">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>x1: 0.077|x2: 0.045|x3: 0.000|x4: 0.203|x5: 0.062|x6: 0.000|x7: 0.000|x8: 0.044|x9: 0.000|x10: 0.058|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.077|x2: 0.045|x3: 0.000|x4: 0.204|x5: 0.062|x6: 0.000|x7: 0.000|x8: 0.044|x9: 0.000|x10: 0.058|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>[0.20334347627833305]</t>
+          <t>[0.20352392285837323]</t>
         </is>
       </c>
       <c r="H201" t="b">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>[0.2487443355263502]</t>
+          <t>[0.2487801646795025]</t>
         </is>
       </c>
       <c r="H202" t="b">
@@ -8732,7 +8732,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>x1: 0.082|x2: 0.000|x3: 0.079|x4: 0.306|x5: 0.107|x6: 0.100|x7: 0.000|x8: 0.113|x9: 0.073|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.066|x17: 0.000</t>
+          <t>x1: 0.082|x2: 0.000|x3: 0.079|x4: 0.307|x5: 0.107|x6: 0.101|x7: 0.000|x8: 0.113|x9: 0.073|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.066|x17: 0.000</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>[0.30649805600567936]</t>
+          <t>[0.3065346128070381]</t>
         </is>
       </c>
       <c r="H203" t="b">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>[0.2316188513420337]</t>
+          <t>[0.23162777842385038]</t>
         </is>
       </c>
       <c r="H204" t="b">
@@ -8829,7 +8829,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>[0.2693290973818423]</t>
+          <t>[0.26919549479410515]</t>
         </is>
       </c>
       <c r="H205" t="b">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>[0.250544111350862]</t>
+          <t>[0.2505395513553044]</t>
         </is>
       </c>
       <c r="H206" t="b">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>[0.3789021583020098]</t>
+          <t>[0.37904994867125874]</t>
         </is>
       </c>
       <c r="H207" t="b">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>[0.39723762590669176]</t>
+          <t>[0.39723835003843794]</t>
         </is>
       </c>
       <c r="H208" t="b">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>[0.2039934426727751]</t>
+          <t>[0.20390622651028875]</t>
         </is>
       </c>
       <c r="H209" t="b">
@@ -9019,7 +9019,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>x1: 0.069|x2: 0.081|x3: 0.044|x4: 0.127|x5: 0.330|x6: 0.000|x7: 0.000|x8: 0.036|x9: 0.000|x10: 0.087|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.160|x17: 0.000</t>
+          <t>x1: 0.069|x2: 0.081|x3: 0.044|x4: 0.127|x5: 0.331|x6: 0.000|x7: 0.000|x8: 0.036|x9: 0.000|x10: 0.087|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.160|x17: 0.000</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>[0.3303502461727903]</t>
+          <t>[0.3305114735398224]</t>
         </is>
       </c>
       <c r="H210" t="b">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>x1: 0.154|x2: 0.000|x3: 0.059|x4: 0.069|x5: 0.387|x6: 0.000|x7: 0.000|x8: 0.082|x9: 0.000|x10: 0.000|x11: 0.079|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.038|x16: 0.166|x17: 0.000</t>
+          <t>x1: 0.154|x2: 0.000|x3: 0.059|x4: 0.069|x5: 0.387|x6: 0.000|x7: 0.000|x8: 0.083|x9: 0.000|x10: 0.000|x11: 0.079|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.038|x16: 0.166|x17: 0.000</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>[0.3865190041225031]</t>
+          <t>[0.38672495509144555]</t>
         </is>
       </c>
       <c r="H211" t="b">
@@ -9116,7 +9116,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>[0.3653373641455742]</t>
+          <t>[0.3653503052544976]</t>
         </is>
       </c>
       <c r="H212" t="b">
@@ -9157,7 +9157,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>[0.3048289710559962]</t>
+          <t>[0.3049315929054422]</t>
         </is>
       </c>
       <c r="H213" t="b">
@@ -9198,7 +9198,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>[0.37841481080419326]</t>
+          <t>[0.3783742013385889]</t>
         </is>
       </c>
       <c r="H214" t="b">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>[0.20213871028091304, 0.20195980125300542]</t>
+          <t>[0.2021971056076936, 0.20200291937060716]</t>
         </is>
       </c>
       <c r="H215" t="b">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.060|x4: 0.099|x5: 0.291|x6: 0.110|x7: 0.250|x8: 0.000|x9: 0.000|x10: 0.077|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.062|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.060|x4: 0.099|x5: 0.291|x6: 0.110|x7: 0.250|x8: 0.000|x9: 0.000|x10: 0.078|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.062|x17: 0.000</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>[0.2910445824874239, 0.24962641842273037]</t>
+          <t>[0.291115860086563, 0.24973278596414006]</t>
         </is>
       </c>
       <c r="H217" t="b">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.093|x4: 0.107|x5: 0.328|x6: 0.073|x7: 0.060|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.046|x16: 0.120|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.093|x4: 0.107|x5: 0.327|x6: 0.073|x7: 0.060|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.046|x16: 0.120|x17: 0.000</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9362,7 +9362,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>[0.3276605993999922]</t>
+          <t>[0.3274173179904528]</t>
         </is>
       </c>
       <c r="H218" t="b">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>x1: 0.066|x2: 0.044|x3: 0.091|x4: 0.161|x5: 0.514|x6: 0.057|x7: 0.059|x8: 0.000|x9: 0.000|x10: 0.135|x11: 0.120|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.227|x17: 0.000</t>
+          <t>x1: 0.066|x2: 0.044|x3: 0.091|x4: 0.161|x5: 0.515|x6: 0.057|x7: 0.059|x8: 0.000|x9: 0.000|x10: 0.135|x11: 0.120|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.227|x17: 0.000</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>[0.5144646568868494, 0.22677898501813806]</t>
+          <t>[0.5145705285579094, 0.22688417713322304]</t>
         </is>
       </c>
       <c r="H219" t="b">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>[0.2796759317874508]</t>
+          <t>[0.2796116895528731]</t>
         </is>
       </c>
       <c r="H220" t="b">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>[0.32420956263871364]</t>
+          <t>[0.32416940681601863]</t>
         </is>
       </c>
       <c r="H221" t="b">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>[0.42992277343181323]</t>
+          <t>[0.4299869185588567]</t>
         </is>
       </c>
       <c r="H222" t="b">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>[0.4623068770688501, 0.2856523064487905]</t>
+          <t>[0.4621688743620822, 0.2855647643761309]</t>
         </is>
       </c>
       <c r="H223" t="b">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>[0.44140917685612996]</t>
+          <t>[0.4414057060896645]</t>
         </is>
       </c>
       <c r="H224" t="b">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>[0.293707583388628]</t>
+          <t>[0.29361407394041705]</t>
         </is>
       </c>
       <c r="H225" t="b">
@@ -9675,7 +9675,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.032|x4: 0.048|x5: 0.286|x6: 0.102|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.079|x11: 0.000|x12: 0.028|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.192|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.032|x4: 0.048|x5: 0.286|x6: 0.103|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.080|x11: 0.000|x12: 0.028|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.192|x17: 0.000</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>[0.2855163314795117]</t>
+          <t>[0.2856866049939497]</t>
         </is>
       </c>
       <c r="H226" t="b">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>[0.4447799249346887, 0.24327488097493383]</t>
+          <t>[0.44468558980768685, 0.24327073917298822]</t>
         </is>
       </c>
       <c r="H228" t="b">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>[0.5391767876512285, 0.2721315721820898]</t>
+          <t>[0.5392283870473044, 0.27213558634175344]</t>
         </is>
       </c>
       <c r="H229" t="b">
@@ -9854,7 +9854,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>[0.3804366329172075]</t>
+          <t>[0.38042348725573033]</t>
         </is>
       </c>
       <c r="H230" t="b">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>[0.20214795603992028]</t>
+          <t>[0.20220547555419266]</t>
         </is>
       </c>
       <c r="H231" t="b">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>[0.28138660411432737]</t>
+          <t>[0.2813715544567921]</t>
         </is>
       </c>
       <c r="H232" t="b">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>[0.34887450598666647]</t>
+          <t>[0.34882812305607935]</t>
         </is>
       </c>
       <c r="H233" t="b">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>x1: 0.041|x2: 0.000|x3: 0.000|x4: 0.052|x5: 0.172|x6: 0.036|x7: 0.101|x8: 0.063|x9: 0.000|x10: 0.050|x11: 0.061|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.072|x17: 0.000</t>
+          <t>x1: 0.041|x2: 0.000|x3: 0.000|x4: 0.052|x5: 0.172|x6: 0.036|x7: 0.101|x8: 0.063|x9: 0.000|x10: 0.050|x11: 0.061|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.073|x17: 0.000</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10044,7 +10044,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>x1: 0.026|x2: 0.000|x3: 0.032|x4: 0.032|x5: 0.129|x6: 0.000|x7: 0.020|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.021|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.068|x17: 0.000</t>
+          <t>x1: 0.026|x2: 0.000|x3: 0.031|x4: 0.032|x5: 0.129|x6: 0.000|x7: 0.020|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.021|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.068|x17: 0.000</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>[0.23873558881001733]</t>
+          <t>[0.2387380479539827]</t>
         </is>
       </c>
       <c r="H236" t="b">
@@ -10167,7 +10167,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>x1: 0.079|x2: 0.083|x3: 0.119|x4: 0.091|x5: 0.501|x6: 0.054|x7: 0.104|x8: 0.000|x9: 0.000|x10: 0.115|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.288|x17: 0.000</t>
+          <t>x1: 0.079|x2: 0.083|x3: 0.119|x4: 0.091|x5: 0.502|x6: 0.053|x7: 0.104|x8: 0.000|x9: 0.000|x10: 0.115|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.288|x17: 0.000</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>[0.5014873031834761, 0.28792924721213553]</t>
+          <t>[0.5015018321397698, 0.28800770236423334]</t>
         </is>
       </c>
       <c r="H238" t="b">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>[0.5695953756646831, 0.20606583388441593]</t>
+          <t>[0.5695409005957761, 0.20603868559472474]</t>
         </is>
       </c>
       <c r="H239" t="b">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>x1: 0.085|x2: 0.162|x3: 0.206|x4: 0.077|x5: 0.435|x6: 0.120|x7: 0.072|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.276|x17: 0.000</t>
+          <t>x1: 0.085|x2: 0.162|x3: 0.206|x4: 0.076|x5: 0.435|x6: 0.120|x7: 0.072|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.276|x17: 0.000</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>[0.4352927186443776, 0.2757501761088186, 0.20580679844986632]</t>
+          <t>[0.4351469179135104, 0.2755713059333621, 0.20572840737998516]</t>
         </is>
       </c>
       <c r="H240" t="b">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>[0.4082417167184984]</t>
+          <t>[0.40831604707819996]</t>
         </is>
       </c>
       <c r="H241" t="b">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>[0.3595090988314763]</t>
+          <t>[0.35969708706225867]</t>
         </is>
       </c>
       <c r="H242" t="b">
@@ -10372,7 +10372,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>x1: 0.047|x2: 0.000|x3: 0.071|x4: 0.090|x5: 0.442|x6: 0.080|x7: 0.078|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.180|x17: 0.000</t>
+          <t>x1: 0.048|x2: 0.000|x3: 0.071|x4: 0.090|x5: 0.442|x6: 0.080|x7: 0.078|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.180|x17: 0.000</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>[0.4419453160921259]</t>
+          <t>[0.4418449479646342]</t>
         </is>
       </c>
       <c r="H243" t="b">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>x1: 0.102|x2: 0.000|x3: 0.137|x4: 0.232|x5: 0.566|x6: 0.144|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.085|x11: 0.116|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.210|x17: 0.000</t>
+          <t>x1: 0.102|x2: 0.000|x3: 0.137|x4: 0.231|x5: 0.566|x6: 0.144|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.085|x11: 0.116|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.210|x17: 0.000</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10428,7 +10428,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>[0.5658962961669447, 0.23151901932711108, 0.2100369916981722]</t>
+          <t>[0.565735521636343, 0.2313983110051089, 0.20997238300906923]</t>
         </is>
       </c>
       <c r="H244" t="b">
@@ -10469,7 +10469,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>[0.27202436769756777]</t>
+          <t>[0.27191203094063277]</t>
         </is>
       </c>
       <c r="H245" t="b">
@@ -10510,7 +10510,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>[0.3123996259505062]</t>
+          <t>[0.31236790201352316]</t>
         </is>
       </c>
       <c r="H246" t="b">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>[0.2471093140616464]</t>
+          <t>[0.24708294319601404]</t>
         </is>
       </c>
       <c r="H247" t="b">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.043|x3: 0.083|x4: 0.073|x5: 0.347|x6: 0.065|x7: 0.000|x8: 0.069|x9: 0.000|x10: 0.101|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.044|x16: 0.165|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.044|x3: 0.083|x4: 0.073|x5: 0.347|x6: 0.064|x7: 0.000|x8: 0.069|x9: 0.000|x10: 0.101|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.044|x16: 0.165|x17: 0.000</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>[0.3467417159383776]</t>
+          <t>[0.34672161670272633]</t>
         </is>
       </c>
       <c r="H248" t="b">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>[0.25122200985746534]</t>
+          <t>[0.25127052195977706]</t>
         </is>
       </c>
       <c r="H249" t="b">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>x1: 0.091|x2: 0.000|x3: 0.112|x4: 0.079|x5: 0.380|x6: 0.102|x7: 0.000|x8: 0.088|x9: 0.000|x10: 0.116|x11: 0.000|x12: 0.106|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.196|x17: 0.000</t>
+          <t>x1: 0.091|x2: 0.000|x3: 0.112|x4: 0.079|x5: 0.380|x6: 0.102|x7: 0.000|x8: 0.088|x9: 0.000|x10: 0.116|x11: 0.000|x12: 0.105|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.196|x17: 0.000</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>[0.3797068264022319]</t>
+          <t>[0.37960826219889454]</t>
         </is>
       </c>
       <c r="H250" t="b">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>[0.27053671349448033]</t>
+          <t>[0.2705543317563257]</t>
         </is>
       </c>
       <c r="H251" t="b">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>[0.4092464284885002, 0.2291220687952939]</t>
+          <t>[0.40919571956223594, 0.2291404697386195]</t>
         </is>
       </c>
       <c r="H252" t="b">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>x1: 0.116|x2: 0.000|x3: 0.111|x4: 0.123|x5: 0.359|x6: 0.000|x7: 0.121|x8: 0.164|x9: 0.142|x10: 0.101|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.164|x17: 0.000</t>
+          <t>x1: 0.116|x2: 0.000|x3: 0.111|x4: 0.123|x5: 0.359|x6: 0.000|x7: 0.121|x8: 0.164|x9: 0.142|x10: 0.100|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.164|x17: 0.000</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -10797,7 +10797,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>[0.3591767788400635]</t>
+          <t>[0.3591931548052234]</t>
         </is>
       </c>
       <c r="H253" t="b">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>[0.20182868947124383]</t>
+          <t>[0.20170212889254305]</t>
         </is>
       </c>
       <c r="H256" t="b">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>x1: 0.097|x2: 0.000|x3: 0.081|x4: 0.000|x5: 0.000|x6: 0.377|x7: 0.060|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.122|x12: 0.000|x13: 0.036|x14: 0.000|x15: 0.082|x16: 0.052|x17: 0.000</t>
+          <t>x1: 0.097|x2: 0.000|x3: 0.081|x4: 0.000|x5: 0.000|x6: 0.376|x7: 0.060|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.122|x12: 0.000|x13: 0.036|x14: 0.000|x15: 0.082|x16: 0.052|x17: 0.000</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -11002,7 +11002,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>[0.376540208942298]</t>
+          <t>[0.3764402869082666]</t>
         </is>
       </c>
       <c r="H258" t="b">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.027|x4: 0.000|x5: 0.000|x6: 0.212|x7: 0.052|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.064|x12: 0.067|x13: 0.025|x14: 0.048|x15: 0.067|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.027|x4: 0.000|x5: 0.000|x6: 0.212|x7: 0.052|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.065|x12: 0.067|x13: 0.025|x14: 0.048|x15: 0.067|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>[0.21208302793611009]</t>
+          <t>[0.21218034610439818]</t>
         </is>
       </c>
       <c r="H259" t="b">
@@ -11069,7 +11069,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>x1: 0.099|x2: 0.000|x3: 0.166|x4: 0.000|x5: 0.000|x6: 0.408|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.059|x11: 0.078|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.114|x17: 0.000</t>
+          <t>x1: 0.100|x2: 0.000|x3: 0.166|x4: 0.000|x5: 0.000|x6: 0.408|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.059|x11: 0.078|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.114|x17: 0.000</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>[0.4076482712309542]</t>
+          <t>[0.4075327901284273]</t>
         </is>
       </c>
       <c r="H260" t="b">
@@ -11125,7 +11125,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>[0.2006925191404432]</t>
+          <t>[0.20063711473241963]</t>
         </is>
       </c>
       <c r="H261" t="b">
@@ -11151,7 +11151,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.069|x6: 0.199|x7: 0.120|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.045|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.059|x16: 0.039|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.069|x6: 0.199|x7: 0.120|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.045|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.058|x16: 0.039|x17: 0.000</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>[0.35180095152245605]</t>
+          <t>[0.3519104919593586]</t>
         </is>
       </c>
       <c r="H263" t="b">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>x1: 0.034|x2: 0.000|x3: 0.039|x4: 0.079|x5: 0.086|x6: 0.295|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.065|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.056|x16: 0.053|x17: 0.000</t>
+          <t>x1: 0.034|x2: 0.000|x3: 0.039|x4: 0.079|x5: 0.086|x6: 0.296|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.065|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.056|x16: 0.053|x17: 0.000</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -11248,7 +11248,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>[0.29543121237306885]</t>
+          <t>[0.29551515730708255]</t>
         </is>
       </c>
       <c r="H264" t="b">
@@ -11289,7 +11289,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>[0.4069380025093165]</t>
+          <t>[0.40704570160462783]</t>
         </is>
       </c>
       <c r="H265" t="b">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>[0.23180491926848415]</t>
+          <t>[0.2316624721026536]</t>
         </is>
       </c>
       <c r="H266" t="b">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>[0.46932070744667126]</t>
+          <t>[0.4691706216503829]</t>
         </is>
       </c>
       <c r="H267" t="b">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>[0.34685813316952707]</t>
+          <t>[0.3469259850611671]</t>
         </is>
       </c>
       <c r="H268" t="b">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>[0.24760134249101803]</t>
+          <t>[0.2478634255541723]</t>
         </is>
       </c>
       <c r="H269" t="b">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>[0.3580099381861368, 0.21763313431098066]</t>
+          <t>[0.3580121352325293, 0.21759578283941985]</t>
         </is>
       </c>
       <c r="H270" t="b">
@@ -11520,7 +11520,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>x1: 0.055|x2: 0.000|x3: 0.064|x4: 0.000|x5: 0.000|x6: 0.393|x7: 0.181|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.101|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.078|x17: 0.000</t>
+          <t>x1: 0.054|x2: 0.000|x3: 0.064|x4: 0.000|x5: 0.000|x6: 0.393|x7: 0.181|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.101|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.078|x17: 0.000</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -11535,7 +11535,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>[0.3932138907363452]</t>
+          <t>[0.3933275192280741]</t>
         </is>
       </c>
       <c r="H271" t="b">
@@ -11617,7 +11617,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>[0.24219464871643276]</t>
+          <t>[0.2421069278538308]</t>
         </is>
       </c>
       <c r="H273" t="b">
@@ -11684,7 +11684,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.038|x5: 0.000|x6: 0.322|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.067|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.041|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.038|x5: 0.000|x6: 0.321|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.067|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.041|x17: 0.000</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>[0.32151173614094236]</t>
+          <t>[0.3214172339728797]</t>
         </is>
       </c>
       <c r="H275" t="b">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>[0.2449126464499959]</t>
+          <t>[0.24484128985832343]</t>
         </is>
       </c>
       <c r="H276" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>[0.21326232665623768]</t>
+          <t>[0.21310402595329003]</t>
         </is>
       </c>
       <c r="H277" t="b">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.066|x6: 0.348|x7: 0.146|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.092|x12: 0.050|x13: 0.051|x14: 0.000|x15: 0.000|x16: 0.044|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.066|x6: 0.347|x7: 0.146|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.091|x12: 0.050|x13: 0.051|x14: 0.000|x15: 0.000|x16: 0.044|x17: 0.000</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>[0.3475005507562481]</t>
+          <t>[0.34741840103766]</t>
         </is>
       </c>
       <c r="H279" t="b">
@@ -11904,7 +11904,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>[0.37375205393335936]</t>
+          <t>[0.3737928833713805]</t>
         </is>
       </c>
       <c r="H280" t="b">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>[0.21684368010284918]</t>
+          <t>[0.21663939839607116]</t>
         </is>
       </c>
       <c r="H281" t="b">
@@ -11986,7 +11986,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>[0.5028158083312284]</t>
+          <t>[0.5030844098995677]</t>
         </is>
       </c>
       <c r="H282" t="b">
@@ -12027,7 +12027,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>[0.2706851541020371]</t>
+          <t>[0.2707327710760077]</t>
         </is>
       </c>
       <c r="H283" t="b">
@@ -12068,7 +12068,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>[0.3568258899939817]</t>
+          <t>[0.3568592985519999]</t>
         </is>
       </c>
       <c r="H284" t="b">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>[0.400086182964977]</t>
+          <t>[0.4001802447532301]</t>
         </is>
       </c>
       <c r="H285" t="b">
@@ -12150,7 +12150,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>[0.4122156806147048]</t>
+          <t>[0.41195197681390194]</t>
         </is>
       </c>
       <c r="H286" t="b">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.105|x4: 0.000|x5: 0.074|x6: 0.414|x7: 0.194|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.066|x12: 0.000|x13: 0.053|x14: 0.000|x15: 0.087|x16: 0.071|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.105|x4: 0.000|x5: 0.074|x6: 0.414|x7: 0.195|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.066|x12: 0.000|x13: 0.053|x14: 0.000|x15: 0.087|x16: 0.071|x17: 0.000</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>[0.4138767135706619]</t>
+          <t>[0.4139189272682804]</t>
         </is>
       </c>
       <c r="H287" t="b">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>[0.4622030050928494]</t>
+          <t>[0.46207374247297284]</t>
         </is>
       </c>
       <c r="H289" t="b">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.247|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.058|x12: 0.079|x13: 0.000|x14: 0.092|x15: 0.106|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.248|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.058|x12: 0.079|x13: 0.000|x14: 0.092|x15: 0.106|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>[0.24749531638075245]</t>
+          <t>[0.2476213610573658]</t>
         </is>
       </c>
       <c r="H290" t="b">
@@ -12340,7 +12340,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.134|x7: 0.130|x8: 0.000|x9: 0.000|x10: 0.045|x11: 0.000|x12: 0.066|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.113|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.134|x7: 0.130|x8: 0.000|x9: 0.000|x10: 0.045|x11: 0.000|x12: 0.065|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.113|x17: 0.000</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.054|x4: 0.000|x5: 0.079|x6: 0.337|x7: 0.084|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.103|x12: 0.135|x13: 0.126|x14: 0.204|x15: 0.300|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.054|x4: 0.000|x5: 0.079|x6: 0.337|x7: 0.083|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.103|x12: 0.135|x13: 0.126|x14: 0.204|x15: 0.300|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>[0.33669040005810646, 0.30007029348367464, 0.2040492456468562]</t>
+          <t>[0.3366630326033758, 0.30006972647410574, 0.20401972710432523]</t>
         </is>
       </c>
       <c r="H292" t="b">
@@ -12437,7 +12437,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>[0.20605467129824936]</t>
+          <t>[0.2060776759869173]</t>
         </is>
       </c>
       <c r="H293" t="b">
@@ -12478,7 +12478,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>[0.2757870315562313]</t>
+          <t>[0.2758192955042391]</t>
         </is>
       </c>
       <c r="H294" t="b">
@@ -12519,7 +12519,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>[0.21368355595079433]</t>
+          <t>[0.21359913018193033]</t>
         </is>
       </c>
       <c r="H295" t="b">
@@ -12545,7 +12545,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.064|x7: 0.353|x8: 0.000|x9: 0.113|x10: 0.000|x11: 0.069|x12: 0.046|x13: 0.037|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.064|x7: 0.352|x8: 0.000|x9: 0.113|x10: 0.000|x11: 0.069|x12: 0.046|x13: 0.037|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -12560,7 +12560,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>[0.3525716240041234]</t>
+          <t>[0.3524719331189627]</t>
         </is>
       </c>
       <c r="H296" t="b">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>[0.3823597044042169]</t>
+          <t>[0.3823086197346913]</t>
         </is>
       </c>
       <c r="H297" t="b">
@@ -12642,7 +12642,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>[0.27167277786080024]</t>
+          <t>[0.2717742030739478]</t>
         </is>
       </c>
       <c r="H298" t="b">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>[0.389831703268749]</t>
+          <t>[0.3898256407359663]</t>
         </is>
       </c>
       <c r="H299" t="b">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>[0.46736835245180774]</t>
+          <t>[0.4672244091589683]</t>
         </is>
       </c>
       <c r="H300" t="b">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.138|x4: 0.000|x5: 0.000|x6: 0.070|x7: 0.467|x8: 0.052|x9: 0.192|x10: 0.000|x11: 0.089|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.138|x4: 0.000|x5: 0.000|x6: 0.071|x7: 0.467|x8: 0.052|x9: 0.192|x10: 0.000|x11: 0.089|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -12765,7 +12765,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>[0.4672491926763891]</t>
+          <t>[0.467322963051794]</t>
         </is>
       </c>
       <c r="H301" t="b">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.075|x4: 0.000|x5: 0.044|x6: 0.075|x7: 0.414|x8: 0.000|x9: 0.089|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.090|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.075|x4: 0.000|x5: 0.044|x6: 0.074|x7: 0.414|x8: 0.000|x9: 0.089|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.090|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -12806,7 +12806,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>[0.4137577488181927]</t>
+          <t>[0.4138643987606613]</t>
         </is>
       </c>
       <c r="H302" t="b">
@@ -12847,7 +12847,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>[0.3907588775279974]</t>
+          <t>[0.3906941811837299]</t>
         </is>
       </c>
       <c r="H303" t="b">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>[0.5285159851450403]</t>
+          <t>[0.5286318655562531]</t>
         </is>
       </c>
       <c r="H304" t="b">
@@ -12929,7 +12929,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>[0.29464944634388807]</t>
+          <t>[0.2945910352388999]</t>
         </is>
       </c>
       <c r="H305" t="b">
@@ -12970,7 +12970,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>[0.3671898311046895]</t>
+          <t>[0.36715440869344723]</t>
         </is>
       </c>
       <c r="H306" t="b">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>[0.41063431160514374]</t>
+          <t>[0.4106128891228561]</t>
         </is>
       </c>
       <c r="H307" t="b">
@@ -13037,7 +13037,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.057|x7: 0.309|x8: 0.000|x9: 0.094|x10: 0.000|x11: 0.056|x12: 0.027|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.057|x7: 0.308|x8: 0.000|x9: 0.094|x10: 0.000|x11: 0.056|x12: 0.027|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -13052,7 +13052,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>[0.3086071959764462]</t>
+          <t>[0.30843634175160906]</t>
         </is>
       </c>
       <c r="H308" t="b">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.032|x7: 0.253|x8: 0.000|x9: 0.092|x10: 0.039|x11: 0.077|x12: 0.000|x13: 0.030|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.032|x7: 0.253|x8: 0.000|x9: 0.092|x10: 0.040|x11: 0.077|x12: 0.000|x13: 0.029|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -13093,7 +13093,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>[0.2530912783988506]</t>
+          <t>[0.25311311827569843]</t>
         </is>
       </c>
       <c r="H309" t="b">
@@ -13134,7 +13134,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>[0.2835909221112407]</t>
+          <t>[0.28361776993352855]</t>
         </is>
       </c>
       <c r="H310" t="b">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>[0.4197828353155221]</t>
+          <t>[0.4196856681516917]</t>
         </is>
       </c>
       <c r="H311" t="b">
@@ -13216,7 +13216,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>[0.62488921585232]</t>
+          <t>[0.6249696727126177]</t>
         </is>
       </c>
       <c r="H312" t="b">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.059|x4: 0.058|x5: 0.000|x6: 0.188|x7: 0.372|x8: 0.000|x9: 0.104|x10: 0.000|x11: 0.094|x12: 0.043|x13: 0.000|x14: 0.000|x15: 0.047|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.059|x4: 0.058|x5: 0.000|x6: 0.188|x7: 0.373|x8: 0.000|x9: 0.104|x10: 0.000|x11: 0.094|x12: 0.043|x13: 0.000|x14: 0.000|x15: 0.047|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -13257,7 +13257,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>[0.37249410129436855]</t>
+          <t>[0.37265961069148534]</t>
         </is>
       </c>
       <c r="H313" t="b">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.087|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.533|x8: 0.109|x9: 0.113|x10: 0.000|x11: 0.000|x12: 0.129|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.087|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.533|x8: 0.109|x9: 0.114|x10: 0.000|x11: 0.000|x12: 0.129|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>[0.533301876483163]</t>
+          <t>[0.5334127795187154]</t>
         </is>
       </c>
       <c r="H314" t="b">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>[0.38970914580356253]</t>
+          <t>[0.38983297219985563]</t>
         </is>
       </c>
       <c r="H315" t="b">
@@ -13380,7 +13380,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>[0.5503678157725093]</t>
+          <t>[0.5504890451338712]</t>
         </is>
       </c>
       <c r="H316" t="b">
@@ -13421,7 +13421,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>[0.4494856446533316]</t>
+          <t>[0.4494012684904581]</t>
         </is>
       </c>
       <c r="H317" t="b">
@@ -13462,7 +13462,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>[0.23574573208455787]</t>
+          <t>[0.23588219735035534]</t>
         </is>
       </c>
       <c r="H318" t="b">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>[0.31695175970660827]</t>
+          <t>[0.3169524594921374]</t>
         </is>
       </c>
       <c r="H319" t="b">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>[0.26957939852882673]</t>
+          <t>[0.26960482106053374]</t>
         </is>
       </c>
       <c r="H320" t="b">
@@ -13585,7 +13585,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>[0.21428528232629518]</t>
+          <t>[0.21421128661576724]</t>
         </is>
       </c>
       <c r="H321" t="b">
@@ -13667,7 +13667,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>[0.3837742175130806]</t>
+          <t>[0.3837099543090135]</t>
         </is>
       </c>
       <c r="H323" t="b">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>[0.45138186821549414, 0.21958111109784773, 0.20962974265032586]</t>
+          <t>[0.45146122748967, 0.21963787302749796, 0.20966246842954997]</t>
         </is>
       </c>
       <c r="H324" t="b">
@@ -13749,7 +13749,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>[0.3308498522061349]</t>
+          <t>[0.3308628142998114]</t>
         </is>
       </c>
       <c r="H325" t="b">
@@ -13816,12 +13816,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>x1: 0.122|x2: 0.000|x3: 0.000|x4: 0.061|x5: 0.083|x6: 0.000|x7: 0.000|x8: 0.351|x9: 0.034|x10: 0.078|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.069|x17: 0.000</t>
+          <t>x1: 0.117|x2: 0.033|x3: 0.000|x4: 0.059|x5: 0.079|x6: 0.000|x7: 0.000|x8: 0.337|x9: 0.033|x10: 0.075|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.066|x17: 0.000</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.35]</t>
+          <t>[0.00, 0.05, 0.34]</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>[0.3508006732356693]</t>
+          <t>[0.33668941216971304]</t>
         </is>
       </c>
       <c r="H327" t="b">
@@ -13913,7 +13913,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>[0.2936639318983414, 0.2797994603361798]</t>
+          <t>[0.29368798078322117, 0.27980079324736923]</t>
         </is>
       </c>
       <c r="H329" t="b">
@@ -13939,7 +13939,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>x1: 0.272|x2: 0.061|x3: 0.000|x4: 0.107|x5: 0.140|x6: 0.000|x7: 0.000|x8: 0.214|x9: 0.086|x10: 0.000|x11: 0.198|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.103|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.272|x2: 0.061|x3: 0.000|x4: 0.106|x5: 0.140|x6: 0.000|x7: 0.000|x8: 0.214|x9: 0.086|x10: 0.000|x11: 0.198|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.103|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -13954,7 +13954,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>[0.27156242976911066, 0.2137415174000332]</t>
+          <t>[0.2715300998308712, 0.2137769718642277]</t>
         </is>
       </c>
       <c r="H330" t="b">
@@ -13995,7 +13995,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>[0.20780167051604398]</t>
+          <t>[0.20787494596278056]</t>
         </is>
       </c>
       <c r="H331" t="b">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>[0.26563354726601873]</t>
+          <t>[0.2655603562796611]</t>
         </is>
       </c>
       <c r="H332" t="b">
@@ -14077,7 +14077,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>[0.3758971894139831]</t>
+          <t>[0.37602553892512425]</t>
         </is>
       </c>
       <c r="H333" t="b">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>[0.2763656601008398]</t>
+          <t>[0.2763312960594022]</t>
         </is>
       </c>
       <c r="H334" t="b">
@@ -14159,7 +14159,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>[0.2010108135436227]</t>
+          <t>[0.20076860167316887]</t>
         </is>
       </c>
       <c r="H335" t="b">
@@ -14267,7 +14267,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>x1: 0.176|x2: 0.036|x3: 0.052|x4: 0.062|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.297|x9: 0.066|x10: 0.089|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.176|x2: 0.036|x3: 0.052|x4: 0.062|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.296|x9: 0.066|x10: 0.089|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -14282,7 +14282,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>[0.2967472521053946]</t>
+          <t>[0.2964249544638617]</t>
         </is>
       </c>
       <c r="H338" t="b">
@@ -14349,7 +14349,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.100|x8: 0.279|x9: 0.229|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.040|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.100|x8: 0.278|x9: 0.229|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.040|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -14364,7 +14364,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>[0.278502540034477, 0.22877007661307677]</t>
+          <t>[0.27845293921329206, 0.22869164859707886]</t>
         </is>
       </c>
       <c r="H340" t="b">
@@ -14405,7 +14405,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>[0.32719298061201124]</t>
+          <t>[0.3272964705598438]</t>
         </is>
       </c>
       <c r="H341" t="b">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>[0.2522669501152428]</t>
+          <t>[0.25205745870152463]</t>
         </is>
       </c>
       <c r="H342" t="b">
@@ -14513,7 +14513,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>x1: 0.047|x2: 0.037|x3: 0.000|x4: 0.060|x5: 0.000|x6: 0.000|x7: 0.054|x8: 0.276|x9: 0.209|x10: 0.119|x11: 0.000|x12: 0.103|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.085|x17: 0.000</t>
+          <t>x1: 0.047|x2: 0.036|x3: 0.000|x4: 0.060|x5: 0.000|x6: 0.000|x7: 0.054|x8: 0.276|x9: 0.208|x10: 0.119|x11: 0.000|x12: 0.103|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.085|x17: 0.000</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>[0.27601317069409737, 0.20863717711190338]</t>
+          <t>[0.2758285433508349, 0.20845628396928803]</t>
         </is>
       </c>
       <c r="H344" t="b">
@@ -14610,7 +14610,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>[0.2511211305479435]</t>
+          <t>[0.2512654797381111]</t>
         </is>
       </c>
       <c r="H346" t="b">
@@ -14636,7 +14636,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>x1: 0.045|x2: 0.000|x3: 0.036|x4: 0.082|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.326|x9: 0.164|x10: 0.180|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.042|x17: 0.000</t>
+          <t>x1: 0.046|x2: 0.000|x3: 0.036|x4: 0.082|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.326|x9: 0.163|x10: 0.180|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.042|x17: 0.000</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -14651,7 +14651,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>[0.32585891178853954]</t>
+          <t>[0.32580430688741285]</t>
         </is>
       </c>
       <c r="H347" t="b">
@@ -14692,7 +14692,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>[0.24830583588605087, 0.22176253075234467]</t>
+          <t>[0.24826499048973008, 0.2217367236956886]</t>
         </is>
       </c>
       <c r="H348" t="b">
@@ -14733,7 +14733,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>[0.23131643808751437]</t>
+          <t>[0.2313548634033729]</t>
         </is>
       </c>
       <c r="H349" t="b">
@@ -14759,7 +14759,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>x1: 0.127|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.246|x9: 0.180|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.127|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.247|x9: 0.180|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -14774,7 +14774,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>[0.2464287167090686]</t>
+          <t>[0.24651148536464867]</t>
         </is>
       </c>
       <c r="H350" t="b">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>x1: 0.134|x2: 0.039|x3: 0.101|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.284|x9: 0.046|x10: 0.054|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.134|x2: 0.039|x3: 0.100|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.284|x9: 0.046|x10: 0.054|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -14815,7 +14815,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>[0.28443394005579586]</t>
+          <t>[0.2843682252170077]</t>
         </is>
       </c>
       <c r="H351" t="b">
@@ -14856,7 +14856,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>[0.24516058091145337]</t>
+          <t>[0.24516263849102454]</t>
         </is>
       </c>
       <c r="H352" t="b">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>[0.39912525524563514, 0.2682794982057538, 0.20737576090154441]</t>
+          <t>[0.39913830164726083, 0.26835442013258776, 0.20737831449157795]</t>
         </is>
       </c>
       <c r="H354" t="b">
@@ -14964,7 +14964,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>x1: 0.088|x2: 0.056|x3: 0.083|x4: 0.173|x5: 0.102|x6: 0.000|x7: 0.000|x8: 0.252|x9: 0.044|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.082|x17: 0.000</t>
+          <t>x1: 0.088|x2: 0.055|x3: 0.083|x4: 0.174|x5: 0.102|x6: 0.000|x7: 0.000|x8: 0.252|x9: 0.044|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.082|x17: 0.000</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>[0.2521936174193979]</t>
+          <t>[0.25218781919875016]</t>
         </is>
       </c>
       <c r="H355" t="b">
@@ -15020,7 +15020,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>[0.2703273184984794]</t>
+          <t>[0.270179584599557]</t>
         </is>
       </c>
       <c r="H356" t="b">
@@ -15061,7 +15061,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>[0.2260559221326775]</t>
+          <t>[0.22616422868127942]</t>
         </is>
       </c>
       <c r="H357" t="b">
@@ -15102,7 +15102,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>[0.3479175773824342]</t>
+          <t>[0.3481258848178489]</t>
         </is>
       </c>
       <c r="H358" t="b">
@@ -15184,7 +15184,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>[0.24087882888989182]</t>
+          <t>[0.24072579887167114]</t>
         </is>
       </c>
       <c r="H360" t="b">
@@ -15225,7 +15225,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>[0.36625083844690587]</t>
+          <t>[0.3664596001336769]</t>
         </is>
       </c>
       <c r="H361" t="b">
@@ -15266,7 +15266,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>[0.30838638110766997]</t>
+          <t>[0.3083174017473922]</t>
         </is>
       </c>
       <c r="H362" t="b">
@@ -15307,7 +15307,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>[0.3801467457682499, 0.20840169931710445]</t>
+          <t>[0.38019293051546876, 0.20841155138073447]</t>
         </is>
       </c>
       <c r="H363" t="b">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>x1: 0.095|x2: 0.000|x3: 0.109|x4: 0.077|x5: 0.042|x6: 0.000|x7: 0.037|x8: 0.338|x9: 0.114|x10: 0.053|x11: 0.000|x12: 0.037|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.074|x17: 0.000</t>
+          <t>x1: 0.095|x2: 0.000|x3: 0.109|x4: 0.077|x5: 0.042|x6: 0.000|x7: 0.037|x8: 0.337|x9: 0.114|x10: 0.053|x11: 0.000|x12: 0.037|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.074|x17: 0.000</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>[0.3375510736188495]</t>
+          <t>[0.33742255269444593]</t>
         </is>
       </c>
       <c r="H364" t="b">
@@ -15389,7 +15389,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>[0.28571607477149347]</t>
+          <t>[0.28571998438404383]</t>
         </is>
       </c>
       <c r="H365" t="b">
@@ -15430,7 +15430,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>[0.3145248994200852]</t>
+          <t>[0.31450666962221124]</t>
         </is>
       </c>
       <c r="H366" t="b">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>[0.2222538089763185]</t>
+          <t>[0.2222127103133188]</t>
         </is>
       </c>
       <c r="H367" t="b">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>[0.29188225474939655]</t>
+          <t>[0.2919876681664436]</t>
         </is>
       </c>
       <c r="H368" t="b">
@@ -15579,7 +15579,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.163|x3: 0.088|x4: 0.053|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.330|x9: 0.240|x10: 0.137|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.058|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.163|x3: 0.088|x4: 0.053|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.330|x9: 0.239|x10: 0.137|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.058|x17: 0.000</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -15594,7 +15594,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>[0.3297937573512756, 0.23953897407740546]</t>
+          <t>[0.32966732715691904, 0.23944038344336588]</t>
         </is>
       </c>
       <c r="H370" t="b">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>x1: 0.065|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.253|x9: 0.057|x10: 0.079|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.031|x17: 0.000</t>
+          <t>x1: 0.065|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.253|x9: 0.057|x10: 0.078|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.031|x17: 0.000</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>[0.2530108348704118]</t>
+          <t>[0.25296239199195936]</t>
         </is>
       </c>
       <c r="H372" t="b">
@@ -15758,7 +15758,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>[0.29185082382622557]</t>
+          <t>[0.29185380444300485]</t>
         </is>
       </c>
       <c r="H374" t="b">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>x1: 0.099|x2: 0.000|x3: 0.000|x4: 0.049|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.146|x9: 0.223|x10: 0.126|x11: 0.000|x12: 0.079|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.100|x2: 0.000|x3: 0.000|x4: 0.049|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.146|x9: 0.223|x10: 0.126|x11: 0.000|x12: 0.080|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -15799,7 +15799,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>[0.22288591874916686]</t>
+          <t>[0.22291729968529758]</t>
         </is>
       </c>
       <c r="H375" t="b">
@@ -15881,7 +15881,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>[0.2853343832437737]</t>
+          <t>[0.28530277293967093]</t>
         </is>
       </c>
       <c r="H377" t="b">
@@ -15907,7 +15907,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.052|x4: 0.037|x5: 0.000|x6: 0.000|x7: 0.077|x8: 0.082|x9: 0.177|x10: 0.000|x11: 0.100|x12: 0.000|x13: 0.000|x14: 0.035|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.052|x4: 0.037|x5: 0.000|x6: 0.000|x7: 0.077|x8: 0.082|x9: 0.176|x10: 0.000|x11: 0.100|x12: 0.000|x13: 0.000|x14: 0.035|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -16004,7 +16004,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>[0.4565873578010337]</t>
+          <t>[0.4565913749109154]</t>
         </is>
       </c>
       <c r="H380" t="b">
@@ -16035,7 +16035,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.35]</t>
+          <t>[0.00, 0.04, 0.34]</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -16045,7 +16045,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>[0.3450356381684332]</t>
+          <t>[0.3448659100635633]</t>
         </is>
       </c>
       <c r="H381" t="b">
@@ -16086,7 +16086,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>[0.3832555340915801]</t>
+          <t>[0.3834029402755908]</t>
         </is>
       </c>
       <c r="H382" t="b">
@@ -16127,7 +16127,7 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>[0.2788129955859742]</t>
+          <t>[0.2790010830280521]</t>
         </is>
       </c>
       <c r="H383" t="b">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>[0.46646681214685126]</t>
+          <t>[0.46625313271341573]</t>
         </is>
       </c>
       <c r="H384" t="b">
@@ -16209,7 +16209,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>[0.351662111446285]</t>
+          <t>[0.3517708839764595]</t>
         </is>
       </c>
       <c r="H385" t="b">
@@ -16250,7 +16250,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>[0.26622502694282674]</t>
+          <t>[0.26639076804773043]</t>
         </is>
       </c>
       <c r="H386" t="b">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>[0.3024524858848192]</t>
+          <t>[0.30238289798769813]</t>
         </is>
       </c>
       <c r="H387" t="b">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>[0.3287954447612689]</t>
+          <t>[0.3287332624300635]</t>
         </is>
       </c>
       <c r="H388" t="b">
@@ -16358,7 +16358,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.029|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.036|x8: 0.158|x9: 0.229|x10: 0.026|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.034|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.029|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.036|x8: 0.157|x9: 0.229|x10: 0.026|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.034|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>[0.22892368069559524]</t>
+          <t>[0.22872913408041087]</t>
         </is>
       </c>
       <c r="H389" t="b">
@@ -16414,7 +16414,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>[0.49828144701946125, 0.21893058576649221]</t>
+          <t>[0.498269498221442, 0.21891619714546573]</t>
         </is>
       </c>
       <c r="H390" t="b">
@@ -16455,7 +16455,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>[0.3985464781575733]</t>
+          <t>[0.39851335274028993]</t>
         </is>
       </c>
       <c r="H391" t="b">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.114|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.108|x9: 0.378|x10: 0.087|x11: 0.000|x12: 0.000|x13: 0.050|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.114|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.108|x9: 0.378|x10: 0.086|x11: 0.000|x12: 0.000|x13: 0.050|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -16537,7 +16537,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>[0.37810127067492727]</t>
+          <t>[0.37794300550583027]</t>
         </is>
       </c>
       <c r="H393" t="b">
@@ -16578,7 +16578,7 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>[0.46373905292441897]</t>
+          <t>[0.46365801699074405]</t>
         </is>
       </c>
       <c r="H394" t="b">
@@ -16619,7 +16619,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>[0.2780046344585963]</t>
+          <t>[0.2780478406499482]</t>
         </is>
       </c>
       <c r="H395" t="b">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>[0.4193931983659363, 0.22592106175144636]</t>
+          <t>[0.41939972020651817, 0.2259491074783487]</t>
         </is>
       </c>
       <c r="H396" t="b">
@@ -16701,7 +16701,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>[0.42238107398523633, 0.21616249136962637]</t>
+          <t>[0.42238702681121376, 0.21613904613657803]</t>
         </is>
       </c>
       <c r="H397" t="b">
@@ -16727,7 +16727,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.062|x3: 0.042|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.135|x8: 0.162|x9: 0.399|x10: 0.105|x11: 0.081|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.062|x3: 0.042|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.136|x8: 0.162|x9: 0.400|x10: 0.105|x11: 0.081|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -16742,7 +16742,7 @@
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>[0.39944257667090943]</t>
+          <t>[0.3995505186205049]</t>
         </is>
       </c>
       <c r="H398" t="b">
@@ -16783,7 +16783,7 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>[0.36530338231854775]</t>
+          <t>[0.3653420676815299]</t>
         </is>
       </c>
       <c r="H399" t="b">
@@ -16809,7 +16809,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.025|x3: 0.025|x4: 0.017|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.078|x9: 0.156|x10: 0.027|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.040|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.025|x3: 0.025|x4: 0.017|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.078|x9: 0.157|x10: 0.027|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.040|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -16865,7 +16865,7 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>[0.39288641389045303]</t>
+          <t>[0.3930313517460998]</t>
         </is>
       </c>
       <c r="H401" t="b">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>[0.33606263172450285]</t>
+          <t>[0.3360423205537289]</t>
         </is>
       </c>
       <c r="H402" t="b">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.055|x3: 0.052|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.093|x8: 0.156|x9: 0.380|x10: 0.115|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.055|x3: 0.052|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.094|x8: 0.156|x9: 0.380|x10: 0.115|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>[0.379865835902651]</t>
+          <t>[0.3798913956824392]</t>
         </is>
       </c>
       <c r="H403" t="b">
@@ -16988,7 +16988,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>[0.2956168654899894]</t>
+          <t>[0.29559994724060235]</t>
         </is>
       </c>
       <c r="H404" t="b">
@@ -17029,7 +17029,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>[0.47172830522473336]</t>
+          <t>[0.47158169149353935]</t>
         </is>
       </c>
       <c r="H405" t="b">
@@ -17055,7 +17055,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.109|x8: 0.223|x9: 0.302|x10: 0.093|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.108|x8: 0.223|x9: 0.302|x10: 0.093|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -17070,7 +17070,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>[0.30191886666850665, 0.22315910081666723]</t>
+          <t>[0.3018350952499663, 0.22314940874843112]</t>
         </is>
       </c>
       <c r="H406" t="b">
@@ -17111,7 +17111,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>[0.43186059721879566, 0.25462639983844215]</t>
+          <t>[0.43188975681741537, 0.25454192866015335]</t>
         </is>
       </c>
       <c r="H407" t="b">
@@ -17152,7 +17152,7 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>[0.2927838897529169]</t>
+          <t>[0.2927215740380813]</t>
         </is>
       </c>
       <c r="H408" t="b">
@@ -17193,7 +17193,7 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>[0.3826327185340838]</t>
+          <t>[0.3826458349379719]</t>
         </is>
       </c>
       <c r="H409" t="b">
@@ -17219,7 +17219,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.098|x8: 0.054|x9: 0.358|x10: 0.068|x11: 0.000|x12: 0.055|x13: 0.000|x14: 0.086|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.098|x8: 0.054|x9: 0.357|x10: 0.068|x11: 0.000|x12: 0.055|x13: 0.000|x14: 0.086|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -17234,7 +17234,7 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>[0.35753974157084367]</t>
+          <t>[0.3574309366696199]</t>
         </is>
       </c>
       <c r="H410" t="b">
@@ -17275,7 +17275,7 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>[0.3029542875623946, 0.24064828984072392]</t>
+          <t>[0.30309080617120926, 0.24074444677847584]</t>
         </is>
       </c>
       <c r="H411" t="b">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>[0.26635100504624315]</t>
+          <t>[0.2663016350815562]</t>
         </is>
       </c>
       <c r="H412" t="b">
@@ -17342,7 +17342,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.048|x3: 0.065|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.048|x8: 0.107|x9: 0.274|x10: 0.091|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.049|x3: 0.065|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.048|x8: 0.107|x9: 0.274|x10: 0.091|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -17357,7 +17357,7 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>[0.27420619240651195]</t>
+          <t>[0.27433353592444126]</t>
         </is>
       </c>
       <c r="H413" t="b">
@@ -17398,7 +17398,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>[0.3370245732351367]</t>
+          <t>[0.33712973464759866]</t>
         </is>
       </c>
       <c r="H414" t="b">
@@ -17439,7 +17439,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>[0.2784404911810296]</t>
+          <t>[0.2784454413539253]</t>
         </is>
       </c>
       <c r="H415" t="b">
@@ -17480,7 +17480,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>[0.28806193388772533]</t>
+          <t>[0.2880522122781394]</t>
         </is>
       </c>
       <c r="H416" t="b">
@@ -17521,7 +17521,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>[0.26416836851356906]</t>
+          <t>[0.26416998269533304]</t>
         </is>
       </c>
       <c r="H417" t="b">
@@ -17562,7 +17562,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>[0.32388105498970277]</t>
+          <t>[0.3239752751619914]</t>
         </is>
       </c>
       <c r="H418" t="b">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>[0.3951821889213681, 0.20543687172063518]</t>
+          <t>[0.39513757832860663, 0.2053677931546911]</t>
         </is>
       </c>
       <c r="H419" t="b">
@@ -17644,7 +17644,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>[0.3311204647860894]</t>
+          <t>[0.33099213056583054]</t>
         </is>
       </c>
       <c r="H420" t="b">
@@ -17808,7 +17808,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>[0.33529756280962497]</t>
+          <t>[0.33533951610448415]</t>
         </is>
       </c>
       <c r="H424" t="b">
@@ -17834,7 +17834,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>x1: 0.083|x2: 0.099|x3: 0.059|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.180|x9: 0.073|x10: 0.217|x11: 0.000|x12: 0.000|x13: 0.052|x14: 0.000|x15: 0.000|x16: 0.087|x17: 0.000</t>
+          <t>x1: 0.083|x2: 0.099|x3: 0.059|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.179|x9: 0.073|x10: 0.217|x11: 0.000|x12: 0.000|x13: 0.052|x14: 0.000|x15: 0.000|x16: 0.087|x17: 0.000</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -17849,7 +17849,7 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>[0.21692152538869935]</t>
+          <t>[0.21699102103722542]</t>
         </is>
       </c>
       <c r="H425" t="b">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>[0.2602284876993535]</t>
+          <t>[0.2602159439865812]</t>
         </is>
       </c>
       <c r="H426" t="b">
@@ -17931,7 +17931,7 @@
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>[0.33509371671841964, 0.20323884863128638]</t>
+          <t>[0.3351784871358798, 0.20326776694827006]</t>
         </is>
       </c>
       <c r="H427" t="b">
@@ -17972,7 +17972,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>[0.4488105521094615]</t>
+          <t>[0.4487204239252466]</t>
         </is>
       </c>
       <c r="H428" t="b">
@@ -18013,7 +18013,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>[0.36332142952091634]</t>
+          <t>[0.36333647159441496]</t>
         </is>
       </c>
       <c r="H429" t="b">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>[0.3951789838677376]</t>
+          <t>[0.3950016419064903]</t>
         </is>
       </c>
       <c r="H430" t="b">
@@ -18095,7 +18095,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>[0.3310002427077477]</t>
+          <t>[0.33107431572564006]</t>
         </is>
       </c>
       <c r="H431" t="b">
@@ -18121,7 +18121,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.104|x3: 0.000|x4: 0.066|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.197|x9: 0.190|x10: 0.383|x11: 0.000|x12: 0.000|x13: 0.113|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.104|x3: 0.000|x4: 0.066|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.196|x9: 0.190|x10: 0.383|x11: 0.000|x12: 0.000|x13: 0.113|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>[0.38314358348091565]</t>
+          <t>[0.3832222477323359]</t>
         </is>
       </c>
       <c r="H432" t="b">
@@ -18162,7 +18162,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.101|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.100|x9: 0.071|x10: 0.321|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.101|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.100|x9: 0.071|x10: 0.322|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>[0.3214797868233954]</t>
+          <t>[0.32168055157488273]</t>
         </is>
       </c>
       <c r="H433" t="b">
@@ -18218,7 +18218,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>[0.45827965549458666, 0.24857205833420615, 0.22783123818643267]</t>
+          <t>[0.45821873238870037, 0.24866481155349948, 0.22784792217409608]</t>
         </is>
       </c>
       <c r="H434" t="b">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>[0.466561055457317, 0.2728848191338542, 0.23343333633104196]</t>
+          <t>[0.46667243586230206, 0.2729175606050449, 0.23349315129405135]</t>
         </is>
       </c>
       <c r="H435" t="b">
@@ -18285,7 +18285,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.034|x9: 0.096|x10: 0.233|x11: 0.000|x12: 0.000|x13: 0.032|x14: 0.000|x15: 0.000|x16: 0.044|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.034|x9: 0.096|x10: 0.233|x11: 0.000|x12: 0.000|x13: 0.032|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>[0.23302554863428754]</t>
+          <t>[0.23348253767433336]</t>
         </is>
       </c>
       <c r="H436" t="b">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>[0.45964790114436843]</t>
+          <t>[0.4597211936844678]</t>
         </is>
       </c>
       <c r="H437" t="b">
@@ -18367,7 +18367,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>x1: 0.047|x2: 0.094|x3: 0.000|x4: 0.042|x5: 0.068|x6: 0.000|x7: 0.000|x8: 0.143|x9: 0.053|x10: 0.305|x11: 0.000|x12: 0.000|x13: 0.072|x14: 0.000|x15: 0.000|x16: 0.058|x17: 0.000</t>
+          <t>x1: 0.047|x2: 0.094|x3: 0.000|x4: 0.042|x5: 0.069|x6: 0.000|x7: 0.000|x8: 0.143|x9: 0.053|x10: 0.305|x11: 0.000|x12: 0.000|x13: 0.072|x14: 0.000|x15: 0.000|x16: 0.058|x17: 0.000</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -18382,7 +18382,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>[0.3053088655264811]</t>
+          <t>[0.30547891948114425]</t>
         </is>
       </c>
       <c r="H438" t="b">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>[0.3121328157141788]</t>
+          <t>[0.3123329166965577]</t>
         </is>
       </c>
       <c r="H439" t="b">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>[0.4516945638901772]</t>
+          <t>[0.4518379204835319]</t>
         </is>
       </c>
       <c r="H440" t="b">
@@ -18505,7 +18505,7 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>[0.3842323121107648]</t>
+          <t>[0.38423397017765615]</t>
         </is>
       </c>
       <c r="H441" t="b">
@@ -18546,7 +18546,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>[0.37320194897105335]</t>
+          <t>[0.37322721070250514]</t>
         </is>
       </c>
       <c r="H442" t="b">
@@ -18587,7 +18587,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>[0.36697475343715014]</t>
+          <t>[0.3668767836040406]</t>
         </is>
       </c>
       <c r="H443" t="b">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.131|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.062|x9: 0.131|x10: 0.392|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.078|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.131|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.062|x9: 0.131|x10: 0.393|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.078|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -18628,7 +18628,7 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>[0.392377724422287]</t>
+          <t>[0.39258214048932755]</t>
         </is>
       </c>
       <c r="H444" t="b">
@@ -18669,7 +18669,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>[0.4125877976940364]</t>
+          <t>[0.4125824973106567]</t>
         </is>
       </c>
       <c r="H445" t="b">
@@ -18710,7 +18710,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>[0.338806248429438]</t>
+          <t>[0.3388941848680793]</t>
         </is>
       </c>
       <c r="H446" t="b">
@@ -18751,7 +18751,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>[0.30198135493103545, 0.226140169372895]</t>
+          <t>[0.3020596128003599, 0.22616704573409496]</t>
         </is>
       </c>
       <c r="H447" t="b">
@@ -18792,7 +18792,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>[0.24087269455256996]</t>
+          <t>[0.2408627541443074]</t>
         </is>
       </c>
       <c r="H448" t="b">
@@ -18833,7 +18833,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>[0.4314152379414286, 0.24207833375499213, 0.2159612860292223]</t>
+          <t>[0.43143409649679293, 0.24213707670447537, 0.21595436557703312]</t>
         </is>
       </c>
       <c r="H449" t="b">
@@ -18874,7 +18874,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>[0.3298803051153226]</t>
+          <t>[0.3297306340791697]</t>
         </is>
       </c>
       <c r="H450" t="b">
@@ -18900,7 +18900,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>x1: 0.096|x2: 0.105|x3: 0.121|x4: 0.061|x5: 0.223|x6: 0.084|x7: 0.000|x8: 0.189|x9: 0.000|x10: 0.332|x11: 0.000|x12: 0.000|x13: 0.070|x14: 0.000|x15: 0.000|x16: 0.208|x17: 0.000</t>
+          <t>x1: 0.097|x2: 0.105|x3: 0.121|x4: 0.061|x5: 0.223|x6: 0.084|x7: 0.000|x8: 0.189|x9: 0.000|x10: 0.332|x11: 0.000|x12: 0.000|x13: 0.070|x14: 0.000|x15: 0.000|x16: 0.208|x17: 0.000</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -18915,7 +18915,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>[0.3316575514990438, 0.2229735841970426, 0.20793198136459984]</t>
+          <t>[0.33172218295172584, 0.22298183263253718, 0.20796270951012422]</t>
         </is>
       </c>
       <c r="H451" t="b">
@@ -18956,7 +18956,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>[0.2639703864104068, 0.2562433477105707]</t>
+          <t>[0.2639354916917761, 0.256256680446148]</t>
         </is>
       </c>
       <c r="H452" t="b">
@@ -18997,7 +18997,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>[0.34701973716299905]</t>
+          <t>[0.347059057930836]</t>
         </is>
       </c>
       <c r="H453" t="b">
@@ -19038,7 +19038,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>[0.4561983166788881]</t>
+          <t>[0.4561799769032801]</t>
         </is>
       </c>
       <c r="H454" t="b">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>[0.2748069879282777]</t>
+          <t>[0.27481591473475525]</t>
         </is>
       </c>
       <c r="H455" t="b">
@@ -19105,7 +19105,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.164|x7: 0.169|x8: 0.000|x9: 0.072|x10: 0.000|x11: 0.334|x12: 0.089|x13: 0.000|x14: 0.000|x15: 0.071|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.164|x7: 0.169|x8: 0.000|x9: 0.072|x10: 0.000|x11: 0.334|x12: 0.088|x13: 0.000|x14: 0.000|x15: 0.071|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -19120,7 +19120,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>[0.334157854261158]</t>
+          <t>[0.3338694154269954]</t>
         </is>
       </c>
       <c r="H456" t="b">
@@ -19161,7 +19161,7 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>[0.36662019718577227]</t>
+          <t>[0.3665712285201887]</t>
         </is>
       </c>
       <c r="H457" t="b">
@@ -19202,7 +19202,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>[0.27703845222805046]</t>
+          <t>[0.27709921331964626]</t>
         </is>
       </c>
       <c r="H458" t="b">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>[0.32720897036043145, 0.21221015033056814]</t>
+          <t>[0.327250563276232, 0.21228928386867146]</t>
         </is>
       </c>
       <c r="H460" t="b">
@@ -19325,7 +19325,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>[0.4838526093261397]</t>
+          <t>[0.4839918617410721]</t>
         </is>
       </c>
       <c r="H461" t="b">
@@ -19351,7 +19351,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>x1: 0.085|x2: 0.000|x3: 0.074|x4: 0.000|x5: 0.068|x6: 0.000|x7: 0.110|x8: 0.000|x9: 0.069|x10: 0.000|x11: 0.466|x12: 0.052|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.065|x17: 0.000</t>
+          <t>x1: 0.086|x2: 0.000|x3: 0.074|x4: 0.000|x5: 0.068|x6: 0.000|x7: 0.110|x8: 0.000|x9: 0.069|x10: 0.000|x11: 0.466|x12: 0.052|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.065|x17: 0.000</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -19366,7 +19366,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>[0.4664836001851938]</t>
+          <t>[0.46645624526248786]</t>
         </is>
       </c>
       <c r="H462" t="b">
@@ -19407,7 +19407,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>[0.31932794816939]</t>
+          <t>[0.31934752779763986]</t>
         </is>
       </c>
       <c r="H463" t="b">
@@ -19433,7 +19433,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.090|x6: 0.099|x7: 0.093|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.339|x12: 0.047|x13: 0.000|x14: 0.057|x15: 0.052|x16: 0.044|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.090|x6: 0.099|x7: 0.093|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.338|x12: 0.047|x13: 0.000|x14: 0.057|x15: 0.052|x16: 0.044|x17: 0.000</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -19448,7 +19448,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>[0.33859160990583237]</t>
+          <t>[0.3382973582020651]</t>
         </is>
       </c>
       <c r="H464" t="b">
@@ -19489,7 +19489,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>[0.518496144252047]</t>
+          <t>[0.5183746813983392]</t>
         </is>
       </c>
       <c r="H465" t="b">
@@ -19515,7 +19515,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>x1: 0.225|x2: 0.000|x3: 0.107|x4: 0.000|x5: 0.000|x6: 0.096|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.419|x12: 0.000|x13: 0.121|x14: 0.000|x15: 0.045|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.225|x2: 0.000|x3: 0.107|x4: 0.000|x5: 0.000|x6: 0.096|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.419|x12: 0.000|x13: 0.122|x14: 0.000|x15: 0.045|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -19530,7 +19530,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>[0.4188955993989056, 0.22476774313755174]</t>
+          <t>[0.4188491108223123, 0.2248693667389044]</t>
         </is>
       </c>
       <c r="H466" t="b">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>[0.32881529735566833]</t>
+          <t>[0.3288069306534389]</t>
         </is>
       </c>
       <c r="H467" t="b">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>[0.33773580844619555]</t>
+          <t>[0.33786014692338606]</t>
         </is>
       </c>
       <c r="H468" t="b">
@@ -19653,7 +19653,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>[0.3884083692593972]</t>
+          <t>[0.38832190732051836]</t>
         </is>
       </c>
       <c r="H469" t="b">
@@ -19679,7 +19679,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>x1: 0.039|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.074|x7: 0.078|x8: 0.000|x9: 0.046|x10: 0.000|x11: 0.209|x12: 0.000|x13: 0.050|x14: 0.054|x15: 0.060|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.039|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.074|x7: 0.078|x8: 0.000|x9: 0.046|x10: 0.000|x11: 0.210|x12: 0.000|x13: 0.050|x14: 0.054|x15: 0.060|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>[0.20947407701648846]</t>
+          <t>[0.20951735471187735]</t>
         </is>
       </c>
       <c r="H470" t="b">
@@ -19735,7 +19735,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>[0.2515565138001885]</t>
+          <t>[0.2518730093537523]</t>
         </is>
       </c>
       <c r="H471" t="b">
@@ -19776,7 +19776,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>[0.2936816625995284]</t>
+          <t>[0.29365696297389576]</t>
         </is>
       </c>
       <c r="H472" t="b">
@@ -19817,7 +19817,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>[0.3932687962377183]</t>
+          <t>[0.3934760978964323]</t>
         </is>
       </c>
       <c r="H473" t="b">
@@ -19884,7 +19884,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.101|x8: 0.000|x9: 0.061|x10: 0.000|x11: 0.393|x12: 0.000|x13: 0.106|x14: 0.000|x15: 0.111|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.101|x8: 0.000|x9: 0.061|x10: 0.000|x11: 0.394|x12: 0.000|x13: 0.106|x14: 0.000|x15: 0.111|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -19899,7 +19899,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>[0.39309667275215127]</t>
+          <t>[0.3935396970216824]</t>
         </is>
       </c>
       <c r="H475" t="b">
@@ -19940,7 +19940,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>[0.498645017573507]</t>
+          <t>[0.498617000913771]</t>
         </is>
       </c>
       <c r="H476" t="b">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>x1: 0.077|x2: 0.000|x3: 0.067|x4: 0.000|x5: 0.124|x6: 0.000|x7: 0.071|x8: 0.094|x9: 0.108|x10: 0.000|x11: 0.296|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.052|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.078|x2: 0.000|x3: 0.067|x4: 0.000|x5: 0.124|x6: 0.000|x7: 0.071|x8: 0.094|x9: 0.108|x10: 0.000|x11: 0.296|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.052|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>[0.29634310216804244]</t>
+          <t>[0.2961947086485144]</t>
         </is>
       </c>
       <c r="H477" t="b">
@@ -20022,7 +20022,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>[0.27657714346345774]</t>
+          <t>[0.2765552829093821]</t>
         </is>
       </c>
       <c r="H478" t="b">
@@ -20048,7 +20048,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>x1: 0.148|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.095|x7: 0.059|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.418|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.148|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.095|x7: 0.059|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.417|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -20063,7 +20063,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>[0.41750339864128644]</t>
+          <t>[0.417402472062497]</t>
         </is>
       </c>
       <c r="H479" t="b">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>[0.3407926821510132]</t>
+          <t>[0.3408111982336438]</t>
         </is>
       </c>
       <c r="H480" t="b">
@@ -20145,7 +20145,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>[0.436352674276141]</t>
+          <t>[0.43636191758491083]</t>
         </is>
       </c>
       <c r="H481" t="b">
@@ -20186,7 +20186,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>[0.3849715375921555]</t>
+          <t>[0.38493553100744626]</t>
         </is>
       </c>
       <c r="H482" t="b">
@@ -20227,7 +20227,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>[0.4703517753305932]</t>
+          <t>[0.4703899040175769]</t>
         </is>
       </c>
       <c r="H483" t="b">
@@ -20268,7 +20268,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>[0.35460753564289177]</t>
+          <t>[0.3546656715255623]</t>
         </is>
       </c>
       <c r="H484" t="b">
@@ -20309,7 +20309,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>[0.537258928177213]</t>
+          <t>[0.5371229409559372]</t>
         </is>
       </c>
       <c r="H485" t="b">
@@ -20350,7 +20350,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>[0.44257628388755643]</t>
+          <t>[0.44255092608026914]</t>
         </is>
       </c>
       <c r="H486" t="b">
@@ -20391,7 +20391,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>[0.38630059614362566, 0.20737210431266356]</t>
+          <t>[0.38628807884358596, 0.20744499948586176]</t>
         </is>
       </c>
       <c r="H487" t="b">
@@ -20417,7 +20417,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>x1: 0.091|x2: 0.122|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.397|x12: 0.000|x13: 0.190|x14: 0.082|x15: 0.157|x16: 0.120|x17: 0.000</t>
+          <t>x1: 0.091|x2: 0.122|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.397|x12: 0.000|x13: 0.190|x14: 0.082|x15: 0.157|x16: 0.119|x17: 0.000</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -20432,7 +20432,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>[0.39660566094026317]</t>
+          <t>[0.39652629601931355]</t>
         </is>
       </c>
       <c r="H488" t="b">
@@ -20473,7 +20473,7 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>[0.2797184001089634]</t>
+          <t>[0.2797757279588876]</t>
         </is>
       </c>
       <c r="H489" t="b">
@@ -20555,7 +20555,7 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>[0.34365849733653303]</t>
+          <t>[0.3436397377637004]</t>
         </is>
       </c>
       <c r="H491" t="b">
@@ -20596,7 +20596,7 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>[0.3256517438824353, 0.2579240658325428]</t>
+          <t>[0.3257141048088164, 0.25799522659203034]</t>
         </is>
       </c>
       <c r="H492" t="b">
@@ -20622,7 +20622,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>x1: 0.118|x2: 0.060|x3: 0.077|x4: 0.000|x5: 0.000|x6: 0.051|x7: 0.253|x8: 0.046|x9: 0.098|x10: 0.000|x11: 0.050|x12: 0.205|x13: 0.076|x14: 0.120|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.118|x2: 0.060|x3: 0.078|x4: 0.000|x5: 0.000|x6: 0.051|x7: 0.254|x8: 0.045|x9: 0.098|x10: 0.000|x11: 0.050|x12: 0.205|x13: 0.076|x14: 0.120|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -20637,7 +20637,7 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>[0.2534916283539426, 0.20516784277396072]</t>
+          <t>[0.2535538564017257, 0.20516659826776662]</t>
         </is>
       </c>
       <c r="H493" t="b">
@@ -20678,7 +20678,7 @@
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>[0.26331162852065554]</t>
+          <t>[0.2633710992320431]</t>
         </is>
       </c>
       <c r="H494" t="b">
@@ -20719,7 +20719,7 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>[0.48443795178967775]</t>
+          <t>[0.4843968044243104]</t>
         </is>
       </c>
       <c r="H495" t="b">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>[0.20230086849800724]</t>
+          <t>[0.20242644324792888]</t>
         </is>
       </c>
       <c r="H496" t="b">
@@ -20827,7 +20827,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.150|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.048|x8: 0.000|x9: 0.000|x10: 0.097|x11: 0.000|x12: 0.231|x13: 0.201|x14: 0.142|x15: 0.063|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.150|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.048|x8: 0.000|x9: 0.000|x10: 0.097|x11: 0.000|x12: 0.231|x13: 0.200|x14: 0.142|x15: 0.063|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -20842,7 +20842,7 @@
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>[0.23108690956644307, 0.20063098455965844]</t>
+          <t>[0.23094439152340313, 0.20046888353556636]</t>
         </is>
       </c>
       <c r="H498" t="b">
@@ -20883,7 +20883,7 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>[0.26974638861504097]</t>
+          <t>[0.2699975854277481]</t>
         </is>
       </c>
       <c r="H499" t="b">
@@ -20924,7 +20924,7 @@
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>[0.35101099869843144]</t>
+          <t>[0.3511388166963236]</t>
         </is>
       </c>
       <c r="H500" t="b">
@@ -20950,7 +20950,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.041|x6: 0.051|x7: 0.074|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.054|x12: 0.347|x13: 0.053|x14: 0.074|x15: 0.048|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.041|x6: 0.050|x7: 0.074|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.054|x12: 0.347|x13: 0.053|x14: 0.074|x15: 0.048|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -20965,7 +20965,7 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>[0.3474084382667844]</t>
+          <t>[0.34740887425425315]</t>
         </is>
       </c>
       <c r="H501" t="b">
@@ -20991,7 +20991,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.084|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.057|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.106|x12: 0.435|x13: 0.148|x14: 0.095|x15: 0.087|x16: 0.046|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.084|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.057|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.106|x12: 0.435|x13: 0.148|x14: 0.095|x15: 0.088|x16: 0.046|x17: 0.000</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -21006,7 +21006,7 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>[0.43465242742953347]</t>
+          <t>[0.43464698936028506]</t>
         </is>
       </c>
       <c r="H502" t="b">
@@ -21032,7 +21032,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.028|x10: 0.000|x11: 0.023|x12: 0.238|x13: 0.000|x14: 0.019|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.028|x10: 0.000|x11: 0.023|x12: 0.237|x13: 0.000|x14: 0.019|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
@@ -21047,7 +21047,7 @@
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>[0.2375749814742479]</t>
+          <t>[0.23746503776908512]</t>
         </is>
       </c>
       <c r="H503" t="b">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>[0.5517033688462665]</t>
+          <t>[0.551707812700779]</t>
         </is>
       </c>
       <c r="H504" t="b">
@@ -21129,7 +21129,7 @@
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>[0.36201741924447706]</t>
+          <t>[0.362246560554806]</t>
         </is>
       </c>
       <c r="H505" t="b">
@@ -21170,7 +21170,7 @@
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>[0.3440126949901403]</t>
+          <t>[0.34385553286925674]</t>
         </is>
       </c>
       <c r="H506" t="b">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>[0.6238808721563629]</t>
+          <t>[0.6241182703846684]</t>
         </is>
       </c>
       <c r="H508" t="b">
@@ -21293,7 +21293,7 @@
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>[0.200602662971611]</t>
+          <t>[0.20051950900883728]</t>
         </is>
       </c>
       <c r="H509" t="b">
@@ -21319,12 +21319,12 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.041|x8: 0.000|x9: 0.066|x10: 0.000|x11: 0.000|x12: 0.318|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.041|x8: 0.000|x9: 0.066|x10: 0.000|x11: 0.000|x12: 0.317|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>[0.00, 0.03, 0.32]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -21334,7 +21334,7 @@
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>[0.3176501296730189]</t>
+          <t>[0.31738828190867263]</t>
         </is>
       </c>
       <c r="H510" t="b">
@@ -21375,7 +21375,7 @@
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>[0.48829664900921455]</t>
+          <t>[0.4883076757742063]</t>
         </is>
       </c>
       <c r="H511" t="b">
@@ -21401,7 +21401,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.036|x8: 0.037|x9: 0.068|x10: 0.000|x11: 0.082|x12: 0.343|x13: 0.048|x14: 0.043|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.036|x8: 0.037|x9: 0.068|x10: 0.000|x11: 0.082|x12: 0.344|x13: 0.048|x14: 0.043|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -21416,7 +21416,7 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>[0.34348688429320096]</t>
+          <t>[0.34353881908015926]</t>
         </is>
       </c>
       <c r="H512" t="b">
@@ -21457,7 +21457,7 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>[0.24023368017401364]</t>
+          <t>[0.24010058326166114]</t>
         </is>
       </c>
       <c r="H513" t="b">
@@ -21483,7 +21483,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.075|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.292|x13: 0.117|x14: 0.092|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.075|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.291|x13: 0.117|x14: 0.092|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -21498,7 +21498,7 @@
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>[0.2915492796608118]</t>
+          <t>[0.29147734947916915]</t>
         </is>
       </c>
       <c r="H514" t="b">
@@ -21539,7 +21539,7 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>[0.2685234857411298]</t>
+          <t>[0.2685922090913643]</t>
         </is>
       </c>
       <c r="H515" t="b">
@@ -21565,7 +21565,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.019|x10: 0.000|x11: 0.000|x12: 0.107|x13: 0.000|x14: 0.018|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.019|x10: 0.000|x11: 0.000|x12: 0.108|x13: 0.000|x14: 0.018|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -21606,7 +21606,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.041|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.051|x7: 0.091|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.267|x13: 0.075|x14: 0.066|x15: 0.045|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.041|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.051|x7: 0.091|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.267|x13: 0.075|x14: 0.066|x15: 0.046|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -21621,7 +21621,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>[0.2673506559771261]</t>
+          <t>[0.2673309174926299]</t>
         </is>
       </c>
       <c r="H517" t="b">
@@ -21703,7 +21703,7 @@
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>[0.40660214563662445]</t>
+          <t>[0.406794733248327]</t>
         </is>
       </c>
       <c r="H519" t="b">
@@ -21729,7 +21729,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>x1: 0.065|x2: 0.094|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.047|x7: 0.087|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.223|x13: 0.100|x14: 0.152|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.065|x2: 0.094|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.047|x7: 0.087|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.223|x13: 0.100|x14: 0.153|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -21744,7 +21744,7 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>[0.2227353119050049]</t>
+          <t>[0.22273814664767944]</t>
         </is>
       </c>
       <c r="H520" t="b">
@@ -21785,7 +21785,7 @@
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>[0.3863782046158538]</t>
+          <t>[0.3864832173893543]</t>
         </is>
       </c>
       <c r="H521" t="b">
@@ -21826,7 +21826,7 @@
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>[0.4144084217496709]</t>
+          <t>[0.41448039727068225]</t>
         </is>
       </c>
       <c r="H522" t="b">
@@ -21908,7 +21908,7 @@
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>[0.30938130342038495]</t>
+          <t>[0.3094566822495547]</t>
         </is>
       </c>
       <c r="H524" t="b">
@@ -21949,7 +21949,7 @@
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>[0.26715715735676826]</t>
+          <t>[0.267290850674659]</t>
         </is>
       </c>
       <c r="H525" t="b">
@@ -21990,7 +21990,7 @@
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>[0.32633087825223034, 0.2187433101858705]</t>
+          <t>[0.32626688245173363, 0.21863330403838074]</t>
         </is>
       </c>
       <c r="H526" t="b">
@@ -22031,7 +22031,7 @@
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>[0.24565852645893865]</t>
+          <t>[0.2456038137395295]</t>
         </is>
       </c>
       <c r="H527" t="b">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>[0.2567166533103712]</t>
+          <t>[0.2567431707624057]</t>
         </is>
       </c>
       <c r="H528" t="b">
@@ -22113,7 +22113,7 @@
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>[0.23787966930174168]</t>
+          <t>[0.23798540934770457]</t>
         </is>
       </c>
       <c r="H529" t="b">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.065|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.070|x12: 0.075|x13: 0.192|x14: 0.000|x15: 0.029|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.065|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.070|x12: 0.075|x13: 0.191|x14: 0.000|x15: 0.029|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -22236,7 +22236,7 @@
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>[0.3551539523418357]</t>
+          <t>[0.35549212391401847]</t>
         </is>
       </c>
       <c r="H532" t="b">
@@ -22277,7 +22277,7 @@
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>[0.4931582619328298]</t>
+          <t>[0.49342674419544935]</t>
         </is>
       </c>
       <c r="H533" t="b">
@@ -22318,7 +22318,7 @@
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>[0.4893888533982018]</t>
+          <t>[0.48923716220184493]</t>
         </is>
       </c>
       <c r="H534" t="b">
@@ -22359,7 +22359,7 @@
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>[0.30998208808021777]</t>
+          <t>[0.3099383080290915]</t>
         </is>
       </c>
       <c r="H535" t="b">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>[0.25731575338185175]</t>
+          <t>[0.25719512316359505]</t>
         </is>
       </c>
       <c r="H536" t="b">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>[0.22339909272328734]</t>
+          <t>[0.22343884279331008]</t>
         </is>
       </c>
       <c r="H538" t="b">
@@ -22508,7 +22508,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>x1: 0.043|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.071|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.097|x13: 0.319|x14: 0.050|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.044|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.071|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.097|x13: 0.319|x14: 0.050|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -22523,7 +22523,7 @@
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>[0.3193272318092]</t>
+          <t>[0.3192342419201959]</t>
         </is>
       </c>
       <c r="H539" t="b">
@@ -22564,7 +22564,7 @@
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>[0.3056624961640005]</t>
+          <t>[0.3057840279102952]</t>
         </is>
       </c>
       <c r="H540" t="b">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.063|x6: 0.066|x7: 0.172|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.119|x13: 0.371|x14: 0.149|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.063|x6: 0.066|x7: 0.171|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.119|x13: 0.371|x14: 0.149|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -22646,7 +22646,7 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>[0.3709478295912323]</t>
+          <t>[0.3708297520682378]</t>
         </is>
       </c>
       <c r="H542" t="b">
@@ -22713,7 +22713,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.064|x7: 0.258|x8: 0.000|x9: 0.130|x10: 0.000|x11: 0.179|x12: 0.169|x13: 0.264|x14: 0.000|x15: 0.090|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.064|x7: 0.258|x8: 0.000|x9: 0.130|x10: 0.000|x11: 0.179|x12: 0.169|x13: 0.265|x14: 0.000|x15: 0.090|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -22728,7 +22728,7 @@
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>[0.2644977498463559, 0.25823727619489906]</t>
+          <t>[0.2645292293180781, 0.25816285700259783]</t>
         </is>
       </c>
       <c r="H544" t="b">
@@ -22769,7 +22769,7 @@
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>[0.2001031214731538]</t>
+          <t>[0.20008206557932276]</t>
         </is>
       </c>
       <c r="H545" t="b">
@@ -22810,7 +22810,7 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>[0.2012305401744346]</t>
+          <t>[0.2013815654603912]</t>
         </is>
       </c>
       <c r="H546" t="b">
@@ -22892,7 +22892,7 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>[0.42698852953651795]</t>
+          <t>[0.4270089159447395]</t>
         </is>
       </c>
       <c r="H548" t="b">
@@ -22933,7 +22933,7 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>[0.3329162365539679]</t>
+          <t>[0.3330704813853387]</t>
         </is>
       </c>
       <c r="H549" t="b">
@@ -22959,7 +22959,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.110|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.050|x11: 0.000|x12: 0.091|x13: 0.540|x14: 0.104|x15: 0.088|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.109|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.050|x11: 0.000|x12: 0.091|x13: 0.540|x14: 0.104|x15: 0.088|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -22974,7 +22974,7 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>[0.5395927762729905]</t>
+          <t>[0.539869196253826]</t>
         </is>
       </c>
       <c r="H550" t="b">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>[0.26454154232720084]</t>
+          <t>[0.26478093044379275]</t>
         </is>
       </c>
       <c r="H551" t="b">
@@ -23056,7 +23056,7 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>[0.3189350238963314]</t>
+          <t>[0.3189323950444967]</t>
         </is>
       </c>
       <c r="H552" t="b">
@@ -23097,7 +23097,7 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>[0.34228502417208584, 0.2671027885156138]</t>
+          <t>[0.3422473105062406, 0.26712233607275004]</t>
         </is>
       </c>
       <c r="H553" t="b">
@@ -23138,7 +23138,7 @@
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>[0.3246783176644988]</t>
+          <t>[0.3246872276761322]</t>
         </is>
       </c>
       <c r="H554" t="b">
@@ -23164,7 +23164,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.204|x8: 0.000|x9: 0.093|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.201|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.204|x8: 0.000|x9: 0.093|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.202|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -23179,7 +23179,7 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>[0.2035734030322745, 0.20131766829421]</t>
+          <t>[0.20386909251996269, 0.20157486220917326]</t>
         </is>
       </c>
       <c r="H555" t="b">
@@ -23220,7 +23220,7 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>[0.315242521736073]</t>
+          <t>[0.31513852378477236]</t>
         </is>
       </c>
       <c r="H556" t="b">
@@ -23261,7 +23261,7 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>[0.27645205039513626]</t>
+          <t>[0.276437401906863]</t>
         </is>
       </c>
       <c r="H557" t="b">
@@ -23302,7 +23302,7 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>[0.5100470991084735]</t>
+          <t>[0.5099520442443358]</t>
         </is>
       </c>
       <c r="H558" t="b">
@@ -23384,7 +23384,7 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>[0.2821095201762904]</t>
+          <t>[0.2820867743452826]</t>
         </is>
       </c>
       <c r="H560" t="b">
@@ -23425,7 +23425,7 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>[0.30563313888793503]</t>
+          <t>[0.3055338056661645]</t>
         </is>
       </c>
       <c r="H561" t="b">
@@ -23466,7 +23466,7 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>[0.21886625139074167]</t>
+          <t>[0.2188845021051105]</t>
         </is>
       </c>
       <c r="H562" t="b">
@@ -23507,7 +23507,7 @@
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>[0.4231484020750338]</t>
+          <t>[0.42321651592181014]</t>
         </is>
       </c>
       <c r="H563" t="b">
@@ -23630,7 +23630,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>[0.22787585273408376]</t>
+          <t>[0.2278338477467769]</t>
         </is>
       </c>
       <c r="H566" t="b">
@@ -23712,7 +23712,7 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>[0.294757680545851, 0.20594376164300915]</t>
+          <t>[0.29470235588042265, 0.20596343398744854]</t>
         </is>
       </c>
       <c r="H568" t="b">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>[0.32345417955229183]</t>
+          <t>[0.32343082632473746]</t>
         </is>
       </c>
       <c r="H572" t="b">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>[0.24056166445856095]</t>
+          <t>[0.24066850755229655]</t>
         </is>
       </c>
       <c r="H573" t="b">
@@ -23958,7 +23958,7 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>[0.20650888583328014]</t>
+          <t>[0.2065745613156884]</t>
         </is>
       </c>
       <c r="H574" t="b">
@@ -23999,7 +23999,7 @@
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>[0.2525697195848701]</t>
+          <t>[0.25253981749042775]</t>
         </is>
       </c>
       <c r="H575" t="b">
@@ -24040,7 +24040,7 @@
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>[0.2924982996849974]</t>
+          <t>[0.29249968073614396]</t>
         </is>
       </c>
       <c r="H576" t="b">
@@ -24066,7 +24066,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>x1: 0.080|x2: 0.082|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.060|x13: 0.000|x14: 0.482|x15: 0.236|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.080|x2: 0.083|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.060|x13: 0.000|x14: 0.482|x15: 0.236|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -24081,7 +24081,7 @@
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>[0.48217423302944334, 0.23610387016743203]</t>
+          <t>[0.48234147483412715, 0.23617703325737632]</t>
         </is>
       </c>
       <c r="H577" t="b">
@@ -24122,7 +24122,7 @@
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>[0.21665103119062398]</t>
+          <t>[0.2166297537855367]</t>
         </is>
       </c>
       <c r="H578" t="b">
@@ -24245,7 +24245,7 @@
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>[0.2529783626801887]</t>
+          <t>[0.2529430977538204]</t>
         </is>
       </c>
       <c r="H581" t="b">
@@ -24312,7 +24312,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>x1: 0.121|x2: 0.098|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.037|x11: 0.000|x12: 0.000|x13: 0.068|x14: 0.320|x15: 0.172|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.121|x2: 0.098|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.037|x11: 0.000|x12: 0.000|x13: 0.067|x14: 0.320|x15: 0.172|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
@@ -24327,7 +24327,7 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>[0.31991532194944744]</t>
+          <t>[0.31990862642999607]</t>
         </is>
       </c>
       <c r="H583" t="b">
@@ -24368,7 +24368,7 @@
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>[0.22667768278582226]</t>
+          <t>[0.22664063350333183]</t>
         </is>
       </c>
       <c r="H584" t="b">
@@ -24394,12 +24394,12 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.044|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.084|x7: 0.066|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.061|x12: 0.098|x13: 0.097|x14: 0.196|x15: 0.119|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.044|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.085|x7: 0.066|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.061|x12: 0.098|x13: 0.097|x14: 0.196|x15: 0.119|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.20]</t>
+          <t>[0.00, 0.05, 0.20]</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
@@ -24450,7 +24450,7 @@
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>[0.4028644245155839, 0.2239909182777499]</t>
+          <t>[0.40280085570567287, 0.22402908847208086]</t>
         </is>
       </c>
       <c r="H586" t="b">
@@ -24476,7 +24476,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>x1: 0.094|x2: 0.032|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.040|x12: 0.029|x13: 0.062|x14: 0.243|x15: 0.075|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.094|x2: 0.032|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.040|x12: 0.029|x13: 0.062|x14: 0.244|x15: 0.075|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
@@ -24491,7 +24491,7 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>[0.24348482242384606]</t>
+          <t>[0.2436440091387902]</t>
         </is>
       </c>
       <c r="H587" t="b">
@@ -24532,7 +24532,7 @@
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>[0.3205887339387422]</t>
+          <t>[0.3205702058776364]</t>
         </is>
       </c>
       <c r="H588" t="b">
@@ -24573,7 +24573,7 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>[0.21714576358835597]</t>
+          <t>[0.21710677558337094]</t>
         </is>
       </c>
       <c r="H589" t="b">
@@ -24614,7 +24614,7 @@
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>[0.3278240632364557]</t>
+          <t>[0.3278470043693001]</t>
         </is>
       </c>
       <c r="H590" t="b">
@@ -24696,7 +24696,7 @@
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>[0.27214483423117075]</t>
+          <t>[0.27213403339297837]</t>
         </is>
       </c>
       <c r="H592" t="b">
@@ -24860,7 +24860,7 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>[0.30182529253913665]</t>
+          <t>[0.30176693776445995]</t>
         </is>
       </c>
       <c r="H596" t="b">
@@ -24886,7 +24886,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.040|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.170|x15: 0.066|x16: 0.049|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.038|x3: 0.000|x4: 0.000|x5: 0.040|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.170|x15: 0.066|x16: 0.049|x17: 0.000</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -24942,7 +24942,7 @@
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>[0.4202480096913582]</t>
+          <t>[0.42018642016599017]</t>
         </is>
       </c>
       <c r="H598" t="b">
@@ -24968,7 +24968,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.047|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.045|x10: 0.000|x11: 0.000|x12: 0.035|x13: 0.000|x14: 0.160|x15: 0.092|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.047|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.045|x10: 0.000|x11: 0.000|x12: 0.035|x13: 0.000|x14: 0.160|x15: 0.091|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -25050,7 +25050,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.071|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.083|x10: 0.000|x11: 0.032|x12: 0.089|x13: 0.152|x14: 0.192|x15: 0.088|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.071|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.083|x10: 0.000|x11: 0.031|x12: 0.089|x13: 0.152|x14: 0.192|x15: 0.088|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
@@ -25106,7 +25106,7 @@
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>[0.24936221787967855]</t>
+          <t>[0.24925312916804204]</t>
         </is>
       </c>
       <c r="H602" t="b">
@@ -25132,7 +25132,7 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.045|x13: 0.000|x14: 0.102|x15: 0.036|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.046|x13: 0.000|x14: 0.103|x15: 0.036|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -25188,7 +25188,7 @@
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>[0.26567705190198226]</t>
+          <t>[0.26563470578115855]</t>
         </is>
       </c>
       <c r="H604" t="b">
@@ -25214,7 +25214,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>x1: 0.040|x2: 0.035|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.061|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.051|x13: 0.104|x14: 0.131|x15: 0.089|x16: 0.066|x17: 0.000</t>
+          <t>x1: 0.040|x2: 0.035|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.061|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.052|x13: 0.104|x14: 0.131|x15: 0.089|x16: 0.066|x17: 0.000</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -25270,7 +25270,7 @@
       </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>[0.25373782338818573]</t>
+          <t>[0.25380934134360283]</t>
         </is>
       </c>
       <c r="H606" t="b">
@@ -25311,7 +25311,7 @@
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>[0.25131664569642287]</t>
+          <t>[0.2512211251608557]</t>
         </is>
       </c>
       <c r="H607" t="b">
@@ -25419,7 +25419,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.155|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.064|x12: 0.000|x13: 0.093|x14: 0.205|x15: 0.293|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.155|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.064|x12: 0.000|x13: 0.093|x14: 0.205|x15: 0.292|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
@@ -25434,7 +25434,7 @@
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>[0.2925144765046866, 0.2046162582213377]</t>
+          <t>[0.29247877880352485, 0.20462131090969737]</t>
         </is>
       </c>
       <c r="H610" t="b">
@@ -25460,7 +25460,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.078|x11: 0.000|x12: 0.000|x13: 0.248|x14: 0.194|x15: 0.244|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.078|x11: 0.000|x12: 0.000|x13: 0.248|x14: 0.194|x15: 0.245|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -25475,7 +25475,7 @@
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>[0.247597192170433, 0.24445918294520966]</t>
+          <t>[0.24756134619088502, 0.2445043455348578]</t>
         </is>
       </c>
       <c r="H611" t="b">
@@ -25516,7 +25516,7 @@
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>[0.24284911122462882, 0.2114070027692256]</t>
+          <t>[0.24283664642058228, 0.21142609616795582]</t>
         </is>
       </c>
       <c r="H612" t="b">
@@ -25542,7 +25542,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.055|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.014|x12: 0.016|x13: 0.000|x14: 0.064|x15: 0.159|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.055|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.014|x12: 0.016|x13: 0.000|x14: 0.064|x15: 0.160|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -25583,7 +25583,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.030|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.033|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.066|x12: 0.000|x13: 0.023|x14: 0.085|x15: 0.208|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.030|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.032|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.066|x12: 0.000|x13: 0.023|x14: 0.085|x15: 0.208|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -25598,7 +25598,7 @@
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>[0.20797933781930844]</t>
+          <t>[0.20789595701618105]</t>
         </is>
       </c>
       <c r="H614" t="b">
@@ -25639,7 +25639,7 @@
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>[0.4023856660985039, 0.21368537706957005]</t>
+          <t>[0.4023358768760915, 0.21367744210640732]</t>
         </is>
       </c>
       <c r="H615" t="b">
@@ -25680,7 +25680,7 @@
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>[0.3197490135235048]</t>
+          <t>[0.3197261027342132]</t>
         </is>
       </c>
       <c r="H616" t="b">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>[0.3035486471499026]</t>
+          <t>[0.30352994001371375]</t>
         </is>
       </c>
       <c r="H617" t="b">
@@ -25762,7 +25762,7 @@
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>[0.5415863228443734, 0.26256936849423257]</t>
+          <t>[0.5416090579233486, 0.2625571619839564]</t>
         </is>
       </c>
       <c r="H618" t="b">
@@ -25803,7 +25803,7 @@
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>[0.22744536134684787]</t>
+          <t>[0.22738728317312645]</t>
         </is>
       </c>
       <c r="H619" t="b">
@@ -25844,7 +25844,7 @@
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>[0.21907378777992503]</t>
+          <t>[0.21915543008995744]</t>
         </is>
       </c>
       <c r="H620" t="b">
@@ -25870,7 +25870,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.049|x3: 0.000|x4: 0.055|x5: 0.049|x6: 0.107|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.143|x15: 0.423|x16: 0.109|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.049|x3: 0.000|x4: 0.054|x5: 0.049|x6: 0.107|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.143|x15: 0.423|x16: 0.109|x17: 0.000</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
@@ -25885,7 +25885,7 @@
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>[0.4233997020363761]</t>
+          <t>[0.4233819544754544]</t>
         </is>
       </c>
       <c r="H621" t="b">
@@ -25926,7 +25926,7 @@
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>[0.2376417273125203]</t>
+          <t>[0.2375992032209137]</t>
         </is>
       </c>
       <c r="H622" t="b">
@@ -26008,7 +26008,7 @@
       </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>[0.39585633266358056]</t>
+          <t>[0.3959627789400214]</t>
         </is>
       </c>
       <c r="H624" t="b">
@@ -26034,7 +26034,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.008|x12: 0.010|x13: 0.000|x14: 0.029|x15: 0.061|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.008|x12: 0.011|x13: 0.000|x14: 0.029|x15: 0.062|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
@@ -26075,7 +26075,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.055|x7: 0.056|x8: 0.000|x9: 0.032|x10: 0.000|x11: 0.000|x12: 0.033|x13: 0.000|x14: 0.100|x15: 0.312|x16: 0.096|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.055|x7: 0.056|x8: 0.000|x9: 0.032|x10: 0.000|x11: 0.000|x12: 0.033|x13: 0.000|x14: 0.100|x15: 0.311|x16: 0.096|x17: 0.000</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
@@ -26090,7 +26090,7 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>[0.3115407303871915]</t>
+          <t>[0.3114179379659306]</t>
         </is>
       </c>
       <c r="H626" t="b">
@@ -26131,7 +26131,7 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>[0.33094841137938014]</t>
+          <t>[0.3308732428122041]</t>
         </is>
       </c>
       <c r="H627" t="b">
@@ -26157,7 +26157,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.006|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.010|x12: 0.016|x13: 0.000|x14: 0.006|x15: 0.023|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.006|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.010|x12: 0.016|x13: 0.000|x14: 0.005|x15: 0.023|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
@@ -26203,7 +26203,7 @@
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.32]</t>
+          <t>[0.00, 0.04, 0.31]</t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
@@ -26213,7 +26213,7 @@
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>[0.31507054945253327]</t>
+          <t>[0.3149921092891903]</t>
         </is>
       </c>
       <c r="H629" t="b">
@@ -26239,7 +26239,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.047|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.017|x12: 0.000|x13: 0.000|x14: 0.086|x15: 0.198|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.047|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.017|x12: 0.000|x13: 0.000|x14: 0.086|x15: 0.197|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
@@ -26295,7 +26295,7 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>[0.32716185487360333]</t>
+          <t>[0.32719725999017774]</t>
         </is>
       </c>
       <c r="H631" t="b">
@@ -26336,7 +26336,7 @@
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>[0.34195941759914145]</t>
+          <t>[0.34180618470813634]</t>
         </is>
       </c>
       <c r="H632" t="b">
@@ -26418,7 +26418,7 @@
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>[0.3907295350285509]</t>
+          <t>[0.3907553195328428]</t>
         </is>
       </c>
       <c r="H634" t="b">
@@ -26459,7 +26459,7 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>[0.4169471176191937]</t>
+          <t>[0.41700535967201313]</t>
         </is>
       </c>
       <c r="H635" t="b">
@@ -26500,7 +26500,7 @@
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>[0.42098906783471274, 0.22219708838616878]</t>
+          <t>[0.4209328346991484, 0.2221802445793813]</t>
         </is>
       </c>
       <c r="H636" t="b">
@@ -26541,7 +26541,7 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>[0.3059005412191173]</t>
+          <t>[0.3060462223563753]</t>
         </is>
       </c>
       <c r="H637" t="b">
@@ -26567,7 +26567,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.046|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.075|x12: 0.000|x13: 0.020|x14: 0.051|x15: 0.200|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.046|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.075|x12: 0.000|x13: 0.020|x14: 0.050|x15: 0.200|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
@@ -26577,19 +26577,19 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>[0.2000521030597401]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H638" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -26623,7 +26623,7 @@
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>[0.35032713189008907]</t>
+          <t>[0.3502019853991101]</t>
         </is>
       </c>
       <c r="H639" t="b">
@@ -26649,7 +26649,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.056|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.047|x12: 0.000|x13: 0.000|x14: 0.095|x15: 0.267|x16: 0.057|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.056|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.047|x12: 0.000|x13: 0.000|x14: 0.096|x15: 0.267|x16: 0.057|x17: 0.000</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
@@ -26664,7 +26664,7 @@
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>[0.266814066443346]</t>
+          <t>[0.2667872997683024]</t>
         </is>
       </c>
       <c r="H640" t="b">
@@ -26690,7 +26690,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>x1: 0.080|x2: 0.067|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.053|x9: 0.107|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.153|x15: 0.384|x16: 0.099|x17: 0.000</t>
+          <t>x1: 0.080|x2: 0.067|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.053|x9: 0.107|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.153|x15: 0.385|x16: 0.099|x17: 0.000</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
@@ -26705,7 +26705,7 @@
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>[0.3844414381986769]</t>
+          <t>[0.38452526620135913]</t>
         </is>
       </c>
       <c r="H641" t="b">
@@ -26787,7 +26787,7 @@
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>[0.3869840970775518]</t>
+          <t>[0.3870538936382619]</t>
         </is>
       </c>
       <c r="H643" t="b">
@@ -26828,7 +26828,7 @@
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>[0.36876400180018026]</t>
+          <t>[0.36875339440567845]</t>
         </is>
       </c>
       <c r="H644" t="b">
@@ -26869,7 +26869,7 @@
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>[0.32198555569250786]</t>
+          <t>[0.32187449231091475]</t>
         </is>
       </c>
       <c r="H645" t="b">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.022|x7: 0.000|x8: 0.000|x9: 0.014|x10: 0.000|x11: 0.023|x12: 0.047|x13: 0.000|x14: 0.028|x15: 0.116|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.022|x7: 0.000|x8: 0.000|x9: 0.015|x10: 0.000|x11: 0.023|x12: 0.047|x13: 0.000|x14: 0.028|x15: 0.116|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -26977,7 +26977,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.028|x12: 0.038|x13: 0.035|x14: 0.053|x15: 0.178|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.028|x12: 0.038|x13: 0.036|x14: 0.053|x15: 0.178|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -27033,7 +27033,7 @@
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>[0.2703140635787973]</t>
+          <t>[0.2703038683935076]</t>
         </is>
       </c>
       <c r="H649" t="b">
@@ -27074,7 +27074,7 @@
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>[0.2743001841683669]</t>
+          <t>[0.27409402858682996]</t>
         </is>
       </c>
       <c r="H650" t="b">
@@ -27115,7 +27115,7 @@
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>[0.22077979381995425]</t>
+          <t>[0.22083442022088148]</t>
         </is>
       </c>
       <c r="H651" t="b">
@@ -27156,7 +27156,7 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>[0.34383105397216546, 0.20710020517450253]</t>
+          <t>[0.3439952027140528, 0.2071548044119889]</t>
         </is>
       </c>
       <c r="H652" t="b">
@@ -27197,7 +27197,7 @@
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>[0.36829304946179003]</t>
+          <t>[0.368279802031431]</t>
         </is>
       </c>
       <c r="H653" t="b">
@@ -27238,7 +27238,7 @@
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>[0.240003063466005]</t>
+          <t>[0.2399644455424997]</t>
         </is>
       </c>
       <c r="H654" t="b">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>[0.28656396486028224, 0.2009926714249794]</t>
+          <t>[0.28654689296519487, 0.20090248285000947]</t>
         </is>
       </c>
       <c r="H655" t="b">
@@ -27320,7 +27320,7 @@
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>[0.3915376033309982]</t>
+          <t>[0.39152499917163086]</t>
         </is>
       </c>
       <c r="H656" t="b">
@@ -27361,7 +27361,7 @@
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>[0.2991842510823771]</t>
+          <t>[0.29910570084934174]</t>
         </is>
       </c>
       <c r="H657" t="b">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>x1: 0.061|x2: 0.189|x3: 0.133|x4: 0.000|x5: 0.042|x6: 0.000|x7: 0.000|x8: 0.196|x9: 0.056|x10: 0.145|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.072|x16: 0.357|x17: 0.000</t>
+          <t>x1: 0.061|x2: 0.189|x3: 0.133|x4: 0.000|x5: 0.042|x6: 0.000|x7: 0.000|x8: 0.196|x9: 0.056|x10: 0.145|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.072|x16: 0.356|x17: 0.000</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -27402,7 +27402,7 @@
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>[0.35655104199177584]</t>
+          <t>[0.3564588207515528]</t>
         </is>
       </c>
       <c r="H658" t="b">
@@ -27443,7 +27443,7 @@
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>[0.41718747698838793, 0.20911507747096317]</t>
+          <t>[0.4171511264813012, 0.2091234248058304]</t>
         </is>
       </c>
       <c r="H659" t="b">
@@ -27484,7 +27484,7 @@
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>[0.35671190138929526]</t>
+          <t>[0.35669701840838236]</t>
         </is>
       </c>
       <c r="H660" t="b">
@@ -27525,7 +27525,7 @@
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>[0.36011778391084337]</t>
+          <t>[0.36007119404426663]</t>
         </is>
       </c>
       <c r="H661" t="b">
@@ -27566,7 +27566,7 @@
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>[0.38318205723329135]</t>
+          <t>[0.38337800338155714]</t>
         </is>
       </c>
       <c r="H662" t="b">
@@ -27592,7 +27592,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.070|x3: 0.071|x4: 0.054|x5: 0.223|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.052|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.057|x16: 0.369|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.070|x3: 0.071|x4: 0.054|x5: 0.224|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.052|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.057|x16: 0.369|x17: 0.000</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
@@ -27607,7 +27607,7 @@
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>[0.3687194411639595, 0.2234647129295903]</t>
+          <t>[0.36884719363959123, 0.2235058006476731]</t>
         </is>
       </c>
       <c r="H663" t="b">
@@ -27633,7 +27633,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.083|x3: 0.080|x4: 0.054|x5: 0.153|x6: 0.000|x7: 0.000|x8: 0.076|x9: 0.000|x10: 0.083|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.258|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.083|x3: 0.080|x4: 0.054|x5: 0.153|x6: 0.000|x7: 0.000|x8: 0.077|x9: 0.000|x10: 0.083|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.258|x17: 0.000</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
@@ -27648,7 +27648,7 @@
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>[0.2578913346161643]</t>
+          <t>[0.2580562853479424]</t>
         </is>
       </c>
       <c r="H664" t="b">
@@ -27689,7 +27689,7 @@
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>[0.27077256215114226]</t>
+          <t>[0.2708046152639858]</t>
         </is>
       </c>
       <c r="H665" t="b">
@@ -27730,7 +27730,7 @@
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>[0.258050691893495]</t>
+          <t>[0.2580106361736868]</t>
         </is>
       </c>
       <c r="H666" t="b">
@@ -27771,7 +27771,7 @@
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>[0.38059958352457324]</t>
+          <t>[0.38059141654931183]</t>
         </is>
       </c>
       <c r="H667" t="b">
@@ -27812,7 +27812,7 @@
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>[0.2891775996372703]</t>
+          <t>[0.2891738268218425]</t>
         </is>
       </c>
       <c r="H668" t="b">
@@ -27853,7 +27853,7 @@
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>[0.463578932034064, 0.25301843327336127, 0.21916360867737983, 0.2107765473856724]</t>
+          <t>[0.46359188999940365, 0.25301079195859805, 0.2191413736144867, 0.21077430736367883]</t>
         </is>
       </c>
       <c r="H669" t="b">
@@ -27879,7 +27879,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.095|x3: 0.000|x4: 0.049|x5: 0.163|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.113|x11: 0.063|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.385|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.095|x3: 0.000|x4: 0.049|x5: 0.164|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.113|x11: 0.063|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.385|x17: 0.000</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
@@ -27894,7 +27894,7 @@
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>[0.3846788702797702]</t>
+          <t>[0.384773070010557]</t>
         </is>
       </c>
       <c r="H670" t="b">
@@ -27920,7 +27920,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>x1: 0.052|x2: 0.139|x3: 0.086|x4: 0.057|x5: 0.125|x6: 0.000|x7: 0.000|x8: 0.063|x9: 0.000|x10: 0.137|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.040|x16: 0.358|x17: 0.000</t>
+          <t>x1: 0.052|x2: 0.139|x3: 0.086|x4: 0.057|x5: 0.125|x6: 0.000|x7: 0.000|x8: 0.063|x9: 0.000|x10: 0.137|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.040|x16: 0.359|x17: 0.000</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
@@ -27935,7 +27935,7 @@
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>[0.35849672507256497]</t>
+          <t>[0.35858531579996494]</t>
         </is>
       </c>
       <c r="H671" t="b">
@@ -27976,7 +27976,7 @@
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>[0.3583015492104798]</t>
+          <t>[0.3582508681393781]</t>
         </is>
       </c>
       <c r="H672" t="b">
@@ -28017,7 +28017,7 @@
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>[0.23697528577719193]</t>
+          <t>[0.23693379956331181]</t>
         </is>
       </c>
       <c r="H673" t="b">
@@ -28043,7 +28043,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.052|x3: 0.085|x4: 0.000|x5: 0.205|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.047|x10: 0.091|x11: 0.158|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.308|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.052|x3: 0.085|x4: 0.000|x5: 0.205|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.047|x10: 0.091|x11: 0.159|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.308|x17: 0.000</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
@@ -28058,7 +28058,7 @@
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>[0.30799017879474133, 0.20541072149723405]</t>
+          <t>[0.30804231456377734, 0.20544385724338826]</t>
         </is>
       </c>
       <c r="H674" t="b">
@@ -28099,7 +28099,7 @@
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>[0.4689233125080609, 0.31792580650015084, 0.2721976406043541]</t>
+          <t>[0.4689384202591099, 0.31793061398794104, 0.27222462729687136]</t>
         </is>
       </c>
       <c r="H675" t="b">
@@ -28140,7 +28140,7 @@
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>[0.3663943981549411, 0.28082428910426]</t>
+          <t>[0.3664061163032333, 0.2808228177124626]</t>
         </is>
       </c>
       <c r="H676" t="b">
@@ -28166,7 +28166,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.172|x4: 0.168|x5: 0.248|x6: 0.076|x7: 0.050|x8: 0.052|x9: 0.000|x10: 0.087|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.397|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.172|x4: 0.168|x5: 0.248|x6: 0.077|x7: 0.050|x8: 0.052|x9: 0.000|x10: 0.087|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.397|x17: 0.000</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -28181,7 +28181,7 @@
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>[0.39671667571142233, 0.247874258761816]</t>
+          <t>[0.39672337281182946, 0.247875314677419]</t>
         </is>
       </c>
       <c r="H677" t="b">
@@ -28222,7 +28222,7 @@
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>[0.3585570441683102]</t>
+          <t>[0.35858854227471004]</t>
         </is>
       </c>
       <c r="H678" t="b">
@@ -28248,7 +28248,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.068|x3: 0.027|x4: 0.037|x5: 0.099|x6: 0.000|x7: 0.000|x8: 0.032|x9: 0.000|x10: 0.102|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.018|x16: 0.181|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.068|x3: 0.027|x4: 0.037|x5: 0.099|x6: 0.000|x7: 0.000|x8: 0.032|x9: 0.000|x10: 0.102|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.018|x16: 0.182|x17: 0.000</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -28304,7 +28304,7 @@
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>[0.37997395859118]</t>
+          <t>[0.38011672648342704]</t>
         </is>
       </c>
       <c r="H680" t="b">
@@ -28345,7 +28345,7 @@
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>[0.3162662529440281, 0.205190458114838]</t>
+          <t>[0.31631898307602246, 0.20523320448661594]</t>
         </is>
       </c>
       <c r="H681" t="b">
@@ -28386,7 +28386,7 @@
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>[0.5309347912913795, 0.2510383125018322, 0.2225902292232955]</t>
+          <t>[0.5309505798306056, 0.2510593221551621, 0.22260970327177276]</t>
         </is>
       </c>
       <c r="H682" t="b">
@@ -28427,7 +28427,7 @@
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>[0.4215229497466734, 0.20386208710631348]</t>
+          <t>[0.4215407897280859, 0.20391693558572577]</t>
         </is>
       </c>
       <c r="H683" t="b">
@@ -28453,7 +28453,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>x1: 0.052|x2: 0.175|x3: 0.062|x4: 0.056|x5: 0.139|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.085|x11: 0.000|x12: 0.096|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.404|x17: 0.000</t>
+          <t>x1: 0.051|x2: 0.175|x3: 0.061|x4: 0.056|x5: 0.139|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.085|x11: 0.000|x12: 0.095|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.404|x17: 0.000</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
@@ -28468,7 +28468,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>[0.40398995716835157]</t>
+          <t>[0.40389210475769494]</t>
         </is>
       </c>
       <c r="H684" t="b">
@@ -28509,7 +28509,7 @@
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>[0.4838775723693667, 0.24244285003482272]</t>
+          <t>[0.48390042507299397, 0.2424762159417075]</t>
         </is>
       </c>
       <c r="H685" t="b">
@@ -28550,7 +28550,7 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>[0.3340790139043087]</t>
+          <t>[0.3342931680369059]</t>
         </is>
       </c>
       <c r="H686" t="b">
@@ -28591,7 +28591,7 @@
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>[0.4073307580097878]</t>
+          <t>[0.4071782822745369]</t>
         </is>
       </c>
       <c r="H687" t="b">
@@ -28632,7 +28632,7 @@
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>[0.36690430519445355]</t>
+          <t>[0.3668507493260938]</t>
         </is>
       </c>
       <c r="H688" t="b">
@@ -28673,7 +28673,7 @@
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>[0.2976209060432519]</t>
+          <t>[0.29761819848714227]</t>
         </is>
       </c>
       <c r="H689" t="b">
@@ -28699,7 +28699,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>x1: 0.040|x2: 0.160|x3: 0.113|x4: 0.000|x5: 0.058|x6: 0.000|x7: 0.000|x8: 0.145|x9: 0.094|x10: 0.142|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.323|x17: 0.000</t>
+          <t>x1: 0.040|x2: 0.160|x3: 0.113|x4: 0.000|x5: 0.058|x6: 0.000|x7: 0.000|x8: 0.145|x9: 0.095|x10: 0.142|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.323|x17: 0.000</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
@@ -28714,7 +28714,7 @@
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>[0.3230135391516656]</t>
+          <t>[0.3229440117207432]</t>
         </is>
       </c>
       <c r="H690" t="b">
@@ -28755,7 +28755,7 @@
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>[0.3471016219571467]</t>
+          <t>[0.3469571729953684]</t>
         </is>
       </c>
       <c r="H691" t="b">
@@ -28796,7 +28796,7 @@
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>[0.2894191022373392]</t>
+          <t>[0.2894924783136279]</t>
         </is>
       </c>
       <c r="H692" t="b">
@@ -28837,7 +28837,7 @@
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>[0.35688867591338325]</t>
+          <t>[0.3568862892735324]</t>
         </is>
       </c>
       <c r="H693" t="b">
@@ -28878,7 +28878,7 @@
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>[0.3608217036287524]</t>
+          <t>[0.3608243245894747]</t>
         </is>
       </c>
       <c r="H694" t="b">
@@ -28904,7 +28904,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>x1: 0.084|x2: 0.129|x3: 0.000|x4: 0.049|x5: 0.166|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.129|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.048|x15: 0.092|x16: 0.369|x17: 0.000</t>
+          <t>x1: 0.085|x2: 0.129|x3: 0.000|x4: 0.049|x5: 0.166|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.129|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.048|x15: 0.092|x16: 0.369|x17: 0.000</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -28919,7 +28919,7 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>[0.36874787135953146]</t>
+          <t>[0.36871494486919004]</t>
         </is>
       </c>
       <c r="H695" t="b">
@@ -28945,7 +28945,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.106|x3: 0.102|x4: 0.078|x5: 0.203|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.105|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.077|x16: 0.358|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.106|x3: 0.102|x4: 0.079|x5: 0.203|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.105|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.077|x16: 0.358|x17: 0.000</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
@@ -28960,7 +28960,7 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>[0.35770163184883924, 0.20331258062900032]</t>
+          <t>[0.35776605601542494, 0.20337404722755767]</t>
         </is>
       </c>
       <c r="H696" t="b">
@@ -29001,7 +29001,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>[0.314182042676423]</t>
+          <t>[0.31416997330879903]</t>
         </is>
       </c>
       <c r="H697" t="b">
@@ -29042,7 +29042,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>[0.37755160361550427, 0.2187878218043948]</t>
+          <t>[0.37754218546784246, 0.21876335248406167]</t>
         </is>
       </c>
       <c r="H698" t="b">
@@ -29068,7 +29068,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.126|x3: 0.121|x4: 0.000|x5: 0.143|x6: 0.051|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.078|x11: 0.000|x12: 0.052|x13: 0.000|x14: 0.063|x15: 0.095|x16: 0.328|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.126|x3: 0.121|x4: 0.000|x5: 0.143|x6: 0.051|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.079|x11: 0.000|x12: 0.052|x13: 0.000|x14: 0.063|x15: 0.095|x16: 0.328|x17: 0.000</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
@@ -29083,7 +29083,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>[0.32837187109014937]</t>
+          <t>[0.32840137009123255]</t>
         </is>
       </c>
       <c r="H699" t="b">
@@ -29109,7 +29109,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.064|x3: 0.000|x4: 0.000|x5: 0.203|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.120|x11: 0.065|x12: 0.044|x13: 0.000|x14: 0.053|x15: 0.000|x16: 0.316|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.064|x3: 0.000|x4: 0.000|x5: 0.203|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.121|x11: 0.065|x12: 0.044|x13: 0.000|x14: 0.053|x15: 0.000|x16: 0.316|x17: 0.000</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
@@ -29124,7 +29124,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>[0.3155979055834403, 0.2029914625561541]</t>
+          <t>[0.31562590128163404, 0.20296071539397745]</t>
         </is>
       </c>
       <c r="H700" t="b">
@@ -29232,7 +29232,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.051|x3: 0.000|x4: 0.033|x5: 0.000|x6: 0.046|x7: 0.067|x8: 0.000|x9: 0.000|x10: 0.038|x11: 0.037|x12: 0.000|x13: 0.122|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.051|x3: 0.000|x4: 0.033|x5: 0.000|x6: 0.046|x7: 0.067|x8: 0.000|x9: 0.000|x10: 0.039|x11: 0.037|x12: 0.000|x13: 0.122|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
@@ -29314,7 +29314,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.136|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.107|x9: 0.042|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.136|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.108|x9: 0.042|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
@@ -29355,7 +29355,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.140|x5: 0.112|x6: 0.000|x7: 0.151|x8: 0.000|x9: 0.000|x10: 0.089|x11: 0.131|x12: 0.047|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.078|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.140|x5: 0.112|x6: 0.000|x7: 0.151|x8: 0.000|x9: 0.000|x10: 0.089|x11: 0.130|x12: 0.047|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.078|x17: 0.000</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
@@ -29493,7 +29493,7 @@
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>[0.20578430458998315]</t>
+          <t>[0.20578982468956955]</t>
         </is>
       </c>
       <c r="H709" t="b">
@@ -29534,7 +29534,7 @@
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>[0.21431622659593033]</t>
+          <t>[0.21431067861764705]</t>
         </is>
       </c>
       <c r="H710" t="b">
@@ -29724,7 +29724,7 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>x1: 0.045|x2: 0.000|x3: 0.059|x4: 0.170|x5: 0.102|x6: 0.000|x7: 0.000|x8: 0.087|x9: 0.000|x10: 0.062|x11: 0.096|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.127|x17: 0.000</t>
+          <t>x1: 0.046|x2: 0.000|x3: 0.059|x4: 0.170|x5: 0.102|x6: 0.000|x7: 0.000|x8: 0.087|x9: 0.000|x10: 0.062|x11: 0.096|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.127|x17: 0.000</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
@@ -29806,7 +29806,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.094|x3: 0.000|x4: 0.149|x5: 0.174|x6: 0.000|x7: 0.000|x8: 0.073|x9: 0.080|x10: 0.131|x11: 0.000|x12: 0.000|x13: 0.123|x14: 0.000|x15: 0.000|x16: 0.215|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.093|x3: 0.000|x4: 0.149|x5: 0.174|x6: 0.000|x7: 0.000|x8: 0.073|x9: 0.080|x10: 0.131|x11: 0.000|x12: 0.000|x13: 0.123|x14: 0.000|x15: 0.000|x16: 0.215|x17: 0.000</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
@@ -29821,7 +29821,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>[0.21549611412403047]</t>
+          <t>[0.21545304348316]</t>
         </is>
       </c>
       <c r="H717" t="b">
@@ -29847,7 +29847,7 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.028|x5: 0.000|x6: 0.000|x7: 0.019|x8: 0.000|x9: 0.020|x10: 0.000|x11: 0.061|x12: 0.046|x13: 0.000|x14: 0.045|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.029|x5: 0.000|x6: 0.000|x7: 0.019|x8: 0.000|x9: 0.020|x10: 0.000|x11: 0.061|x12: 0.046|x13: 0.000|x14: 0.045|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
@@ -29888,7 +29888,7 @@
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.047|x6: 0.054|x7: 0.108|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.186|x12: 0.033|x13: 0.087|x14: 0.033|x15: 0.050|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.047|x6: 0.055|x7: 0.108|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.186|x12: 0.033|x13: 0.087|x14: 0.033|x15: 0.050|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
@@ -29944,7 +29944,7 @@
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>[0.36138657373704647]</t>
+          <t>[0.3613451944537004]</t>
         </is>
       </c>
       <c r="H720" t="b">
@@ -29970,7 +29970,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>x1: 0.112|x2: 0.051|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.301|x12: 0.000|x13: 0.121|x14: 0.049|x15: 0.063|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.112|x2: 0.051|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.301|x12: 0.000|x13: 0.121|x14: 0.049|x15: 0.064|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
@@ -29985,7 +29985,7 @@
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>[0.3008683627875669]</t>
+          <t>[0.3008649613832464]</t>
         </is>
       </c>
       <c r="H721" t="b">
@@ -30067,7 +30067,7 @@
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>[0.2517549991760321]</t>
+          <t>[0.2517786399980165]</t>
         </is>
       </c>
       <c r="H723" t="b">
@@ -30108,7 +30108,7 @@
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>[0.2542639969048445]</t>
+          <t>[0.2543042228437391]</t>
         </is>
       </c>
       <c r="H724" t="b">
@@ -30354,7 +30354,7 @@
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>[0.21306122959860863]</t>
+          <t>[0.2131094089157724]</t>
         </is>
       </c>
       <c r="H730" t="b">
@@ -30380,7 +30380,7 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>x1: 0.090|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.303|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.089|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.303|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E731" t="inlineStr">
@@ -30395,7 +30395,7 @@
       </c>
       <c r="G731" t="inlineStr">
         <is>
-          <t>[0.30271347190563286]</t>
+          <t>[0.30265789149892713]</t>
         </is>
       </c>
       <c r="H731" t="b">
@@ -30462,7 +30462,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.005|x8: 0.000|x9: 0.003|x10: 0.000|x11: 0.008|x12: 0.005|x13: 0.002|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.005|x8: 0.000|x9: 0.003|x10: 0.000|x11: 0.007|x12: 0.005|x13: 0.002|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E733" t="inlineStr">
@@ -30559,7 +30559,7 @@
       </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>[0.2165438915684246]</t>
+          <t>[0.21653943971758927]</t>
         </is>
       </c>
       <c r="H735" t="b">
@@ -30667,7 +30667,7 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.094|x5: 0.000|x6: 0.000|x7: 0.140|x8: 0.000|x9: 0.043|x10: 0.000|x11: 0.152|x12: 0.048|x13: 0.049|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.094|x5: 0.000|x6: 0.000|x7: 0.140|x8: 0.000|x9: 0.043|x10: 0.000|x11: 0.153|x12: 0.048|x13: 0.049|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -30708,7 +30708,7 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.011|x8: 0.000|x9: 0.000|x10: 0.000|x11: -0.006|x12: -0.022|x13: -0.008|x14: -0.006|x15: -0.003|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.011|x8: 0.000|x9: 0.000|x10: 0.000|x11: -0.006|x12: -0.021|x13: -0.008|x14: -0.006|x15: -0.003|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E739" t="inlineStr">
@@ -30969,7 +30969,7 @@
       </c>
       <c r="G745" t="inlineStr">
         <is>
-          <t>[0.23962204108740043]</t>
+          <t>[0.23965945416679263]</t>
         </is>
       </c>
       <c r="H745" t="b">
@@ -31010,7 +31010,7 @@
       </c>
       <c r="G746" t="inlineStr">
         <is>
-          <t>[0.2734144247848294]</t>
+          <t>[0.27343053599608064]</t>
         </is>
       </c>
       <c r="H746" t="b">
@@ -31164,7 +31164,7 @@
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>[-0.00, -0.00, 0.00]</t>
+          <t>[-0.01, -0.00, 0.00]</t>
         </is>
       </c>
       <c r="F750" t="inlineStr">
@@ -31215,7 +31215,7 @@
       </c>
       <c r="G751" t="inlineStr">
         <is>
-          <t>[0.21613655269337798]</t>
+          <t>[0.2162466463842058]</t>
         </is>
       </c>
       <c r="H751" t="b">
@@ -31282,7 +31282,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.202|x8: 0.093|x9: 0.241|x10: 0.108|x11: 0.056|x12: 0.280|x13: 0.100|x14: 0.104|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.202|x8: 0.092|x9: 0.241|x10: 0.108|x11: 0.056|x12: 0.280|x13: 0.100|x14: 0.104|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E753" t="inlineStr">
@@ -31297,7 +31297,7 @@
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>[0.28036942784657026, 0.24100863351330765, 0.20186917094567514]</t>
+          <t>[0.2804073133611813, 0.24100039782138705, 0.20182827618656904]</t>
         </is>
       </c>
       <c r="H753" t="b">
@@ -31502,7 +31502,7 @@
       </c>
       <c r="G758" t="inlineStr">
         <is>
-          <t>[0.3485153206250152]</t>
+          <t>[0.3485015328980898]</t>
         </is>
       </c>
       <c r="H758" t="b">
@@ -31733,7 +31733,7 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>x1: -0.069|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: -0.051|x12: -0.066|x13: 0.000|x14: -0.039|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: -0.070|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: -0.051|x12: -0.066|x13: 0.000|x14: -0.039|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
@@ -31856,7 +31856,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.057|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.053|x12: 0.045|x13: 0.083|x14: 0.058|x15: 0.017|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.057|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.053|x12: 0.045|x13: 0.084|x14: 0.058|x15: 0.017|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
@@ -31912,7 +31912,7 @@
       </c>
       <c r="G768" t="inlineStr">
         <is>
-          <t>[0.3292307730627949]</t>
+          <t>[0.3291880869194469]</t>
         </is>
       </c>
       <c r="H768" t="b">
@@ -31953,7 +31953,7 @@
       </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>[0.36184798166346827, 0.25356739583357846]</t>
+          <t>[0.3618970948085415, 0.2535701150758889]</t>
         </is>
       </c>
       <c r="H769" t="b">
@@ -31994,7 +31994,7 @@
       </c>
       <c r="G770" t="inlineStr">
         <is>
-          <t>[0.25111907481072393]</t>
+          <t>[0.2511194836876301]</t>
         </is>
       </c>
       <c r="H770" t="b">
@@ -32035,7 +32035,7 @@
       </c>
       <c r="G771" t="inlineStr">
         <is>
-          <t>[0.24656264451236412]</t>
+          <t>[0.24652736903937417]</t>
         </is>
       </c>
       <c r="H771" t="b">
@@ -32143,7 +32143,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.078|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.288|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.050|x12: 0.279|x13: 0.259|x14: 0.190|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.078|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.289|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.050|x12: 0.279|x13: 0.258|x14: 0.190|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
@@ -32158,7 +32158,7 @@
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>[0.2884763387881196, 0.27915436365967145, 0.25850076731259813]</t>
+          <t>[0.2885133266675874, 0.2791610586161006, 0.2584941590765374]</t>
         </is>
       </c>
       <c r="H774" t="b">
@@ -32281,7 +32281,7 @@
       </c>
       <c r="G777" t="inlineStr">
         <is>
-          <t>[0.22331722326555187]</t>
+          <t>[0.2233331714007485]</t>
         </is>
       </c>
       <c r="H777" t="b">
@@ -32471,7 +32471,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.041|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.023|x12: 0.090|x13: 0.078|x14: 0.097|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.041|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.022|x12: 0.090|x13: 0.078|x14: 0.097|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
@@ -32594,7 +32594,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>x1: 0.052|x2: 0.000|x3: 0.000|x4: 0.051|x5: 0.000|x6: 0.000|x7: 0.053|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.087|x12: 0.100|x13: 0.123|x14: 0.058|x15: 0.088|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.052|x2: 0.000|x3: 0.000|x4: 0.051|x5: 0.000|x6: 0.000|x7: 0.053|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.087|x12: 0.100|x13: 0.123|x14: 0.057|x15: 0.088|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
@@ -32650,7 +32650,7 @@
       </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>[0.2093808518431067]</t>
+          <t>[0.20936006605185667]</t>
         </is>
       </c>
       <c r="H786" t="b">
@@ -32691,7 +32691,7 @@
       </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>[0.36110324619886647, 0.20319678261259277]</t>
+          <t>[0.3610911605657891, 0.20318506726855107]</t>
         </is>
       </c>
       <c r="H787" t="b">
@@ -32732,7 +32732,7 @@
       </c>
       <c r="G788" t="inlineStr">
         <is>
-          <t>[0.21413103229447664]</t>
+          <t>[0.2141416203363024]</t>
         </is>
       </c>
       <c r="H788" t="b">
@@ -32763,7 +32763,7 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>[-0.10, -0.02, 0.00]</t>
+          <t>[-0.09, -0.02, 0.00]</t>
         </is>
       </c>
       <c r="F789" t="inlineStr">
@@ -32922,7 +32922,7 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.049|x5: 0.000|x6: 0.000|x7: 0.024|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.023|x12: 0.019|x13: 0.000|x14: 0.054|x15: 0.036|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.050|x5: 0.000|x6: 0.000|x7: 0.024|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.023|x12: 0.019|x13: 0.000|x14: 0.054|x15: 0.036|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E793" t="inlineStr">
@@ -33019,7 +33019,7 @@
       </c>
       <c r="G795" t="inlineStr">
         <is>
-          <t>[0.2988669843558921]</t>
+          <t>[0.29889298721593616]</t>
         </is>
       </c>
       <c r="H795" t="b">
@@ -33168,7 +33168,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.019|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.016|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.072|x14: 0.075|x15: 0.067|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.019|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.016|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.072|x14: 0.075|x15: 0.068|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
@@ -33209,7 +33209,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.041|x8: 0.000|x9: 0.046|x10: 0.057|x11: 0.000|x12: 0.079|x13: 0.000|x14: 0.153|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.041|x8: 0.000|x9: 0.046|x10: 0.056|x11: 0.000|x12: 0.079|x13: 0.000|x14: 0.153|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E800" t="inlineStr">
@@ -33347,7 +33347,7 @@
       </c>
       <c r="G803" t="inlineStr">
         <is>
-          <t>[0.26633869652598696, 0.20530711314636468]</t>
+          <t>[0.26644475709913873, 0.20538973317309553]</t>
         </is>
       </c>
       <c r="H803" t="b">
@@ -33455,7 +33455,7 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.042|x8: 0.000|x9: 0.000|x10: 0.000|x11: -0.055|x12: -0.040|x13: -0.034|x14: -0.098|x15: -0.077|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.042|x8: 0.000|x9: 0.000|x10: 0.000|x11: -0.055|x12: -0.039|x13: -0.034|x14: -0.098|x15: -0.077|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E806" t="inlineStr">
@@ -33496,7 +33496,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.011|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.008|x12: 0.020|x13: 0.010|x14: 0.022|x15: 0.026|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.011|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.008|x12: 0.020|x13: 0.010|x14: 0.021|x15: 0.026|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E807" t="inlineStr">
@@ -33552,7 +33552,7 @@
       </c>
       <c r="G808" t="inlineStr">
         <is>
-          <t>[0.21410145616295603]</t>
+          <t>[0.2140823010252129]</t>
         </is>
       </c>
       <c r="H808" t="b">
@@ -33593,7 +33593,7 @@
       </c>
       <c r="G809" t="inlineStr">
         <is>
-          <t>[0.2196864359357448]</t>
+          <t>[0.21971430270076958]</t>
         </is>
       </c>
       <c r="H809" t="b">
@@ -33798,7 +33798,7 @@
       </c>
       <c r="G814" t="inlineStr">
         <is>
-          <t>[0.23100581893505678]</t>
+          <t>[0.23101572058462122]</t>
         </is>
       </c>
       <c r="H814" t="b">
@@ -33865,7 +33865,7 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.018|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.021|x12: 0.010|x13: 0.016|x14: 0.021|x15: 0.011|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.018|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.021|x12: 0.010|x13: 0.016|x14: 0.020|x15: 0.011|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E816" t="inlineStr">
@@ -33962,7 +33962,7 @@
       </c>
       <c r="G818" t="inlineStr">
         <is>
-          <t>[0.23257358013337998]</t>
+          <t>[0.2326077173228187]</t>
         </is>
       </c>
       <c r="H818" t="b">
@@ -34029,7 +34029,7 @@
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.055|x5: 0.108|x6: 0.046|x7: 0.075|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.152|x12: 0.064|x13: 0.041|x14: 0.060|x15: 0.000|x16: 0.068|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.055|x5: 0.108|x6: 0.046|x7: 0.075|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.152|x12: 0.064|x13: 0.041|x14: 0.060|x15: 0.000|x16: 0.067|x17: 0.000</t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
@@ -34193,7 +34193,7 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.046|x5: 0.041|x6: 0.000|x7: 0.081|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.065|x13: 0.000|x14: 0.044|x15: 0.000|x16: 0.050|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.046|x5: 0.041|x6: 0.000|x7: 0.082|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.065|x13: 0.000|x14: 0.044|x15: 0.000|x16: 0.050|x17: 0.000</t>
         </is>
       </c>
       <c r="E824" t="inlineStr">
@@ -34495,7 +34495,7 @@
       </c>
       <c r="G831" t="inlineStr">
         <is>
-          <t>[0.22361102687684528]</t>
+          <t>[0.2236004824659243]</t>
         </is>
       </c>
       <c r="H831" t="b">
@@ -34577,7 +34577,7 @@
       </c>
       <c r="G833" t="inlineStr">
         <is>
-          <t>[0.2930113182582818, 0.27274870740437396]</t>
+          <t>[0.2929870329265201, 0.2726838441118242]</t>
         </is>
       </c>
       <c r="H833" t="b">
@@ -34972,7 +34972,7 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.120|x5: 0.000|x6: 0.000|x7: 0.210|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.143|x12: 0.091|x13: 0.142|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.121|x5: 0.000|x6: 0.000|x7: 0.210|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.143|x12: 0.091|x13: 0.142|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E843" t="inlineStr">
@@ -34987,7 +34987,7 @@
       </c>
       <c r="G843" t="inlineStr">
         <is>
-          <t>[0.21028231847568862]</t>
+          <t>[0.21023843950050042]</t>
         </is>
       </c>
       <c r="H843" t="b">
@@ -35054,7 +35054,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>x1: 0.082|x2: 0.000|x3: 0.000|x4: 0.106|x5: 0.044|x6: 0.000|x7: 0.074|x8: 0.000|x9: 0.000|x10: 0.135|x11: 0.062|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.062|x17: 0.000</t>
+          <t>x1: 0.082|x2: 0.000|x3: 0.000|x4: 0.106|x5: 0.044|x6: 0.000|x7: 0.073|x8: 0.000|x9: 0.000|x10: 0.135|x11: 0.062|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.062|x17: 0.000</t>
         </is>
       </c>
       <c r="E845" t="inlineStr">
@@ -35546,7 +35546,7 @@
       </c>
       <c r="D857" t="inlineStr">
         <is>
-          <t>x1: 0.034|x2: 0.101|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.034|x8: 0.086|x9: 0.089|x10: 0.000|x11: 0.000|x12: 0.113|x13: 0.000|x14: 0.064|x15: 0.046|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.034|x2: 0.101|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.034|x8: 0.086|x9: 0.090|x10: 0.000|x11: 0.000|x12: 0.113|x13: 0.000|x14: 0.064|x15: 0.046|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E857" t="inlineStr">
@@ -35587,7 +35587,7 @@
       </c>
       <c r="D858" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.169|x3: 0.048|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.117|x8: 0.000|x9: 0.056|x10: 0.000|x11: 0.063|x12: 0.182|x13: 0.088|x14: 0.064|x15: 0.000|x16: 0.088|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.169|x3: 0.048|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.117|x8: 0.000|x9: 0.057|x10: 0.000|x11: 0.063|x12: 0.182|x13: 0.088|x14: 0.064|x15: 0.000|x16: 0.088|x17: 0.000</t>
         </is>
       </c>
       <c r="E858" t="inlineStr">
@@ -35643,7 +35643,7 @@
       </c>
       <c r="G859" t="inlineStr">
         <is>
-          <t>[0.2882197265665792, 0.21945344939900252]</t>
+          <t>[0.28823991791056963, 0.21945017367255976]</t>
         </is>
       </c>
       <c r="H859" t="b">
@@ -35874,7 +35874,7 @@
       </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t>x1: 0.064|x2: 0.117|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.092|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.053|x12: 0.095|x13: 0.066|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.065|x2: 0.117|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.092|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.053|x12: 0.095|x13: 0.066|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E865" t="inlineStr">
@@ -35971,7 +35971,7 @@
       </c>
       <c r="G867" t="inlineStr">
         <is>
-          <t>[0.23108824617762666, 0.20030727726087874]</t>
+          <t>[0.23105631046521058, 0.20026349667968413]</t>
         </is>
       </c>
       <c r="H867" t="b">
@@ -36012,7 +36012,7 @@
       </c>
       <c r="G868" t="inlineStr">
         <is>
-          <t>[0.2656388469171922]</t>
+          <t>[0.2656257753788173]</t>
         </is>
       </c>
       <c r="H868" t="b">
@@ -36094,7 +36094,7 @@
       </c>
       <c r="G870" t="inlineStr">
         <is>
-          <t>[0.22962484021138146]</t>
+          <t>[0.22953329946549797]</t>
         </is>
       </c>
       <c r="H870" t="b">
@@ -36120,7 +36120,7 @@
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>x1: 0.118|x2: 0.000|x3: 0.137|x4: 0.065|x5: 0.000|x6: 0.366|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.130|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.118|x2: 0.000|x3: 0.137|x4: 0.065|x5: 0.000|x6: 0.366|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.131|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E871" t="inlineStr">
@@ -36135,7 +36135,7 @@
       </c>
       <c r="G871" t="inlineStr">
         <is>
-          <t>[0.36626362459441825]</t>
+          <t>[0.36632542507396754]</t>
         </is>
       </c>
       <c r="H871" t="b">
@@ -36176,7 +36176,7 @@
       </c>
       <c r="G872" t="inlineStr">
         <is>
-          <t>[0.28164752615173044, 0.26142029139385115]</t>
+          <t>[0.2816722230721001, 0.2614968774736711]</t>
         </is>
       </c>
       <c r="H872" t="b">
@@ -36217,7 +36217,7 @@
       </c>
       <c r="G873" t="inlineStr">
         <is>
-          <t>[0.3356444979577665]</t>
+          <t>[0.3356589289949684]</t>
         </is>
       </c>
       <c r="H873" t="b">
@@ -36299,7 +36299,7 @@
       </c>
       <c r="G875" t="inlineStr">
         <is>
-          <t>[0.3156878929147239]</t>
+          <t>[0.3157382716006842]</t>
         </is>
       </c>
       <c r="H875" t="b">
@@ -36325,7 +36325,7 @@
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.077|x3: 0.211|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.082|x12: 0.102|x13: 0.061|x14: 0.000|x15: 0.000|x16: 0.098|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.076|x3: 0.211|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.082|x12: 0.102|x13: 0.061|x14: 0.000|x15: 0.000|x16: 0.098|x17: 0.000</t>
         </is>
       </c>
       <c r="E876" t="inlineStr">
@@ -36340,7 +36340,7 @@
       </c>
       <c r="G876" t="inlineStr">
         <is>
-          <t>[0.21062908867535673]</t>
+          <t>[0.2105666531042824]</t>
         </is>
       </c>
       <c r="H876" t="b">
@@ -36463,7 +36463,7 @@
       </c>
       <c r="G879" t="inlineStr">
         <is>
-          <t>[0.2179172335396736]</t>
+          <t>[0.21788691318434583]</t>
         </is>
       </c>
       <c r="H879" t="b">
@@ -36750,7 +36750,7 @@
       </c>
       <c r="G886" t="inlineStr">
         <is>
-          <t>[0.208334346910531]</t>
+          <t>[0.20829854449028712]</t>
         </is>
       </c>
       <c r="H886" t="b">
@@ -36776,7 +36776,7 @@
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.072|x3: 0.000|x4: 0.033|x5: 0.000|x6: 0.000|x7: 0.040|x8: 0.082|x9: 0.061|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.073|x3: 0.000|x4: 0.033|x5: 0.000|x6: 0.000|x7: 0.041|x8: 0.082|x9: 0.061|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
         </is>
       </c>
       <c r="E887" t="inlineStr">
@@ -36996,7 +36996,7 @@
       </c>
       <c r="G892" t="inlineStr">
         <is>
-          <t>[0.31059655023138655]</t>
+          <t>[0.3106591971826286]</t>
         </is>
       </c>
       <c r="H892" t="b">
@@ -37037,7 +37037,7 @@
       </c>
       <c r="G893" t="inlineStr">
         <is>
-          <t>[0.21462985784651592]</t>
+          <t>[0.2145364226313969]</t>
         </is>
       </c>
       <c r="H893" t="b">
@@ -37309,7 +37309,7 @@
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.202|x5: 0.030|x6: 0.000|x7: 0.000|x8: 0.057|x9: 0.000|x10: 0.039|x11: 0.000|x12: 0.070|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.201|x5: 0.030|x6: 0.000|x7: 0.000|x8: 0.057|x9: 0.000|x10: 0.039|x11: 0.000|x12: 0.070|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E900" t="inlineStr">
@@ -37324,7 +37324,7 @@
       </c>
       <c r="G900" t="inlineStr">
         <is>
-          <t>[0.20154234464176288]</t>
+          <t>[0.2014872288239146]</t>
         </is>
       </c>
       <c r="H900" t="b">
@@ -37365,7 +37365,7 @@
       </c>
       <c r="G901" t="inlineStr">
         <is>
-          <t>[0.2656131916711839]</t>
+          <t>[0.2655641624519311]</t>
         </is>
       </c>
       <c r="H901" t="b">
@@ -37652,7 +37652,7 @@
       </c>
       <c r="G908" t="inlineStr">
         <is>
-          <t>[0.23865444769693842]</t>
+          <t>[0.2385421450549612]</t>
         </is>
       </c>
       <c r="H908" t="b">
@@ -37801,7 +37801,7 @@
       </c>
       <c r="D912" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.037|x5: 0.044|x6: 0.011|x7: 0.027|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.032|x12: 0.046|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.037|x5: 0.043|x6: 0.011|x7: 0.027|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.032|x12: 0.045|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E912" t="inlineStr">
@@ -37857,7 +37857,7 @@
       </c>
       <c r="G913" t="inlineStr">
         <is>
-          <t>[0.2555987131121832]</t>
+          <t>[0.25555910143002264]</t>
         </is>
       </c>
       <c r="H913" t="b">
@@ -37924,7 +37924,7 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>x1: 0.072|x2: 0.022|x3: 0.000|x4: 0.040|x5: 0.000|x6: 0.000|x7: 0.043|x8: 0.083|x9: 0.000|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.021|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.072|x2: 0.022|x3: 0.000|x4: 0.040|x5: 0.000|x6: 0.000|x7: 0.043|x8: 0.083|x9: 0.000|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.022|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E915" t="inlineStr">
@@ -38021,7 +38021,7 @@
       </c>
       <c r="G917" t="inlineStr">
         <is>
-          <t>[0.22402743434352543]</t>
+          <t>[0.22409239473506234]</t>
         </is>
       </c>
       <c r="H917" t="b">
@@ -38103,7 +38103,7 @@
       </c>
       <c r="G919" t="inlineStr">
         <is>
-          <t>[0.22529995665611352]</t>
+          <t>[0.22537015061808996]</t>
         </is>
       </c>
       <c r="H919" t="b">
@@ -38144,7 +38144,7 @@
       </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>[0.33846034372489947]</t>
+          <t>[0.33848933157922406]</t>
         </is>
       </c>
       <c r="H920" t="b">
@@ -38211,7 +38211,7 @@
       </c>
       <c r="D922" t="inlineStr">
         <is>
-          <t>x1: 0.006|x2: 0.000|x3: 0.000|x4: 0.015|x5: 0.009|x6: 0.012|x7: 0.008|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.018|x13: 0.000|x14: 0.008|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.006|x2: 0.000|x3: 0.000|x4: 0.015|x5: 0.008|x6: 0.012|x7: 0.008|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.018|x13: 0.000|x14: 0.008|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E922" t="inlineStr">
@@ -38349,7 +38349,7 @@
       </c>
       <c r="G925" t="inlineStr">
         <is>
-          <t>[0.24434234836592944, 0.2029367246089178]</t>
+          <t>[0.24446830734034514, 0.2031063697726624]</t>
         </is>
       </c>
       <c r="H925" t="b">
@@ -38472,7 +38472,7 @@
       </c>
       <c r="G928" t="inlineStr">
         <is>
-          <t>[0.2294507408344777]</t>
+          <t>[0.22945862313498386]</t>
         </is>
       </c>
       <c r="H928" t="b">
@@ -38539,7 +38539,7 @@
       </c>
       <c r="D930" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.005|x7: 0.007|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.007|x12: 0.003|x13: 0.000|x14: 0.000|x15: 0.001|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.005|x7: 0.006|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.007|x12: 0.003|x13: 0.000|x14: 0.000|x15: 0.001|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E930" t="inlineStr">
@@ -38580,7 +38580,7 @@
       </c>
       <c r="D931" t="inlineStr">
         <is>
-          <t>x1: 0.030|x2: 0.032|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.120|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.047|x11: 0.031|x12: 0.037|x13: 0.000|x14: 0.045|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.031|x2: 0.032|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.120|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.047|x11: 0.031|x12: 0.037|x13: 0.000|x14: 0.045|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E931" t="inlineStr">
@@ -38677,7 +38677,7 @@
       </c>
       <c r="G933" t="inlineStr">
         <is>
-          <t>[0.20169143932376526]</t>
+          <t>[0.20157532390737684]</t>
         </is>
       </c>
       <c r="H933" t="b">
@@ -38867,7 +38867,7 @@
       </c>
       <c r="D938" t="inlineStr">
         <is>
-          <t>x1: 0.041|x2: 0.000|x3: 0.000|x4: 0.026|x5: 0.000|x6: 0.031|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.088|x12: 0.074|x13: 0.000|x14: 0.029|x15: 0.068|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.042|x2: 0.000|x3: 0.000|x4: 0.026|x5: 0.000|x6: 0.031|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.088|x12: 0.074|x13: 0.000|x14: 0.029|x15: 0.068|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E938" t="inlineStr">
@@ -39072,7 +39072,7 @@
       </c>
       <c r="D943" t="inlineStr">
         <is>
-          <t>x1: 0.082|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.073|x7: 0.214|x8: 0.000|x9: 0.044|x10: 0.000|x11: 0.158|x12: 0.113|x13: 0.052|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.082|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.073|x7: 0.215|x8: 0.000|x9: 0.044|x10: 0.000|x11: 0.158|x12: 0.113|x13: 0.052|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E943" t="inlineStr">
@@ -39087,7 +39087,7 @@
       </c>
       <c r="G943" t="inlineStr">
         <is>
-          <t>[0.21440230081468312]</t>
+          <t>[0.21450868065054457]</t>
         </is>
       </c>
       <c r="H943" t="b">
@@ -39210,7 +39210,7 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>[0.3742361448451945]</t>
+          <t>[0.37422861345470093]</t>
         </is>
       </c>
       <c r="H946" t="b">
@@ -39277,7 +39277,7 @@
       </c>
       <c r="D948" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.253|x8: 0.000|x9: 0.101|x10: 0.000|x11: 0.042|x12: 0.238|x13: 0.000|x14: 0.064|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.252|x8: 0.000|x9: 0.101|x10: 0.000|x11: 0.042|x12: 0.238|x13: 0.000|x14: 0.064|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E948" t="inlineStr">
@@ -39292,7 +39292,7 @@
       </c>
       <c r="G948" t="inlineStr">
         <is>
-          <t>[0.2525342803865572, 0.23773046148172067]</t>
+          <t>[0.2524714055682308, 0.23773392442379787]</t>
         </is>
       </c>
       <c r="H948" t="b">
@@ -39374,7 +39374,7 @@
       </c>
       <c r="G950" t="inlineStr">
         <is>
-          <t>[0.25629342293368956]</t>
+          <t>[0.2563529823953461]</t>
         </is>
       </c>
       <c r="H950" t="b">
@@ -39415,7 +39415,7 @@
       </c>
       <c r="G951" t="inlineStr">
         <is>
-          <t>[0.2572578996498379]</t>
+          <t>[0.25728364696571565]</t>
         </is>
       </c>
       <c r="H951" t="b">
@@ -39441,7 +39441,7 @@
       </c>
       <c r="D952" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.161|x8: 0.000|x9: 0.041|x10: 0.000|x11: 0.000|x12: 0.083|x13: 0.093|x14: 0.026|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.160|x8: 0.000|x9: 0.041|x10: 0.000|x11: 0.000|x12: 0.083|x13: 0.093|x14: 0.026|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E952" t="inlineStr">
@@ -39620,7 +39620,7 @@
       </c>
       <c r="G956" t="inlineStr">
         <is>
-          <t>[0.2588235628325076]</t>
+          <t>[0.258807035221834]</t>
         </is>
       </c>
       <c r="H956" t="b">
@@ -39866,7 +39866,7 @@
       </c>
       <c r="G962" t="inlineStr">
         <is>
-          <t>[0.3067867949151306]</t>
+          <t>[0.3068410928548995]</t>
         </is>
       </c>
       <c r="H962" t="b">
@@ -39892,7 +39892,7 @@
       </c>
       <c r="D963" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.204|x8: 0.000|x9: 0.057|x10: 0.000|x11: 0.100|x12: 0.130|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.203|x8: 0.000|x9: 0.057|x10: 0.000|x11: 0.100|x12: 0.130|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E963" t="inlineStr">
@@ -39907,7 +39907,7 @@
       </c>
       <c r="G963" t="inlineStr">
         <is>
-          <t>[0.20358231121822734]</t>
+          <t>[0.20348477103466903]</t>
         </is>
       </c>
       <c r="H963" t="b">
@@ -39974,7 +39974,7 @@
       </c>
       <c r="D965" t="inlineStr">
         <is>
-          <t>x1: 0.041|x2: 0.000|x3: 0.000|x4: 0.043|x5: 0.000|x6: 0.000|x7: 0.118|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.039|x12: 0.155|x13: 0.000|x14: 0.030|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.041|x2: 0.000|x3: 0.000|x4: 0.043|x5: 0.000|x6: 0.000|x7: 0.118|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.038|x12: 0.155|x13: 0.000|x14: 0.030|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E965" t="inlineStr">
@@ -40020,7 +40020,7 @@
       </c>
       <c r="E966" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.27]</t>
+          <t>[0.00, 0.04, 0.26]</t>
         </is>
       </c>
       <c r="F966" t="inlineStr">
@@ -40030,7 +40030,7 @@
       </c>
       <c r="G966" t="inlineStr">
         <is>
-          <t>[0.26507131686159724, 0.23472499658263465]</t>
+          <t>[0.26494420951610487, 0.23468047868472827]</t>
         </is>
       </c>
       <c r="H966" t="b">
@@ -40194,7 +40194,7 @@
       </c>
       <c r="G970" t="inlineStr">
         <is>
-          <t>[0.20599215642082686]</t>
+          <t>[0.20601203403045826]</t>
         </is>
       </c>
       <c r="H970" t="b">
@@ -40261,7 +40261,7 @@
       </c>
       <c r="D972" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.030|x8: 0.000|x9: -0.005|x10: 0.000|x11: -0.008|x12: -0.021|x13: -0.006|x14: -0.010|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.030|x8: 0.000|x9: -0.005|x10: 0.000|x11: -0.008|x12: -0.021|x13: -0.005|x14: -0.010|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E972" t="inlineStr">
@@ -40317,7 +40317,7 @@
       </c>
       <c r="G973" t="inlineStr">
         <is>
-          <t>[0.23493392854858142]</t>
+          <t>[0.23497272903156813]</t>
         </is>
       </c>
       <c r="H973" t="b">
@@ -40440,7 +40440,7 @@
       </c>
       <c r="G976" t="inlineStr">
         <is>
-          <t>[0.21746049000061857]</t>
+          <t>[0.21745134492470694]</t>
         </is>
       </c>
       <c r="H976" t="b">
@@ -40563,7 +40563,7 @@
       </c>
       <c r="G979" t="inlineStr">
         <is>
-          <t>[0.21411371359122935]</t>
+          <t>[0.21411774038912568]</t>
         </is>
       </c>
       <c r="H979" t="b">
@@ -40794,7 +40794,7 @@
       </c>
       <c r="D985" t="inlineStr">
         <is>
-          <t>x1: 0.073|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.144|x9: 0.118|x10: 0.000|x11: 0.164|x12: 0.000|x13: 0.044|x14: 0.044|x15: 0.074|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.073|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.144|x9: 0.118|x10: 0.000|x11: 0.163|x12: 0.000|x13: 0.044|x14: 0.044|x15: 0.074|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E985" t="inlineStr">
@@ -40891,7 +40891,7 @@
       </c>
       <c r="G987" t="inlineStr">
         <is>
-          <t>[0.21852457437023282]</t>
+          <t>[0.21850849717040963]</t>
         </is>
       </c>
       <c r="H987" t="b">
@@ -41245,7 +41245,7 @@
       </c>
       <c r="D996" t="inlineStr">
         <is>
-          <t>x1: 0.031|x2: 0.000|x3: 0.000|x4: 0.066|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.081|x10: 0.000|x11: 0.054|x12: 0.000|x13: 0.000|x14: 0.039|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.031|x2: 0.000|x3: 0.000|x4: 0.066|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.081|x10: 0.000|x11: 0.054|x12: 0.000|x13: 0.000|x14: 0.038|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E996" t="inlineStr">

--- a/Project_python/out/Top2vec/test_top2vec_training_files_it0_0.xlsx
+++ b/Project_python/out/Top2vec/test_top2vec_training_files_it0_0.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.30570497797443696]</t>
+          <t>[0.30579602882566936]</t>
         </is>
       </c>
       <c r="H2" t="b">
@@ -532,7 +532,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>x1: 0.299|x2: 0.052|x3: 0.000|x4: 0.048|x5: 0.070|x6: 0.000|x7: 0.000|x8: 0.158|x9: 0.094|x10: 0.052|x11: 0.102|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.300|x2: 0.053|x3: 0.000|x4: 0.048|x5: 0.070|x6: 0.000|x7: 0.000|x8: 0.158|x9: 0.094|x10: 0.052|x11: 0.102|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0.29939841181408094]</t>
+          <t>[0.2995499838476537]</t>
         </is>
       </c>
       <c r="H3" t="b">
@@ -629,7 +629,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.3262351966780341]</t>
+          <t>[0.32613935115408155]</t>
         </is>
       </c>
       <c r="H5" t="b">
@@ -655,7 +655,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>x1: 0.230|x2: 0.027|x3: 0.000|x4: 0.027|x5: 0.050|x6: 0.000|x7: 0.000|x8: 0.075|x9: 0.000|x10: 0.000|x11: 0.073|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.231|x2: 0.028|x3: 0.000|x4: 0.027|x5: 0.050|x6: 0.000|x7: 0.000|x8: 0.075|x9: 0.000|x10: 0.000|x11: 0.073|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0.2302822656445208]</t>
+          <t>[0.2305068813870834]</t>
         </is>
       </c>
       <c r="H6" t="b">
@@ -711,7 +711,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.23641371462057847]</t>
+          <t>[0.23643889721094835]</t>
         </is>
       </c>
       <c r="H7" t="b">
@@ -778,7 +778,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>x1: 0.624|x2: 0.143|x3: 0.000|x4: 0.108|x5: 0.101|x6: 0.048|x7: 0.000|x8: 0.107|x9: 0.000|x10: 0.000|x11: 0.060|x12: 0.000|x13: 0.051|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000</t>
+          <t>x1: 0.624|x2: 0.142|x3: 0.000|x4: 0.108|x5: 0.101|x6: 0.048|x7: 0.000|x8: 0.107|x9: 0.000|x10: 0.000|x11: 0.060|x12: 0.000|x13: 0.051|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[0.6244690195144922]</t>
+          <t>[0.6244104658697912]</t>
         </is>
       </c>
       <c r="H9" t="b">
@@ -834,7 +834,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0.2254168342860655]</t>
+          <t>[0.22545119469214384]</t>
         </is>
       </c>
       <c r="H10" t="b">
@@ -875,7 +875,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.2867072562611004]</t>
+          <t>[0.28684481149253743]</t>
         </is>
       </c>
       <c r="H11" t="b">
@@ -916,7 +916,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[0.42626384885405344]</t>
+          <t>[0.42611094492219537]</t>
         </is>
       </c>
       <c r="H12" t="b">
@@ -957,7 +957,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[0.34685546410495144]</t>
+          <t>[0.3468037607707914]</t>
         </is>
       </c>
       <c r="H13" t="b">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[0.24833647083363222]</t>
+          <t>[0.24829314936213676]</t>
         </is>
       </c>
       <c r="H15" t="b">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[0.4235055192323724]</t>
+          <t>[0.42354562709276694]</t>
         </is>
       </c>
       <c r="H16" t="b">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>x1: 0.199|x2: 0.059|x3: 0.118|x4: 0.111|x5: 0.091|x6: 0.000|x7: 0.000|x8: 0.167|x9: 0.057|x10: 0.140|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.055|x15: 0.000|x16: 0.044|x17: 0.000</t>
+          <t>x1: 0.199|x2: 0.059|x3: 0.118|x4: 0.111|x5: 0.091|x6: 0.000|x7: 0.000|x8: 0.167|x9: 0.058|x10: 0.140|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.055|x15: 0.000|x16: 0.044|x17: 0.000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[0.31274962566791503]</t>
+          <t>[0.31283116763485563]</t>
         </is>
       </c>
       <c r="H19" t="b">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>x1: 0.302|x2: 0.044|x3: 0.000|x4: 0.042|x5: 0.055|x6: 0.000|x7: 0.000|x8: 0.127|x9: 0.000|x10: 0.000|x11: 0.107|x12: 0.050|x13: 0.058|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.303|x2: 0.044|x3: 0.000|x4: 0.042|x5: 0.056|x6: 0.000|x7: 0.000|x8: 0.127|x9: 0.000|x10: 0.000|x11: 0.107|x12: 0.050|x13: 0.058|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[0.30248707284274856]</t>
+          <t>[0.3025942809356468]</t>
         </is>
       </c>
       <c r="H21" t="b">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>x1: 0.271|x2: 0.000|x3: 0.000|x4: 0.043|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.085|x9: 0.000|x10: 0.000|x11: 0.051|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.271|x2: 0.000|x3: 0.000|x4: 0.044|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.085|x9: 0.000|x10: 0.000|x11: 0.051|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[0.270812589115989]</t>
+          <t>[0.27090083035749385]</t>
         </is>
       </c>
       <c r="H22" t="b">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>x1: 0.306|x2: 0.231|x3: 0.073|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.083|x9: 0.000|x10: 0.052|x11: 0.047|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.069|x16: 0.114|x17: 0.000</t>
+          <t>x1: 0.306|x2: 0.231|x3: 0.072|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.083|x9: 0.000|x10: 0.052|x11: 0.047|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.069|x16: 0.114|x17: 0.000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[0.30559650675641753, 0.23069157028092818]</t>
+          <t>[0.3055188208534962, 0.23063232074930567]</t>
         </is>
       </c>
       <c r="H23" t="b">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>x1: 0.133|x2: 0.091|x3: 0.000|x4: 0.107|x5: 0.076|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.050|x14: 0.000|x15: 0.053|x16: 0.076|x17: 0.000</t>
+          <t>x1: 0.133|x2: 0.090|x3: 0.000|x4: 0.107|x5: 0.076|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.050|x14: 0.000|x15: 0.053|x16: 0.076|x17: 0.000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[0.4257141544670864]</t>
+          <t>[0.42567799220982183]</t>
         </is>
       </c>
       <c r="H25" t="b">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[0.2841867639840281]</t>
+          <t>[0.2841147863875461]</t>
         </is>
       </c>
       <c r="H28" t="b">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[0.28328746829703344]</t>
+          <t>[0.28332532486879075]</t>
         </is>
       </c>
       <c r="H29" t="b">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[0.22254209084052526]</t>
+          <t>[0.22251801219235415]</t>
         </is>
       </c>
       <c r="H30" t="b">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>x1: 0.339|x2: 0.000|x3: 0.065|x4: 0.050|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.143|x9: 0.054|x10: 0.000|x11: 0.077|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.045|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.339|x2: 0.000|x3: 0.065|x4: 0.050|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.142|x9: 0.054|x10: 0.000|x11: 0.077|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.045|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[0.33895484072297016]</t>
+          <t>[0.3386715652016827]</t>
         </is>
       </c>
       <c r="H31" t="b">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>x1: 0.561|x2: 0.094|x3: 0.000|x4: 0.082|x5: 0.084|x6: 0.000|x7: 0.000|x8: 0.092|x9: 0.000|x10: 0.073|x11: 0.102|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.060|x17: 0.000</t>
+          <t>x1: 0.561|x2: 0.094|x3: 0.000|x4: 0.081|x5: 0.084|x6: 0.000|x7: 0.000|x8: 0.092|x9: 0.000|x10: 0.073|x11: 0.102|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.060|x17: 0.000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[0.5610707135329369]</t>
+          <t>[0.5611268639948396]</t>
         </is>
       </c>
       <c r="H32" t="b">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>x1: 0.414|x2: 0.089|x3: 0.100|x4: 0.091|x5: 0.049|x6: 0.000|x7: 0.000|x8: 0.181|x9: 0.065|x10: 0.043|x11: 0.044|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.055|x16: 0.042|x17: 0.000</t>
+          <t>x1: 0.414|x2: 0.089|x3: 0.100|x4: 0.090|x5: 0.049|x6: 0.000|x7: 0.000|x8: 0.181|x9: 0.065|x10: 0.043|x11: 0.044|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.055|x16: 0.042|x17: 0.000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[0.41373857470926795]</t>
+          <t>[0.413785280522184]</t>
         </is>
       </c>
       <c r="H33" t="b">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[0.3216479388894704]</t>
+          <t>[0.3215148459429927]</t>
         </is>
       </c>
       <c r="H34" t="b">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>x1: 0.428|x2: 0.119|x3: 0.076|x4: 0.090|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.102|x9: 0.000|x10: 0.064|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.072|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.428|x2: 0.119|x3: 0.076|x4: 0.090|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.102|x9: 0.000|x10: 0.063|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.072|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[0.428345988702411]</t>
+          <t>[0.4279671217936638]</t>
         </is>
       </c>
       <c r="H35" t="b">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[0.2642687682569485, 0.24303178444005114]</t>
+          <t>[0.264332594374759, 0.24306123653126424]</t>
         </is>
       </c>
       <c r="H36" t="b">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>x1: 0.156|x2: 0.054|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.083|x9: 0.054|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.077|x14: 0.082|x15: 0.069|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.156|x2: 0.054|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.083|x9: 0.054|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.077|x14: 0.081|x15: 0.069|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[0.384127579688121, 0.2466298076266772]</t>
+          <t>[0.38424042448033924, 0.24668706084023542]</t>
         </is>
       </c>
       <c r="H38" t="b">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[0.31119801574220746]</t>
+          <t>[0.31108451649316415]</t>
         </is>
       </c>
       <c r="H40" t="b">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[0.3037379307267702]</t>
+          <t>[0.3037463415984707]</t>
         </is>
       </c>
       <c r="H41" t="b">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[0.2004099734698773]</t>
+          <t>[0.20043529981413705]</t>
         </is>
       </c>
       <c r="H42" t="b">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>x1: 0.062|x2: 0.228|x3: 0.000|x4: 0.098|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.065|x9: 0.000|x10: 0.043|x11: 0.000|x12: 0.062|x13: 0.000|x14: 0.084|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.061|x2: 0.228|x3: 0.000|x4: 0.098|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.065|x9: 0.000|x10: 0.043|x11: 0.000|x12: 0.062|x13: 0.000|x14: 0.084|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[0.22791543766775732]</t>
+          <t>[0.2279062588868586]</t>
         </is>
       </c>
       <c r="H43" t="b">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>x1: 0.168|x2: 0.475|x3: 0.110|x4: 0.000|x5: 0.059|x6: 0.000|x7: 0.000|x8: 0.177|x9: 0.000|x10: 0.162|x11: 0.000|x12: 0.071|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.152|x17: 0.000</t>
+          <t>x1: 0.168|x2: 0.476|x3: 0.110|x4: 0.000|x5: 0.059|x6: 0.000|x7: 0.000|x8: 0.177|x9: 0.000|x10: 0.162|x11: 0.000|x12: 0.071|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.152|x17: 0.000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[0.4754895885005991]</t>
+          <t>[0.475560560121542]</t>
         </is>
       </c>
       <c r="H44" t="b">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[0.49304692163498837]</t>
+          <t>[0.4930752945761263]</t>
         </is>
       </c>
       <c r="H45" t="b">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>x1: 0.255|x2: 0.260|x3: 0.000|x4: 0.050|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.149|x9: 0.000|x10: 0.094|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.048|x17: 0.000</t>
+          <t>x1: 0.255|x2: 0.260|x3: 0.000|x4: 0.050|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.148|x9: 0.000|x10: 0.094|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.048|x17: 0.000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[0.2597845453816983, 0.25493921245724865]</t>
+          <t>[0.25986573394437, 0.254924808652737]</t>
         </is>
       </c>
       <c r="H46" t="b">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>x1: 0.101|x2: 0.469|x3: 0.118|x4: 0.130|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.065|x9: 0.000|x10: 0.134|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.080|x15: 0.000|x16: 0.147|x17: 0.000</t>
+          <t>x1: 0.101|x2: 0.469|x3: 0.119|x4: 0.130|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.065|x9: 0.000|x10: 0.134|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.080|x15: 0.000|x16: 0.147|x17: 0.000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[0.4693620914896191]</t>
+          <t>[0.46942844335867906]</t>
         </is>
       </c>
       <c r="H49" t="b">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>x1: 0.120|x2: 0.464|x3: 0.129|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.097|x9: 0.065|x10: 0.179|x11: 0.000|x12: 0.000|x13: 0.150|x14: 0.201|x15: 0.076|x16: 0.072|x17: 0.000</t>
+          <t>x1: 0.120|x2: 0.464|x3: 0.129|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.098|x9: 0.065|x10: 0.179|x11: 0.000|x12: 0.000|x13: 0.150|x14: 0.201|x15: 0.076|x16: 0.072|x17: 0.000</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.46385985656231243, 0.20067966978379412]</t>
+          <t>[0.46397557371599546, 0.20073431946063766]</t>
         </is>
       </c>
       <c r="H50" t="b">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.5468302630146]</t>
+          <t>[0.546794886522579]</t>
         </is>
       </c>
       <c r="H51" t="b">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>x1: 0.148|x2: 0.387|x3: 0.193|x4: 0.054|x5: 0.068|x6: 0.037|x7: 0.000|x8: 0.106|x9: 0.000|x10: 0.131|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.043|x15: 0.066|x16: 0.147|x17: 0.000</t>
+          <t>x1: 0.148|x2: 0.387|x3: 0.193|x4: 0.054|x5: 0.068|x6: 0.037|x7: 0.000|x8: 0.106|x9: 0.000|x10: 0.131|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.043|x15: 0.066|x16: 0.148|x17: 0.000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.3874035361654819]</t>
+          <t>[0.38728335461210417]</t>
         </is>
       </c>
       <c r="H52" t="b">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[0.41557311435185196]</t>
+          <t>[0.415745741119856]</t>
         </is>
       </c>
       <c r="H53" t="b">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[0.4111835891533908]</t>
+          <t>[0.41118464876571864]</t>
         </is>
       </c>
       <c r="H54" t="b">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>x1: 0.122|x2: 0.420|x3: 0.050|x4: 0.000|x5: 0.048|x6: 0.000|x7: 0.000|x8: 0.062|x9: 0.042|x10: 0.174|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.101|x15: 0.000|x16: 0.068|x17: 0.000</t>
+          <t>x1: 0.122|x2: 0.419|x3: 0.050|x4: 0.000|x5: 0.048|x6: 0.000|x7: 0.000|x8: 0.062|x9: 0.042|x10: 0.174|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.101|x15: 0.000|x16: 0.068|x17: 0.000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[0.41957021897658636]</t>
+          <t>[0.41942468221212437]</t>
         </is>
       </c>
       <c r="H55" t="b">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[0.39748321801395164, 0.2035282582936529]</t>
+          <t>[0.39738367119109097, 0.2036448495572959]</t>
         </is>
       </c>
       <c r="H56" t="b">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.366|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.089|x9: 0.088|x10: 0.111|x11: 0.000|x12: 0.000|x13: 0.097|x14: 0.067|x15: 0.100|x16: 0.129|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.366|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.090|x9: 0.088|x10: 0.111|x11: 0.000|x12: 0.000|x13: 0.097|x14: 0.067|x15: 0.100|x16: 0.129|x17: 0.000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[0.36608638372719116]</t>
+          <t>[0.3660670411615974]</t>
         </is>
       </c>
       <c r="H57" t="b">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[0.3505125252612707, 0.2287233299012185]</t>
+          <t>[0.3505058129856111, 0.22877747908624085]</t>
         </is>
       </c>
       <c r="H58" t="b">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[0.4873547185715517, 0.22073032992508335]</t>
+          <t>[0.4874409973959925, 0.22079380354564462]</t>
         </is>
       </c>
       <c r="H59" t="b">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[0.3391618184116184]</t>
+          <t>[0.33905657236760256]</t>
         </is>
       </c>
       <c r="H60" t="b">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[0.32088694114943034]</t>
+          <t>[0.3208589695625947]</t>
         </is>
       </c>
       <c r="H61" t="b">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[0.40911629913566255]</t>
+          <t>[0.40917416082375024]</t>
         </is>
       </c>
       <c r="H62" t="b">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[0.4666012681757582]</t>
+          <t>[0.46674204807605524]</t>
         </is>
       </c>
       <c r="H63" t="b">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[0.4231356638567777, 0.20422692128182665]</t>
+          <t>[0.4230628342924041, 0.2041693399334418]</t>
         </is>
       </c>
       <c r="H65" t="b">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>x1: 0.199|x2: 0.401|x3: 0.068|x4: 0.056|x5: 0.049|x6: 0.063|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.154|x11: 0.103|x12: 0.000|x13: 0.000|x14: 0.055|x15: 0.000|x16: 0.112|x17: 0.000</t>
+          <t>x1: 0.198|x2: 0.401|x3: 0.068|x4: 0.056|x5: 0.049|x6: 0.063|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.154|x11: 0.103|x12: 0.000|x13: 0.000|x14: 0.055|x15: 0.000|x16: 0.112|x17: 0.000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[0.40099189983756517]</t>
+          <t>[0.4007228095754528]</t>
         </is>
       </c>
       <c r="H66" t="b">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.363|x3: 0.000|x4: 0.000|x5: 0.065|x6: 0.000|x7: 0.000|x8: 0.109|x9: 0.067|x10: 0.102|x11: 0.000|x12: 0.000|x13: 0.097|x14: 0.068|x15: 0.114|x16: 0.111|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.363|x3: 0.000|x4: 0.000|x5: 0.065|x6: 0.000|x7: 0.000|x8: 0.109|x9: 0.067|x10: 0.102|x11: 0.000|x12: 0.000|x13: 0.098|x14: 0.068|x15: 0.114|x16: 0.111|x17: 0.000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[0.36319626412440564]</t>
+          <t>[0.3631536369109308]</t>
         </is>
       </c>
       <c r="H67" t="b">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[0.31923176453379093]</t>
+          <t>[0.3192941681850797]</t>
         </is>
       </c>
       <c r="H68" t="b">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[0.4122006677829166]</t>
+          <t>[0.41230349792709203]</t>
         </is>
       </c>
       <c r="H69" t="b">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[0.46034299505438797]</t>
+          <t>[0.46023488831030296]</t>
         </is>
       </c>
       <c r="H70" t="b">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[0.41129712628275317]</t>
+          <t>[0.41126581809031704]</t>
         </is>
       </c>
       <c r="H71" t="b">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>x1: 0.057|x2: 0.471|x3: 0.047|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.103|x9: 0.065|x10: 0.188|x11: 0.000|x12: 0.000|x13: 0.120|x14: 0.213|x15: 0.104|x16: 0.083|x17: 0.000</t>
+          <t>x1: 0.057|x2: 0.471|x3: 0.047|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.102|x9: 0.065|x10: 0.188|x11: 0.000|x12: 0.000|x13: 0.120|x14: 0.213|x15: 0.104|x16: 0.083|x17: 0.000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[0.4713380574376537, 0.21273746334809882]</t>
+          <t>[0.4713277737306667, 0.21275180581412467]</t>
         </is>
       </c>
       <c r="H72" t="b">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[0.5207323114241487, 0.20070695213183481]</t>
+          <t>[0.5207615578065166, 0.20074216236131584]</t>
         </is>
       </c>
       <c r="H73" t="b">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[0.4776892271858461]</t>
+          <t>[0.47761841348244044]</t>
         </is>
       </c>
       <c r="H74" t="b">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[0.42117165184224387, 0.2111256654334844]</t>
+          <t>[0.4210989275120376, 0.21111023095956447]</t>
         </is>
       </c>
       <c r="H75" t="b">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[0.32189800806955643, 0.26081290475459734]</t>
+          <t>[0.3219939083557501, 0.26077513743774006]</t>
         </is>
       </c>
       <c r="H76" t="b">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>x1: 0.115|x2: 0.329|x3: 0.151|x4: 0.067|x5: 0.072|x6: 0.000|x7: 0.000|x8: 0.070|x9: 0.000|x10: 0.094|x11: 0.086|x12: 0.000|x13: 0.000|x14: 0.081|x15: 0.000|x16: 0.120|x17: 0.000</t>
+          <t>x1: 0.115|x2: 0.329|x3: 0.151|x4: 0.066|x5: 0.072|x6: 0.000|x7: 0.000|x8: 0.070|x9: 0.000|x10: 0.094|x11: 0.086|x12: 0.000|x13: 0.000|x14: 0.081|x15: 0.000|x16: 0.120|x17: 0.000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[0.3292245352786112]</t>
+          <t>[0.32920435409273385]</t>
         </is>
       </c>
       <c r="H77" t="b">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[0.34833583078782976]</t>
+          <t>[0.34834607090507796]</t>
         </is>
       </c>
       <c r="H78" t="b">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>x1: 0.330|x2: 0.343|x3: 0.000|x4: 0.129|x5: 0.108|x6: 0.000|x7: 0.000|x8: 0.103|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.150|x14: 0.000|x15: 0.099|x16: 0.261|x17: 0.000</t>
+          <t>x1: 0.331|x2: 0.343|x3: 0.000|x4: 0.129|x5: 0.108|x6: 0.000|x7: 0.000|x8: 0.103|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.150|x14: 0.000|x15: 0.099|x16: 0.261|x17: 0.000</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[0.3431929972708882, 0.33044377042371087, 0.26087657293058514]</t>
+          <t>[0.3431714314803468, 0.3305731070042033, 0.2608495085109065]</t>
         </is>
       </c>
       <c r="H79" t="b">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.395|x3: 0.167|x4: 0.000|x5: 0.000|x6: 0.084|x7: 0.051|x8: 0.000|x9: 0.000|x10: 0.232|x11: 0.000|x12: 0.000|x13: 0.081|x14: 0.000|x15: 0.000|x16: 0.142|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.395|x3: 0.167|x4: 0.000|x5: 0.000|x6: 0.084|x7: 0.051|x8: 0.000|x9: 0.000|x10: 0.232|x11: 0.000|x12: 0.000|x13: 0.081|x14: 0.000|x15: 0.000|x16: 0.143|x17: 0.000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[0.3945182435730734, 0.23203344560962388]</t>
+          <t>[0.3945871369642307, 0.2320989802194926]</t>
         </is>
       </c>
       <c r="H80" t="b">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[0.42829729254197585]</t>
+          <t>[0.42845236798144537]</t>
         </is>
       </c>
       <c r="H81" t="b">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>x1: 0.076|x2: 0.462|x3: 0.108|x4: 0.000|x5: 0.000|x6: 0.074|x7: 0.000|x8: 0.191|x9: 0.117|x10: 0.229|x11: 0.000|x12: 0.000|x13: 0.085|x14: 0.131|x15: 0.126|x16: 0.161|x17: 0.000</t>
+          <t>x1: 0.076|x2: 0.462|x3: 0.108|x4: 0.000|x5: 0.000|x6: 0.074|x7: 0.000|x8: 0.191|x9: 0.117|x10: 0.228|x11: 0.000|x12: 0.000|x13: 0.085|x14: 0.131|x15: 0.127|x16: 0.161|x17: 0.000</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[0.46210090301328516, 0.22854429845107618]</t>
+          <t>[0.46212541254767125, 0.22844865162503622]</t>
         </is>
       </c>
       <c r="H82" t="b">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[0.46234054328679663]</t>
+          <t>[0.4623990824190657]</t>
         </is>
       </c>
       <c r="H83" t="b">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[0.3986717858237393]</t>
+          <t>[0.3987142230486915]</t>
         </is>
       </c>
       <c r="H84" t="b">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.302|x4: 0.000|x5: 0.058|x6: 0.160|x7: 0.241|x8: 0.000|x9: 0.074|x10: 0.067|x11: 0.064|x12: 0.080|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.302|x4: 0.000|x5: 0.058|x6: 0.160|x7: 0.242|x8: 0.000|x9: 0.074|x10: 0.067|x11: 0.064|x12: 0.081|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[0.30185536627435616, 0.24146808310253223]</t>
+          <t>[0.30197875017277825, 0.2415745253774657]</t>
         </is>
       </c>
       <c r="H85" t="b">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>x1: 0.211|x2: 0.105|x3: 0.296|x4: 0.094|x5: 0.153|x6: 0.000|x7: 0.000|x8: 0.205|x9: 0.078|x10: 0.145|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.183|x17: 0.000</t>
+          <t>x1: 0.211|x2: 0.105|x3: 0.296|x4: 0.094|x5: 0.153|x6: 0.000|x7: 0.000|x8: 0.206|x9: 0.078|x10: 0.146|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.183|x17: 0.000</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[0.29627249698767866, 0.2108474818704726, 0.20547754381737368]</t>
+          <t>[0.29631506569186294, 0.21087046664685638, 0.2055196126003425]</t>
         </is>
       </c>
       <c r="H86" t="b">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[0.3127765555611119]</t>
+          <t>[0.31264278925230704]</t>
         </is>
       </c>
       <c r="H87" t="b">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.453|x4: 0.000|x5: 0.000|x6: 0.186|x7: 0.000|x8: 0.096|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.049|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.077|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.453|x4: 0.000|x5: 0.000|x6: 0.186|x7: 0.000|x8: 0.096|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.049|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.076|x17: 0.000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[0.4528636398338082]</t>
+          <t>[0.4525832600841413]</t>
         </is>
       </c>
       <c r="H89" t="b">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.274|x4: 0.000|x5: 0.000|x6: 0.088|x7: 0.000|x8: 0.051|x9: 0.043|x10: 0.000|x11: 0.000|x12: 0.069|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.275|x4: 0.000|x5: 0.000|x6: 0.088|x7: 0.000|x8: 0.051|x9: 0.044|x10: 0.000|x11: 0.000|x12: 0.069|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[0.2744224068446665]</t>
+          <t>[0.27455479635689084]</t>
         </is>
       </c>
       <c r="H90" t="b">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>x1: 0.042|x2: 0.117|x3: 0.288|x4: 0.000|x5: 0.097|x6: 0.000|x7: 0.054|x8: 0.000|x9: 0.072|x10: 0.080|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.109|x17: 0.000</t>
+          <t>x1: 0.042|x2: 0.118|x3: 0.288|x4: 0.000|x5: 0.097|x6: 0.000|x7: 0.054|x8: 0.000|x9: 0.072|x10: 0.080|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.109|x17: 0.000</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[0.28795340745320314]</t>
+          <t>[0.2880147151286604]</t>
         </is>
       </c>
       <c r="H91" t="b">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[0.2675790702802449]</t>
+          <t>[0.2675768170865511]</t>
         </is>
       </c>
       <c r="H92" t="b">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[0.2728002184206168]</t>
+          <t>[0.27278094079472304]</t>
         </is>
       </c>
       <c r="H93" t="b">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[0.3172852172082663]</t>
+          <t>[0.3173837747739242]</t>
         </is>
       </c>
       <c r="H94" t="b">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>x1: 0.154|x2: 0.000|x3: 0.408|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.183|x9: 0.080|x10: 0.042|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.155|x2: 0.000|x3: 0.409|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.183|x9: 0.081|x10: 0.043|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[0.4081948271332222]</t>
+          <t>[0.4087217639360557]</t>
         </is>
       </c>
       <c r="H95" t="b">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[0.3381489384103068, 0.2028491693425526]</t>
+          <t>[0.33821334033143735, 0.20283214928799886]</t>
         </is>
       </c>
       <c r="H96" t="b">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.076|x3: 0.341|x4: 0.000|x5: 0.058|x6: 0.000|x7: 0.000|x8: 0.142|x9: 0.061|x10: 0.054|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.049|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.076|x3: 0.341|x4: 0.000|x5: 0.058|x6: 0.000|x7: 0.000|x8: 0.142|x9: 0.060|x10: 0.054|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.048|x17: 0.000</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[0.34093125344679565]</t>
+          <t>[0.34071949376803723]</t>
         </is>
       </c>
       <c r="H97" t="b">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.063|x3: 0.435|x4: 0.066|x5: 0.134|x6: 0.191|x7: 0.106|x8: 0.050|x9: 0.084|x10: 0.075|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.184|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.063|x3: 0.435|x4: 0.066|x5: 0.134|x6: 0.191|x7: 0.106|x8: 0.049|x9: 0.084|x10: 0.075|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.184|x17: 0.000</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[0.43504727455088865]</t>
+          <t>[0.435034133741142]</t>
         </is>
       </c>
       <c r="H98" t="b">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[0.4167909083064853]</t>
+          <t>[0.4168375022382151]</t>
         </is>
       </c>
       <c r="H99" t="b">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[0.3215485916902128]</t>
+          <t>[0.3216064421752779]</t>
         </is>
       </c>
       <c r="H100" t="b">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[0.4002438486338236]</t>
+          <t>[0.4002564562189572]</t>
         </is>
       </c>
       <c r="H101" t="b">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[0.23532574937948092]</t>
+          <t>[0.23512027422576634]</t>
         </is>
       </c>
       <c r="H102" t="b">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[0.37941850679138056]</t>
+          <t>[0.3793106554026396]</t>
         </is>
       </c>
       <c r="H103" t="b">
@@ -4673,12 +4673,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.042|x3: 0.305|x4: 0.036|x5: 0.120|x6: 0.095|x7: 0.000|x8: 0.058|x9: 0.000|x10: 0.038|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.057|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.042|x3: 0.305|x4: 0.036|x5: 0.120|x6: 0.096|x7: 0.000|x8: 0.058|x9: 0.000|x10: 0.038|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.057|x17: 0.000</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.30]</t>
+          <t>[0.00, 0.04, 0.31]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[0.30488857776021794]</t>
+          <t>[0.30520531393194594]</t>
         </is>
       </c>
       <c r="H104" t="b">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[0.4502082352581923, 0.2714181259795916]</t>
+          <t>[0.45028387543135806, 0.2714702365744056]</t>
         </is>
       </c>
       <c r="H105" t="b">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[0.3219312022768196]</t>
+          <t>[0.3218736997046647]</t>
         </is>
       </c>
       <c r="H106" t="b">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[0.22305972357519668]</t>
+          <t>[0.22329236780599407]</t>
         </is>
       </c>
       <c r="H107" t="b">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>x1: 0.070|x2: 0.044|x3: 0.368|x4: 0.090|x5: 0.200|x6: 0.127|x7: 0.000|x8: 0.113|x9: 0.000|x10: 0.045|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.144|x17: 0.000</t>
+          <t>x1: 0.070|x2: 0.043|x3: 0.368|x4: 0.090|x5: 0.200|x6: 0.128|x7: 0.000|x8: 0.113|x9: 0.000|x10: 0.045|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.144|x17: 0.000</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[0.3676527565726557]</t>
+          <t>[0.3675437930031343]</t>
         </is>
       </c>
       <c r="H108" t="b">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[0.28840876609100147]</t>
+          <t>[0.2883749415766665]</t>
         </is>
       </c>
       <c r="H109" t="b">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.095|x3: 0.399|x4: 0.000|x5: 0.000|x6: 0.056|x7: 0.112|x8: 0.149|x9: 0.000|x10: 0.091|x11: 0.000|x12: 0.088|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.077|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.095|x3: 0.399|x4: 0.000|x5: 0.000|x6: 0.056|x7: 0.112|x8: 0.149|x9: 0.000|x10: 0.091|x11: 0.000|x12: 0.088|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.076|x17: 0.000</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[0.399048848613066]</t>
+          <t>[0.39904779417264763]</t>
         </is>
       </c>
       <c r="H110" t="b">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[0.44822284939950985, 0.3069744522946]</t>
+          <t>[0.44829157477049403, 0.30703592912849875]</t>
         </is>
       </c>
       <c r="H111" t="b">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[0.2458849867935101]</t>
+          <t>[0.245928794998704]</t>
         </is>
       </c>
       <c r="H112" t="b">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[0.3710501843318713]</t>
+          <t>[0.37114080817000045]</t>
         </is>
       </c>
       <c r="H113" t="b">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[0.3094662056607413, 0.20527206991095193]</t>
+          <t>[0.3094440834422906, 0.20527589989673936]</t>
         </is>
       </c>
       <c r="H114" t="b">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[0.2407902588526528]</t>
+          <t>[0.24056984422962485]</t>
         </is>
       </c>
       <c r="H115" t="b">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.063|x3: 0.510|x4: 0.080|x5: 0.097|x6: 0.219|x7: 0.141|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.101|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.062|x3: 0.510|x4: 0.080|x5: 0.097|x6: 0.219|x7: 0.141|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.101|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[0.5104850180342558, 0.21860750489233127]</t>
+          <t>[0.5103322158058962, 0.21861572517174263]</t>
         </is>
       </c>
       <c r="H116" t="b">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.101|x3: 0.342|x4: 0.000|x5: 0.000|x6: 0.176|x7: 0.078|x8: 0.171|x9: 0.000|x10: 0.116|x11: 0.000|x12: 0.110|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.156|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.101|x3: 0.342|x4: 0.000|x5: 0.000|x6: 0.176|x7: 0.078|x8: 0.172|x9: 0.000|x10: 0.116|x11: 0.000|x12: 0.110|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.156|x17: 0.000</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[0.34237484276898683]</t>
+          <t>[0.34236673175895876]</t>
         </is>
       </c>
       <c r="H117" t="b">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.040|x3: 0.317|x4: 0.091|x5: 0.000|x6: 0.191|x7: 0.111|x8: 0.000|x9: 0.077|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.050|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.040|x3: 0.317|x4: 0.090|x5: 0.000|x6: 0.191|x7: 0.111|x8: 0.000|x9: 0.077|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.050|x17: 0.000</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[0.3170055149269922]</t>
+          <t>[0.3170274635210577]</t>
         </is>
       </c>
       <c r="H118" t="b">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[0.27830390818357265]</t>
+          <t>[0.27819258323905566]</t>
         </is>
       </c>
       <c r="H119" t="b">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[0.29588501515910043]</t>
+          <t>[0.29596305799061473]</t>
         </is>
       </c>
       <c r="H120" t="b">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[0.2581459746361252]</t>
+          <t>[0.2581295413058014]</t>
         </is>
       </c>
       <c r="H121" t="b">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[0.35393889537005435, 0.20020047900299276]</t>
+          <t>[0.3539937832912275, 0.20023126743218228]</t>
         </is>
       </c>
       <c r="H122" t="b">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[0.3579797596625399, 0.21441304863421348]</t>
+          <t>[0.3579936256020034, 0.21434645935543112]</t>
         </is>
       </c>
       <c r="H123" t="b">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[0.25871932020413846]</t>
+          <t>[0.2586971960243938]</t>
         </is>
       </c>
       <c r="H125" t="b">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[0.27521837507198477]</t>
+          <t>[0.27515143428232286]</t>
         </is>
       </c>
       <c r="H127" t="b">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.39]</t>
+          <t>[0.00, 0.07, 0.40]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[0.3949390701207768]</t>
+          <t>[0.39515208350167286]</t>
         </is>
       </c>
       <c r="H128" t="b">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[0.39908006502146975, 0.21744161605070683]</t>
+          <t>[0.39904032467295525, 0.2173954531035411]</t>
         </is>
       </c>
       <c r="H129" t="b">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[0.38779573110106325]</t>
+          <t>[0.38777518677851924]</t>
         </is>
       </c>
       <c r="H130" t="b">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.033|x3: 0.252|x4: 0.000|x5: 0.033|x6: 0.149|x7: 0.050|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.027|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.033|x3: 0.252|x4: 0.000|x5: 0.033|x6: 0.149|x7: 0.051|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.027|x17: 0.000</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[0.25158061602555337]</t>
+          <t>[0.2519446987255268]</t>
         </is>
       </c>
       <c r="H131" t="b">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[0.38884095923182743]</t>
+          <t>[0.38882829134423086]</t>
         </is>
       </c>
       <c r="H132" t="b">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[0.38532207163007465]</t>
+          <t>[0.38529201445994105]</t>
         </is>
       </c>
       <c r="H133" t="b">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>x1: 0.087|x2: 0.000|x3: 0.238|x4: 0.043|x5: 0.097|x6: 0.047|x7: 0.000|x8: 0.058|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
+          <t>x1: 0.087|x2: 0.000|x3: 0.238|x4: 0.043|x5: 0.098|x6: 0.047|x7: 0.000|x8: 0.058|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[0.2376809150288307]</t>
+          <t>[0.23802551670157215]</t>
         </is>
       </c>
       <c r="H134" t="b">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.052|x3: 0.395|x4: 0.000|x5: 0.128|x6: 0.197|x7: 0.000|x8: 0.049|x9: 0.000|x10: 0.047|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.145|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.052|x3: 0.394|x4: 0.000|x5: 0.128|x6: 0.197|x7: 0.000|x8: 0.049|x9: 0.000|x10: 0.047|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.145|x17: 0.000</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[0.3945011204104024]</t>
+          <t>[0.3944535240821175]</t>
         </is>
       </c>
       <c r="H135" t="b">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>x1: 0.077|x2: 0.000|x3: 0.415|x4: 0.000|x5: 0.000|x6: 0.175|x7: 0.070|x8: 0.105|x9: 0.000|x10: 0.000|x11: 0.041|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000</t>
+          <t>x1: 0.077|x2: 0.000|x3: 0.415|x4: 0.000|x5: 0.000|x6: 0.175|x7: 0.070|x8: 0.106|x9: 0.000|x10: 0.000|x11: 0.041|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[0.41484537516145975]</t>
+          <t>[0.41478378571599656]</t>
         </is>
       </c>
       <c r="H136" t="b">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[0.412234709835563]</t>
+          <t>[0.41211718487922716]</t>
         </is>
       </c>
       <c r="H137" t="b">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[0.31098465637554473]</t>
+          <t>[0.3109448225793638]</t>
         </is>
       </c>
       <c r="H138" t="b">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.39]</t>
+          <t>[0.00, 0.06, 0.40]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[0.39490943091188563]</t>
+          <t>[0.3950088857123349]</t>
         </is>
       </c>
       <c r="H139" t="b">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[0.2918433672658594]</t>
+          <t>[0.2917134398187273]</t>
         </is>
       </c>
       <c r="H140" t="b">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[0.40428965490480573, 0.2809607743844603]</t>
+          <t>[0.4042513244387239, 0.2809961958760676]</t>
         </is>
       </c>
       <c r="H141" t="b">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[0.3877225125111289]</t>
+          <t>[0.38778062697944715]</t>
         </is>
       </c>
       <c r="H142" t="b">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[0.4311841425466159]</t>
+          <t>[0.4314185629527044]</t>
         </is>
       </c>
       <c r="H143" t="b">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[0.3361961566994337, 0.20462936270138854]</t>
+          <t>[0.33604585866232645, 0.20468987078973705]</t>
         </is>
       </c>
       <c r="H144" t="b">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>x1: 0.138|x2: 0.000|x3: 0.382|x4: 0.000|x5: 0.109|x6: 0.000|x7: 0.085|x8: 0.185|x9: 0.091|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.110|x17: 0.000</t>
+          <t>x1: 0.138|x2: 0.000|x3: 0.382|x4: 0.000|x5: 0.109|x6: 0.000|x7: 0.086|x8: 0.185|x9: 0.091|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.110|x17: 0.000</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[0.38151865547018926]</t>
+          <t>[0.3816630080941909]</t>
         </is>
       </c>
       <c r="H145" t="b">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[0.43191395424948775]</t>
+          <t>[0.43186146099213585]</t>
         </is>
       </c>
       <c r="H146" t="b">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[0.46564140850847624]</t>
+          <t>[0.4656999619147579]</t>
         </is>
       </c>
       <c r="H147" t="b">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[0.32036164507869513]</t>
+          <t>[0.32039289657664244]</t>
         </is>
       </c>
       <c r="H148" t="b">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.511|x4: 0.000|x5: 0.075|x6: 0.311|x7: 0.169|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.072|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.055|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.511|x4: 0.000|x5: 0.075|x6: 0.311|x7: 0.169|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.072|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.054|x17: 0.000</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[0.5109871025502812, 0.31125326560491495]</t>
+          <t>[0.5108485739841565, 0.31115474311625485]</t>
         </is>
       </c>
       <c r="H149" t="b">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.345|x4: 0.000|x5: 0.000|x6: 0.065|x7: 0.000|x8: 0.066|x9: 0.000|x10: 0.056|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.037|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.345|x4: 0.000|x5: 0.000|x6: 0.066|x7: 0.000|x8: 0.066|x9: 0.000|x10: 0.056|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.037|x17: 0.000</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[0.34529804152798094]</t>
+          <t>[0.34533788301913737]</t>
         </is>
       </c>
       <c r="H150" t="b">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>[0.3379709245258859]</t>
+          <t>[0.3379116291549544]</t>
         </is>
       </c>
       <c r="H152" t="b">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>x1: 0.046|x2: 0.000|x3: 0.325|x4: 0.000|x5: 0.108|x6: 0.095|x7: 0.000|x8: 0.081|x9: 0.035|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.040|x17: 0.000</t>
+          <t>x1: 0.046|x2: 0.000|x3: 0.325|x4: 0.000|x5: 0.109|x6: 0.095|x7: 0.000|x8: 0.081|x9: 0.035|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.040|x17: 0.000</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>[0.32514784038303324]</t>
+          <t>[0.3252366599969292]</t>
         </is>
       </c>
       <c r="H153" t="b">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.127|x3: 0.379|x4: 0.098|x5: 0.120|x6: 0.000|x7: 0.000|x8: 0.081|x9: 0.038|x10: 0.048|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.099|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.127|x3: 0.378|x4: 0.098|x5: 0.120|x6: 0.000|x7: 0.000|x8: 0.081|x9: 0.038|x10: 0.048|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.099|x17: 0.000</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>[0.3785012092483848]</t>
+          <t>[0.3784912605519274]</t>
         </is>
       </c>
       <c r="H154" t="b">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>[0.4472114612470747]</t>
+          <t>[0.44724976675956174]</t>
         </is>
       </c>
       <c r="H155" t="b">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>[0.41209850298490797, 0.20400465414907948]</t>
+          <t>[0.4121151945342306, 0.2040215365490006]</t>
         </is>
       </c>
       <c r="H156" t="b">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>x1: 0.074|x2: 0.050|x3: 0.188|x4: 0.052|x5: 0.105|x6: 0.000|x7: 0.000|x8: 0.045|x9: 0.000|x10: 0.086|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000</t>
+          <t>x1: 0.074|x2: 0.050|x3: 0.188|x4: 0.052|x5: 0.105|x6: 0.000|x7: 0.000|x8: 0.045|x9: 0.000|x10: 0.086|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.097|x17: 0.000</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>x1: 0.076|x2: 0.060|x3: 0.290|x4: 0.000|x5: 0.048|x6: 0.164|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.058|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.129|x17: 0.000</t>
+          <t>x1: 0.075|x2: 0.060|x3: 0.290|x4: 0.000|x5: 0.048|x6: 0.164|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.058|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.129|x17: 0.000</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>[0.28975031581526595]</t>
+          <t>[0.2897991058059485]</t>
         </is>
       </c>
       <c r="H159" t="b">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.045|x3: 0.285|x4: 0.111|x5: 0.137|x6: 0.000|x7: 0.000|x8: 0.049|x9: 0.071|x10: 0.124|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.108|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.045|x3: 0.285|x4: 0.111|x5: 0.137|x6: 0.000|x7: 0.000|x8: 0.049|x9: 0.071|x10: 0.124|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.109|x17: 0.000</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>[0.2846034941158428]</t>
+          <t>[0.284618086433015]</t>
         </is>
       </c>
       <c r="H160" t="b">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>[0.3943197465331854]</t>
+          <t>[0.39424877196505365]</t>
         </is>
       </c>
       <c r="H161" t="b">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>[0.30708980737464203]</t>
+          <t>[0.307086353135503]</t>
         </is>
       </c>
       <c r="H162" t="b">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>[0.4324124384054674]</t>
+          <t>[0.4324813158137098]</t>
         </is>
       </c>
       <c r="H163" t="b">
@@ -7133,7 +7133,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.077|x3: 0.397|x4: 0.000|x5: 0.000|x6: 0.152|x7: 0.143|x8: 0.071|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.055|x16: 0.061|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.077|x3: 0.397|x4: 0.000|x5: 0.000|x6: 0.152|x7: 0.144|x8: 0.071|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.055|x16: 0.061|x17: 0.000</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>[0.3969035657532383]</t>
+          <t>[0.3971678510031945]</t>
         </is>
       </c>
       <c r="H164" t="b">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[0.212982189522664]</t>
+          <t>[0.21305740244156618]</t>
         </is>
       </c>
       <c r="H165" t="b">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>x1: 0.174|x2: 0.130|x3: 0.371|x4: 0.000|x5: 0.000|x6: 0.047|x7: 0.000|x8: 0.182|x9: 0.043|x10: 0.185|x11: 0.000|x12: 0.000|x13: 0.046|x14: 0.000|x15: 0.000|x16: 0.088|x17: 0.000</t>
+          <t>x1: 0.174|x2: 0.131|x3: 0.371|x4: 0.000|x5: 0.000|x6: 0.047|x7: 0.000|x8: 0.182|x9: 0.043|x10: 0.184|x11: 0.000|x12: 0.000|x13: 0.046|x14: 0.000|x15: 0.000|x16: 0.087|x17: 0.000</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>[0.3712706097088027]</t>
+          <t>[0.3712438124613986]</t>
         </is>
       </c>
       <c r="H166" t="b">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>x1: 0.115|x2: 0.108|x3: 0.157|x4: 0.000|x5: 0.069|x6: 0.000|x7: 0.000|x8: 0.132|x9: 0.146|x10: 0.126|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.084|x17: 0.000</t>
+          <t>x1: 0.115|x2: 0.108|x3: 0.157|x4: 0.000|x5: 0.070|x6: 0.000|x7: 0.000|x8: 0.132|x9: 0.146|x10: 0.126|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.084|x17: 0.000</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7312,7 +7312,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>[0.44817724376147106, 0.20086325352265008]</t>
+          <t>[0.44820287689783594, 0.20083511786885566]</t>
         </is>
       </c>
       <c r="H168" t="b">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.297|x4: 0.000|x5: 0.000|x6: 0.087|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.136|x13: 0.075|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.296|x4: 0.000|x5: 0.000|x6: 0.087|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.136|x13: 0.075|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>[0.29660532922003663]</t>
+          <t>[0.29645971650004443]</t>
         </is>
       </c>
       <c r="H169" t="b">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>x1: 0.047|x2: 0.028|x3: 0.052|x4: 0.306|x5: 0.106|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.052|x17: 0.000</t>
+          <t>x1: 0.047|x2: 0.027|x3: 0.052|x4: 0.306|x5: 0.106|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.052|x17: 0.000</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>[0.3064731020363149]</t>
+          <t>[0.3063225444092022]</t>
         </is>
       </c>
       <c r="H171" t="b">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>[0.32765085498840596]</t>
+          <t>[0.3275670149951608]</t>
         </is>
       </c>
       <c r="H172" t="b">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>[0.2492393610878912]</t>
+          <t>[0.2492375401177572]</t>
         </is>
       </c>
       <c r="H174" t="b">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>[0.30760644707068296]</t>
+          <t>[0.3077320933570691]</t>
         </is>
       </c>
       <c r="H175" t="b">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>x1: 0.050|x2: 0.000|x3: 0.000|x4: 0.371|x5: 0.131|x6: 0.042|x7: 0.091|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.052|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.050|x2: 0.000|x3: 0.000|x4: 0.370|x5: 0.131|x6: 0.042|x7: 0.091|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.052|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>[0.3705889577021716]</t>
+          <t>[0.3704923201876074]</t>
         </is>
       </c>
       <c r="H176" t="b">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>[0.23184696896450754]</t>
+          <t>[0.23197204013720896]</t>
         </is>
       </c>
       <c r="H177" t="b">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>[0.3823625965269464]</t>
+          <t>[0.38245385396264675]</t>
         </is>
       </c>
       <c r="H178" t="b">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>[0.3957146237809512]</t>
+          <t>[0.3959511195052024]</t>
         </is>
       </c>
       <c r="H179" t="b">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>[0.3827708375801703]</t>
+          <t>[0.3827607195685697]</t>
         </is>
       </c>
       <c r="H180" t="b">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>[0.4783582576371882]</t>
+          <t>[0.4781442245417631]</t>
         </is>
       </c>
       <c r="H181" t="b">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>x1: 0.183|x2: 0.076|x3: 0.105|x4: 0.331|x5: 0.086|x6: 0.000|x7: 0.000|x8: 0.087|x9: 0.037|x10: 0.050|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.095|x17: 0.000</t>
+          <t>x1: 0.183|x2: 0.076|x3: 0.105|x4: 0.331|x5: 0.086|x6: 0.000|x7: 0.000|x8: 0.087|x9: 0.037|x10: 0.050|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.094|x17: 0.000</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>[0.3312964318795093]</t>
+          <t>[0.33125317058464676]</t>
         </is>
       </c>
       <c r="H182" t="b">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.154|x5: 0.044|x6: 0.000|x7: 0.018|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.035|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.154|x5: 0.044|x6: 0.000|x7: 0.017|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.035|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>[0.2360835510145569]</t>
+          <t>[0.2357450534528164]</t>
         </is>
       </c>
       <c r="H184" t="b">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>[0.41986012975873505]</t>
+          <t>[0.419902679324402]</t>
         </is>
       </c>
       <c r="H185" t="b">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>[0.26162209158468824]</t>
+          <t>[0.26155688854183845]</t>
         </is>
       </c>
       <c r="H186" t="b">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>[0.4196908290796609, 0.24817786418756496]</t>
+          <t>[0.419713053878915, 0.2481716419690218]</t>
         </is>
       </c>
       <c r="H187" t="b">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>x1: 0.033|x2: 0.000|x3: 0.000|x4: 0.270|x5: 0.132|x6: 0.077|x7: 0.054|x8: 0.031|x9: 0.071|x10: 0.040|x11: 0.068|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.044|x17: 0.000</t>
+          <t>x1: 0.033|x2: 0.000|x3: 0.000|x4: 0.270|x5: 0.132|x6: 0.077|x7: 0.054|x8: 0.031|x9: 0.071|x10: 0.040|x11: 0.068|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.043|x17: 0.000</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>[0.2700527394645809]</t>
+          <t>[0.27002991278667343]</t>
         </is>
       </c>
       <c r="H188" t="b">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>[0.36555266326432967]</t>
+          <t>[0.36569485151425996]</t>
         </is>
       </c>
       <c r="H189" t="b">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>x1: 0.082|x2: 0.056|x3: 0.042|x4: 0.330|x5: 0.131|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
+          <t>x1: 0.082|x2: 0.056|x3: 0.042|x4: 0.331|x5: 0.131|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>[0.33049489044046354]</t>
+          <t>[0.3305437310716642]</t>
         </is>
       </c>
       <c r="H190" t="b">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>[0.26050373055986203]</t>
+          <t>[0.26052731144485874]</t>
         </is>
       </c>
       <c r="H193" t="b">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>[0.3516581695698394]</t>
+          <t>[0.3516069946960569]</t>
         </is>
       </c>
       <c r="H194" t="b">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>[0.43562055464782673]</t>
+          <t>[0.4355844368562298]</t>
         </is>
       </c>
       <c r="H195" t="b">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>x1: 0.027|x2: 0.000|x3: 0.000|x4: 0.292|x5: 0.046|x6: 0.000|x7: 0.000|x8: 0.046|x9: 0.047|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.055|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.027|x2: 0.000|x3: 0.000|x4: 0.292|x5: 0.046|x6: 0.000|x7: 0.000|x8: 0.047|x9: 0.047|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.055|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8460,7 +8460,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>[0.29202697677540507]</t>
+          <t>[0.292050954174235]</t>
         </is>
       </c>
       <c r="H196" t="b">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>x1: 0.063|x2: 0.041|x3: 0.000|x4: 0.340|x5: 0.052|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.087|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.063|x2: 0.041|x3: 0.000|x4: 0.341|x5: 0.052|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.087|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>[0.3404269807221756]</t>
+          <t>[0.340542635788848]</t>
         </is>
       </c>
       <c r="H197" t="b">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>[0.37928135739772584]</t>
+          <t>[0.37937474178846]</t>
         </is>
       </c>
       <c r="H198" t="b">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>x1: 0.043|x2: 0.000|x3: 0.000|x4: 0.384|x5: 0.180|x6: 0.000|x7: 0.070|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.043|x2: 0.000|x3: 0.000|x4: 0.385|x5: 0.180|x6: 0.000|x7: 0.070|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>[0.3844983798477977]</t>
+          <t>[0.38457564274141603]</t>
         </is>
       </c>
       <c r="H199" t="b">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>[0.332712807967821]</t>
+          <t>[0.3327938398076471]</t>
         </is>
       </c>
       <c r="H200" t="b">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>x1: 0.077|x2: 0.045|x3: 0.000|x4: 0.204|x5: 0.062|x6: 0.000|x7: 0.000|x8: 0.044|x9: 0.000|x10: 0.058|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.077|x2: 0.045|x3: 0.000|x4: 0.203|x5: 0.062|x6: 0.000|x7: 0.000|x8: 0.044|x9: 0.000|x10: 0.058|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>[0.20352392285837323]</t>
+          <t>[0.20344135190535753]</t>
         </is>
       </c>
       <c r="H201" t="b">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>[0.2487801646795025]</t>
+          <t>[0.24885862428471098]</t>
         </is>
       </c>
       <c r="H202" t="b">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>[0.3065346128070381]</t>
+          <t>[0.30669868597215805]</t>
         </is>
       </c>
       <c r="H203" t="b">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>[0.23162777842385038]</t>
+          <t>[0.23158782229511302]</t>
         </is>
       </c>
       <c r="H204" t="b">
@@ -8829,7 +8829,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>[0.26919549479410515]</t>
+          <t>[0.2693140412298609]</t>
         </is>
       </c>
       <c r="H205" t="b">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>[0.2505395513553044]</t>
+          <t>[0.2505347640806051]</t>
         </is>
       </c>
       <c r="H206" t="b">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>[0.37904994867125874]</t>
+          <t>[0.3789847339550937]</t>
         </is>
       </c>
       <c r="H207" t="b">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>[0.39723835003843794]</t>
+          <t>[0.39722901579854414]</t>
         </is>
       </c>
       <c r="H208" t="b">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>[0.20390622651028875]</t>
+          <t>[0.2039716576916679]</t>
         </is>
       </c>
       <c r="H209" t="b">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>[0.3305114735398224]</t>
+          <t>[0.3305094510271245]</t>
         </is>
       </c>
       <c r="H210" t="b">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>x1: 0.154|x2: 0.000|x3: 0.059|x4: 0.069|x5: 0.387|x6: 0.000|x7: 0.000|x8: 0.083|x9: 0.000|x10: 0.000|x11: 0.079|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.038|x16: 0.166|x17: 0.000</t>
+          <t>x1: 0.154|x2: 0.000|x3: 0.059|x4: 0.069|x5: 0.387|x6: 0.000|x7: 0.000|x8: 0.082|x9: 0.000|x10: 0.000|x11: 0.079|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.038|x16: 0.166|x17: 0.000</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>[0.38672495509144555]</t>
+          <t>[0.38658760013080534]</t>
         </is>
       </c>
       <c r="H211" t="b">
@@ -9116,7 +9116,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>[0.3653503052544976]</t>
+          <t>[0.36527736488198187]</t>
         </is>
       </c>
       <c r="H212" t="b">
@@ -9157,7 +9157,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>[0.3049315929054422]</t>
+          <t>[0.30485030059502993]</t>
         </is>
       </c>
       <c r="H213" t="b">
@@ -9198,7 +9198,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>[0.3783742013385889]</t>
+          <t>[0.3783815342427622]</t>
         </is>
       </c>
       <c r="H214" t="b">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>[0.2021971056076936, 0.20200291937060716]</t>
+          <t>[0.20216219880526048, 0.20196133723926266]</t>
         </is>
       </c>
       <c r="H215" t="b">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.060|x4: 0.099|x5: 0.291|x6: 0.110|x7: 0.250|x8: 0.000|x9: 0.000|x10: 0.078|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.062|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.060|x4: 0.099|x5: 0.291|x6: 0.110|x7: 0.250|x8: 0.000|x9: 0.000|x10: 0.077|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.062|x17: 0.000</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>[0.291115860086563, 0.24973278596414006]</t>
+          <t>[0.29109832551033177, 0.24969851326597028]</t>
         </is>
       </c>
       <c r="H217" t="b">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.093|x4: 0.107|x5: 0.327|x6: 0.073|x7: 0.060|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.046|x16: 0.120|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.093|x4: 0.107|x5: 0.328|x6: 0.073|x7: 0.060|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.046|x16: 0.120|x17: 0.000</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9362,7 +9362,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>[0.3274173179904528]</t>
+          <t>[0.3277296662358548]</t>
         </is>
       </c>
       <c r="H218" t="b">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>x1: 0.066|x2: 0.044|x3: 0.091|x4: 0.161|x5: 0.515|x6: 0.057|x7: 0.059|x8: 0.000|x9: 0.000|x10: 0.135|x11: 0.120|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.227|x17: 0.000</t>
+          <t>x1: 0.066|x2: 0.044|x3: 0.091|x4: 0.161|x5: 0.514|x6: 0.057|x7: 0.059|x8: 0.000|x9: 0.000|x10: 0.135|x11: 0.120|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.227|x17: 0.000</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>[0.5145705285579094, 0.22688417713322304]</t>
+          <t>[0.5144451773789135, 0.22677591227617555]</t>
         </is>
       </c>
       <c r="H219" t="b">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>[0.2796116895528731]</t>
+          <t>[0.2796824216654434]</t>
         </is>
       </c>
       <c r="H220" t="b">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.064|x5: 0.324|x6: 0.066|x7: 0.037|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.041|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.108|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.064|x5: 0.324|x6: 0.066|x7: 0.036|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.041|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.108|x17: 0.000</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>[0.32416940681601863]</t>
+          <t>[0.3240181143524123]</t>
         </is>
       </c>
       <c r="H221" t="b">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>x1: 0.148|x2: 0.000|x3: 0.125|x4: 0.133|x5: 0.430|x6: 0.075|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.081|x17: 0.000</t>
+          <t>x1: 0.148|x2: 0.000|x3: 0.125|x4: 0.133|x5: 0.430|x6: 0.074|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.081|x17: 0.000</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>[0.4299869185588567]</t>
+          <t>[0.4300731026928372]</t>
         </is>
       </c>
       <c r="H222" t="b">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>[0.4621688743620822, 0.2855647643761309]</t>
+          <t>[0.46218982935501857, 0.28556481515914495]</t>
         </is>
       </c>
       <c r="H223" t="b">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>[0.4414057060896645]</t>
+          <t>[0.4414908382373835]</t>
         </is>
       </c>
       <c r="H224" t="b">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>[0.29361407394041705]</t>
+          <t>[0.29354257018076696]</t>
         </is>
       </c>
       <c r="H225" t="b">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>[0.2856866049939497]</t>
+          <t>[0.28574366304994564]</t>
         </is>
       </c>
       <c r="H226" t="b">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>x1: 0.056|x2: 0.090|x3: 0.107|x4: 0.044|x5: 0.445|x6: 0.096|x7: 0.135|x8: 0.000|x9: 0.000|x10: 0.050|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.243|x17: 0.000</t>
+          <t>x1: 0.056|x2: 0.090|x3: 0.108|x4: 0.044|x5: 0.445|x6: 0.096|x7: 0.135|x8: 0.000|x9: 0.000|x10: 0.050|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.243|x17: 0.000</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>[0.44468558980768685, 0.24327073917298822]</t>
+          <t>[0.44468240519028973, 0.24323740015595935]</t>
         </is>
       </c>
       <c r="H228" t="b">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>[0.5392283870473044, 0.27213558634175344]</t>
+          <t>[0.5391784393748547, 0.2720931649916351]</t>
         </is>
       </c>
       <c r="H229" t="b">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>x1: 0.080|x2: 0.046|x3: 0.034|x4: 0.129|x5: 0.380|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.058|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.141|x17: 0.000</t>
+          <t>x1: 0.080|x2: 0.046|x3: 0.034|x4: 0.129|x5: 0.380|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.058|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.140|x17: 0.000</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -9854,7 +9854,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>[0.38042348725573033]</t>
+          <t>[0.38033250865085555]</t>
         </is>
       </c>
       <c r="H230" t="b">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>[0.20220547555419266]</t>
+          <t>[0.20212089480181528]</t>
         </is>
       </c>
       <c r="H231" t="b">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>[0.2813715544567921]</t>
+          <t>[0.2812977455454747]</t>
         </is>
       </c>
       <c r="H232" t="b">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>[0.34882812305607935]</t>
+          <t>[0.34880623672531413]</t>
         </is>
       </c>
       <c r="H233" t="b">
@@ -10003,7 +10003,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>x1: 0.041|x2: 0.000|x3: 0.000|x4: 0.052|x5: 0.172|x6: 0.036|x7: 0.101|x8: 0.063|x9: 0.000|x10: 0.050|x11: 0.061|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.073|x17: 0.000</t>
+          <t>x1: 0.041|x2: 0.000|x3: 0.000|x4: 0.052|x5: 0.172|x6: 0.036|x7: 0.101|x8: 0.063|x9: 0.000|x10: 0.050|x11: 0.061|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.072|x17: 0.000</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>[0.2387380479539827]</t>
+          <t>[0.2387630428973809]</t>
         </is>
       </c>
       <c r="H236" t="b">
@@ -10167,7 +10167,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>x1: 0.079|x2: 0.083|x3: 0.119|x4: 0.091|x5: 0.502|x6: 0.053|x7: 0.104|x8: 0.000|x9: 0.000|x10: 0.115|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.288|x17: 0.000</t>
+          <t>x1: 0.079|x2: 0.083|x3: 0.119|x4: 0.091|x5: 0.501|x6: 0.054|x7: 0.104|x8: 0.000|x9: 0.000|x10: 0.115|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.288|x17: 0.000</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>[0.5015018321397698, 0.28800770236423334]</t>
+          <t>[0.501419763021992, 0.2879266669781118]</t>
         </is>
       </c>
       <c r="H238" t="b">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>[0.5695409005957761, 0.20603868559472474]</t>
+          <t>[0.5696504484105831, 0.20604377984291075]</t>
         </is>
       </c>
       <c r="H239" t="b">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>[0.4351469179135104, 0.2755713059333621, 0.20572840737998516]</t>
+          <t>[0.4353008609667396, 0.27570724163187527, 0.20578534182831998]</t>
         </is>
       </c>
       <c r="H240" t="b">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>[0.40831604707819996]</t>
+          <t>[0.4083748154835995]</t>
         </is>
       </c>
       <c r="H241" t="b">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>[0.35969708706225867]</t>
+          <t>[0.3595981684771205]</t>
         </is>
       </c>
       <c r="H242" t="b">
@@ -10372,7 +10372,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>x1: 0.048|x2: 0.000|x3: 0.071|x4: 0.090|x5: 0.442|x6: 0.080|x7: 0.078|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.180|x17: 0.000</t>
+          <t>x1: 0.047|x2: 0.000|x3: 0.071|x4: 0.090|x5: 0.442|x6: 0.079|x7: 0.078|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.180|x17: 0.000</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>[0.4418449479646342]</t>
+          <t>[0.4418931150282266]</t>
         </is>
       </c>
       <c r="H243" t="b">
@@ -10428,7 +10428,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>[0.565735521636343, 0.2313983110051089, 0.20997238300906923]</t>
+          <t>[0.5657619272683326, 0.2314925560614527, 0.21002251419650236]</t>
         </is>
       </c>
       <c r="H244" t="b">
@@ -10469,7 +10469,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>[0.27191203094063277]</t>
+          <t>[0.2718526646337726]</t>
         </is>
       </c>
       <c r="H245" t="b">
@@ -10510,7 +10510,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>[0.31236790201352316]</t>
+          <t>[0.31239087969307877]</t>
         </is>
       </c>
       <c r="H246" t="b">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>[0.24708294319601404]</t>
+          <t>[0.24705986456520737]</t>
         </is>
       </c>
       <c r="H247" t="b">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>[0.34672161670272633]</t>
+          <t>[0.3466770601067055]</t>
         </is>
       </c>
       <c r="H248" t="b">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>[0.25127052195977706]</t>
+          <t>[0.25122560896015894]</t>
         </is>
       </c>
       <c r="H249" t="b">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>[0.37960826219889454]</t>
+          <t>[0.3795821338362498]</t>
         </is>
       </c>
       <c r="H250" t="b">
@@ -10700,7 +10700,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>x1: 0.071|x2: 0.063|x3: 0.077|x4: 0.116|x5: 0.271|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.035|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.054|x15: 0.038|x16: 0.116|x17: 0.000</t>
+          <t>x1: 0.071|x2: 0.062|x3: 0.077|x4: 0.116|x5: 0.270|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.035|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.054|x15: 0.038|x16: 0.116|x17: 0.000</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>[0.2705543317563257]</t>
+          <t>[0.27047805291385546]</t>
         </is>
       </c>
       <c r="H251" t="b">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>[0.40919571956223594, 0.2291404697386195]</t>
+          <t>[0.40925435187202663, 0.22916916866358325]</t>
         </is>
       </c>
       <c r="H252" t="b">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>x1: 0.116|x2: 0.000|x3: 0.111|x4: 0.123|x5: 0.359|x6: 0.000|x7: 0.121|x8: 0.164|x9: 0.142|x10: 0.100|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.164|x17: 0.000</t>
+          <t>x1: 0.116|x2: 0.000|x3: 0.111|x4: 0.123|x5: 0.359|x6: 0.000|x7: 0.121|x8: 0.164|x9: 0.142|x10: 0.101|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.164|x17: 0.000</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -10797,7 +10797,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>[0.3591931548052234]</t>
+          <t>[0.3592674280523792]</t>
         </is>
       </c>
       <c r="H253" t="b">
@@ -10864,7 +10864,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.074|x5: 0.189|x6: 0.000|x7: 0.066|x8: 0.000|x9: 0.000|x10: 0.083|x11: 0.000|x12: 0.090|x13: 0.000|x14: 0.053|x15: 0.000|x16: 0.080|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.075|x5: 0.189|x6: 0.000|x7: 0.066|x8: 0.000|x9: 0.000|x10: 0.083|x11: 0.000|x12: 0.090|x13: 0.000|x14: 0.053|x15: 0.000|x16: 0.081|x17: 0.000</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>[0.20170212889254305]</t>
+          <t>[0.20173582354954628]</t>
         </is>
       </c>
       <c r="H256" t="b">
@@ -11002,7 +11002,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>[0.3764402869082666]</t>
+          <t>[0.37645584544219285]</t>
         </is>
       </c>
       <c r="H258" t="b">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>[0.21218034610439818]</t>
+          <t>[0.2122302173694923]</t>
         </is>
       </c>
       <c r="H259" t="b">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>[0.4075327901284273]</t>
+          <t>[0.40761301898897817]</t>
         </is>
       </c>
       <c r="H260" t="b">
@@ -11125,7 +11125,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>[0.20063711473241963]</t>
+          <t>[0.2006220116829695]</t>
         </is>
       </c>
       <c r="H261" t="b">
@@ -11151,7 +11151,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.069|x6: 0.199|x7: 0.120|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.045|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.058|x16: 0.039|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.069|x6: 0.199|x7: 0.120|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.044|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.058|x16: 0.039|x17: 0.000</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>[0.3519104919593586]</t>
+          <t>[0.35179072143429707]</t>
         </is>
       </c>
       <c r="H263" t="b">
@@ -11248,7 +11248,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>[0.29551515730708255]</t>
+          <t>[0.2955379099669494]</t>
         </is>
       </c>
       <c r="H264" t="b">
@@ -11289,7 +11289,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>[0.40704570160462783]</t>
+          <t>[0.40708205164696104]</t>
         </is>
       </c>
       <c r="H265" t="b">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>[0.2316624721026536]</t>
+          <t>[0.2317294556738119]</t>
         </is>
       </c>
       <c r="H266" t="b">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.081|x3: 0.088|x4: 0.000|x5: 0.059|x6: 0.469|x7: 0.052|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.104|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.078|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.081|x3: 0.087|x4: 0.000|x5: 0.059|x6: 0.469|x7: 0.052|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.104|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.078|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>[0.4691706216503829]</t>
+          <t>[0.4689796949474815]</t>
         </is>
       </c>
       <c r="H267" t="b">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>[0.3469259850611671]</t>
+          <t>[0.34682803997283235]</t>
         </is>
       </c>
       <c r="H268" t="b">
@@ -11438,7 +11438,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.100|x4: 0.000|x5: 0.000|x6: 0.248|x7: 0.061|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.083|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.033|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.100|x4: 0.000|x5: 0.000|x6: 0.248|x7: 0.062|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.083|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.033|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>[0.2478634255541723]</t>
+          <t>[0.24781776657285662]</t>
         </is>
       </c>
       <c r="H269" t="b">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>[0.3580121352325293, 0.21759578283941985]</t>
+          <t>[0.35796677957022144, 0.21761437370583456]</t>
         </is>
       </c>
       <c r="H270" t="b">
@@ -11535,7 +11535,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>[0.3933275192280741]</t>
+          <t>[0.39321765155551247]</t>
         </is>
       </c>
       <c r="H271" t="b">
@@ -11617,7 +11617,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>[0.2421069278538308]</t>
+          <t>[0.24199912401837317]</t>
         </is>
       </c>
       <c r="H273" t="b">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>[0.3214172339728797]</t>
+          <t>[0.32119126266415254]</t>
         </is>
       </c>
       <c r="H275" t="b">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>[0.24484128985832343]</t>
+          <t>[0.24481288661396858]</t>
         </is>
       </c>
       <c r="H276" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>[0.21310402595329003]</t>
+          <t>[0.21314485901160762]</t>
         </is>
       </c>
       <c r="H277" t="b">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.066|x6: 0.347|x7: 0.146|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.091|x12: 0.050|x13: 0.051|x14: 0.000|x15: 0.000|x16: 0.044|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.066|x6: 0.348|x7: 0.146|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.092|x12: 0.050|x13: 0.051|x14: 0.000|x15: 0.000|x16: 0.044|x17: 0.000</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>[0.34741840103766]</t>
+          <t>[0.34750895023941164]</t>
         </is>
       </c>
       <c r="H279" t="b">
@@ -11904,7 +11904,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>[0.3737928833713805]</t>
+          <t>[0.37382586110773997]</t>
         </is>
       </c>
       <c r="H280" t="b">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>[0.21663939839607116]</t>
+          <t>[0.21687766767063635]</t>
         </is>
       </c>
       <c r="H281" t="b">
@@ -11986,7 +11986,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>[0.5030844098995677]</t>
+          <t>[0.5031989219147326]</t>
         </is>
       </c>
       <c r="H282" t="b">
@@ -12012,7 +12012,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.041|x4: 0.000|x5: 0.000|x6: 0.271|x7: 0.083|x8: 0.000|x9: 0.041|x10: 0.000|x11: 0.034|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.053|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.041|x4: 0.000|x5: 0.000|x6: 0.271|x7: 0.083|x8: 0.000|x9: 0.041|x10: 0.000|x11: 0.034|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.054|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -12027,7 +12027,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>[0.2707327710760077]</t>
+          <t>[0.27089706449952905]</t>
         </is>
       </c>
       <c r="H283" t="b">
@@ -12068,7 +12068,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>[0.3568592985519999]</t>
+          <t>[0.3568415754346339]</t>
         </is>
       </c>
       <c r="H284" t="b">
@@ -12094,7 +12094,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.093|x3: 0.091|x4: 0.052|x5: 0.097|x6: 0.400|x7: 0.000|x8: 0.045|x9: 0.106|x10: 0.072|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.092|x16: 0.089|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.093|x3: 0.091|x4: 0.052|x5: 0.098|x6: 0.400|x7: 0.000|x8: 0.045|x9: 0.106|x10: 0.072|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.092|x16: 0.089|x17: 0.000</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>[0.4001802447532301]</t>
+          <t>[0.4001285251078198]</t>
         </is>
       </c>
       <c r="H285" t="b">
@@ -12150,7 +12150,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>[0.41195197681390194]</t>
+          <t>[0.41219987581521017]</t>
         </is>
       </c>
       <c r="H286" t="b">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.105|x4: 0.000|x5: 0.074|x6: 0.414|x7: 0.195|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.066|x12: 0.000|x13: 0.053|x14: 0.000|x15: 0.087|x16: 0.071|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.105|x4: 0.000|x5: 0.074|x6: 0.414|x7: 0.194|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.066|x12: 0.000|x13: 0.053|x14: 0.000|x15: 0.087|x16: 0.071|x17: 0.000</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>[0.4139189272682804]</t>
+          <t>[0.4138880719581621]</t>
         </is>
       </c>
       <c r="H287" t="b">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>x1: 0.145|x2: 0.050|x3: 0.142|x4: 0.057|x5: 0.000|x6: 0.462|x7: 0.082|x8: 0.058|x9: 0.000|x10: 0.000|x11: 0.061|x12: 0.000|x13: 0.045|x14: 0.000|x15: 0.075|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.145|x2: 0.050|x3: 0.142|x4: 0.058|x5: 0.000|x6: 0.462|x7: 0.082|x8: 0.058|x9: 0.000|x10: 0.000|x11: 0.061|x12: 0.000|x13: 0.045|x14: 0.000|x15: 0.075|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>[0.46207374247297284]</t>
+          <t>[0.4621010219827736]</t>
         </is>
       </c>
       <c r="H289" t="b">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.248|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.058|x12: 0.079|x13: 0.000|x14: 0.092|x15: 0.106|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.247|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.058|x12: 0.079|x13: 0.000|x14: 0.092|x15: 0.106|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>[0.2476213610573658]</t>
+          <t>[0.24747703148389671]</t>
         </is>
       </c>
       <c r="H290" t="b">
@@ -12340,7 +12340,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.134|x7: 0.130|x8: 0.000|x9: 0.000|x10: 0.045|x11: 0.000|x12: 0.065|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.113|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.134|x7: 0.130|x8: 0.000|x9: 0.000|x10: 0.045|x11: 0.000|x12: 0.066|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.113|x17: 0.000</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.054|x4: 0.000|x5: 0.079|x6: 0.337|x7: 0.083|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.103|x12: 0.135|x13: 0.126|x14: 0.204|x15: 0.300|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.054|x4: 0.000|x5: 0.079|x6: 0.337|x7: 0.084|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.103|x12: 0.135|x13: 0.126|x14: 0.204|x15: 0.300|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>[0.3366630326033758, 0.30006972647410574, 0.20401972710432523]</t>
+          <t>[0.3366314091288044, 0.30002731428916973, 0.20400507784847935]</t>
         </is>
       </c>
       <c r="H292" t="b">
@@ -12437,7 +12437,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>[0.2060776759869173]</t>
+          <t>[0.2061619940575599]</t>
         </is>
       </c>
       <c r="H293" t="b">
@@ -12478,7 +12478,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>[0.2758192955042391]</t>
+          <t>[0.2756187048843053]</t>
         </is>
       </c>
       <c r="H294" t="b">
@@ -12519,7 +12519,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>[0.21359913018193033]</t>
+          <t>[0.21363632186165507]</t>
         </is>
       </c>
       <c r="H295" t="b">
@@ -12545,7 +12545,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.064|x7: 0.352|x8: 0.000|x9: 0.113|x10: 0.000|x11: 0.069|x12: 0.046|x13: 0.037|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.064|x7: 0.353|x8: 0.000|x9: 0.113|x10: 0.000|x11: 0.069|x12: 0.046|x13: 0.037|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -12560,7 +12560,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>[0.3524719331189627]</t>
+          <t>[0.35252733137544684]</t>
         </is>
       </c>
       <c r="H296" t="b">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>[0.3823086197346913]</t>
+          <t>[0.3824092950269952]</t>
         </is>
       </c>
       <c r="H297" t="b">
@@ -12627,7 +12627,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.137|x4: 0.088|x5: 0.104|x6: 0.175|x7: 0.272|x8: 0.000|x9: 0.127|x10: 0.000|x11: 0.150|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.138|x4: 0.088|x5: 0.104|x6: 0.175|x7: 0.272|x8: 0.000|x9: 0.127|x10: 0.000|x11: 0.150|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -12642,7 +12642,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>[0.2717742030739478]</t>
+          <t>[0.27177725957692916]</t>
         </is>
       </c>
       <c r="H298" t="b">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>[0.3898256407359663]</t>
+          <t>[0.3896740023623855]</t>
         </is>
       </c>
       <c r="H299" t="b">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>[0.4672244091589683]</t>
+          <t>[0.4672849359341653]</t>
         </is>
       </c>
       <c r="H300" t="b">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.138|x4: 0.000|x5: 0.000|x6: 0.071|x7: 0.467|x8: 0.052|x9: 0.192|x10: 0.000|x11: 0.089|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.138|x4: 0.000|x5: 0.000|x6: 0.070|x7: 0.467|x8: 0.052|x9: 0.192|x10: 0.000|x11: 0.089|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -12765,7 +12765,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>[0.467322963051794]</t>
+          <t>[0.46728016400178246]</t>
         </is>
       </c>
       <c r="H301" t="b">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.075|x4: 0.000|x5: 0.044|x6: 0.074|x7: 0.414|x8: 0.000|x9: 0.089|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.090|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.075|x4: 0.000|x5: 0.044|x6: 0.075|x7: 0.414|x8: 0.000|x9: 0.089|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.090|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -12806,7 +12806,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>[0.4138643987606613]</t>
+          <t>[0.4139462400447508]</t>
         </is>
       </c>
       <c r="H302" t="b">
@@ -12847,7 +12847,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>[0.3906941811837299]</t>
+          <t>[0.3907131854852347]</t>
         </is>
       </c>
       <c r="H303" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.084|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.529|x8: 0.097|x9: 0.113|x10: 0.000|x11: 0.000|x12: 0.144|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.084|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.528|x8: 0.097|x9: 0.113|x10: 0.000|x11: 0.000|x12: 0.144|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>[0.5286318655562531]</t>
+          <t>[0.5284161597079707]</t>
         </is>
       </c>
       <c r="H304" t="b">
@@ -12929,7 +12929,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>[0.2945910352388999]</t>
+          <t>[0.29455519424465326]</t>
         </is>
       </c>
       <c r="H305" t="b">
@@ -12970,7 +12970,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>[0.36715440869344723]</t>
+          <t>[0.36721529022386856]</t>
         </is>
       </c>
       <c r="H306" t="b">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>[0.4106128891228561]</t>
+          <t>[0.4106367921455823]</t>
         </is>
       </c>
       <c r="H307" t="b">
@@ -13037,7 +13037,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.057|x7: 0.308|x8: 0.000|x9: 0.094|x10: 0.000|x11: 0.056|x12: 0.027|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.057|x7: 0.309|x8: 0.000|x9: 0.094|x10: 0.000|x11: 0.056|x12: 0.027|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -13052,7 +13052,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>[0.30843634175160906]</t>
+          <t>[0.30855288525820335]</t>
         </is>
       </c>
       <c r="H308" t="b">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.032|x7: 0.253|x8: 0.000|x9: 0.092|x10: 0.040|x11: 0.077|x12: 0.000|x13: 0.029|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.031|x7: 0.253|x8: 0.000|x9: 0.093|x10: 0.039|x11: 0.077|x12: 0.000|x13: 0.029|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -13093,7 +13093,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>[0.25311311827569843]</t>
+          <t>[0.2531078620963455]</t>
         </is>
       </c>
       <c r="H309" t="b">
@@ -13134,7 +13134,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>[0.28361776993352855]</t>
+          <t>[0.2836233828345925]</t>
         </is>
       </c>
       <c r="H310" t="b">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>[0.4196856681516917]</t>
+          <t>[0.41977307216706655]</t>
         </is>
       </c>
       <c r="H311" t="b">
@@ -13216,7 +13216,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>[0.6249696727126177]</t>
+          <t>[0.624855867837492]</t>
         </is>
       </c>
       <c r="H312" t="b">
@@ -13257,7 +13257,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>[0.37265961069148534]</t>
+          <t>[0.37258458782836984]</t>
         </is>
       </c>
       <c r="H313" t="b">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.087|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.533|x8: 0.109|x9: 0.114|x10: 0.000|x11: 0.000|x12: 0.129|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.087|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.533|x8: 0.109|x9: 0.113|x10: 0.000|x11: 0.000|x12: 0.128|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>[0.5334127795187154]</t>
+          <t>[0.5332196060241972]</t>
         </is>
       </c>
       <c r="H314" t="b">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>[0.38983297219985563]</t>
+          <t>[0.389682984561201]</t>
         </is>
       </c>
       <c r="H315" t="b">
@@ -13365,7 +13365,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.152|x4: 0.000|x5: 0.000|x6: 0.110|x7: 0.550|x8: 0.052|x9: 0.149|x10: 0.000|x11: 0.166|x12: 0.000|x13: 0.080|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.152|x4: 0.000|x5: 0.000|x6: 0.110|x7: 0.551|x8: 0.052|x9: 0.149|x10: 0.000|x11: 0.166|x12: 0.000|x13: 0.080|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -13380,7 +13380,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>[0.5504890451338712]</t>
+          <t>[0.5506282117390132]</t>
         </is>
       </c>
       <c r="H316" t="b">
@@ -13421,7 +13421,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>[0.4494012684904581]</t>
+          <t>[0.4494382994813087]</t>
         </is>
       </c>
       <c r="H317" t="b">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.040|x6: 0.080|x7: 0.236|x8: 0.000|x9: 0.097|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.040|x6: 0.081|x7: 0.236|x8: 0.000|x9: 0.097|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -13462,7 +13462,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>[0.23588219735035534]</t>
+          <t>[0.23592314277366971]</t>
         </is>
       </c>
       <c r="H318" t="b">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>[0.3169524594921374]</t>
+          <t>[0.3169472391136954]</t>
         </is>
       </c>
       <c r="H319" t="b">
@@ -13529,7 +13529,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.053|x4: 0.000|x5: 0.000|x6: 0.060|x7: 0.270|x8: 0.000|x9: 0.088|x10: 0.000|x11: 0.026|x12: 0.000|x13: 0.028|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.053|x4: 0.000|x5: 0.000|x6: 0.060|x7: 0.269|x8: 0.000|x9: 0.088|x10: 0.000|x11: 0.026|x12: 0.000|x13: 0.028|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>[0.26960482106053374]</t>
+          <t>[0.269466433545909]</t>
         </is>
       </c>
       <c r="H320" t="b">
@@ -13585,7 +13585,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>[0.21421128661576724]</t>
+          <t>[0.21424968006960582]</t>
         </is>
       </c>
       <c r="H321" t="b">
@@ -13667,7 +13667,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>[0.3837099543090135]</t>
+          <t>[0.3838066113729081]</t>
         </is>
       </c>
       <c r="H323" t="b">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>[0.45146122748967, 0.21963787302749796, 0.20966246842954997]</t>
+          <t>[0.45132854418010593, 0.21957688817908305, 0.2095407011314607]</t>
         </is>
       </c>
       <c r="H324" t="b">
@@ -13749,7 +13749,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>[0.3308628142998114]</t>
+          <t>[0.3310079620014296]</t>
         </is>
       </c>
       <c r="H325" t="b">
@@ -13816,12 +13816,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>x1: 0.117|x2: 0.033|x3: 0.000|x4: 0.059|x5: 0.079|x6: 0.000|x7: 0.000|x8: 0.337|x9: 0.033|x10: 0.075|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.066|x17: 0.000</t>
+          <t>x1: 0.122|x2: 0.000|x3: 0.000|x4: 0.062|x5: 0.083|x6: 0.000|x7: 0.000|x8: 0.351|x9: 0.034|x10: 0.078|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.069|x17: 0.000</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.34]</t>
+          <t>[0.00, 0.05, 0.35]</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>[0.33668941216971304]</t>
+          <t>[0.3510535861251165]</t>
         </is>
       </c>
       <c r="H327" t="b">
@@ -13913,7 +13913,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>[0.29368798078322117, 0.27980079324736923]</t>
+          <t>[0.2936252970262703, 0.27982667365951436]</t>
         </is>
       </c>
       <c r="H329" t="b">
@@ -13939,7 +13939,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>x1: 0.272|x2: 0.061|x3: 0.000|x4: 0.106|x5: 0.140|x6: 0.000|x7: 0.000|x8: 0.214|x9: 0.086|x10: 0.000|x11: 0.198|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.103|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.272|x2: 0.061|x3: 0.000|x4: 0.107|x5: 0.140|x6: 0.000|x7: 0.000|x8: 0.214|x9: 0.086|x10: 0.000|x11: 0.198|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.103|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -13954,7 +13954,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>[0.2715300998308712, 0.2137769718642277]</t>
+          <t>[0.2715509902303352, 0.21375812712673853]</t>
         </is>
       </c>
       <c r="H330" t="b">
@@ -13980,7 +13980,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>x1: 0.127|x2: 0.000|x3: 0.000|x4: 0.067|x5: 0.052|x6: 0.000|x7: 0.000|x8: 0.208|x9: 0.046|x10: 0.000|x11: 0.067|x12: 0.059|x13: 0.039|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.127|x2: 0.000|x3: 0.000|x4: 0.067|x5: 0.052|x6: 0.000|x7: 0.000|x8: 0.208|x9: 0.046|x10: 0.000|x11: 0.067|x12: 0.059|x13: 0.040|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -13995,7 +13995,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>[0.20787494596278056]</t>
+          <t>[0.20780143372304494]</t>
         </is>
       </c>
       <c r="H331" t="b">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>[0.2655603562796611]</t>
+          <t>[0.2655177333791839]</t>
         </is>
       </c>
       <c r="H332" t="b">
@@ -14077,7 +14077,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>[0.37602553892512425]</t>
+          <t>[0.37587410437867147]</t>
         </is>
       </c>
       <c r="H333" t="b">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>[0.2763312960594022]</t>
+          <t>[0.27626642296814946]</t>
         </is>
       </c>
       <c r="H334" t="b">
@@ -14159,7 +14159,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>[0.20076860167316887]</t>
+          <t>[0.2008479194897703]</t>
         </is>
       </c>
       <c r="H335" t="b">
@@ -14267,7 +14267,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>x1: 0.176|x2: 0.036|x3: 0.052|x4: 0.062|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.296|x9: 0.066|x10: 0.089|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.176|x2: 0.036|x3: 0.052|x4: 0.062|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.297|x9: 0.066|x10: 0.089|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -14282,7 +14282,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>[0.2964249544638617]</t>
+          <t>[0.29662432811613376]</t>
         </is>
       </c>
       <c r="H338" t="b">
@@ -14364,7 +14364,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>[0.27845293921329206, 0.22869164859707886]</t>
+          <t>[0.2784803682955352, 0.22875017826856117]</t>
         </is>
       </c>
       <c r="H340" t="b">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>x1: 0.175|x2: 0.000|x3: 0.076|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.327|x9: 0.169|x10: 0.061|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.175|x2: 0.000|x3: 0.077|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.327|x9: 0.169|x10: 0.061|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -14405,7 +14405,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>[0.3272964705598438]</t>
+          <t>[0.3273795681672435]</t>
         </is>
       </c>
       <c r="H341" t="b">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>[0.25205745870152463]</t>
+          <t>[0.2522232702935327]</t>
         </is>
       </c>
       <c r="H342" t="b">
@@ -14513,7 +14513,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>x1: 0.047|x2: 0.036|x3: 0.000|x4: 0.060|x5: 0.000|x6: 0.000|x7: 0.054|x8: 0.276|x9: 0.208|x10: 0.119|x11: 0.000|x12: 0.103|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.085|x17: 0.000</t>
+          <t>x1: 0.047|x2: 0.037|x3: 0.000|x4: 0.060|x5: 0.000|x6: 0.000|x7: 0.054|x8: 0.276|x9: 0.209|x10: 0.119|x11: 0.000|x12: 0.103|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.085|x17: 0.000</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>[0.2758285433508349, 0.20845628396928803]</t>
+          <t>[0.27588526643213973, 0.20855843198344096]</t>
         </is>
       </c>
       <c r="H344" t="b">
@@ -14610,7 +14610,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>[0.2512654797381111]</t>
+          <t>[0.2511069195599183]</t>
         </is>
       </c>
       <c r="H346" t="b">
@@ -14636,7 +14636,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>x1: 0.046|x2: 0.000|x3: 0.036|x4: 0.082|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.326|x9: 0.163|x10: 0.180|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.042|x17: 0.000</t>
+          <t>x1: 0.045|x2: 0.000|x3: 0.036|x4: 0.082|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.326|x9: 0.163|x10: 0.180|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.042|x17: 0.000</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -14651,7 +14651,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>[0.32580430688741285]</t>
+          <t>[0.32581961223371575]</t>
         </is>
       </c>
       <c r="H347" t="b">
@@ -14692,7 +14692,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>[0.24826499048973008, 0.2217367236956886]</t>
+          <t>[0.2482318221741587, 0.22172950353850923]</t>
         </is>
       </c>
       <c r="H348" t="b">
@@ -14733,7 +14733,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>[0.2313548634033729]</t>
+          <t>[0.23136236395031787]</t>
         </is>
       </c>
       <c r="H349" t="b">
@@ -14759,7 +14759,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>x1: 0.127|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.247|x9: 0.180|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.127|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.246|x9: 0.180|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -14774,7 +14774,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>[0.24651148536464867]</t>
+          <t>[0.24641763982417186]</t>
         </is>
       </c>
       <c r="H350" t="b">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>x1: 0.134|x2: 0.039|x3: 0.100|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.284|x9: 0.046|x10: 0.054|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.134|x2: 0.039|x3: 0.101|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.284|x9: 0.046|x10: 0.054|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -14815,7 +14815,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>[0.2843682252170077]</t>
+          <t>[0.2844689106452525]</t>
         </is>
       </c>
       <c r="H351" t="b">
@@ -14856,7 +14856,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>[0.24516263849102454]</t>
+          <t>[0.24509841910015706]</t>
         </is>
       </c>
       <c r="H352" t="b">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>[0.39913830164726083, 0.26835442013258776, 0.20737831449157795]</t>
+          <t>[0.3992242190505139, 0.2683738624945391, 0.20743939762510755]</t>
         </is>
       </c>
       <c r="H354" t="b">
@@ -14964,7 +14964,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>x1: 0.088|x2: 0.055|x3: 0.083|x4: 0.174|x5: 0.102|x6: 0.000|x7: 0.000|x8: 0.252|x9: 0.044|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.082|x17: 0.000</t>
+          <t>x1: 0.088|x2: 0.055|x3: 0.083|x4: 0.173|x5: 0.102|x6: 0.000|x7: 0.000|x8: 0.252|x9: 0.044|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.082|x17: 0.000</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>[0.25218781919875016]</t>
+          <t>[0.25209165730741706]</t>
         </is>
       </c>
       <c r="H355" t="b">
@@ -15020,7 +15020,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>[0.270179584599557]</t>
+          <t>[0.2702786913722313]</t>
         </is>
       </c>
       <c r="H356" t="b">
@@ -15061,7 +15061,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>[0.22616422868127942]</t>
+          <t>[0.22611346815882238]</t>
         </is>
       </c>
       <c r="H357" t="b">
@@ -15102,7 +15102,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>[0.3481258848178489]</t>
+          <t>[0.3479876819632402]</t>
         </is>
       </c>
       <c r="H358" t="b">
@@ -15184,7 +15184,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>[0.24072579887167114]</t>
+          <t>[0.2406807442517825]</t>
         </is>
       </c>
       <c r="H360" t="b">
@@ -15225,7 +15225,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>[0.3664596001336769]</t>
+          <t>[0.36628038487053816]</t>
         </is>
       </c>
       <c r="H361" t="b">
@@ -15266,7 +15266,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>[0.3083174017473922]</t>
+          <t>[0.30827657498934063]</t>
         </is>
       </c>
       <c r="H362" t="b">
@@ -15307,7 +15307,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>[0.38019293051546876, 0.20841155138073447]</t>
+          <t>[0.38019908328138563, 0.2084719975893296]</t>
         </is>
       </c>
       <c r="H363" t="b">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>x1: 0.095|x2: 0.000|x3: 0.109|x4: 0.077|x5: 0.042|x6: 0.000|x7: 0.037|x8: 0.337|x9: 0.114|x10: 0.053|x11: 0.000|x12: 0.037|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.074|x17: 0.000</t>
+          <t>x1: 0.095|x2: 0.000|x3: 0.109|x4: 0.076|x5: 0.042|x6: 0.000|x7: 0.037|x8: 0.337|x9: 0.114|x10: 0.053|x11: 0.000|x12: 0.037|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.074|x17: 0.000</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>[0.33742255269444593]</t>
+          <t>[0.3374459899035821]</t>
         </is>
       </c>
       <c r="H364" t="b">
@@ -15389,7 +15389,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>[0.28571998438404383]</t>
+          <t>[0.2857368229020186]</t>
         </is>
       </c>
       <c r="H365" t="b">
@@ -15430,7 +15430,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>[0.31450666962221124]</t>
+          <t>[0.31450211366077147]</t>
         </is>
       </c>
       <c r="H366" t="b">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>[0.2222127103133188]</t>
+          <t>[0.2221815150945313]</t>
         </is>
       </c>
       <c r="H367" t="b">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>[0.2919876681664436]</t>
+          <t>[0.29198397850095203]</t>
         </is>
       </c>
       <c r="H368" t="b">
@@ -15594,7 +15594,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>[0.32966732715691904, 0.23944038344336588]</t>
+          <t>[0.32971399808287294, 0.23943478657061917]</t>
         </is>
       </c>
       <c r="H370" t="b">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>x1: 0.065|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.253|x9: 0.057|x10: 0.078|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.031|x17: 0.000</t>
+          <t>x1: 0.065|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.253|x9: 0.057|x10: 0.079|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.031|x17: 0.000</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>[0.25296239199195936]</t>
+          <t>[0.2530731598997582]</t>
         </is>
       </c>
       <c r="H372" t="b">
@@ -15758,7 +15758,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>[0.29185380444300485]</t>
+          <t>[0.2918233838416257]</t>
         </is>
       </c>
       <c r="H374" t="b">
@@ -15799,7 +15799,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>[0.22291729968529758]</t>
+          <t>[0.22298704267786598]</t>
         </is>
       </c>
       <c r="H375" t="b">
@@ -15866,7 +15866,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.137|x3: 0.000|x4: 0.060|x5: 0.000|x6: 0.000|x7: 0.090|x8: 0.069|x9: 0.285|x10: 0.000|x11: 0.105|x12: 0.068|x13: 0.067|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.137|x3: 0.000|x4: 0.060|x5: 0.000|x6: 0.000|x7: 0.090|x8: 0.070|x9: 0.285|x10: 0.000|x11: 0.105|x12: 0.068|x13: 0.067|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -15881,7 +15881,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>[0.28530277293967093]</t>
+          <t>[0.28541481861042994]</t>
         </is>
       </c>
       <c r="H377" t="b">
@@ -16004,7 +16004,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>[0.4565913749109154]</t>
+          <t>[0.45664641635384845]</t>
         </is>
       </c>
       <c r="H380" t="b">
@@ -16030,7 +16030,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.056|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.094|x8: 0.122|x9: 0.345|x10: 0.053|x11: 0.000|x12: 0.055|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.055|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.094|x8: 0.122|x9: 0.345|x10: 0.053|x11: 0.000|x12: 0.055|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -16045,7 +16045,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>[0.3448659100635633]</t>
+          <t>[0.34486094131631706]</t>
         </is>
       </c>
       <c r="H381" t="b">
@@ -16086,7 +16086,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>[0.3834029402755908]</t>
+          <t>[0.3831859378405184]</t>
         </is>
       </c>
       <c r="H382" t="b">
@@ -16127,7 +16127,7 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>[0.2790010830280521]</t>
+          <t>[0.2789763811016404]</t>
         </is>
       </c>
       <c r="H383" t="b">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>[0.46625313271341573]</t>
+          <t>[0.4663756317518135]</t>
         </is>
       </c>
       <c r="H384" t="b">
@@ -16209,7 +16209,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>[0.3517708839764595]</t>
+          <t>[0.3518117375064896]</t>
         </is>
       </c>
       <c r="H385" t="b">
@@ -16250,7 +16250,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>[0.26639076804773043]</t>
+          <t>[0.26648333305719907]</t>
         </is>
       </c>
       <c r="H386" t="b">
@@ -16276,7 +16276,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>x1: 0.069|x2: 0.000|x3: 0.000|x4: 0.040|x5: 0.000|x6: 0.000|x7: 0.065|x8: 0.115|x9: 0.302|x10: 0.089|x11: 0.106|x12: 0.052|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.069|x2: 0.000|x3: 0.000|x4: 0.040|x5: 0.000|x6: 0.000|x7: 0.065|x8: 0.115|x9: 0.303|x10: 0.089|x11: 0.106|x12: 0.052|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>[0.30238289798769813]</t>
+          <t>[0.30255149742853477]</t>
         </is>
       </c>
       <c r="H387" t="b">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>[0.3287332624300635]</t>
+          <t>[0.3287779467654505]</t>
         </is>
       </c>
       <c r="H388" t="b">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>[0.22872913408041087]</t>
+          <t>[0.22876062185128707]</t>
         </is>
       </c>
       <c r="H389" t="b">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.101|x3: 0.091|x4: 0.093|x5: 0.000|x6: 0.000|x7: 0.065|x8: 0.219|x9: 0.498|x10: 0.000|x11: 0.046|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.101|x3: 0.091|x4: 0.093|x5: 0.000|x6: 0.000|x7: 0.066|x8: 0.219|x9: 0.498|x10: 0.000|x11: 0.046|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -16414,7 +16414,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>[0.498269498221442, 0.21891619714546573]</t>
+          <t>[0.4981300365424677, 0.21892967223618032]</t>
         </is>
       </c>
       <c r="H390" t="b">
@@ -16440,7 +16440,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.146|x8: 0.112|x9: 0.399|x10: 0.047|x11: 0.130|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.146|x8: 0.112|x9: 0.398|x10: 0.047|x11: 0.130|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -16455,7 +16455,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>[0.39851335274028993]</t>
+          <t>[0.39842031785130255]</t>
         </is>
       </c>
       <c r="H391" t="b">
@@ -16481,7 +16481,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.096|x8: 0.054|x9: 0.153|x10: 0.035|x11: 0.000|x12: 0.085|x13: 0.040|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.096|x8: 0.054|x9: 0.152|x10: 0.035|x11: 0.000|x12: 0.085|x13: 0.040|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.114|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.108|x9: 0.378|x10: 0.086|x11: 0.000|x12: 0.000|x13: 0.050|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.114|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.108|x9: 0.378|x10: 0.087|x11: 0.000|x12: 0.000|x13: 0.050|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -16537,7 +16537,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>[0.37794300550583027]</t>
+          <t>[0.3778903624871481]</t>
         </is>
       </c>
       <c r="H393" t="b">
@@ -16578,7 +16578,7 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>[0.46365801699074405]</t>
+          <t>[0.4637446598440405]</t>
         </is>
       </c>
       <c r="H394" t="b">
@@ -16619,7 +16619,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>[0.2780478406499482]</t>
+          <t>[0.2781132531344024]</t>
         </is>
       </c>
       <c r="H395" t="b">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>[0.41939972020651817, 0.2259491074783487]</t>
+          <t>[0.41939662461751914, 0.22599966548836042]</t>
         </is>
       </c>
       <c r="H396" t="b">
@@ -16701,7 +16701,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>[0.42238702681121376, 0.21613904613657803]</t>
+          <t>[0.4223929581199509, 0.21613549434955004]</t>
         </is>
       </c>
       <c r="H397" t="b">
@@ -16727,7 +16727,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.062|x3: 0.042|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.136|x8: 0.162|x9: 0.400|x10: 0.105|x11: 0.081|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.062|x3: 0.042|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.136|x8: 0.162|x9: 0.399|x10: 0.105|x11: 0.081|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -16742,7 +16742,7 @@
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>[0.3995505186205049]</t>
+          <t>[0.39940918830967365]</t>
         </is>
       </c>
       <c r="H398" t="b">
@@ -16783,7 +16783,7 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>[0.3653420676815299]</t>
+          <t>[0.36521695145459737]</t>
         </is>
       </c>
       <c r="H399" t="b">
@@ -16809,7 +16809,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.025|x3: 0.025|x4: 0.017|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.078|x9: 0.157|x10: 0.027|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.040|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.025|x3: 0.025|x4: 0.017|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.078|x9: 0.156|x10: 0.027|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.040|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -16865,7 +16865,7 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>[0.3930313517460998]</t>
+          <t>[0.39296745222687757]</t>
         </is>
       </c>
       <c r="H401" t="b">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>[0.3360423205537289]</t>
+          <t>[0.33611022691087045]</t>
         </is>
       </c>
       <c r="H402" t="b">
@@ -16932,7 +16932,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.055|x3: 0.052|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.094|x8: 0.156|x9: 0.380|x10: 0.115|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.055|x3: 0.052|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.093|x8: 0.156|x9: 0.380|x10: 0.115|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>[0.3798913956824392]</t>
+          <t>[0.3798781153297027]</t>
         </is>
       </c>
       <c r="H403" t="b">
@@ -16988,7 +16988,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>[0.29559994724060235]</t>
+          <t>[0.29573699505635076]</t>
         </is>
       </c>
       <c r="H404" t="b">
@@ -17029,7 +17029,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>[0.47158169149353935]</t>
+          <t>[0.4716643025182972]</t>
         </is>
       </c>
       <c r="H405" t="b">
@@ -17070,7 +17070,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>[0.3018350952499663, 0.22314940874843112]</t>
+          <t>[0.30192696803883545, 0.2231535072838004]</t>
         </is>
       </c>
       <c r="H406" t="b">
@@ -17111,7 +17111,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>[0.43188975681741537, 0.25454192866015335]</t>
+          <t>[0.4319640656616198, 0.25466240622068737]</t>
         </is>
       </c>
       <c r="H407" t="b">
@@ -17152,7 +17152,7 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>[0.2927215740380813]</t>
+          <t>[0.29266895968450557]</t>
         </is>
       </c>
       <c r="H408" t="b">
@@ -17193,7 +17193,7 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>[0.3826458349379719]</t>
+          <t>[0.38260887928376186]</t>
         </is>
       </c>
       <c r="H409" t="b">
@@ -17219,7 +17219,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.098|x8: 0.054|x9: 0.357|x10: 0.068|x11: 0.000|x12: 0.055|x13: 0.000|x14: 0.086|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.098|x8: 0.054|x9: 0.358|x10: 0.068|x11: 0.000|x12: 0.055|x13: 0.000|x14: 0.086|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -17234,7 +17234,7 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>[0.3574309366696199]</t>
+          <t>[0.3575235108178149]</t>
         </is>
       </c>
       <c r="H410" t="b">
@@ -17275,7 +17275,7 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>[0.30309080617120926, 0.24074444677847584]</t>
+          <t>[0.30301395839888584, 0.2406934832115961]</t>
         </is>
       </c>
       <c r="H411" t="b">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>[0.2663016350815562]</t>
+          <t>[0.26634709420629676]</t>
         </is>
       </c>
       <c r="H412" t="b">
@@ -17342,7 +17342,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.049|x3: 0.065|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.048|x8: 0.107|x9: 0.274|x10: 0.091|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.048|x3: 0.065|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.048|x8: 0.107|x9: 0.274|x10: 0.091|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -17357,7 +17357,7 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>[0.27433353592444126]</t>
+          <t>[0.27429124918247355]</t>
         </is>
       </c>
       <c r="H413" t="b">
@@ -17398,7 +17398,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>[0.33712973464759866]</t>
+          <t>[0.3371541247807722]</t>
         </is>
       </c>
       <c r="H414" t="b">
@@ -17439,7 +17439,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>[0.2784454413539253]</t>
+          <t>[0.2784152513561683]</t>
         </is>
       </c>
       <c r="H415" t="b">
@@ -17480,7 +17480,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>[0.2880522122781394]</t>
+          <t>[0.28800752430681664]</t>
         </is>
       </c>
       <c r="H416" t="b">
@@ -17521,7 +17521,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>[0.26416998269533304]</t>
+          <t>[0.26410122424650023]</t>
         </is>
       </c>
       <c r="H417" t="b">
@@ -17562,7 +17562,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>[0.3239752751619914]</t>
+          <t>[0.3240545340923515]</t>
         </is>
       </c>
       <c r="H418" t="b">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>[0.39513757832860663, 0.2053677931546911]</t>
+          <t>[0.3951595730858938, 0.20540047344374912]</t>
         </is>
       </c>
       <c r="H419" t="b">
@@ -17644,7 +17644,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>[0.33099213056583054]</t>
+          <t>[0.331016956247022]</t>
         </is>
       </c>
       <c r="H420" t="b">
@@ -17808,7 +17808,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>[0.33533951610448415]</t>
+          <t>[0.3353739070666688]</t>
         </is>
       </c>
       <c r="H424" t="b">
@@ -17834,7 +17834,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>x1: 0.083|x2: 0.099|x3: 0.059|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.179|x9: 0.073|x10: 0.217|x11: 0.000|x12: 0.000|x13: 0.052|x14: 0.000|x15: 0.000|x16: 0.087|x17: 0.000</t>
+          <t>x1: 0.083|x2: 0.099|x3: 0.059|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.180|x9: 0.073|x10: 0.217|x11: 0.000|x12: 0.000|x13: 0.052|x14: 0.000|x15: 0.000|x16: 0.087|x17: 0.000</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -17849,7 +17849,7 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>[0.21699102103722542]</t>
+          <t>[0.21706443975813738]</t>
         </is>
       </c>
       <c r="H425" t="b">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>[0.2602159439865812]</t>
+          <t>[0.26020031869899257]</t>
         </is>
       </c>
       <c r="H426" t="b">
@@ -17931,7 +17931,7 @@
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>[0.3351784871358798, 0.20326776694827006]</t>
+          <t>[0.33504588525155854, 0.20311208205010134]</t>
         </is>
       </c>
       <c r="H427" t="b">
@@ -17972,7 +17972,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>[0.4487204239252466]</t>
+          <t>[0.44877051501321974]</t>
         </is>
       </c>
       <c r="H428" t="b">
@@ -18013,7 +18013,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>[0.36333647159441496]</t>
+          <t>[0.3632312565389608]</t>
         </is>
       </c>
       <c r="H429" t="b">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>[0.3950016419064903]</t>
+          <t>[0.3950853015853299]</t>
         </is>
       </c>
       <c r="H430" t="b">
@@ -18095,7 +18095,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>[0.33107431572564006]</t>
+          <t>[0.33105158589229566]</t>
         </is>
       </c>
       <c r="H431" t="b">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>[0.3832222477323359]</t>
+          <t>[0.3831215313811274]</t>
         </is>
       </c>
       <c r="H432" t="b">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>[0.32168055157488273]</t>
+          <t>[0.32178150040538933]</t>
         </is>
       </c>
       <c r="H433" t="b">
@@ -18218,7 +18218,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>[0.45821873238870037, 0.24866481155349948, 0.22784792217409608]</t>
+          <t>[0.4583138647709294, 0.24865080857831515, 0.22782866781841976]</t>
         </is>
       </c>
       <c r="H434" t="b">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>[0.46667243586230206, 0.2729175606050449, 0.23349315129405135]</t>
+          <t>[0.4666561853651301, 0.27291365772562437, 0.2334734136338672]</t>
         </is>
       </c>
       <c r="H435" t="b">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>[0.23348253767433336]</t>
+          <t>[0.23333852954389422]</t>
         </is>
       </c>
       <c r="H436" t="b">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>[0.4597211936844678]</t>
+          <t>[0.4597315995508313]</t>
         </is>
       </c>
       <c r="H437" t="b">
@@ -18367,7 +18367,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>x1: 0.047|x2: 0.094|x3: 0.000|x4: 0.042|x5: 0.069|x6: 0.000|x7: 0.000|x8: 0.143|x9: 0.053|x10: 0.305|x11: 0.000|x12: 0.000|x13: 0.072|x14: 0.000|x15: 0.000|x16: 0.058|x17: 0.000</t>
+          <t>x1: 0.047|x2: 0.094|x3: 0.000|x4: 0.042|x5: 0.069|x6: 0.000|x7: 0.000|x8: 0.143|x9: 0.053|x10: 0.306|x11: 0.000|x12: 0.000|x13: 0.072|x14: 0.000|x15: 0.000|x16: 0.058|x17: 0.000</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -18382,7 +18382,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>[0.30547891948114425]</t>
+          <t>[0.30550968965498176]</t>
         </is>
       </c>
       <c r="H438" t="b">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>[0.3123329166965577]</t>
+          <t>[0.3124288391476135]</t>
         </is>
       </c>
       <c r="H439" t="b">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>[0.4518379204835319]</t>
+          <t>[0.4518432560911137]</t>
         </is>
       </c>
       <c r="H440" t="b">
@@ -18505,7 +18505,7 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>[0.38423397017765615]</t>
+          <t>[0.38417681943869825]</t>
         </is>
       </c>
       <c r="H441" t="b">
@@ -18546,7 +18546,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>[0.37322721070250514]</t>
+          <t>[0.3731241338927943]</t>
         </is>
       </c>
       <c r="H442" t="b">
@@ -18587,7 +18587,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>[0.3668767836040406]</t>
+          <t>[0.36698054246203626]</t>
         </is>
       </c>
       <c r="H443" t="b">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.131|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.062|x9: 0.131|x10: 0.393|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.078|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.131|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.062|x9: 0.131|x10: 0.392|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.078|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -18628,7 +18628,7 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>[0.39258214048932755]</t>
+          <t>[0.3924339662970864]</t>
         </is>
       </c>
       <c r="H444" t="b">
@@ -18669,7 +18669,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>[0.4125824973106567]</t>
+          <t>[0.41271250746624705]</t>
         </is>
       </c>
       <c r="H445" t="b">
@@ -18710,7 +18710,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>[0.3388941848680793]</t>
+          <t>[0.3388500121212822]</t>
         </is>
       </c>
       <c r="H446" t="b">
@@ -18751,7 +18751,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>[0.3020596128003599, 0.22616704573409496]</t>
+          <t>[0.3020558182345798, 0.22617362243601946]</t>
         </is>
       </c>
       <c r="H447" t="b">
@@ -18792,7 +18792,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>[0.2408627541443074]</t>
+          <t>[0.24087000841778825]</t>
         </is>
       </c>
       <c r="H448" t="b">
@@ -18833,7 +18833,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>[0.43143409649679293, 0.24213707670447537, 0.21595436557703312]</t>
+          <t>[0.43140379381557087, 0.24213434813842238, 0.2159488225889653]</t>
         </is>
       </c>
       <c r="H449" t="b">
@@ -18874,7 +18874,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>[0.3297306340791697]</t>
+          <t>[0.3298823349205009]</t>
         </is>
       </c>
       <c r="H450" t="b">
@@ -18900,7 +18900,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>x1: 0.097|x2: 0.105|x3: 0.121|x4: 0.061|x5: 0.223|x6: 0.084|x7: 0.000|x8: 0.189|x9: 0.000|x10: 0.332|x11: 0.000|x12: 0.000|x13: 0.070|x14: 0.000|x15: 0.000|x16: 0.208|x17: 0.000</t>
+          <t>x1: 0.096|x2: 0.105|x3: 0.121|x4: 0.061|x5: 0.223|x6: 0.084|x7: 0.000|x8: 0.189|x9: 0.000|x10: 0.332|x11: 0.000|x12: 0.000|x13: 0.070|x14: 0.000|x15: 0.000|x16: 0.208|x17: 0.000</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -18915,7 +18915,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>[0.33172218295172584, 0.22298183263253718, 0.20796270951012422]</t>
+          <t>[0.3316204231128448, 0.2229441547869976, 0.20794712199664284]</t>
         </is>
       </c>
       <c r="H451" t="b">
@@ -18956,7 +18956,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>[0.2639354916917761, 0.256256680446148]</t>
+          <t>[0.2640100216303108, 0.2563312669414157]</t>
         </is>
       </c>
       <c r="H452" t="b">
@@ -18997,7 +18997,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>[0.347059057930836]</t>
+          <t>[0.346881336286833]</t>
         </is>
       </c>
       <c r="H453" t="b">
@@ -19038,7 +19038,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>[0.4561799769032801]</t>
+          <t>[0.45613275284633625]</t>
         </is>
       </c>
       <c r="H454" t="b">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>[0.27481591473475525]</t>
+          <t>[0.27482764025382167]</t>
         </is>
       </c>
       <c r="H455" t="b">
@@ -19120,7 +19120,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>[0.3338694154269954]</t>
+          <t>[0.33387852636617094]</t>
         </is>
       </c>
       <c r="H456" t="b">
@@ -19146,7 +19146,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.081|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.367|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.047|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.081|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.366|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.047|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -19161,7 +19161,7 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>[0.3665712285201887]</t>
+          <t>[0.3663968883982282]</t>
         </is>
       </c>
       <c r="H457" t="b">
@@ -19187,7 +19187,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.034|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.277|x12: 0.047|x13: 0.124|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.034|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.277|x12: 0.047|x13: 0.123|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -19202,7 +19202,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>[0.27709921331964626]</t>
+          <t>[0.2769996546506626]</t>
         </is>
       </c>
       <c r="H458" t="b">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>[0.327250563276232, 0.21228928386867146]</t>
+          <t>[0.3272972543718181, 0.2122738025849103]</t>
         </is>
       </c>
       <c r="H460" t="b">
@@ -19325,7 +19325,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>[0.4839918617410721]</t>
+          <t>[0.48393992814003806]</t>
         </is>
       </c>
       <c r="H461" t="b">
@@ -19351,7 +19351,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>x1: 0.086|x2: 0.000|x3: 0.074|x4: 0.000|x5: 0.068|x6: 0.000|x7: 0.110|x8: 0.000|x9: 0.069|x10: 0.000|x11: 0.466|x12: 0.052|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.065|x17: 0.000</t>
+          <t>x1: 0.085|x2: 0.000|x3: 0.074|x4: 0.000|x5: 0.068|x6: 0.000|x7: 0.110|x8: 0.000|x9: 0.069|x10: 0.000|x11: 0.466|x12: 0.052|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.065|x17: 0.000</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -19366,7 +19366,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>[0.46645624526248786]</t>
+          <t>[0.4664673480273773]</t>
         </is>
       </c>
       <c r="H462" t="b">
@@ -19407,7 +19407,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>[0.31934752779763986]</t>
+          <t>[0.31937588357809654]</t>
         </is>
       </c>
       <c r="H463" t="b">
@@ -19448,7 +19448,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>[0.3382973582020651]</t>
+          <t>[0.33846756257736726]</t>
         </is>
       </c>
       <c r="H464" t="b">
@@ -19489,7 +19489,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>[0.5183746813983392]</t>
+          <t>[0.5184787790452563]</t>
         </is>
       </c>
       <c r="H465" t="b">
@@ -19515,7 +19515,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>x1: 0.225|x2: 0.000|x3: 0.107|x4: 0.000|x5: 0.000|x6: 0.096|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.419|x12: 0.000|x13: 0.122|x14: 0.000|x15: 0.045|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.225|x2: 0.000|x3: 0.107|x4: 0.000|x5: 0.000|x6: 0.096|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.419|x12: 0.000|x13: 0.121|x14: 0.000|x15: 0.045|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -19530,7 +19530,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>[0.4188491108223123, 0.2248693667389044]</t>
+          <t>[0.4186565950319069, 0.22464017477506207]</t>
         </is>
       </c>
       <c r="H466" t="b">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>[0.3288069306534389]</t>
+          <t>[0.32867924185929526]</t>
         </is>
       </c>
       <c r="H467" t="b">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>[0.33786014692338606]</t>
+          <t>[0.3378357152667487]</t>
         </is>
       </c>
       <c r="H468" t="b">
@@ -19653,7 +19653,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>[0.38832190732051836]</t>
+          <t>[0.388378474252923]</t>
         </is>
       </c>
       <c r="H469" t="b">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>[0.20951735471187735]</t>
+          <t>[0.20955213579935889]</t>
         </is>
       </c>
       <c r="H470" t="b">
@@ -19735,7 +19735,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>[0.2518730093537523]</t>
+          <t>[0.2518726553005188]</t>
         </is>
       </c>
       <c r="H471" t="b">
@@ -19776,7 +19776,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>[0.29365696297389576]</t>
+          <t>[0.29372637290420706]</t>
         </is>
       </c>
       <c r="H472" t="b">
@@ -19817,7 +19817,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>[0.3934760978964323]</t>
+          <t>[0.3933141214894549]</t>
         </is>
       </c>
       <c r="H473" t="b">
@@ -19884,7 +19884,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.101|x8: 0.000|x9: 0.061|x10: 0.000|x11: 0.394|x12: 0.000|x13: 0.106|x14: 0.000|x15: 0.111|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.101|x8: 0.000|x9: 0.061|x10: 0.000|x11: 0.393|x12: 0.000|x13: 0.106|x14: 0.000|x15: 0.111|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -19899,7 +19899,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>[0.3935396970216824]</t>
+          <t>[0.3934578163402437]</t>
         </is>
       </c>
       <c r="H475" t="b">
@@ -19940,7 +19940,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>[0.498617000913771]</t>
+          <t>[0.49891529224369574]</t>
         </is>
       </c>
       <c r="H476" t="b">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>x1: 0.078|x2: 0.000|x3: 0.067|x4: 0.000|x5: 0.124|x6: 0.000|x7: 0.071|x8: 0.094|x9: 0.108|x10: 0.000|x11: 0.296|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.052|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.077|x2: 0.000|x3: 0.067|x4: 0.000|x5: 0.124|x6: 0.000|x7: 0.071|x8: 0.094|x9: 0.108|x10: 0.000|x11: 0.296|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.052|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>[0.2961947086485144]</t>
+          <t>[0.2962817277139081]</t>
         </is>
       </c>
       <c r="H477" t="b">
@@ -20007,7 +20007,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.079|x7: 0.119|x8: 0.000|x9: 0.073|x10: 0.000|x11: 0.277|x12: 0.000|x13: 0.033|x14: 0.053|x15: 0.094|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.079|x7: 0.119|x8: 0.000|x9: 0.073|x10: 0.000|x11: 0.277|x12: 0.000|x13: 0.034|x14: 0.053|x15: 0.094|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -20022,7 +20022,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>[0.2765552829093821]</t>
+          <t>[0.2765334334181053]</t>
         </is>
       </c>
       <c r="H478" t="b">
@@ -20063,7 +20063,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>[0.417402472062497]</t>
+          <t>[0.4174583455042849]</t>
         </is>
       </c>
       <c r="H479" t="b">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>[0.3408111982336438]</t>
+          <t>[0.3407187343274148]</t>
         </is>
       </c>
       <c r="H480" t="b">
@@ -20145,7 +20145,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>[0.43636191758491083]</t>
+          <t>[0.4363022753508834]</t>
         </is>
       </c>
       <c r="H481" t="b">
@@ -20186,7 +20186,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>[0.38493553100744626]</t>
+          <t>[0.38493017906194305]</t>
         </is>
       </c>
       <c r="H482" t="b">
@@ -20212,7 +20212,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>x1: 0.102|x2: 0.000|x3: 0.069|x4: 0.000|x5: 0.052|x6: 0.000|x7: 0.092|x8: 0.057|x9: 0.085|x10: 0.000|x11: 0.470|x12: 0.058|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.102|x2: 0.000|x3: 0.069|x4: 0.000|x5: 0.052|x6: 0.000|x7: 0.092|x8: 0.056|x9: 0.085|x10: 0.000|x11: 0.470|x12: 0.058|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
@@ -20227,7 +20227,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>[0.4703899040175769]</t>
+          <t>[0.47044065085198833]</t>
         </is>
       </c>
       <c r="H483" t="b">
@@ -20268,7 +20268,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>[0.3546656715255623]</t>
+          <t>[0.3546751916323331]</t>
         </is>
       </c>
       <c r="H484" t="b">
@@ -20309,7 +20309,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>[0.5371229409559372]</t>
+          <t>[0.5372877988804641]</t>
         </is>
       </c>
       <c r="H485" t="b">
@@ -20335,7 +20335,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>x1: 0.112|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.093|x7: 0.093|x8: 0.086|x9: 0.178|x10: 0.000|x11: 0.443|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.075|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.112|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.093|x7: 0.093|x8: 0.086|x9: 0.178|x10: 0.000|x11: 0.442|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.075|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -20350,7 +20350,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>[0.44255092608026914]</t>
+          <t>[0.4424528996835697]</t>
         </is>
       </c>
       <c r="H486" t="b">
@@ -20391,7 +20391,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>[0.38628807884358596, 0.20744499948586176]</t>
+          <t>[0.3861208339075946, 0.20728913950672365]</t>
         </is>
       </c>
       <c r="H487" t="b">
@@ -20417,7 +20417,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>x1: 0.091|x2: 0.122|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.397|x12: 0.000|x13: 0.190|x14: 0.082|x15: 0.157|x16: 0.119|x17: 0.000</t>
+          <t>x1: 0.091|x2: 0.122|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.396|x12: 0.000|x13: 0.191|x14: 0.082|x15: 0.157|x16: 0.120|x17: 0.000</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -20432,7 +20432,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>[0.39652629601931355]</t>
+          <t>[0.3964833130903916]</t>
         </is>
       </c>
       <c r="H488" t="b">
@@ -20473,7 +20473,7 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>[0.2797757279588876]</t>
+          <t>[0.2797048153745895]</t>
         </is>
       </c>
       <c r="H489" t="b">
@@ -20540,7 +20540,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.089|x7: 0.158|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.130|x12: 0.344|x13: 0.049|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.088|x7: 0.158|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.129|x12: 0.343|x13: 0.049|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -20555,7 +20555,7 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>[0.3436397377637004]</t>
+          <t>[0.3434647138513533]</t>
         </is>
       </c>
       <c r="H491" t="b">
@@ -20596,7 +20596,7 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>[0.3257141048088164, 0.25799522659203034]</t>
+          <t>[0.3257263480961785, 0.25797214128576923]</t>
         </is>
       </c>
       <c r="H492" t="b">
@@ -20622,7 +20622,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>x1: 0.118|x2: 0.060|x3: 0.078|x4: 0.000|x5: 0.000|x6: 0.051|x7: 0.254|x8: 0.045|x9: 0.098|x10: 0.000|x11: 0.050|x12: 0.205|x13: 0.076|x14: 0.120|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.118|x2: 0.060|x3: 0.077|x4: 0.000|x5: 0.000|x6: 0.051|x7: 0.254|x8: 0.046|x9: 0.098|x10: 0.000|x11: 0.050|x12: 0.205|x13: 0.076|x14: 0.120|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -20637,7 +20637,7 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>[0.2535538564017257, 0.20516659826776662]</t>
+          <t>[0.2535152590339344, 0.20519075085934485]</t>
         </is>
       </c>
       <c r="H493" t="b">
@@ -20678,7 +20678,7 @@
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>[0.2633710992320431]</t>
+          <t>[0.26327788506229294]</t>
         </is>
       </c>
       <c r="H494" t="b">
@@ -20719,7 +20719,7 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>[0.4843968044243104]</t>
+          <t>[0.4843991284608653]</t>
         </is>
       </c>
       <c r="H495" t="b">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>[0.20242644324792888]</t>
+          <t>[0.20241797337552175]</t>
         </is>
       </c>
       <c r="H496" t="b">
@@ -20842,7 +20842,7 @@
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>[0.23094439152340313, 0.20046888353556636]</t>
+          <t>[0.2309394485677686, 0.20047345741196915]</t>
         </is>
       </c>
       <c r="H498" t="b">
@@ -20883,7 +20883,7 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>[0.2699975854277481]</t>
+          <t>[0.2697797382317823]</t>
         </is>
       </c>
       <c r="H499" t="b">
@@ -20924,7 +20924,7 @@
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>[0.3511388166963236]</t>
+          <t>[0.3510933706213564]</t>
         </is>
       </c>
       <c r="H500" t="b">
@@ -20965,7 +20965,7 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>[0.34740887425425315]</t>
+          <t>[0.3472358805879081]</t>
         </is>
       </c>
       <c r="H501" t="b">
@@ -20991,7 +20991,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.084|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.057|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.106|x12: 0.435|x13: 0.148|x14: 0.095|x15: 0.088|x16: 0.046|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.084|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.057|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.106|x12: 0.435|x13: 0.148|x14: 0.095|x15: 0.087|x16: 0.046|x17: 0.000</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -21006,7 +21006,7 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>[0.43464698936028506]</t>
+          <t>[0.4347724058355932]</t>
         </is>
       </c>
       <c r="H502" t="b">
@@ -21047,7 +21047,7 @@
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>[0.23746503776908512]</t>
+          <t>[0.2373479724505513]</t>
         </is>
       </c>
       <c r="H503" t="b">
@@ -21073,7 +21073,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.102|x4: 0.000|x5: 0.000|x6: 0.071|x7: 0.083|x8: 0.070|x9: 0.075|x10: 0.000|x11: 0.056|x12: 0.552|x13: 0.000|x14: 0.058|x15: 0.071|x16: 0.093|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.102|x4: 0.000|x5: 0.000|x6: 0.071|x7: 0.083|x8: 0.070|x9: 0.075|x10: 0.000|x11: 0.056|x12: 0.552|x13: 0.000|x14: 0.059|x15: 0.071|x16: 0.093|x17: 0.000</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>[0.551707812700779]</t>
+          <t>[0.5517484373785683]</t>
         </is>
       </c>
       <c r="H504" t="b">
@@ -21129,7 +21129,7 @@
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>[0.362246560554806]</t>
+          <t>[0.36217584524183527]</t>
         </is>
       </c>
       <c r="H505" t="b">
@@ -21170,7 +21170,7 @@
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>[0.34385553286925674]</t>
+          <t>[0.3439552918257634]</t>
         </is>
       </c>
       <c r="H506" t="b">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>[0.6241182703846684]</t>
+          <t>[0.6242280252324827]</t>
         </is>
       </c>
       <c r="H508" t="b">
@@ -21293,7 +21293,7 @@
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>[0.20051950900883728]</t>
+          <t>[0.20061664043834332]</t>
         </is>
       </c>
       <c r="H509" t="b">
@@ -21319,12 +21319,12 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.041|x8: 0.000|x9: 0.066|x10: 0.000|x11: 0.000|x12: 0.317|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.041|x8: 0.000|x9: 0.067|x10: 0.000|x11: 0.000|x12: 0.318|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>[0.00, 0.02, 0.32]</t>
+          <t>[0.00, 0.03, 0.32]</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -21334,7 +21334,7 @@
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>[0.31738828190867263]</t>
+          <t>[0.31811431234599674]</t>
         </is>
       </c>
       <c r="H510" t="b">
@@ -21375,7 +21375,7 @@
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>[0.4883076757742063]</t>
+          <t>[0.4883008014276131]</t>
         </is>
       </c>
       <c r="H511" t="b">
@@ -21401,7 +21401,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.036|x8: 0.037|x9: 0.068|x10: 0.000|x11: 0.082|x12: 0.344|x13: 0.048|x14: 0.043|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.036|x8: 0.037|x9: 0.068|x10: 0.000|x11: 0.082|x12: 0.344|x13: 0.048|x14: 0.044|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -21416,7 +21416,7 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>[0.34353881908015926]</t>
+          <t>[0.34370844994983796]</t>
         </is>
       </c>
       <c r="H512" t="b">
@@ -21457,7 +21457,7 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>[0.24010058326166114]</t>
+          <t>[0.2403242133672464]</t>
         </is>
       </c>
       <c r="H513" t="b">
@@ -21483,7 +21483,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.075|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.291|x13: 0.117|x14: 0.092|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.075|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.292|x13: 0.117|x14: 0.092|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -21498,7 +21498,7 @@
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>[0.29147734947916915]</t>
+          <t>[0.2915656963911603]</t>
         </is>
       </c>
       <c r="H514" t="b">
@@ -21539,7 +21539,7 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>[0.2685922090913643]</t>
+          <t>[0.26856712019072265]</t>
         </is>
       </c>
       <c r="H515" t="b">
@@ -21565,7 +21565,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.019|x10: 0.000|x11: 0.000|x12: 0.108|x13: 0.000|x14: 0.018|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.019|x10: 0.000|x11: 0.000|x12: 0.107|x13: 0.000|x14: 0.018|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -21606,7 +21606,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.041|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.051|x7: 0.091|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.267|x13: 0.075|x14: 0.066|x15: 0.046|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.041|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.051|x7: 0.091|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.267|x13: 0.075|x14: 0.066|x15: 0.045|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -21621,7 +21621,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>[0.2673309174926299]</t>
+          <t>[0.2674155228126603]</t>
         </is>
       </c>
       <c r="H517" t="b">
@@ -21703,7 +21703,7 @@
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>[0.406794733248327]</t>
+          <t>[0.4066881370503425]</t>
         </is>
       </c>
       <c r="H519" t="b">
@@ -21744,7 +21744,7 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>[0.22273814664767944]</t>
+          <t>[0.22279190977738117]</t>
         </is>
       </c>
       <c r="H520" t="b">
@@ -21785,7 +21785,7 @@
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>[0.3864832173893543]</t>
+          <t>[0.3864606104324904]</t>
         </is>
       </c>
       <c r="H521" t="b">
@@ -21826,7 +21826,7 @@
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>[0.41448039727068225]</t>
+          <t>[0.41439104732492954]</t>
         </is>
       </c>
       <c r="H522" t="b">
@@ -21893,7 +21893,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.065|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.058|x11: 0.000|x12: 0.049|x13: 0.309|x14: 0.104|x15: 0.107|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.065|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.058|x11: 0.000|x12: 0.049|x13: 0.310|x14: 0.104|x15: 0.107|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -21908,7 +21908,7 @@
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>[0.3094566822495547]</t>
+          <t>[0.30956319564324325]</t>
         </is>
       </c>
       <c r="H524" t="b">
@@ -21949,7 +21949,7 @@
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>[0.267290850674659]</t>
+          <t>[0.26722786083177585]</t>
         </is>
       </c>
       <c r="H525" t="b">
@@ -21990,7 +21990,7 @@
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>[0.32626688245173363, 0.21863330403838074]</t>
+          <t>[0.32622525249290596, 0.21858460734344948]</t>
         </is>
       </c>
       <c r="H526" t="b">
@@ -22031,7 +22031,7 @@
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>[0.2456038137395295]</t>
+          <t>[0.2456216344254488]</t>
         </is>
       </c>
       <c r="H527" t="b">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>x1: 0.054|x2: 0.093|x3: 0.000|x4: 0.058|x5: 0.000|x6: 0.000|x7: 0.130|x8: 0.000|x9: 0.000|x10: 0.059|x11: 0.071|x12: 0.000|x13: 0.257|x14: 0.068|x15: 0.066|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.054|x2: 0.092|x3: 0.000|x4: 0.058|x5: 0.000|x6: 0.000|x7: 0.130|x8: 0.000|x9: 0.000|x10: 0.059|x11: 0.070|x12: 0.000|x13: 0.257|x14: 0.068|x15: 0.066|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>[0.2567431707624057]</t>
+          <t>[0.25669058670114575]</t>
         </is>
       </c>
       <c r="H528" t="b">
@@ -22113,7 +22113,7 @@
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>[0.23798540934770457]</t>
+          <t>[0.23771563385052957]</t>
         </is>
       </c>
       <c r="H529" t="b">
@@ -22236,7 +22236,7 @@
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>[0.35549212391401847]</t>
+          <t>[0.3554544928552666]</t>
         </is>
       </c>
       <c r="H532" t="b">
@@ -22262,7 +22262,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.065|x8: 0.000|x9: 0.052|x10: 0.119|x11: 0.000|x12: 0.055|x13: 0.493|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.065|x8: 0.000|x9: 0.052|x10: 0.119|x11: 0.000|x12: 0.054|x13: 0.493|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -22277,7 +22277,7 @@
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>[0.49342674419544935]</t>
+          <t>[0.4932863838252967]</t>
         </is>
       </c>
       <c r="H533" t="b">
@@ -22303,7 +22303,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.048|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.043|x11: 0.000|x12: 0.134|x13: 0.489|x14: 0.126|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.048|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.043|x11: 0.000|x12: 0.134|x13: 0.490|x14: 0.126|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -22318,7 +22318,7 @@
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>[0.48923716220184493]</t>
+          <t>[0.4895349587920891]</t>
         </is>
       </c>
       <c r="H534" t="b">
@@ -22359,7 +22359,7 @@
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>[0.3099383080290915]</t>
+          <t>[0.3100370346151288]</t>
         </is>
       </c>
       <c r="H535" t="b">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>[0.25719512316359505]</t>
+          <t>[0.2572974073536907]</t>
         </is>
       </c>
       <c r="H536" t="b">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>[0.22343884279331008]</t>
+          <t>[0.22344113794999745]</t>
         </is>
       </c>
       <c r="H538" t="b">
@@ -22523,7 +22523,7 @@
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>[0.3192342419201959]</t>
+          <t>[0.3192204320033608]</t>
         </is>
       </c>
       <c r="H539" t="b">
@@ -22564,7 +22564,7 @@
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>[0.3057840279102952]</t>
+          <t>[0.3058256739286734]</t>
         </is>
       </c>
       <c r="H540" t="b">
@@ -22646,7 +22646,7 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>[0.3708297520682378]</t>
+          <t>[0.37085190477573404]</t>
         </is>
       </c>
       <c r="H542" t="b">
@@ -22672,7 +22672,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.085|x7: 0.146|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.040|x13: 0.162|x14: 0.063|x15: 0.057|x16: 0.058|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.085|x7: 0.146|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.040|x13: 0.162|x14: 0.063|x15: 0.058|x16: 0.058|x17: 0.000</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
@@ -22728,7 +22728,7 @@
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>[0.2645292293180781, 0.25816285700259783]</t>
+          <t>[0.26455036418493133, 0.2581600081556824]</t>
         </is>
       </c>
       <c r="H544" t="b">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.044|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.048|x7: 0.128|x8: 0.000|x9: 0.050|x10: 0.065|x11: 0.079|x12: 0.196|x13: 0.200|x14: 0.103|x15: 0.064|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.044|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.048|x7: 0.128|x8: 0.000|x9: 0.051|x10: 0.065|x11: 0.079|x12: 0.196|x13: 0.200|x14: 0.103|x15: 0.064|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -22769,7 +22769,7 @@
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>[0.20008206557932276]</t>
+          <t>[0.20010226031448536]</t>
         </is>
       </c>
       <c r="H545" t="b">
@@ -22810,7 +22810,7 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>[0.2013815654603912]</t>
+          <t>[0.2013658887984302]</t>
         </is>
       </c>
       <c r="H546" t="b">
@@ -22892,7 +22892,7 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>[0.4270089159447395]</t>
+          <t>[0.42697491941571086]</t>
         </is>
       </c>
       <c r="H548" t="b">
@@ -22933,7 +22933,7 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>[0.3330704813853387]</t>
+          <t>[0.33278288955819174]</t>
         </is>
       </c>
       <c r="H549" t="b">
@@ -22959,7 +22959,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.109|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.050|x11: 0.000|x12: 0.091|x13: 0.540|x14: 0.104|x15: 0.088|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.110|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.050|x11: 0.000|x12: 0.091|x13: 0.540|x14: 0.104|x15: 0.088|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -22974,7 +22974,7 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>[0.539869196253826]</t>
+          <t>[0.5396805083956718]</t>
         </is>
       </c>
       <c r="H550" t="b">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>[0.26478093044379275]</t>
+          <t>[0.26466060262135793]</t>
         </is>
       </c>
       <c r="H551" t="b">
@@ -23056,7 +23056,7 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>[0.3189323950444967]</t>
+          <t>[0.3189598022832548]</t>
         </is>
       </c>
       <c r="H552" t="b">
@@ -23097,7 +23097,7 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>[0.3422473105062406, 0.26712233607275004]</t>
+          <t>[0.342203570829448, 0.2670971728672991]</t>
         </is>
       </c>
       <c r="H553" t="b">
@@ -23138,7 +23138,7 @@
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>[0.3246872276761322]</t>
+          <t>[0.32466629181689827]</t>
         </is>
       </c>
       <c r="H554" t="b">
@@ -23164,7 +23164,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.204|x8: 0.000|x9: 0.093|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.202|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.204|x8: 0.000|x9: 0.093|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.201|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -23179,7 +23179,7 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>[0.20386909251996269, 0.20157486220917326]</t>
+          <t>[0.20361981361451587, 0.2013469922954471]</t>
         </is>
       </c>
       <c r="H555" t="b">
@@ -23220,7 +23220,7 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>[0.31513852378477236]</t>
+          <t>[0.315209460641686]</t>
         </is>
       </c>
       <c r="H556" t="b">
@@ -23261,7 +23261,7 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>[0.276437401906863]</t>
+          <t>[0.2764479436155857]</t>
         </is>
       </c>
       <c r="H557" t="b">
@@ -23302,7 +23302,7 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>[0.5099520442443358]</t>
+          <t>[0.5100083954194917]</t>
         </is>
       </c>
       <c r="H558" t="b">
@@ -23384,7 +23384,7 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>[0.2820867743452826]</t>
+          <t>[0.2822820703345754]</t>
         </is>
       </c>
       <c r="H560" t="b">
@@ -23410,7 +23410,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.102|x3: 0.000|x4: 0.034|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.084|x13: 0.083|x14: 0.306|x15: 0.122|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.102|x3: 0.000|x4: 0.034|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.084|x13: 0.082|x14: 0.306|x15: 0.122|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
@@ -23425,7 +23425,7 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>[0.3055338056661645]</t>
+          <t>[0.3055517295928709]</t>
         </is>
       </c>
       <c r="H561" t="b">
@@ -23466,7 +23466,7 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>[0.2188845021051105]</t>
+          <t>[0.21888321897109259]</t>
         </is>
       </c>
       <c r="H562" t="b">
@@ -23507,7 +23507,7 @@
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>[0.42321651592181014]</t>
+          <t>[0.42314434008299484]</t>
         </is>
       </c>
       <c r="H563" t="b">
@@ -23533,7 +23533,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.021|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.020|x10: 0.033|x11: 0.000|x12: 0.050|x13: 0.064|x14: 0.155|x15: 0.023|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.021|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.020|x10: 0.033|x11: 0.000|x12: 0.050|x13: 0.065|x14: 0.155|x15: 0.023|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -23615,7 +23615,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>x1: 0.110|x2: 0.000|x3: 0.000|x4: 0.065|x5: 0.056|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.070|x12: 0.042|x13: 0.115|x14: 0.228|x15: 0.109|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.110|x2: 0.000|x3: 0.000|x4: 0.065|x5: 0.056|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.071|x12: 0.042|x13: 0.115|x14: 0.228|x15: 0.109|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
@@ -23630,7 +23630,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>[0.2278338477467769]</t>
+          <t>[0.22801471942944093]</t>
         </is>
       </c>
       <c r="H566" t="b">
@@ -23712,7 +23712,7 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>[0.29470235588042265, 0.20596343398744854]</t>
+          <t>[0.2947134225824593, 0.205939212024242]</t>
         </is>
       </c>
       <c r="H568" t="b">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>[0.32343082632473746]</t>
+          <t>[0.3233895565228895]</t>
         </is>
       </c>
       <c r="H572" t="b">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>[0.24066850755229655]</t>
+          <t>[0.2405097474082495]</t>
         </is>
       </c>
       <c r="H573" t="b">
@@ -23958,7 +23958,7 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>[0.2065745613156884]</t>
+          <t>[0.2065559723302015]</t>
         </is>
       </c>
       <c r="H574" t="b">
@@ -23999,7 +23999,7 @@
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>[0.25253981749042775]</t>
+          <t>[0.2526225380389446]</t>
         </is>
       </c>
       <c r="H575" t="b">
@@ -24025,7 +24025,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.045|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.050|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.057|x14: 0.292|x15: 0.093|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.045|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.050|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.057|x14: 0.293|x15: 0.093|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -24040,7 +24040,7 @@
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>[0.29249968073614396]</t>
+          <t>[0.29255089648015875]</t>
         </is>
       </c>
       <c r="H576" t="b">
@@ -24081,7 +24081,7 @@
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>[0.48234147483412715, 0.23617703325737632]</t>
+          <t>[0.4822432455089042, 0.23618961188123913]</t>
         </is>
       </c>
       <c r="H577" t="b">
@@ -24122,7 +24122,7 @@
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>[0.2166297537855367]</t>
+          <t>[0.21660541150723803]</t>
         </is>
       </c>
       <c r="H578" t="b">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.022|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.027|x10: 0.035|x11: 0.000|x12: 0.034|x13: 0.043|x14: 0.095|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.022|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.027|x10: 0.034|x11: 0.000|x12: 0.034|x13: 0.043|x14: 0.095|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
@@ -24245,7 +24245,7 @@
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>[0.2529430977538204]</t>
+          <t>[0.25304947314488657]</t>
         </is>
       </c>
       <c r="H581" t="b">
@@ -24327,7 +24327,7 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>[0.31990862642999607]</t>
+          <t>[0.31991037871443]</t>
         </is>
       </c>
       <c r="H583" t="b">
@@ -24353,7 +24353,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>x1: 0.101|x2: 0.185|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.056|x7: 0.000|x8: 0.108|x9: 0.065|x10: 0.165|x11: 0.000|x12: 0.090|x13: 0.084|x14: 0.227|x15: 0.090|x16: 0.062|x17: 0.000</t>
+          <t>x1: 0.101|x2: 0.185|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.057|x7: 0.000|x8: 0.108|x9: 0.066|x10: 0.165|x11: 0.000|x12: 0.090|x13: 0.084|x14: 0.227|x15: 0.090|x16: 0.062|x17: 0.000</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -24368,7 +24368,7 @@
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>[0.22664063350333183]</t>
+          <t>[0.2266690736618365]</t>
         </is>
       </c>
       <c r="H584" t="b">
@@ -24450,7 +24450,7 @@
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>[0.40280085570567287, 0.22402908847208086]</t>
+          <t>[0.40286651703698334, 0.22400875603887002]</t>
         </is>
       </c>
       <c r="H586" t="b">
@@ -24491,7 +24491,7 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>[0.2436440091387902]</t>
+          <t>[0.24361131058514351]</t>
         </is>
       </c>
       <c r="H587" t="b">
@@ -24517,7 +24517,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>x1: 0.042|x2: 0.071|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.052|x7: 0.077|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.043|x12: 0.148|x13: 0.121|x14: 0.321|x15: 0.136|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.042|x2: 0.072|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.052|x7: 0.077|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.044|x12: 0.148|x13: 0.121|x14: 0.321|x15: 0.136|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -24532,7 +24532,7 @@
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>[0.3205702058776364]</t>
+          <t>[0.3206204739560161]</t>
         </is>
       </c>
       <c r="H588" t="b">
@@ -24573,7 +24573,7 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>[0.21710677558337094]</t>
+          <t>[0.21728658315054075]</t>
         </is>
       </c>
       <c r="H589" t="b">
@@ -24614,7 +24614,7 @@
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>[0.3278470043693001]</t>
+          <t>[0.3276363616170528]</t>
         </is>
       </c>
       <c r="H590" t="b">
@@ -24640,7 +24640,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.036|x14: 0.141|x15: 0.060|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.036|x14: 0.142|x15: 0.061|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
@@ -24696,7 +24696,7 @@
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>[0.27213403339297837]</t>
+          <t>[0.27207806970148346]</t>
         </is>
       </c>
       <c r="H592" t="b">
@@ -24860,7 +24860,7 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>[0.30176693776445995]</t>
+          <t>[0.3017678893714584]</t>
         </is>
       </c>
       <c r="H596" t="b">
@@ -24886,7 +24886,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.038|x3: 0.000|x4: 0.000|x5: 0.040|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.170|x15: 0.066|x16: 0.049|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.040|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.170|x15: 0.066|x16: 0.049|x17: 0.000</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -24942,7 +24942,7 @@
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>[0.42018642016599017]</t>
+          <t>[0.420258321850494]</t>
         </is>
       </c>
       <c r="H598" t="b">
@@ -25050,7 +25050,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.071|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.083|x10: 0.000|x11: 0.031|x12: 0.089|x13: 0.152|x14: 0.192|x15: 0.088|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.071|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.083|x10: 0.000|x11: 0.032|x12: 0.089|x13: 0.152|x14: 0.192|x15: 0.088|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
@@ -25106,7 +25106,7 @@
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>[0.24925312916804204]</t>
+          <t>[0.24894376315483288]</t>
         </is>
       </c>
       <c r="H602" t="b">
@@ -25188,7 +25188,7 @@
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>[0.26563470578115855]</t>
+          <t>[0.2656759191241022]</t>
         </is>
       </c>
       <c r="H604" t="b">
@@ -25214,7 +25214,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>x1: 0.040|x2: 0.035|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.061|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.052|x13: 0.104|x14: 0.131|x15: 0.089|x16: 0.066|x17: 0.000</t>
+          <t>x1: 0.040|x2: 0.035|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.061|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.051|x13: 0.104|x14: 0.131|x15: 0.089|x16: 0.066|x17: 0.000</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -25255,7 +25255,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>x1: 0.035|x2: 0.132|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.033|x9: 0.049|x10: 0.030|x11: 0.000|x12: 0.000|x13: 0.064|x14: 0.173|x15: 0.254|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.035|x2: 0.132|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.034|x9: 0.049|x10: 0.030|x11: 0.000|x12: 0.000|x13: 0.064|x14: 0.173|x15: 0.254|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -25270,7 +25270,7 @@
       </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>[0.25380934134360283]</t>
+          <t>[0.25375425729382706]</t>
         </is>
       </c>
       <c r="H606" t="b">
@@ -25311,7 +25311,7 @@
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>[0.2512211251608557]</t>
+          <t>[0.2513719584150599]</t>
         </is>
       </c>
       <c r="H607" t="b">
@@ -25434,7 +25434,7 @@
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>[0.29247877880352485, 0.20462131090969737]</t>
+          <t>[0.2924581302435726, 0.20458941426211305]</t>
         </is>
       </c>
       <c r="H610" t="b">
@@ -25475,7 +25475,7 @@
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>[0.24756134619088502, 0.2445043455348578]</t>
+          <t>[0.2476040056134084, 0.24457943876740992]</t>
         </is>
       </c>
       <c r="H611" t="b">
@@ -25516,7 +25516,7 @@
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>[0.24283664642058228, 0.21142609616795582]</t>
+          <t>[0.24289315156377997, 0.21138394527515028]</t>
         </is>
       </c>
       <c r="H612" t="b">
@@ -25598,7 +25598,7 @@
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>[0.20789595701618105]</t>
+          <t>[0.20788949819548627]</t>
         </is>
       </c>
       <c r="H614" t="b">
@@ -25639,7 +25639,7 @@
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>[0.4023358768760915, 0.21367744210640732]</t>
+          <t>[0.40238690983686604, 0.2136916736518676]</t>
         </is>
       </c>
       <c r="H615" t="b">
@@ -25665,7 +25665,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.070|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.055|x13: 0.000|x14: 0.148|x15: 0.320|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.070|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.055|x13: 0.000|x14: 0.147|x15: 0.320|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
@@ -25680,7 +25680,7 @@
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>[0.3197261027342132]</t>
+          <t>[0.3196210022029532]</t>
         </is>
       </c>
       <c r="H616" t="b">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>[0.30352994001371375]</t>
+          <t>[0.30352003854781606]</t>
         </is>
       </c>
       <c r="H617" t="b">
@@ -25747,7 +25747,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.144|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.062|x7: 0.000|x8: 0.000|x9: 0.084|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.263|x15: 0.542|x16: 0.102|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.145|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.062|x7: 0.000|x8: 0.000|x9: 0.084|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.263|x15: 0.542|x16: 0.102|x17: 0.000</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
@@ -25762,7 +25762,7 @@
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>[0.5416090579233486, 0.2625571619839564]</t>
+          <t>[0.5417031762369967, 0.2625818355868094]</t>
         </is>
       </c>
       <c r="H618" t="b">
@@ -25788,7 +25788,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.039|x7: 0.000|x8: 0.000|x9: 0.034|x10: 0.000|x11: 0.038|x12: 0.000|x13: 0.000|x14: 0.078|x15: 0.227|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.039|x7: 0.000|x8: 0.000|x9: 0.034|x10: 0.000|x11: 0.038|x12: 0.000|x13: 0.000|x14: 0.078|x15: 0.228|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
@@ -25803,7 +25803,7 @@
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>[0.22738728317312645]</t>
+          <t>[0.22755738025980296]</t>
         </is>
       </c>
       <c r="H619" t="b">
@@ -25844,7 +25844,7 @@
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>[0.21915543008995744]</t>
+          <t>[0.2191862122592292]</t>
         </is>
       </c>
       <c r="H620" t="b">
@@ -25885,7 +25885,7 @@
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>[0.4233819544754544]</t>
+          <t>[0.42345181995314257]</t>
         </is>
       </c>
       <c r="H621" t="b">
@@ -25926,7 +25926,7 @@
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>[0.2375992032209137]</t>
+          <t>[0.23767863080867227]</t>
         </is>
       </c>
       <c r="H622" t="b">
@@ -25993,7 +25993,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.039|x3: 0.000|x4: 0.000|x5: 0.036|x6: 0.069|x7: 0.000|x8: 0.000|x9: 0.045|x10: 0.000|x11: 0.055|x12: 0.000|x13: 0.000|x14: 0.138|x15: 0.396|x16: 0.075|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.039|x3: 0.000|x4: 0.000|x5: 0.036|x6: 0.069|x7: 0.000|x8: 0.000|x9: 0.044|x10: 0.000|x11: 0.055|x12: 0.000|x13: 0.000|x14: 0.138|x15: 0.396|x16: 0.075|x17: 0.000</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
@@ -26008,7 +26008,7 @@
       </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>[0.3959627789400214]</t>
+          <t>[0.3958197351216482]</t>
         </is>
       </c>
       <c r="H624" t="b">
@@ -26034,7 +26034,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.008|x12: 0.011|x13: 0.000|x14: 0.029|x15: 0.062|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.008|x12: 0.010|x13: 0.000|x14: 0.029|x15: 0.062|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
@@ -26090,7 +26090,7 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>[0.3114179379659306]</t>
+          <t>[0.31142077740183094]</t>
         </is>
       </c>
       <c r="H626" t="b">
@@ -26131,7 +26131,7 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>[0.3308732428122041]</t>
+          <t>[0.3309200262502984]</t>
         </is>
       </c>
       <c r="H627" t="b">
@@ -26157,7 +26157,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.006|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.010|x12: 0.016|x13: 0.000|x14: 0.005|x15: 0.023|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.006|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.010|x12: 0.016|x13: 0.000|x14: 0.006|x15: 0.023|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
@@ -26213,7 +26213,7 @@
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>[0.3149921092891903]</t>
+          <t>[0.3149149417452266]</t>
         </is>
       </c>
       <c r="H629" t="b">
@@ -26295,7 +26295,7 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>[0.32719725999017774]</t>
+          <t>[0.3271012388528509]</t>
         </is>
       </c>
       <c r="H631" t="b">
@@ -26336,7 +26336,7 @@
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>[0.34180618470813634]</t>
+          <t>[0.34192825383258707]</t>
         </is>
       </c>
       <c r="H632" t="b">
@@ -26418,7 +26418,7 @@
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>[0.3907553195328428]</t>
+          <t>[0.39077164926758495]</t>
         </is>
       </c>
       <c r="H634" t="b">
@@ -26459,7 +26459,7 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>[0.41700535967201313]</t>
+          <t>[0.4170575802298603]</t>
         </is>
       </c>
       <c r="H635" t="b">
@@ -26500,7 +26500,7 @@
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>[0.4209328346991484, 0.2221802445793813]</t>
+          <t>[0.4207839881097269, 0.22211343568742734]</t>
         </is>
       </c>
       <c r="H636" t="b">
@@ -26541,7 +26541,7 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>[0.3060462223563753]</t>
+          <t>[0.3060056068630436]</t>
         </is>
       </c>
       <c r="H637" t="b">
@@ -26567,7 +26567,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.046|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.075|x12: 0.000|x13: 0.020|x14: 0.050|x15: 0.200|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.046|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.075|x12: 0.000|x13: 0.021|x14: 0.051|x15: 0.200|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
@@ -26577,19 +26577,19 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.20020554222625084]</t>
         </is>
       </c>
       <c r="H638" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I638" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -26623,7 +26623,7 @@
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>[0.3502019853991101]</t>
+          <t>[0.35029412706170204]</t>
         </is>
       </c>
       <c r="H639" t="b">
@@ -26649,7 +26649,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.056|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.047|x12: 0.000|x13: 0.000|x14: 0.096|x15: 0.267|x16: 0.057|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.056|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.047|x12: 0.000|x13: 0.000|x14: 0.095|x15: 0.267|x16: 0.057|x17: 0.000</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
@@ -26664,7 +26664,7 @@
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>[0.2667872997683024]</t>
+          <t>[0.26676287290563866]</t>
         </is>
       </c>
       <c r="H640" t="b">
@@ -26705,7 +26705,7 @@
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>[0.38452526620135913]</t>
+          <t>[0.38454854880205597]</t>
         </is>
       </c>
       <c r="H641" t="b">
@@ -26787,7 +26787,7 @@
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>[0.3870538936382619]</t>
+          <t>[0.3870311564782843]</t>
         </is>
       </c>
       <c r="H643" t="b">
@@ -26828,7 +26828,7 @@
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>[0.36875339440567845]</t>
+          <t>[0.368731474349633]</t>
         </is>
       </c>
       <c r="H644" t="b">
@@ -26854,7 +26854,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.048|x7: 0.000|x8: 0.000|x9: 0.042|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.125|x15: 0.322|x16: 0.087|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.048|x7: 0.000|x8: 0.000|x9: 0.042|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.125|x15: 0.322|x16: 0.086|x17: 0.000</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
@@ -26869,7 +26869,7 @@
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>[0.32187449231091475]</t>
+          <t>[0.3219625051131021]</t>
         </is>
       </c>
       <c r="H645" t="b">
@@ -26895,7 +26895,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.054|x10: 0.000|x11: 0.000|x12: 0.072|x13: 0.033|x14: 0.102|x15: 0.147|x16: 0.055|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.054|x10: 0.000|x11: 0.000|x12: 0.072|x13: 0.033|x14: 0.103|x15: 0.147|x16: 0.055|x17: 0.000</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.022|x7: 0.000|x8: 0.000|x9: 0.015|x10: 0.000|x11: 0.023|x12: 0.047|x13: 0.000|x14: 0.028|x15: 0.116|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.022|x7: 0.000|x8: 0.000|x9: 0.014|x10: 0.000|x11: 0.022|x12: 0.047|x13: 0.000|x14: 0.028|x15: 0.116|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -26977,7 +26977,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.028|x12: 0.038|x13: 0.036|x14: 0.053|x15: 0.178|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.028|x12: 0.038|x13: 0.036|x14: 0.053|x15: 0.179|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -27033,7 +27033,7 @@
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>[0.2703038683935076]</t>
+          <t>[0.27019454665484394]</t>
         </is>
       </c>
       <c r="H649" t="b">
@@ -27074,7 +27074,7 @@
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>[0.27409402858682996]</t>
+          <t>[0.27417561713793703]</t>
         </is>
       </c>
       <c r="H650" t="b">
@@ -27115,7 +27115,7 @@
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>[0.22083442022088148]</t>
+          <t>[0.2206317989334424]</t>
         </is>
       </c>
       <c r="H651" t="b">
@@ -27156,7 +27156,7 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>[0.3439952027140528, 0.2071548044119889]</t>
+          <t>[0.34387846853812476, 0.207122261558639]</t>
         </is>
       </c>
       <c r="H652" t="b">
@@ -27197,7 +27197,7 @@
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>[0.368279802031431]</t>
+          <t>[0.36829759528305034]</t>
         </is>
       </c>
       <c r="H653" t="b">
@@ -27238,7 +27238,7 @@
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>[0.2399644455424997]</t>
+          <t>[0.24001539429202653]</t>
         </is>
       </c>
       <c r="H654" t="b">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>[0.28654689296519487, 0.20090248285000947]</t>
+          <t>[0.2865541496201308, 0.20089264952974314]</t>
         </is>
       </c>
       <c r="H655" t="b">
@@ -27305,7 +27305,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.084|x3: 0.000|x4: 0.071|x5: 0.167|x6: 0.111|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.157|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.054|x16: 0.392|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.084|x3: 0.000|x4: 0.072|x5: 0.167|x6: 0.111|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.157|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.054|x16: 0.391|x17: 0.000</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
@@ -27320,7 +27320,7 @@
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>[0.39152499917163086]</t>
+          <t>[0.39145733159976026]</t>
         </is>
       </c>
       <c r="H656" t="b">
@@ -27361,7 +27361,7 @@
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>[0.29910570084934174]</t>
+          <t>[0.2992401663861006]</t>
         </is>
       </c>
       <c r="H657" t="b">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>x1: 0.061|x2: 0.189|x3: 0.133|x4: 0.000|x5: 0.042|x6: 0.000|x7: 0.000|x8: 0.196|x9: 0.056|x10: 0.145|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.072|x16: 0.356|x17: 0.000</t>
+          <t>x1: 0.061|x2: 0.189|x3: 0.133|x4: 0.000|x5: 0.042|x6: 0.000|x7: 0.000|x8: 0.195|x9: 0.056|x10: 0.145|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.072|x16: 0.357|x17: 0.000</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -27402,7 +27402,7 @@
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>[0.3564588207515528]</t>
+          <t>[0.35652180470385547]</t>
         </is>
       </c>
       <c r="H658" t="b">
@@ -27443,7 +27443,7 @@
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>[0.4171511264813012, 0.2091234248058304]</t>
+          <t>[0.4171900626608511, 0.20912107683259873]</t>
         </is>
       </c>
       <c r="H659" t="b">
@@ -27484,7 +27484,7 @@
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>[0.35669701840838236]</t>
+          <t>[0.3567079335920598]</t>
         </is>
       </c>
       <c r="H660" t="b">
@@ -27525,7 +27525,7 @@
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>[0.36007119404426663]</t>
+          <t>[0.36013913495756417]</t>
         </is>
       </c>
       <c r="H661" t="b">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>x1: 0.039|x2: 0.137|x3: 0.000|x4: 0.059|x5: 0.133|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.074|x11: 0.000|x12: 0.064|x13: 0.000|x14: 0.000|x15: 0.055|x16: 0.383|x17: 0.000</t>
+          <t>x1: 0.039|x2: 0.137|x3: 0.000|x4: 0.058|x5: 0.133|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.074|x11: 0.000|x12: 0.064|x13: 0.000|x14: 0.000|x15: 0.055|x16: 0.383|x17: 0.000</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
@@ -27566,7 +27566,7 @@
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>[0.38337800338155714]</t>
+          <t>[0.3834119359661766]</t>
         </is>
       </c>
       <c r="H662" t="b">
@@ -27592,7 +27592,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.070|x3: 0.071|x4: 0.054|x5: 0.224|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.052|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.057|x16: 0.369|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.070|x3: 0.071|x4: 0.053|x5: 0.223|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.052|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.057|x16: 0.369|x17: 0.000</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
@@ -27607,7 +27607,7 @@
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>[0.36884719363959123, 0.2235058006476731]</t>
+          <t>[0.3687329983153855, 0.2233612858584182]</t>
         </is>
       </c>
       <c r="H663" t="b">
@@ -27633,7 +27633,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.083|x3: 0.080|x4: 0.054|x5: 0.153|x6: 0.000|x7: 0.000|x8: 0.077|x9: 0.000|x10: 0.083|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.258|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.083|x3: 0.080|x4: 0.054|x5: 0.153|x6: 0.000|x7: 0.000|x8: 0.076|x9: 0.000|x10: 0.083|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.258|x17: 0.000</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
@@ -27648,7 +27648,7 @@
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>[0.2580562853479424]</t>
+          <t>[0.2580182579027744]</t>
         </is>
       </c>
       <c r="H664" t="b">
@@ -27689,7 +27689,7 @@
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>[0.2708046152639858]</t>
+          <t>[0.27084112155143214]</t>
         </is>
       </c>
       <c r="H665" t="b">
@@ -27715,7 +27715,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>x1: 0.072|x2: 0.143|x3: 0.043|x4: 0.075|x5: 0.085|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.076|x11: 0.000|x12: 0.000|x13: 0.061|x14: 0.000|x15: 0.062|x16: 0.258|x17: 0.000</t>
+          <t>x1: 0.072|x2: 0.143|x3: 0.043|x4: 0.075|x5: 0.085|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.076|x11: 0.000|x12: 0.000|x13: 0.061|x14: 0.000|x15: 0.063|x16: 0.258|x17: 0.000</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
@@ -27730,7 +27730,7 @@
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>[0.2580106361736868]</t>
+          <t>[0.25798821856793125]</t>
         </is>
       </c>
       <c r="H666" t="b">
@@ -27771,7 +27771,7 @@
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>[0.38059141654931183]</t>
+          <t>[0.3807038722486572]</t>
         </is>
       </c>
       <c r="H667" t="b">
@@ -27812,7 +27812,7 @@
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>[0.2891738268218425]</t>
+          <t>[0.28917989735578054]</t>
         </is>
       </c>
       <c r="H668" t="b">
@@ -27853,7 +27853,7 @@
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>[0.46359188999940365, 0.25301079195859805, 0.2191413736144867, 0.21077430736367883]</t>
+          <t>[0.463504890096879, 0.25298966559918035, 0.2191692977067853, 0.21076600299910536]</t>
         </is>
       </c>
       <c r="H669" t="b">
@@ -27879,7 +27879,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.095|x3: 0.000|x4: 0.049|x5: 0.164|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.113|x11: 0.063|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.385|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.095|x3: 0.000|x4: 0.049|x5: 0.163|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.113|x11: 0.063|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.385|x17: 0.000</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
@@ -27894,7 +27894,7 @@
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>[0.384773070010557]</t>
+          <t>[0.38472774430805784]</t>
         </is>
       </c>
       <c r="H670" t="b">
@@ -27920,7 +27920,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>x1: 0.052|x2: 0.139|x3: 0.086|x4: 0.057|x5: 0.125|x6: 0.000|x7: 0.000|x8: 0.063|x9: 0.000|x10: 0.137|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.040|x16: 0.359|x17: 0.000</t>
+          <t>x1: 0.053|x2: 0.139|x3: 0.086|x4: 0.057|x5: 0.125|x6: 0.000|x7: 0.000|x8: 0.063|x9: 0.000|x10: 0.137|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.040|x16: 0.358|x17: 0.000</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
@@ -27935,7 +27935,7 @@
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>[0.35858531579996494]</t>
+          <t>[0.3584872192395099]</t>
         </is>
       </c>
       <c r="H671" t="b">
@@ -27976,7 +27976,7 @@
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>[0.3582508681393781]</t>
+          <t>[0.35813194367737194]</t>
         </is>
       </c>
       <c r="H672" t="b">
@@ -28017,7 +28017,7 @@
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>[0.23693379956331181]</t>
+          <t>[0.2367919061287744]</t>
         </is>
       </c>
       <c r="H673" t="b">
@@ -28058,7 +28058,7 @@
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>[0.30804231456377734, 0.20544385724338826]</t>
+          <t>[0.30797974043720744, 0.20533603245911455]</t>
         </is>
       </c>
       <c r="H674" t="b">
@@ -28099,7 +28099,7 @@
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>[0.4689384202591099, 0.31793061398794104, 0.27222462729687136]</t>
+          <t>[0.4689814570441273, 0.3179456617759998, 0.2722564359897862]</t>
         </is>
       </c>
       <c r="H675" t="b">
@@ -28140,7 +28140,7 @@
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>[0.3664061163032333, 0.2808228177124626]</t>
+          <t>[0.36635611502576015, 0.28081886086357]</t>
         </is>
       </c>
       <c r="H676" t="b">
@@ -28166,7 +28166,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.172|x4: 0.168|x5: 0.248|x6: 0.077|x7: 0.050|x8: 0.052|x9: 0.000|x10: 0.087|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.397|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.172|x4: 0.168|x5: 0.248|x6: 0.076|x7: 0.050|x8: 0.052|x9: 0.000|x10: 0.087|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.397|x17: 0.000</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -28181,7 +28181,7 @@
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>[0.39672337281182946, 0.247875314677419]</t>
+          <t>[0.3968071151257219, 0.24792090860577298]</t>
         </is>
       </c>
       <c r="H677" t="b">
@@ -28222,7 +28222,7 @@
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>[0.35858854227471004]</t>
+          <t>[0.3586158526789182]</t>
         </is>
       </c>
       <c r="H678" t="b">
@@ -28248,7 +28248,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.068|x3: 0.027|x4: 0.037|x5: 0.099|x6: 0.000|x7: 0.000|x8: 0.032|x9: 0.000|x10: 0.102|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.018|x16: 0.182|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.068|x3: 0.027|x4: 0.037|x5: 0.099|x6: 0.000|x7: 0.000|x8: 0.032|x9: 0.000|x10: 0.102|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.018|x16: 0.181|x17: 0.000</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -28304,7 +28304,7 @@
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>[0.38011672648342704]</t>
+          <t>[0.3799844019049168]</t>
         </is>
       </c>
       <c r="H680" t="b">
@@ -28345,7 +28345,7 @@
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>[0.31631898307602246, 0.20523320448661594]</t>
+          <t>[0.316357935873922, 0.20520780377518566]</t>
         </is>
       </c>
       <c r="H681" t="b">
@@ -28386,7 +28386,7 @@
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>[0.5309505798306056, 0.2510593221551621, 0.22260970327177276]</t>
+          <t>[0.5309159529624954, 0.2510971691977659, 0.2226168925048952]</t>
         </is>
       </c>
       <c r="H682" t="b">
@@ -28412,7 +28412,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>x1: 0.066|x2: 0.204|x3: 0.060|x4: 0.000|x5: 0.100|x6: 0.000|x7: 0.000|x8: 0.186|x9: 0.073|x10: 0.122|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.103|x16: 0.422|x17: 0.000</t>
+          <t>x1: 0.066|x2: 0.204|x3: 0.060|x4: 0.000|x5: 0.100|x6: 0.000|x7: 0.000|x8: 0.186|x9: 0.073|x10: 0.122|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.103|x16: 0.421|x17: 0.000</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
@@ -28427,7 +28427,7 @@
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>[0.4215407897280859, 0.20391693558572577]</t>
+          <t>[0.42144458048423383, 0.20380936312795653]</t>
         </is>
       </c>
       <c r="H683" t="b">
@@ -28453,7 +28453,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>x1: 0.051|x2: 0.175|x3: 0.061|x4: 0.056|x5: 0.139|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.085|x11: 0.000|x12: 0.095|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.404|x17: 0.000</t>
+          <t>x1: 0.052|x2: 0.175|x3: 0.062|x4: 0.056|x5: 0.139|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.085|x11: 0.000|x12: 0.095|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.404|x17: 0.000</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
@@ -28468,7 +28468,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>[0.40389210475769494]</t>
+          <t>[0.4039310304859506]</t>
         </is>
       </c>
       <c r="H684" t="b">
@@ -28494,7 +28494,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.141|x3: 0.136|x4: 0.044|x5: 0.242|x6: 0.000|x7: 0.000|x8: 0.047|x9: 0.000|x10: 0.180|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.484|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.141|x3: 0.136|x4: 0.044|x5: 0.243|x6: 0.000|x7: 0.000|x8: 0.047|x9: 0.000|x10: 0.180|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.484|x17: 0.000</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
@@ -28509,7 +28509,7 @@
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>[0.48390042507299397, 0.2424762159417075]</t>
+          <t>[0.48396834865629934, 0.24251630029750218]</t>
         </is>
       </c>
       <c r="H685" t="b">
@@ -28550,7 +28550,7 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>[0.3342931680369059]</t>
+          <t>[0.33395777582192965]</t>
         </is>
       </c>
       <c r="H686" t="b">
@@ -28576,7 +28576,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.093|x3: 0.045|x4: 0.000|x5: 0.088|x6: 0.108|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.119|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.041|x16: 0.407|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.093|x3: 0.045|x4: 0.000|x5: 0.088|x6: 0.107|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.119|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.041|x16: 0.407|x17: 0.000</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
@@ -28591,7 +28591,7 @@
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>[0.4071782822745369]</t>
+          <t>[0.40735726928183635]</t>
         </is>
       </c>
       <c r="H687" t="b">
@@ -28632,7 +28632,7 @@
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>[0.3668507493260938]</t>
+          <t>[0.3669248746409714]</t>
         </is>
       </c>
       <c r="H688" t="b">
@@ -28673,7 +28673,7 @@
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>[0.29761819848714227]</t>
+          <t>[0.29760446882998726]</t>
         </is>
       </c>
       <c r="H689" t="b">
@@ -28699,7 +28699,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>x1: 0.040|x2: 0.160|x3: 0.113|x4: 0.000|x5: 0.058|x6: 0.000|x7: 0.000|x8: 0.145|x9: 0.095|x10: 0.142|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.323|x17: 0.000</t>
+          <t>x1: 0.040|x2: 0.160|x3: 0.113|x4: 0.000|x5: 0.058|x6: 0.000|x7: 0.000|x8: 0.145|x9: 0.094|x10: 0.142|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.323|x17: 0.000</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
@@ -28714,7 +28714,7 @@
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>[0.3229440117207432]</t>
+          <t>[0.32297489826616194]</t>
         </is>
       </c>
       <c r="H690" t="b">
@@ -28740,7 +28740,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.047|x3: 0.052|x4: 0.000|x5: 0.152|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.071|x11: 0.000|x12: 0.000|x13: 0.081|x14: 0.000|x15: 0.084|x16: 0.347|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.048|x3: 0.052|x4: 0.000|x5: 0.152|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.071|x11: 0.000|x12: 0.000|x13: 0.081|x14: 0.000|x15: 0.084|x16: 0.347|x17: 0.000</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
@@ -28755,7 +28755,7 @@
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>[0.3469571729953684]</t>
+          <t>[0.3470709165830257]</t>
         </is>
       </c>
       <c r="H691" t="b">
@@ -28796,7 +28796,7 @@
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>[0.2894924783136279]</t>
+          <t>[0.2894023371252511]</t>
         </is>
       </c>
       <c r="H692" t="b">
@@ -28837,7 +28837,7 @@
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>[0.3568862892735324]</t>
+          <t>[0.3568981215711943]</t>
         </is>
       </c>
       <c r="H693" t="b">
@@ -28878,7 +28878,7 @@
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>[0.3608243245894747]</t>
+          <t>[0.36084857678264565]</t>
         </is>
       </c>
       <c r="H694" t="b">
@@ -28919,7 +28919,7 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>[0.36871494486919004]</t>
+          <t>[0.36875085099356797]</t>
         </is>
       </c>
       <c r="H695" t="b">
@@ -28945,7 +28945,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.106|x3: 0.102|x4: 0.079|x5: 0.203|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.105|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.077|x16: 0.358|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.106|x3: 0.102|x4: 0.078|x5: 0.203|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.105|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.077|x16: 0.358|x17: 0.000</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
@@ -28960,7 +28960,7 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>[0.35776605601542494, 0.20337404722755767]</t>
+          <t>[0.3578572809721065, 0.20341711998335277]</t>
         </is>
       </c>
       <c r="H696" t="b">
@@ -29001,7 +29001,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>[0.31416997330879903]</t>
+          <t>[0.31412544789183916]</t>
         </is>
       </c>
       <c r="H697" t="b">
@@ -29042,7 +29042,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>[0.37754218546784246, 0.21876335248406167]</t>
+          <t>[0.3775821475258291, 0.2188031730686545]</t>
         </is>
       </c>
       <c r="H698" t="b">
@@ -29068,7 +29068,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.126|x3: 0.121|x4: 0.000|x5: 0.143|x6: 0.051|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.079|x11: 0.000|x12: 0.052|x13: 0.000|x14: 0.063|x15: 0.095|x16: 0.328|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.126|x3: 0.121|x4: 0.000|x5: 0.143|x6: 0.051|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.078|x11: 0.000|x12: 0.052|x13: 0.000|x14: 0.063|x15: 0.095|x16: 0.328|x17: 0.000</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
@@ -29083,7 +29083,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>[0.32840137009123255]</t>
+          <t>[0.32832908116693976]</t>
         </is>
       </c>
       <c r="H699" t="b">
@@ -29109,7 +29109,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.064|x3: 0.000|x4: 0.000|x5: 0.203|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.121|x11: 0.065|x12: 0.044|x13: 0.000|x14: 0.053|x15: 0.000|x16: 0.316|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.064|x3: 0.000|x4: 0.000|x5: 0.203|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.120|x11: 0.065|x12: 0.044|x13: 0.000|x14: 0.053|x15: 0.000|x16: 0.316|x17: 0.000</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
@@ -29124,7 +29124,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>[0.31562590128163404, 0.20296071539397745]</t>
+          <t>[0.3156593088825466, 0.203006709833237]</t>
         </is>
       </c>
       <c r="H700" t="b">
@@ -29232,7 +29232,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.051|x3: 0.000|x4: 0.033|x5: 0.000|x6: 0.046|x7: 0.067|x8: 0.000|x9: 0.000|x10: 0.039|x11: 0.037|x12: 0.000|x13: 0.122|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.051|x3: 0.000|x4: 0.033|x5: 0.000|x6: 0.046|x7: 0.067|x8: 0.000|x9: 0.000|x10: 0.038|x11: 0.037|x12: 0.000|x13: 0.122|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
@@ -29355,7 +29355,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.140|x5: 0.112|x6: 0.000|x7: 0.151|x8: 0.000|x9: 0.000|x10: 0.089|x11: 0.130|x12: 0.047|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.078|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.140|x5: 0.112|x6: 0.000|x7: 0.151|x8: 0.000|x9: 0.000|x10: 0.089|x11: 0.131|x12: 0.047|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.078|x17: 0.000</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
@@ -29493,7 +29493,7 @@
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>[0.20578982468956955]</t>
+          <t>[0.20576746724540182]</t>
         </is>
       </c>
       <c r="H709" t="b">
@@ -29534,7 +29534,7 @@
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>[0.21431067861764705]</t>
+          <t>[0.21433386911897212]</t>
         </is>
       </c>
       <c r="H710" t="b">
@@ -29724,7 +29724,7 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>x1: 0.046|x2: 0.000|x3: 0.059|x4: 0.170|x5: 0.102|x6: 0.000|x7: 0.000|x8: 0.087|x9: 0.000|x10: 0.062|x11: 0.096|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.127|x17: 0.000</t>
+          <t>x1: 0.045|x2: 0.000|x3: 0.059|x4: 0.170|x5: 0.102|x6: 0.000|x7: 0.000|x8: 0.087|x9: 0.000|x10: 0.062|x11: 0.096|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.127|x17: 0.000</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
@@ -29806,7 +29806,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.093|x3: 0.000|x4: 0.149|x5: 0.174|x6: 0.000|x7: 0.000|x8: 0.073|x9: 0.080|x10: 0.131|x11: 0.000|x12: 0.000|x13: 0.123|x14: 0.000|x15: 0.000|x16: 0.215|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.094|x3: 0.000|x4: 0.149|x5: 0.174|x6: 0.000|x7: 0.000|x8: 0.073|x9: 0.080|x10: 0.131|x11: 0.000|x12: 0.000|x13: 0.123|x14: 0.000|x15: 0.000|x16: 0.216|x17: 0.000</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
@@ -29821,7 +29821,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>[0.21545304348316]</t>
+          <t>[0.21552218927639685]</t>
         </is>
       </c>
       <c r="H717" t="b">
@@ -29888,7 +29888,7 @@
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.047|x6: 0.055|x7: 0.108|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.186|x12: 0.033|x13: 0.087|x14: 0.033|x15: 0.050|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.047|x6: 0.054|x7: 0.108|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.186|x12: 0.033|x13: 0.087|x14: 0.033|x15: 0.050|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
@@ -29929,7 +29929,7 @@
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>x1: 0.067|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.135|x8: 0.000|x9: 0.063|x10: 0.000|x11: 0.361|x12: 0.070|x13: 0.120|x14: 0.046|x15: 0.054|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.067|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.135|x8: 0.000|x9: 0.063|x10: 0.000|x11: 0.362|x12: 0.070|x13: 0.121|x14: 0.046|x15: 0.054|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
@@ -29944,7 +29944,7 @@
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>[0.3613451944537004]</t>
+          <t>[0.36151172260046843]</t>
         </is>
       </c>
       <c r="H720" t="b">
@@ -29970,7 +29970,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>x1: 0.112|x2: 0.051|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.301|x12: 0.000|x13: 0.121|x14: 0.049|x15: 0.064|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.112|x2: 0.051|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.301|x12: 0.000|x13: 0.121|x14: 0.049|x15: 0.063|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
@@ -29985,7 +29985,7 @@
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>[0.3008649613832464]</t>
+          <t>[0.3007514016575898]</t>
         </is>
       </c>
       <c r="H721" t="b">
@@ -30067,7 +30067,7 @@
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>[0.2517786399980165]</t>
+          <t>[0.2517231778920092]</t>
         </is>
       </c>
       <c r="H723" t="b">
@@ -30108,7 +30108,7 @@
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>[0.2543042228437391]</t>
+          <t>[0.25426936405281736]</t>
         </is>
       </c>
       <c r="H724" t="b">
@@ -30354,7 +30354,7 @@
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>[0.2131094089157724]</t>
+          <t>[0.2129280522120238]</t>
         </is>
       </c>
       <c r="H730" t="b">
@@ -30395,7 +30395,7 @@
       </c>
       <c r="G731" t="inlineStr">
         <is>
-          <t>[0.30265789149892713]</t>
+          <t>[0.3026110581103525]</t>
         </is>
       </c>
       <c r="H731" t="b">
@@ -30462,7 +30462,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.005|x8: 0.000|x9: 0.003|x10: 0.000|x11: 0.007|x12: 0.005|x13: 0.002|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.005|x8: 0.000|x9: 0.003|x10: 0.000|x11: 0.008|x12: 0.005|x13: 0.002|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E733" t="inlineStr">
@@ -30559,7 +30559,7 @@
       </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>[0.21653943971758927]</t>
+          <t>[0.21671562750358658]</t>
         </is>
       </c>
       <c r="H735" t="b">
@@ -30708,7 +30708,7 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.011|x8: 0.000|x9: 0.000|x10: 0.000|x11: -0.006|x12: -0.021|x13: -0.008|x14: -0.006|x15: -0.003|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.011|x8: 0.000|x9: 0.000|x10: 0.000|x11: -0.006|x12: -0.022|x13: -0.008|x14: -0.006|x15: -0.003|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E739" t="inlineStr">
@@ -30969,7 +30969,7 @@
       </c>
       <c r="G745" t="inlineStr">
         <is>
-          <t>[0.23965945416679263]</t>
+          <t>[0.2396588918517527]</t>
         </is>
       </c>
       <c r="H745" t="b">
@@ -31010,7 +31010,7 @@
       </c>
       <c r="G746" t="inlineStr">
         <is>
-          <t>[0.27343053599608064]</t>
+          <t>[0.2732705056161575]</t>
         </is>
       </c>
       <c r="H746" t="b">
@@ -31159,7 +31159,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.002|x8: 0.000|x9: 0.000|x10: 0.000|x11: -0.003|x12: -0.005|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.002|x8: 0.000|x9: 0.000|x10: 0.000|x11: -0.004|x12: -0.005|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
@@ -31215,7 +31215,7 @@
       </c>
       <c r="G751" t="inlineStr">
         <is>
-          <t>[0.2162466463842058]</t>
+          <t>[0.2161892621030677]</t>
         </is>
       </c>
       <c r="H751" t="b">
@@ -31297,7 +31297,7 @@
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>[0.2804073133611813, 0.24100039782138705, 0.20182827618656904]</t>
+          <t>[0.28036405528118963, 0.2409745338376049, 0.2018527265241466]</t>
         </is>
       </c>
       <c r="H753" t="b">
@@ -31502,7 +31502,7 @@
       </c>
       <c r="G758" t="inlineStr">
         <is>
-          <t>[0.3485015328980898]</t>
+          <t>[0.3485721197100117]</t>
         </is>
       </c>
       <c r="H758" t="b">
@@ -31692,7 +31692,7 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>x1: 0.032|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.020|x7: 0.039|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.056|x12: 0.090|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.032|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.020|x7: 0.039|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.056|x12: 0.089|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
@@ -31733,7 +31733,7 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>x1: -0.070|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: -0.051|x12: -0.066|x13: 0.000|x14: -0.039|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: -0.069|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: -0.051|x12: -0.066|x13: 0.000|x14: -0.039|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
@@ -31815,7 +31815,7 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.028|x8: 0.000|x9: -0.011|x10: 0.000|x11: -0.027|x12: -0.046|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.028|x8: 0.000|x9: -0.011|x10: 0.000|x11: -0.027|x12: -0.047|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
@@ -31856,7 +31856,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.057|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.053|x12: 0.045|x13: 0.084|x14: 0.058|x15: 0.017|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.057|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.053|x12: 0.045|x13: 0.083|x14: 0.058|x15: 0.017|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
@@ -31912,7 +31912,7 @@
       </c>
       <c r="G768" t="inlineStr">
         <is>
-          <t>[0.3291880869194469]</t>
+          <t>[0.32908246377380446]</t>
         </is>
       </c>
       <c r="H768" t="b">
@@ -31953,7 +31953,7 @@
       </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>[0.3618970948085415, 0.2535701150758889]</t>
+          <t>[0.3619259966178906, 0.2535531349577033]</t>
         </is>
       </c>
       <c r="H769" t="b">
@@ -31994,7 +31994,7 @@
       </c>
       <c r="G770" t="inlineStr">
         <is>
-          <t>[0.2511194836876301]</t>
+          <t>[0.2511136865033201]</t>
         </is>
       </c>
       <c r="H770" t="b">
@@ -32020,7 +32020,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>x1: 0.121|x2: 0.138|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.063|x8: 0.048|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.115|x13: 0.061|x14: 0.195|x15: 0.247|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.121|x2: 0.138|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.063|x8: 0.048|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.115|x13: 0.062|x14: 0.195|x15: 0.247|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E771" t="inlineStr">
@@ -32035,7 +32035,7 @@
       </c>
       <c r="G771" t="inlineStr">
         <is>
-          <t>[0.24652736903937417]</t>
+          <t>[0.24655667593577058]</t>
         </is>
       </c>
       <c r="H771" t="b">
@@ -32143,7 +32143,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.078|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.289|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.050|x12: 0.279|x13: 0.258|x14: 0.190|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.078|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.288|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.050|x12: 0.279|x13: 0.259|x14: 0.190|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
@@ -32158,7 +32158,7 @@
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>[0.2885133266675874, 0.2791610586161006, 0.2584941590765374]</t>
+          <t>[0.2884988336337523, 0.2791992715997474, 0.2585055465682953]</t>
         </is>
       </c>
       <c r="H774" t="b">
@@ -32281,7 +32281,7 @@
       </c>
       <c r="G777" t="inlineStr">
         <is>
-          <t>[0.2233331714007485]</t>
+          <t>[0.22332367195555414]</t>
         </is>
       </c>
       <c r="H777" t="b">
@@ -32594,7 +32594,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>x1: 0.052|x2: 0.000|x3: 0.000|x4: 0.051|x5: 0.000|x6: 0.000|x7: 0.053|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.087|x12: 0.100|x13: 0.123|x14: 0.057|x15: 0.088|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.052|x2: 0.000|x3: 0.000|x4: 0.051|x5: 0.000|x6: 0.000|x7: 0.053|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.087|x12: 0.100|x13: 0.123|x14: 0.058|x15: 0.088|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
@@ -32650,7 +32650,7 @@
       </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>[0.20936006605185667]</t>
+          <t>[0.20936297624465994]</t>
         </is>
       </c>
       <c r="H786" t="b">
@@ -32691,7 +32691,7 @@
       </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>[0.3610911605657891, 0.20318506726855107]</t>
+          <t>[0.36109982243374256, 0.20319181374012307]</t>
         </is>
       </c>
       <c r="H787" t="b">
@@ -32732,7 +32732,7 @@
       </c>
       <c r="G788" t="inlineStr">
         <is>
-          <t>[0.2141416203363024]</t>
+          <t>[0.21419066077998955]</t>
         </is>
       </c>
       <c r="H788" t="b">
@@ -33019,7 +33019,7 @@
       </c>
       <c r="G795" t="inlineStr">
         <is>
-          <t>[0.29889298721593616]</t>
+          <t>[0.29890570819880213]</t>
         </is>
       </c>
       <c r="H795" t="b">
@@ -33168,7 +33168,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.019|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.016|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.072|x14: 0.075|x15: 0.068|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.019|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.016|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.072|x14: 0.075|x15: 0.067|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
@@ -33347,7 +33347,7 @@
       </c>
       <c r="G803" t="inlineStr">
         <is>
-          <t>[0.26644475709913873, 0.20538973317309553]</t>
+          <t>[0.266378479060145, 0.20535091745088727]</t>
         </is>
       </c>
       <c r="H803" t="b">
@@ -33496,7 +33496,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.011|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.008|x12: 0.020|x13: 0.010|x14: 0.021|x15: 0.026|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.011|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.008|x12: 0.020|x13: 0.010|x14: 0.022|x15: 0.026|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E807" t="inlineStr">
@@ -33552,7 +33552,7 @@
       </c>
       <c r="G808" t="inlineStr">
         <is>
-          <t>[0.2140823010252129]</t>
+          <t>[0.2140966336450039]</t>
         </is>
       </c>
       <c r="H808" t="b">
@@ -33593,7 +33593,7 @@
       </c>
       <c r="G809" t="inlineStr">
         <is>
-          <t>[0.21971430270076958]</t>
+          <t>[0.219675725446891]</t>
         </is>
       </c>
       <c r="H809" t="b">
@@ -33798,7 +33798,7 @@
       </c>
       <c r="G814" t="inlineStr">
         <is>
-          <t>[0.23101572058462122]</t>
+          <t>[0.23107624902475793]</t>
         </is>
       </c>
       <c r="H814" t="b">
@@ -33962,7 +33962,7 @@
       </c>
       <c r="G818" t="inlineStr">
         <is>
-          <t>[0.2326077173228187]</t>
+          <t>[0.23258844265083517]</t>
         </is>
       </c>
       <c r="H818" t="b">
@@ -34029,7 +34029,7 @@
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.055|x5: 0.108|x6: 0.046|x7: 0.075|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.152|x12: 0.064|x13: 0.041|x14: 0.060|x15: 0.000|x16: 0.067|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.055|x5: 0.108|x6: 0.046|x7: 0.075|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.152|x12: 0.064|x13: 0.041|x14: 0.060|x15: 0.000|x16: 0.068|x17: 0.000</t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
@@ -34070,7 +34070,7 @@
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.039|x7: 0.026|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.080|x12: 0.037|x13: 0.057|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.039|x7: 0.025|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.080|x12: 0.037|x13: 0.057|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E821" t="inlineStr">
@@ -34495,7 +34495,7 @@
       </c>
       <c r="G831" t="inlineStr">
         <is>
-          <t>[0.2236004824659243]</t>
+          <t>[0.223638819073694]</t>
         </is>
       </c>
       <c r="H831" t="b">
@@ -34577,7 +34577,7 @@
       </c>
       <c r="G833" t="inlineStr">
         <is>
-          <t>[0.2929870329265201, 0.2726838441118242]</t>
+          <t>[0.2929663544729143, 0.27272581805880325]</t>
         </is>
       </c>
       <c r="H833" t="b">
@@ -34931,7 +34931,7 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>x1: 0.031|x2: 0.000|x3: 0.000|x4: 0.089|x5: 0.052|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.094|x12: 0.052|x13: 0.000|x14: 0.053|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.031|x2: 0.000|x3: 0.000|x4: 0.090|x5: 0.052|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.094|x12: 0.052|x13: 0.000|x14: 0.053|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E842" t="inlineStr">
@@ -34972,7 +34972,7 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.121|x5: 0.000|x6: 0.000|x7: 0.210|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.143|x12: 0.091|x13: 0.142|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.120|x5: 0.000|x6: 0.000|x7: 0.210|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.143|x12: 0.091|x13: 0.142|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E843" t="inlineStr">
@@ -34987,7 +34987,7 @@
       </c>
       <c r="G843" t="inlineStr">
         <is>
-          <t>[0.21023843950050042]</t>
+          <t>[0.2102687511903636]</t>
         </is>
       </c>
       <c r="H843" t="b">
@@ -35013,7 +35013,7 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.037|x7: 0.000|x8: 0.044|x9: 0.051|x10: 0.040|x11: 0.029|x12: 0.040|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.037|x7: 0.000|x8: 0.044|x9: 0.051|x10: 0.040|x11: 0.030|x12: 0.040|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E844" t="inlineStr">
@@ -35054,7 +35054,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>x1: 0.082|x2: 0.000|x3: 0.000|x4: 0.106|x5: 0.044|x6: 0.000|x7: 0.073|x8: 0.000|x9: 0.000|x10: 0.135|x11: 0.062|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.062|x17: 0.000</t>
+          <t>x1: 0.082|x2: 0.000|x3: 0.000|x4: 0.106|x5: 0.044|x6: 0.000|x7: 0.074|x8: 0.000|x9: 0.000|x10: 0.135|x11: 0.062|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.062|x17: 0.000</t>
         </is>
       </c>
       <c r="E845" t="inlineStr">
@@ -35095,7 +35095,7 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>x1: 0.124|x2: 0.000|x3: 0.000|x4: 0.063|x5: 0.112|x6: 0.000|x7: 0.000|x8: 0.056|x9: 0.000|x10: 0.147|x11: 0.149|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.180|x17: 0.000</t>
+          <t>x1: 0.124|x2: 0.000|x3: 0.000|x4: 0.063|x5: 0.113|x6: 0.000|x7: 0.000|x8: 0.056|x9: 0.000|x10: 0.147|x11: 0.149|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.180|x17: 0.000</t>
         </is>
       </c>
       <c r="E846" t="inlineStr">
@@ -35628,7 +35628,7 @@
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t>x1: 0.168|x2: 0.288|x3: 0.150|x4: 0.000|x5: 0.096|x6: 0.000|x7: 0.000|x8: 0.074|x9: 0.000|x10: 0.219|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.185|x17: 0.000</t>
+          <t>x1: 0.168|x2: 0.288|x3: 0.150|x4: 0.000|x5: 0.097|x6: 0.000|x7: 0.000|x8: 0.074|x9: 0.000|x10: 0.219|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.185|x17: 0.000</t>
         </is>
       </c>
       <c r="E859" t="inlineStr">
@@ -35643,7 +35643,7 @@
       </c>
       <c r="G859" t="inlineStr">
         <is>
-          <t>[0.28823991791056963, 0.21945017367255976]</t>
+          <t>[0.28828972222295923, 0.21945776989427906]</t>
         </is>
       </c>
       <c r="H859" t="b">
@@ -35669,7 +35669,7 @@
       </c>
       <c r="D860" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.083|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.095|x8: 0.000|x9: 0.062|x10: 0.000|x11: 0.000|x12: 0.127|x13: 0.093|x14: 0.084|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.083|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.095|x8: 0.000|x9: 0.062|x10: 0.000|x11: 0.000|x12: 0.127|x13: 0.094|x14: 0.084|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E860" t="inlineStr">
@@ -35874,7 +35874,7 @@
       </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t>x1: 0.065|x2: 0.117|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.092|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.053|x12: 0.095|x13: 0.066|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.065|x2: 0.118|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.092|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.053|x12: 0.095|x13: 0.066|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E865" t="inlineStr">
@@ -35971,7 +35971,7 @@
       </c>
       <c r="G867" t="inlineStr">
         <is>
-          <t>[0.23105631046521058, 0.20026349667968413]</t>
+          <t>[0.23101909765285267, 0.20028927738090077]</t>
         </is>
       </c>
       <c r="H867" t="b">
@@ -36012,7 +36012,7 @@
       </c>
       <c r="G868" t="inlineStr">
         <is>
-          <t>[0.2656257753788173]</t>
+          <t>[0.2657095241400152]</t>
         </is>
       </c>
       <c r="H868" t="b">
@@ -36094,7 +36094,7 @@
       </c>
       <c r="G870" t="inlineStr">
         <is>
-          <t>[0.22953329946549797]</t>
+          <t>[0.22957425719634894]</t>
         </is>
       </c>
       <c r="H870" t="b">
@@ -36135,7 +36135,7 @@
       </c>
       <c r="G871" t="inlineStr">
         <is>
-          <t>[0.36632542507396754]</t>
+          <t>[0.366482372156397]</t>
         </is>
       </c>
       <c r="H871" t="b">
@@ -36161,7 +36161,7 @@
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>x1: 0.137|x2: 0.000|x3: 0.261|x4: 0.085|x5: 0.000|x6: 0.282|x7: 0.000|x8: 0.063|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.137|x2: 0.000|x3: 0.262|x4: 0.085|x5: 0.000|x6: 0.282|x7: 0.000|x8: 0.063|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E872" t="inlineStr">
@@ -36176,7 +36176,7 @@
       </c>
       <c r="G872" t="inlineStr">
         <is>
-          <t>[0.2816722230721001, 0.2614968774736711]</t>
+          <t>[0.2818024315624414, 0.26155655004379413]</t>
         </is>
       </c>
       <c r="H872" t="b">
@@ -36217,7 +36217,7 @@
       </c>
       <c r="G873" t="inlineStr">
         <is>
-          <t>[0.3356589289949684]</t>
+          <t>[0.3355886793058427]</t>
         </is>
       </c>
       <c r="H873" t="b">
@@ -36299,7 +36299,7 @@
       </c>
       <c r="G875" t="inlineStr">
         <is>
-          <t>[0.3157382716006842]</t>
+          <t>[0.3157445397043121]</t>
         </is>
       </c>
       <c r="H875" t="b">
@@ -36325,7 +36325,7 @@
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.076|x3: 0.211|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.082|x12: 0.102|x13: 0.061|x14: 0.000|x15: 0.000|x16: 0.098|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.077|x3: 0.211|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.082|x12: 0.102|x13: 0.061|x14: 0.000|x15: 0.000|x16: 0.098|x17: 0.000</t>
         </is>
       </c>
       <c r="E876" t="inlineStr">
@@ -36340,7 +36340,7 @@
       </c>
       <c r="G876" t="inlineStr">
         <is>
-          <t>[0.2105666531042824]</t>
+          <t>[0.2105545557249909]</t>
         </is>
       </c>
       <c r="H876" t="b">
@@ -36463,7 +36463,7 @@
       </c>
       <c r="G879" t="inlineStr">
         <is>
-          <t>[0.21788691318434583]</t>
+          <t>[0.21795145446855527]</t>
         </is>
       </c>
       <c r="H879" t="b">
@@ -36750,7 +36750,7 @@
       </c>
       <c r="G886" t="inlineStr">
         <is>
-          <t>[0.20829854449028712]</t>
+          <t>[0.20831553693214652]</t>
         </is>
       </c>
       <c r="H886" t="b">
@@ -36996,7 +36996,7 @@
       </c>
       <c r="G892" t="inlineStr">
         <is>
-          <t>[0.3106591971826286]</t>
+          <t>[0.31060767701608966]</t>
         </is>
       </c>
       <c r="H892" t="b">
@@ -37037,7 +37037,7 @@
       </c>
       <c r="G893" t="inlineStr">
         <is>
-          <t>[0.2145364226313969]</t>
+          <t>[0.21454544996369115]</t>
         </is>
       </c>
       <c r="H893" t="b">
@@ -37324,7 +37324,7 @@
       </c>
       <c r="G900" t="inlineStr">
         <is>
-          <t>[0.2014872288239146]</t>
+          <t>[0.20141998175410078]</t>
         </is>
       </c>
       <c r="H900" t="b">
@@ -37365,7 +37365,7 @@
       </c>
       <c r="G901" t="inlineStr">
         <is>
-          <t>[0.2655641624519311]</t>
+          <t>[0.26561741601671174]</t>
         </is>
       </c>
       <c r="H901" t="b">
@@ -37473,7 +37473,7 @@
       </c>
       <c r="D904" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.081|x8: 0.040|x9: 0.000|x10: 0.000|x11: 0.157|x12: 0.000|x13: 0.029|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.081|x8: 0.040|x9: 0.000|x10: 0.000|x11: 0.156|x12: 0.000|x13: 0.029|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E904" t="inlineStr">
@@ -37637,7 +37637,7 @@
       </c>
       <c r="D908" t="inlineStr">
         <is>
-          <t>x1: 0.139|x2: 0.000|x3: 0.000|x4: 0.125|x5: 0.239|x6: 0.000|x7: 0.000|x8: 0.083|x9: 0.000|x10: 0.036|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.139|x2: 0.000|x3: 0.000|x4: 0.125|x5: 0.238|x6: 0.000|x7: 0.000|x8: 0.083|x9: 0.000|x10: 0.036|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E908" t="inlineStr">
@@ -37652,7 +37652,7 @@
       </c>
       <c r="G908" t="inlineStr">
         <is>
-          <t>[0.2385421450549612]</t>
+          <t>[0.23842511868481986]</t>
         </is>
       </c>
       <c r="H908" t="b">
@@ -37760,7 +37760,7 @@
       </c>
       <c r="D911" t="inlineStr">
         <is>
-          <t>x1: 0.069|x2: 0.053|x3: 0.000|x4: 0.059|x5: 0.108|x6: 0.000|x7: 0.000|x8: 0.042|x9: 0.000|x10: 0.069|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.084|x17: 0.000</t>
+          <t>x1: 0.069|x2: 0.053|x3: 0.000|x4: 0.059|x5: 0.107|x6: 0.000|x7: 0.000|x8: 0.042|x9: 0.000|x10: 0.069|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.084|x17: 0.000</t>
         </is>
       </c>
       <c r="E911" t="inlineStr">
@@ -37801,7 +37801,7 @@
       </c>
       <c r="D912" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.037|x5: 0.043|x6: 0.011|x7: 0.027|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.032|x12: 0.045|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.037|x5: 0.044|x6: 0.011|x7: 0.027|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.032|x12: 0.046|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E912" t="inlineStr">
@@ -37857,7 +37857,7 @@
       </c>
       <c r="G913" t="inlineStr">
         <is>
-          <t>[0.25555910143002264]</t>
+          <t>[0.2555495252974547]</t>
         </is>
       </c>
       <c r="H913" t="b">
@@ -37924,7 +37924,7 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>x1: 0.072|x2: 0.022|x3: 0.000|x4: 0.040|x5: 0.000|x6: 0.000|x7: 0.043|x8: 0.083|x9: 0.000|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.022|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.072|x2: 0.022|x3: 0.000|x4: 0.040|x5: 0.000|x6: 0.000|x7: 0.043|x8: 0.082|x9: 0.000|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.021|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E915" t="inlineStr">
@@ -38021,7 +38021,7 @@
       </c>
       <c r="G917" t="inlineStr">
         <is>
-          <t>[0.22409239473506234]</t>
+          <t>[0.22407949641927244]</t>
         </is>
       </c>
       <c r="H917" t="b">
@@ -38103,7 +38103,7 @@
       </c>
       <c r="G919" t="inlineStr">
         <is>
-          <t>[0.22537015061808996]</t>
+          <t>[0.22524979340127319]</t>
         </is>
       </c>
       <c r="H919" t="b">
@@ -38144,7 +38144,7 @@
       </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>[0.33848933157922406]</t>
+          <t>[0.3384907432930212]</t>
         </is>
       </c>
       <c r="H920" t="b">
@@ -38349,7 +38349,7 @@
       </c>
       <c r="G925" t="inlineStr">
         <is>
-          <t>[0.24446830734034514, 0.2031063697726624]</t>
+          <t>[0.24422484740362513, 0.20289143891997133]</t>
         </is>
       </c>
       <c r="H925" t="b">
@@ -38375,7 +38375,7 @@
       </c>
       <c r="D926" t="inlineStr">
         <is>
-          <t>x1: 0.074|x2: 0.130|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.135|x7: 0.000|x8: 0.055|x9: 0.105|x10: 0.092|x11: 0.109|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.075|x2: 0.130|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.135|x7: 0.000|x8: 0.055|x9: 0.105|x10: 0.092|x11: 0.109|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E926" t="inlineStr">
@@ -38472,7 +38472,7 @@
       </c>
       <c r="G928" t="inlineStr">
         <is>
-          <t>[0.22945862313498386]</t>
+          <t>[0.22943205776037046]</t>
         </is>
       </c>
       <c r="H928" t="b">
@@ -38580,7 +38580,7 @@
       </c>
       <c r="D931" t="inlineStr">
         <is>
-          <t>x1: 0.031|x2: 0.032|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.120|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.047|x11: 0.031|x12: 0.037|x13: 0.000|x14: 0.045|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.030|x2: 0.032|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.120|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.047|x11: 0.031|x12: 0.037|x13: 0.000|x14: 0.045|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E931" t="inlineStr">
@@ -38662,7 +38662,7 @@
       </c>
       <c r="D933" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.196|x7: 0.202|x8: 0.000|x9: 0.000|x10: 0.110|x11: 0.095|x12: 0.066|x13: 0.056|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.197|x7: 0.202|x8: 0.000|x9: 0.000|x10: 0.110|x11: 0.095|x12: 0.066|x13: 0.056|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E933" t="inlineStr">
@@ -38677,7 +38677,7 @@
       </c>
       <c r="G933" t="inlineStr">
         <is>
-          <t>[0.20157532390737684]</t>
+          <t>[0.2018083091374438]</t>
         </is>
       </c>
       <c r="H933" t="b">
@@ -38703,7 +38703,7 @@
       </c>
       <c r="D934" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.043|x7: 0.056|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.028|x13: 0.000|x14: 0.000|x15: 0.017|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.043|x7: 0.056|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.027|x13: 0.000|x14: 0.000|x15: 0.017|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E934" t="inlineStr">
@@ -38867,7 +38867,7 @@
       </c>
       <c r="D938" t="inlineStr">
         <is>
-          <t>x1: 0.042|x2: 0.000|x3: 0.000|x4: 0.026|x5: 0.000|x6: 0.031|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.088|x12: 0.074|x13: 0.000|x14: 0.029|x15: 0.068|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.041|x2: 0.000|x3: 0.000|x4: 0.026|x5: 0.000|x6: 0.031|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.088|x12: 0.074|x13: 0.000|x14: 0.029|x15: 0.068|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E938" t="inlineStr">
@@ -39072,7 +39072,7 @@
       </c>
       <c r="D943" t="inlineStr">
         <is>
-          <t>x1: 0.082|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.073|x7: 0.215|x8: 0.000|x9: 0.044|x10: 0.000|x11: 0.158|x12: 0.113|x13: 0.052|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.082|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.073|x7: 0.214|x8: 0.000|x9: 0.044|x10: 0.000|x11: 0.158|x12: 0.113|x13: 0.052|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E943" t="inlineStr">
@@ -39087,7 +39087,7 @@
       </c>
       <c r="G943" t="inlineStr">
         <is>
-          <t>[0.21450868065054457]</t>
+          <t>[0.2143631086573401]</t>
         </is>
       </c>
       <c r="H943" t="b">
@@ -39195,7 +39195,7 @@
       </c>
       <c r="D946" t="inlineStr">
         <is>
-          <t>x1: 0.061|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.374|x8: 0.000|x9: 0.038|x10: 0.000|x11: 0.075|x12: 0.136|x13: 0.052|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.061|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.374|x8: 0.000|x9: 0.039|x10: 0.000|x11: 0.075|x12: 0.136|x13: 0.052|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E946" t="inlineStr">
@@ -39210,7 +39210,7 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>[0.37422861345470093]</t>
+          <t>[0.37431965204909556]</t>
         </is>
       </c>
       <c r="H946" t="b">
@@ -39277,7 +39277,7 @@
       </c>
       <c r="D948" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.252|x8: 0.000|x9: 0.101|x10: 0.000|x11: 0.042|x12: 0.238|x13: 0.000|x14: 0.064|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.253|x8: 0.000|x9: 0.101|x10: 0.000|x11: 0.042|x12: 0.238|x13: 0.000|x14: 0.064|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E948" t="inlineStr">
@@ -39292,7 +39292,7 @@
       </c>
       <c r="G948" t="inlineStr">
         <is>
-          <t>[0.2524714055682308, 0.23773392442379787]</t>
+          <t>[0.25252418961900064, 0.23764227205838115]</t>
         </is>
       </c>
       <c r="H948" t="b">
@@ -39374,7 +39374,7 @@
       </c>
       <c r="G950" t="inlineStr">
         <is>
-          <t>[0.2563529823953461]</t>
+          <t>[0.25629598675169607]</t>
         </is>
       </c>
       <c r="H950" t="b">
@@ -39415,7 +39415,7 @@
       </c>
       <c r="G951" t="inlineStr">
         <is>
-          <t>[0.25728364696571565]</t>
+          <t>[0.25722830638224703]</t>
         </is>
       </c>
       <c r="H951" t="b">
@@ -39441,7 +39441,7 @@
       </c>
       <c r="D952" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.160|x8: 0.000|x9: 0.041|x10: 0.000|x11: 0.000|x12: 0.083|x13: 0.093|x14: 0.026|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.161|x8: 0.000|x9: 0.041|x10: 0.000|x11: 0.000|x12: 0.083|x13: 0.093|x14: 0.026|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E952" t="inlineStr">
@@ -39620,7 +39620,7 @@
       </c>
       <c r="G956" t="inlineStr">
         <is>
-          <t>[0.258807035221834]</t>
+          <t>[0.25877443891757873]</t>
         </is>
       </c>
       <c r="H956" t="b">
@@ -39866,7 +39866,7 @@
       </c>
       <c r="G962" t="inlineStr">
         <is>
-          <t>[0.3068410928548995]</t>
+          <t>[0.30676983728624463]</t>
         </is>
       </c>
       <c r="H962" t="b">
@@ -39892,7 +39892,7 @@
       </c>
       <c r="D963" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.203|x8: 0.000|x9: 0.057|x10: 0.000|x11: 0.100|x12: 0.130|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.204|x8: 0.000|x9: 0.057|x10: 0.000|x11: 0.100|x12: 0.130|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E963" t="inlineStr">
@@ -39907,7 +39907,7 @@
       </c>
       <c r="G963" t="inlineStr">
         <is>
-          <t>[0.20348477103466903]</t>
+          <t>[0.20356773134535944]</t>
         </is>
       </c>
       <c r="H963" t="b">
@@ -40020,7 +40020,7 @@
       </c>
       <c r="E966" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.26]</t>
+          <t>[0.00, 0.04, 0.27]</t>
         </is>
       </c>
       <c r="F966" t="inlineStr">
@@ -40030,7 +40030,7 @@
       </c>
       <c r="G966" t="inlineStr">
         <is>
-          <t>[0.26494420951610487, 0.23468047868472827]</t>
+          <t>[0.2650158151232128, 0.2346071233175891]</t>
         </is>
       </c>
       <c r="H966" t="b">
@@ -40194,7 +40194,7 @@
       </c>
       <c r="G970" t="inlineStr">
         <is>
-          <t>[0.20601203403045826]</t>
+          <t>[0.20601424768136573]</t>
         </is>
       </c>
       <c r="H970" t="b">
@@ -40317,7 +40317,7 @@
       </c>
       <c r="G973" t="inlineStr">
         <is>
-          <t>[0.23497272903156813]</t>
+          <t>[0.23492262916179643]</t>
         </is>
       </c>
       <c r="H973" t="b">
@@ -40425,7 +40425,7 @@
       </c>
       <c r="D976" t="inlineStr">
         <is>
-          <t>x1: 0.153|x2: 0.098|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.217|x8: 0.000|x9: 0.147|x10: 0.000|x11: 0.000|x12: 0.161|x13: 0.059|x14: 0.080|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.153|x2: 0.098|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.217|x8: 0.000|x9: 0.147|x10: 0.000|x11: 0.000|x12: 0.160|x13: 0.059|x14: 0.080|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E976" t="inlineStr">
@@ -40440,7 +40440,7 @@
       </c>
       <c r="G976" t="inlineStr">
         <is>
-          <t>[0.21745134492470694]</t>
+          <t>[0.21743880499256374]</t>
         </is>
       </c>
       <c r="H976" t="b">
@@ -40548,7 +40548,7 @@
       </c>
       <c r="D979" t="inlineStr">
         <is>
-          <t>x1: 0.174|x2: 0.000|x3: 0.051|x4: 0.130|x5: 0.214|x6: 0.050|x7: 0.000|x8: 0.088|x9: 0.000|x10: 0.055|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.088|x17: 0.000</t>
+          <t>x1: 0.174|x2: 0.000|x3: 0.051|x4: 0.130|x5: 0.214|x6: 0.050|x7: 0.000|x8: 0.087|x9: 0.000|x10: 0.055|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.088|x17: 0.000</t>
         </is>
       </c>
       <c r="E979" t="inlineStr">
@@ -40563,7 +40563,7 @@
       </c>
       <c r="G979" t="inlineStr">
         <is>
-          <t>[0.21411774038912568]</t>
+          <t>[0.21409506313001414]</t>
         </is>
       </c>
       <c r="H979" t="b">
@@ -40794,7 +40794,7 @@
       </c>
       <c r="D985" t="inlineStr">
         <is>
-          <t>x1: 0.073|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.144|x9: 0.118|x10: 0.000|x11: 0.163|x12: 0.000|x13: 0.044|x14: 0.044|x15: 0.074|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.073|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.144|x9: 0.118|x10: 0.000|x11: 0.164|x12: 0.000|x13: 0.044|x14: 0.044|x15: 0.074|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E985" t="inlineStr">
@@ -40891,7 +40891,7 @@
       </c>
       <c r="G987" t="inlineStr">
         <is>
-          <t>[0.21850849717040963]</t>
+          <t>[0.21852236158125887]</t>
         </is>
       </c>
       <c r="H987" t="b">
@@ -41245,7 +41245,7 @@
       </c>
       <c r="D996" t="inlineStr">
         <is>
-          <t>x1: 0.031|x2: 0.000|x3: 0.000|x4: 0.066|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.081|x10: 0.000|x11: 0.054|x12: 0.000|x13: 0.000|x14: 0.038|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.031|x2: 0.000|x3: 0.000|x4: 0.066|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.081|x10: 0.000|x11: 0.054|x12: 0.000|x13: 0.000|x14: 0.039|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E996" t="inlineStr">

--- a/Project_python/out/Top2vec/test_top2vec_training_files_it0_0.xlsx
+++ b/Project_python/out/Top2vec/test_top2vec_training_files_it0_0.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.30579602882566936]</t>
+          <t>[0.30569915556664257]</t>
         </is>
       </c>
       <c r="H2" t="b">
@@ -532,7 +532,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>x1: 0.300|x2: 0.053|x3: 0.000|x4: 0.048|x5: 0.070|x6: 0.000|x7: 0.000|x8: 0.158|x9: 0.094|x10: 0.052|x11: 0.102|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.299|x2: 0.052|x3: 0.000|x4: 0.048|x5: 0.069|x6: 0.000|x7: 0.000|x8: 0.158|x9: 0.094|x10: 0.052|x11: 0.102|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0.2995499838476537]</t>
+          <t>[0.29933710643587197]</t>
         </is>
       </c>
       <c r="H3" t="b">
@@ -629,7 +629,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.32613935115408155]</t>
+          <t>[0.32620516763790436]</t>
         </is>
       </c>
       <c r="H5" t="b">
@@ -655,7 +655,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>x1: 0.231|x2: 0.028|x3: 0.000|x4: 0.027|x5: 0.050|x6: 0.000|x7: 0.000|x8: 0.075|x9: 0.000|x10: 0.000|x11: 0.073|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.230|x2: 0.027|x3: 0.000|x4: 0.027|x5: 0.050|x6: 0.000|x7: 0.000|x8: 0.075|x9: 0.000|x10: 0.000|x11: 0.073|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0.2305068813870834]</t>
+          <t>[0.23035816268881412]</t>
         </is>
       </c>
       <c r="H6" t="b">
@@ -711,7 +711,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.23643889721094835]</t>
+          <t>[0.23646634169631398]</t>
         </is>
       </c>
       <c r="H7" t="b">
@@ -793,7 +793,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[0.6244104658697912]</t>
+          <t>[0.6242497256708585]</t>
         </is>
       </c>
       <c r="H9" t="b">
@@ -834,7 +834,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0.22545119469214384]</t>
+          <t>[0.22542749251766073]</t>
         </is>
       </c>
       <c r="H10" t="b">
@@ -860,7 +860,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>x1: 0.036|x2: 0.111|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.034|x9: 0.000|x10: 0.101|x11: 0.043|x12: 0.000|x13: 0.287|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.036|x2: 0.111|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.034|x9: 0.000|x10: 0.100|x11: 0.043|x12: 0.000|x13: 0.287|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.28684481149253743]</t>
+          <t>[0.28655085160762356]</t>
         </is>
       </c>
       <c r="H11" t="b">
@@ -916,7 +916,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[0.42611094492219537]</t>
+          <t>[0.426148189040623]</t>
         </is>
       </c>
       <c r="H12" t="b">
@@ -957,7 +957,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[0.3468037607707914]</t>
+          <t>[0.3468474579242134]</t>
         </is>
       </c>
       <c r="H13" t="b">
@@ -983,7 +983,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>x1: 0.181|x2: 0.044|x3: 0.098|x4: 0.000|x5: 0.046|x6: 0.000|x7: 0.000|x8: 0.036|x9: 0.000|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.181|x2: 0.044|x3: 0.098|x4: 0.000|x5: 0.047|x6: 0.000|x7: 0.000|x8: 0.036|x9: 0.000|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[0.24829314936213676]</t>
+          <t>[0.24826889242072847]</t>
         </is>
       </c>
       <c r="H15" t="b">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[0.42354562709276694]</t>
+          <t>[0.4235870092905954]</t>
         </is>
       </c>
       <c r="H16" t="b">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>x1: 0.199|x2: 0.059|x3: 0.118|x4: 0.111|x5: 0.091|x6: 0.000|x7: 0.000|x8: 0.167|x9: 0.058|x10: 0.140|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.055|x15: 0.000|x16: 0.044|x17: 0.000</t>
+          <t>x1: 0.199|x2: 0.059|x3: 0.118|x4: 0.111|x5: 0.091|x6: 0.000|x7: 0.000|x8: 0.167|x9: 0.057|x10: 0.140|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.055|x15: 0.000|x16: 0.044|x17: 0.000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[0.31283116763485563]</t>
+          <t>[0.31277478356131994]</t>
         </is>
       </c>
       <c r="H19" t="b">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[0.3025942809356468]</t>
+          <t>[0.3026127313936637]</t>
         </is>
       </c>
       <c r="H21" t="b">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[0.27090083035749385]</t>
+          <t>[0.2709451855681009]</t>
         </is>
       </c>
       <c r="H22" t="b">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>x1: 0.306|x2: 0.231|x3: 0.072|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.083|x9: 0.000|x10: 0.052|x11: 0.047|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.069|x16: 0.114|x17: 0.000</t>
+          <t>x1: 0.306|x2: 0.231|x3: 0.073|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.083|x9: 0.000|x10: 0.052|x11: 0.046|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.069|x16: 0.114|x17: 0.000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[0.3055188208534962, 0.23063232074930567]</t>
+          <t>[0.3055245961887232, 0.23068755257515636]</t>
         </is>
       </c>
       <c r="H23" t="b">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>x1: 0.133|x2: 0.090|x3: 0.000|x4: 0.107|x5: 0.076|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.050|x14: 0.000|x15: 0.053|x16: 0.076|x17: 0.000</t>
+          <t>x1: 0.133|x2: 0.091|x3: 0.000|x4: 0.107|x5: 0.076|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.050|x14: 0.000|x15: 0.053|x16: 0.076|x17: 0.000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[0.42567799220982183]</t>
+          <t>[0.4255421877093471]</t>
         </is>
       </c>
       <c r="H25" t="b">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>x1: 0.099|x2: 0.026|x3: 0.000|x4: 0.094|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.132|x9: 0.039|x10: 0.076|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.099|x2: 0.026|x3: 0.000|x4: 0.094|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.132|x9: 0.039|x10: 0.077|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[0.2841147863875461]</t>
+          <t>[0.2841096144765716]</t>
         </is>
       </c>
       <c r="H28" t="b">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[0.28332532486879075]</t>
+          <t>[0.283358829376095]</t>
         </is>
       </c>
       <c r="H29" t="b">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>x1: 0.223|x2: 0.069|x3: 0.124|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.145|x9: 0.000|x10: 0.092|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.059|x17: 0.000</t>
+          <t>x1: 0.222|x2: 0.069|x3: 0.124|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.145|x9: 0.000|x10: 0.092|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.059|x17: 0.000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[0.22251801219235415]</t>
+          <t>[0.222421470275236]</t>
         </is>
       </c>
       <c r="H30" t="b">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>x1: 0.339|x2: 0.000|x3: 0.065|x4: 0.050|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.142|x9: 0.054|x10: 0.000|x11: 0.077|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.045|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.339|x2: 0.000|x3: 0.065|x4: 0.050|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.143|x9: 0.054|x10: 0.000|x11: 0.077|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.045|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[0.3386715652016827]</t>
+          <t>[0.33886757007966195]</t>
         </is>
       </c>
       <c r="H31" t="b">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>x1: 0.561|x2: 0.094|x3: 0.000|x4: 0.081|x5: 0.084|x6: 0.000|x7: 0.000|x8: 0.092|x9: 0.000|x10: 0.073|x11: 0.102|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.060|x17: 0.000</t>
+          <t>x1: 0.561|x2: 0.094|x3: 0.000|x4: 0.082|x5: 0.084|x6: 0.000|x7: 0.000|x8: 0.092|x9: 0.000|x10: 0.073|x11: 0.102|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.060|x17: 0.000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[0.5611268639948396]</t>
+          <t>[0.561110897339806]</t>
         </is>
       </c>
       <c r="H32" t="b">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>x1: 0.414|x2: 0.089|x3: 0.100|x4: 0.090|x5: 0.049|x6: 0.000|x7: 0.000|x8: 0.181|x9: 0.065|x10: 0.043|x11: 0.044|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.055|x16: 0.042|x17: 0.000</t>
+          <t>x1: 0.414|x2: 0.089|x3: 0.100|x4: 0.091|x5: 0.049|x6: 0.000|x7: 0.000|x8: 0.181|x9: 0.065|x10: 0.042|x11: 0.044|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.055|x16: 0.042|x17: 0.000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[0.413785280522184]</t>
+          <t>[0.4136393191891116]</t>
         </is>
       </c>
       <c r="H33" t="b">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[0.3215148459429927]</t>
+          <t>[0.32173369777856603]</t>
         </is>
       </c>
       <c r="H34" t="b">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[0.4279671217936638]</t>
+          <t>[0.4281776791960637]</t>
         </is>
       </c>
       <c r="H35" t="b">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[0.264332594374759, 0.24306123653126424]</t>
+          <t>[0.26442460822395736, 0.2431692842932196]</t>
         </is>
       </c>
       <c r="H36" t="b">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[0.38424042448033924, 0.24668706084023542]</t>
+          <t>[0.3841420639151425, 0.2466664334753667]</t>
         </is>
       </c>
       <c r="H38" t="b">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[0.31108451649316415]</t>
+          <t>[0.31111148722967075]</t>
         </is>
       </c>
       <c r="H40" t="b">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[0.3037463415984707]</t>
+          <t>[0.30371025311972577]</t>
         </is>
       </c>
       <c r="H41" t="b">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>x1: 0.185|x2: 0.200|x3: 0.112|x4: 0.054|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.124|x9: 0.038|x10: 0.046|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.084|x17: 0.000</t>
+          <t>x1: 0.184|x2: 0.200|x3: 0.112|x4: 0.054|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.124|x9: 0.038|x10: 0.046|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.084|x17: 0.000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[0.20043529981413705]</t>
+          <t>[0.20034067868076078]</t>
         </is>
       </c>
       <c r="H42" t="b">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>x1: 0.061|x2: 0.228|x3: 0.000|x4: 0.098|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.065|x9: 0.000|x10: 0.043|x11: 0.000|x12: 0.062|x13: 0.000|x14: 0.084|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.061|x2: 0.228|x3: 0.000|x4: 0.098|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.064|x9: 0.000|x10: 0.043|x11: 0.000|x12: 0.062|x13: 0.000|x14: 0.084|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[0.2279062588868586]</t>
+          <t>[0.2278729170592783]</t>
         </is>
       </c>
       <c r="H43" t="b">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[0.475560560121542]</t>
+          <t>[0.4756481486205128]</t>
         </is>
       </c>
       <c r="H44" t="b">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[0.4930752945761263]</t>
+          <t>[0.4930372611199609]</t>
         </is>
       </c>
       <c r="H45" t="b">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>x1: 0.255|x2: 0.260|x3: 0.000|x4: 0.050|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.148|x9: 0.000|x10: 0.094|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.048|x17: 0.000</t>
+          <t>x1: 0.255|x2: 0.260|x3: 0.000|x4: 0.050|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.149|x9: 0.000|x10: 0.094|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.048|x17: 0.000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[0.25986573394437, 0.254924808652737]</t>
+          <t>[0.25984728084261777, 0.254968936315074]</t>
         </is>
       </c>
       <c r="H46" t="b">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>x1: 0.059|x2: 0.166|x3: 0.000|x4: 0.044|x5: 0.000|x6: 0.042|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.043|x14: 0.054|x15: 0.063|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.059|x2: 0.165|x3: 0.000|x4: 0.044|x5: 0.000|x6: 0.042|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.043|x14: 0.054|x15: 0.063|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>x1: 0.101|x2: 0.469|x3: 0.119|x4: 0.130|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.065|x9: 0.000|x10: 0.134|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.080|x15: 0.000|x16: 0.147|x17: 0.000</t>
+          <t>x1: 0.100|x2: 0.469|x3: 0.119|x4: 0.130|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.066|x9: 0.000|x10: 0.134|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.080|x15: 0.000|x16: 0.147|x17: 0.000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[0.46942844335867906]</t>
+          <t>[0.46943551742402106]</t>
         </is>
       </c>
       <c r="H49" t="b">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>x1: 0.120|x2: 0.464|x3: 0.129|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.098|x9: 0.065|x10: 0.179|x11: 0.000|x12: 0.000|x13: 0.150|x14: 0.201|x15: 0.076|x16: 0.072|x17: 0.000</t>
+          <t>x1: 0.120|x2: 0.464|x3: 0.129|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.097|x9: 0.065|x10: 0.179|x11: 0.000|x12: 0.000|x13: 0.150|x14: 0.201|x15: 0.076|x16: 0.072|x17: 0.000</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.46397557371599546, 0.20073431946063766]</t>
+          <t>[0.4639321732840488, 0.20072602068937062]</t>
         </is>
       </c>
       <c r="H50" t="b">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.546794886522579]</t>
+          <t>[0.5468343074134038]</t>
         </is>
       </c>
       <c r="H51" t="b">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>x1: 0.148|x2: 0.387|x3: 0.193|x4: 0.054|x5: 0.068|x6: 0.037|x7: 0.000|x8: 0.106|x9: 0.000|x10: 0.131|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.043|x15: 0.066|x16: 0.148|x17: 0.000</t>
+          <t>x1: 0.148|x2: 0.387|x3: 0.193|x4: 0.054|x5: 0.068|x6: 0.037|x7: 0.000|x8: 0.106|x9: 0.000|x10: 0.131|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.043|x15: 0.066|x16: 0.147|x17: 0.000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.38728335461210417]</t>
+          <t>[0.38723133166809737]</t>
         </is>
       </c>
       <c r="H52" t="b">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[0.415745741119856]</t>
+          <t>[0.41586521908082114]</t>
         </is>
       </c>
       <c r="H53" t="b">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.411|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.040|x9: 0.106|x10: 0.182|x11: 0.000|x12: 0.000|x13: 0.136|x14: 0.090|x15: 0.000|x16: 0.103|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.411|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.040|x9: 0.106|x10: 0.182|x11: 0.000|x12: 0.000|x13: 0.136|x14: 0.089|x15: 0.000|x16: 0.103|x17: 0.000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[0.41118464876571864]</t>
+          <t>[0.4111489578494456]</t>
         </is>
       </c>
       <c r="H54" t="b">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>x1: 0.122|x2: 0.419|x3: 0.050|x4: 0.000|x5: 0.048|x6: 0.000|x7: 0.000|x8: 0.062|x9: 0.042|x10: 0.174|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.101|x15: 0.000|x16: 0.068|x17: 0.000</t>
+          <t>x1: 0.122|x2: 0.419|x3: 0.050|x4: 0.000|x5: 0.048|x6: 0.000|x7: 0.000|x8: 0.062|x9: 0.042|x10: 0.174|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.101|x15: 0.000|x16: 0.067|x17: 0.000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[0.41942468221212437]</t>
+          <t>[0.4194371298368885]</t>
         </is>
       </c>
       <c r="H55" t="b">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[0.39738367119109097, 0.2036448495572959]</t>
+          <t>[0.39737338012185575, 0.20351467036212348]</t>
         </is>
       </c>
       <c r="H56" t="b">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.366|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.090|x9: 0.088|x10: 0.111|x11: 0.000|x12: 0.000|x13: 0.097|x14: 0.067|x15: 0.100|x16: 0.129|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.366|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.089|x9: 0.088|x10: 0.111|x11: 0.000|x12: 0.000|x13: 0.097|x14: 0.067|x15: 0.100|x16: 0.129|x17: 0.000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[0.3660670411615974]</t>
+          <t>[0.3661202207309072]</t>
         </is>
       </c>
       <c r="H57" t="b">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>x1: 0.055|x2: 0.351|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.104|x9: 0.090|x10: 0.229|x11: 0.000|x12: 0.057|x13: 0.039|x14: 0.082|x15: 0.000|x16: 0.115|x17: 0.000</t>
+          <t>x1: 0.055|x2: 0.351|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.104|x9: 0.090|x10: 0.229|x11: 0.000|x12: 0.057|x13: 0.040|x14: 0.082|x15: 0.000|x16: 0.115|x17: 0.000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[0.3505058129856111, 0.22877747908624085]</t>
+          <t>[0.3506025103482762, 0.22877546619594002]</t>
         </is>
       </c>
       <c r="H58" t="b">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[0.4874409973959925, 0.22079380354564462]</t>
+          <t>[0.4874119447901011, 0.22079250152214688]</t>
         </is>
       </c>
       <c r="H59" t="b">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[0.33905657236760256]</t>
+          <t>[0.3391403013882391]</t>
         </is>
       </c>
       <c r="H60" t="b">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[0.3208589695625947]</t>
+          <t>[0.3209438902824683]</t>
         </is>
       </c>
       <c r="H61" t="b">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[0.40917416082375024]</t>
+          <t>[0.4091591879583528]</t>
         </is>
       </c>
       <c r="H62" t="b">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[0.46674204807605524]</t>
+          <t>[0.4665425600769108]</t>
         </is>
       </c>
       <c r="H63" t="b">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[0.4230628342924041, 0.2041693399334418]</t>
+          <t>[0.42310187068421135, 0.20422083727891835]</t>
         </is>
       </c>
       <c r="H65" t="b">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>x1: 0.198|x2: 0.401|x3: 0.068|x4: 0.056|x5: 0.049|x6: 0.063|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.154|x11: 0.103|x12: 0.000|x13: 0.000|x14: 0.055|x15: 0.000|x16: 0.112|x17: 0.000</t>
+          <t>x1: 0.199|x2: 0.401|x3: 0.068|x4: 0.056|x5: 0.049|x6: 0.063|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.154|x11: 0.103|x12: 0.000|x13: 0.000|x14: 0.055|x15: 0.000|x16: 0.112|x17: 0.000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[0.4007228095754528]</t>
+          <t>[0.4009585062956158]</t>
         </is>
       </c>
       <c r="H66" t="b">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[0.3631536369109308]</t>
+          <t>[0.3631853717772141]</t>
         </is>
       </c>
       <c r="H67" t="b">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[0.3192941681850797]</t>
+          <t>[0.3193478795777984]</t>
         </is>
       </c>
       <c r="H68" t="b">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[0.41230349792709203]</t>
+          <t>[0.41216548610880094]</t>
         </is>
       </c>
       <c r="H69" t="b">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[0.46023488831030296]</t>
+          <t>[0.46034833618003074]</t>
         </is>
       </c>
       <c r="H70" t="b">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[0.41126581809031704]</t>
+          <t>[0.41125174010812565]</t>
         </is>
       </c>
       <c r="H71" t="b">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>x1: 0.057|x2: 0.471|x3: 0.047|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.102|x9: 0.065|x10: 0.188|x11: 0.000|x12: 0.000|x13: 0.120|x14: 0.213|x15: 0.104|x16: 0.083|x17: 0.000</t>
+          <t>x1: 0.057|x2: 0.471|x3: 0.047|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.103|x9: 0.065|x10: 0.188|x11: 0.000|x12: 0.000|x13: 0.120|x14: 0.213|x15: 0.104|x16: 0.083|x17: 0.000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[0.4713277737306667, 0.21275180581412467]</t>
+          <t>[0.47138320950087476, 0.21275812563424878]</t>
         </is>
       </c>
       <c r="H72" t="b">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[0.5207615578065166, 0.20074216236131584]</t>
+          <t>[0.5208112654850858, 0.2005735885988849]</t>
         </is>
       </c>
       <c r="H73" t="b">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[0.47761841348244044]</t>
+          <t>[0.4775675792952581]</t>
         </is>
       </c>
       <c r="H74" t="b">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[0.4210989275120376, 0.21111023095956447]</t>
+          <t>[0.42120535366911316, 0.2110681323284944]</t>
         </is>
       </c>
       <c r="H75" t="b">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[0.3219939083557501, 0.26077513743774006]</t>
+          <t>[0.3219998027329787, 0.26076481573787225]</t>
         </is>
       </c>
       <c r="H76" t="b">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>x1: 0.115|x2: 0.329|x3: 0.151|x4: 0.066|x5: 0.072|x6: 0.000|x7: 0.000|x8: 0.070|x9: 0.000|x10: 0.094|x11: 0.086|x12: 0.000|x13: 0.000|x14: 0.081|x15: 0.000|x16: 0.120|x17: 0.000</t>
+          <t>x1: 0.115|x2: 0.329|x3: 0.151|x4: 0.067|x5: 0.072|x6: 0.000|x7: 0.000|x8: 0.070|x9: 0.000|x10: 0.094|x11: 0.086|x12: 0.000|x13: 0.000|x14: 0.082|x15: 0.000|x16: 0.120|x17: 0.000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[0.32920435409273385]</t>
+          <t>[0.3292488299900221]</t>
         </is>
       </c>
       <c r="H77" t="b">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[0.34834607090507796]</t>
+          <t>[0.3483717458415194]</t>
         </is>
       </c>
       <c r="H78" t="b">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>x1: 0.331|x2: 0.343|x3: 0.000|x4: 0.129|x5: 0.108|x6: 0.000|x7: 0.000|x8: 0.103|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.150|x14: 0.000|x15: 0.099|x16: 0.261|x17: 0.000</t>
+          <t>x1: 0.330|x2: 0.343|x3: 0.000|x4: 0.129|x5: 0.108|x6: 0.000|x7: 0.000|x8: 0.103|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.150|x14: 0.000|x15: 0.099|x16: 0.261|x17: 0.000</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[0.3431714314803468, 0.3305731070042033, 0.2608495085109065]</t>
+          <t>[0.3432159582665458, 0.3304651055935809, 0.26090255979016025]</t>
         </is>
       </c>
       <c r="H79" t="b">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.395|x3: 0.167|x4: 0.000|x5: 0.000|x6: 0.084|x7: 0.051|x8: 0.000|x9: 0.000|x10: 0.232|x11: 0.000|x12: 0.000|x13: 0.081|x14: 0.000|x15: 0.000|x16: 0.143|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.394|x3: 0.167|x4: 0.000|x5: 0.000|x6: 0.084|x7: 0.051|x8: 0.000|x9: 0.000|x10: 0.232|x11: 0.000|x12: 0.000|x13: 0.081|x14: 0.000|x15: 0.000|x16: 0.143|x17: 0.000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[0.3945871369642307, 0.2320989802194926]</t>
+          <t>[0.3944967106857618, 0.23207566634038715]</t>
         </is>
       </c>
       <c r="H80" t="b">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[0.42845236798144537]</t>
+          <t>[0.42835462701929256]</t>
         </is>
       </c>
       <c r="H81" t="b">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[0.46212541254767125, 0.22844865162503622]</t>
+          <t>[0.46217237247798815, 0.2284837804664234]</t>
         </is>
       </c>
       <c r="H82" t="b">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[0.4623990824190657]</t>
+          <t>[0.4622848393490164]</t>
         </is>
       </c>
       <c r="H83" t="b">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[0.3987142230486915]</t>
+          <t>[0.39867488758213326]</t>
         </is>
       </c>
       <c r="H84" t="b">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[0.30197875017277825, 0.2415745253774657]</t>
+          <t>[0.301906436682206, 0.2415078702984351]</t>
         </is>
       </c>
       <c r="H85" t="b">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>x1: 0.211|x2: 0.105|x3: 0.296|x4: 0.094|x5: 0.153|x6: 0.000|x7: 0.000|x8: 0.206|x9: 0.078|x10: 0.146|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.183|x17: 0.000</t>
+          <t>x1: 0.211|x2: 0.105|x3: 0.296|x4: 0.094|x5: 0.153|x6: 0.000|x7: 0.000|x8: 0.205|x9: 0.078|x10: 0.146|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.183|x17: 0.000</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[0.29631506569186294, 0.21087046664685638, 0.2055196126003425]</t>
+          <t>[0.29630951681080026, 0.21089866864050127, 0.20549560794090171]</t>
         </is>
       </c>
       <c r="H86" t="b">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[0.31264278925230704]</t>
+          <t>[0.3127178336908743]</t>
         </is>
       </c>
       <c r="H87" t="b">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.453|x4: 0.000|x5: 0.000|x6: 0.186|x7: 0.000|x8: 0.096|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.049|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.076|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.453|x4: 0.000|x5: 0.000|x6: 0.186|x7: 0.000|x8: 0.095|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.049|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.077|x17: 0.000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[0.4525832600841413]</t>
+          <t>[0.4526323216960369]</t>
         </is>
       </c>
       <c r="H89" t="b">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.275|x4: 0.000|x5: 0.000|x6: 0.088|x7: 0.000|x8: 0.051|x9: 0.044|x10: 0.000|x11: 0.000|x12: 0.069|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.274|x4: 0.000|x5: 0.000|x6: 0.088|x7: 0.000|x8: 0.051|x9: 0.043|x10: 0.000|x11: 0.000|x12: 0.069|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[0.27455479635689084]</t>
+          <t>[0.2743596267957329]</t>
         </is>
       </c>
       <c r="H90" t="b">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>x1: 0.042|x2: 0.118|x3: 0.288|x4: 0.000|x5: 0.097|x6: 0.000|x7: 0.054|x8: 0.000|x9: 0.072|x10: 0.080|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.109|x17: 0.000</t>
+          <t>x1: 0.042|x2: 0.117|x3: 0.288|x4: 0.000|x5: 0.097|x6: 0.000|x7: 0.054|x8: 0.000|x9: 0.072|x10: 0.080|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.109|x17: 0.000</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[0.2880147151286604]</t>
+          <t>[0.28811058877110757]</t>
         </is>
       </c>
       <c r="H91" t="b">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>x1: 0.090|x2: 0.053|x3: 0.268|x4: 0.064|x5: 0.058|x6: 0.000|x7: 0.000|x8: 0.135|x9: 0.074|x10: 0.049|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.050|x17: 0.000</t>
+          <t>x1: 0.090|x2: 0.053|x3: 0.267|x4: 0.064|x5: 0.058|x6: 0.000|x7: 0.000|x8: 0.135|x9: 0.074|x10: 0.049|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.050|x17: 0.000</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[0.2675768170865511]</t>
+          <t>[0.26748297717759467]</t>
         </is>
       </c>
       <c r="H92" t="b">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[0.27278094079472304]</t>
+          <t>[0.2729476628012313]</t>
         </is>
       </c>
       <c r="H93" t="b">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[0.3173837747739242]</t>
+          <t>[0.31737763743182396]</t>
         </is>
       </c>
       <c r="H94" t="b">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>x1: 0.155|x2: 0.000|x3: 0.409|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.183|x9: 0.081|x10: 0.043|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.155|x2: 0.000|x3: 0.409|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.183|x9: 0.080|x10: 0.043|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[0.4087217639360557]</t>
+          <t>[0.4085160167631862]</t>
         </is>
       </c>
       <c r="H95" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>x1: 0.166|x2: 0.057|x3: 0.338|x4: 0.000|x5: 0.056|x6: 0.074|x7: 0.058|x8: 0.203|x9: 0.159|x10: 0.110|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.058|x17: 0.000</t>
+          <t>x1: 0.166|x2: 0.057|x3: 0.338|x4: 0.000|x5: 0.057|x6: 0.074|x7: 0.058|x8: 0.203|x9: 0.159|x10: 0.110|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.058|x17: 0.000</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[0.33821334033143735, 0.20283214928799886]</t>
+          <t>[0.3382643808582635, 0.20282109204354812]</t>
         </is>
       </c>
       <c r="H96" t="b">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.076|x3: 0.341|x4: 0.000|x5: 0.058|x6: 0.000|x7: 0.000|x8: 0.142|x9: 0.060|x10: 0.054|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.048|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.076|x3: 0.341|x4: 0.000|x5: 0.058|x6: 0.000|x7: 0.000|x8: 0.142|x9: 0.061|x10: 0.054|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.049|x17: 0.000</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[0.34071949376803723]</t>
+          <t>[0.3406001988191897]</t>
         </is>
       </c>
       <c r="H97" t="b">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.063|x3: 0.435|x4: 0.066|x5: 0.134|x6: 0.191|x7: 0.106|x8: 0.049|x9: 0.084|x10: 0.075|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.184|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.063|x3: 0.435|x4: 0.066|x5: 0.134|x6: 0.191|x7: 0.106|x8: 0.050|x9: 0.084|x10: 0.076|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.183|x17: 0.000</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[0.435034133741142]</t>
+          <t>[0.4350109523553678]</t>
         </is>
       </c>
       <c r="H98" t="b">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[0.4168375022382151]</t>
+          <t>[0.4168267289573504]</t>
         </is>
       </c>
       <c r="H99" t="b">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[0.3216064421752779]</t>
+          <t>[0.3215772529196901]</t>
         </is>
       </c>
       <c r="H100" t="b">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[0.4002564562189572]</t>
+          <t>[0.4002619375011916]</t>
         </is>
       </c>
       <c r="H101" t="b">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[0.23512027422576634]</t>
+          <t>[0.23539326995861626]</t>
         </is>
       </c>
       <c r="H102" t="b">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>x1: 0.069|x2: 0.000|x3: 0.379|x4: 0.097|x5: 0.048|x6: 0.000|x7: 0.000|x8: 0.119|x9: 0.094|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.041|x17: 0.000</t>
+          <t>x1: 0.069|x2: 0.000|x3: 0.380|x4: 0.097|x5: 0.048|x6: 0.000|x7: 0.000|x8: 0.119|x9: 0.094|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.041|x17: 0.000</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[0.3793106554026396]</t>
+          <t>[0.3795422511006179]</t>
         </is>
       </c>
       <c r="H103" t="b">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.042|x3: 0.305|x4: 0.036|x5: 0.120|x6: 0.096|x7: 0.000|x8: 0.058|x9: 0.000|x10: 0.038|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.057|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.042|x3: 0.305|x4: 0.036|x5: 0.120|x6: 0.095|x7: 0.000|x8: 0.057|x9: 0.000|x10: 0.038|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.057|x17: 0.000</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[0.30520531393194594]</t>
+          <t>[0.3051759845600596]</t>
         </is>
       </c>
       <c r="H104" t="b">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[0.45028387543135806, 0.2714702365744056]</t>
+          <t>[0.45006943347031525, 0.27142766047174005]</t>
         </is>
       </c>
       <c r="H105" t="b">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[0.3218736997046647]</t>
+          <t>[0.3219068062063662]</t>
         </is>
       </c>
       <c r="H106" t="b">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[0.22329236780599407]</t>
+          <t>[0.223415312830058]</t>
         </is>
       </c>
       <c r="H107" t="b">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>x1: 0.070|x2: 0.043|x3: 0.368|x4: 0.090|x5: 0.200|x6: 0.128|x7: 0.000|x8: 0.113|x9: 0.000|x10: 0.045|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.144|x17: 0.000</t>
+          <t>x1: 0.070|x2: 0.043|x3: 0.368|x4: 0.090|x5: 0.200|x6: 0.127|x7: 0.000|x8: 0.113|x9: 0.000|x10: 0.045|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.144|x17: 0.000</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[0.3675437930031343]</t>
+          <t>[0.36765077832419835]</t>
         </is>
       </c>
       <c r="H108" t="b">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>x1: 0.080|x2: 0.000|x3: 0.288|x4: 0.000|x5: 0.000|x6: 0.145|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.028|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.049|x17: 0.000</t>
+          <t>x1: 0.080|x2: 0.000|x3: 0.288|x4: 0.000|x5: 0.000|x6: 0.145|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.027|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.048|x17: 0.000</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[0.2883749415766665]</t>
+          <t>[0.2882195831613247]</t>
         </is>
       </c>
       <c r="H109" t="b">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.095|x3: 0.399|x4: 0.000|x5: 0.000|x6: 0.056|x7: 0.112|x8: 0.149|x9: 0.000|x10: 0.091|x11: 0.000|x12: 0.088|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.076|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.095|x3: 0.399|x4: 0.000|x5: 0.000|x6: 0.056|x7: 0.113|x8: 0.149|x9: 0.000|x10: 0.091|x11: 0.000|x12: 0.088|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.076|x17: 0.000</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[0.39904779417264763]</t>
+          <t>[0.39909070516391343]</t>
         </is>
       </c>
       <c r="H110" t="b">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[0.44829157477049403, 0.30703592912849875]</t>
+          <t>[0.44824737891828603, 0.30698497702164396]</t>
         </is>
       </c>
       <c r="H111" t="b">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>x1: 0.041|x2: 0.069|x3: 0.246|x4: 0.099|x5: 0.064|x6: 0.074|x7: 0.000|x8: 0.000|x9: 0.110|x10: 0.153|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.075|x17: 0.000</t>
+          <t>x1: 0.040|x2: 0.069|x3: 0.246|x4: 0.099|x5: 0.064|x6: 0.075|x7: 0.000|x8: 0.000|x9: 0.110|x10: 0.153|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.075|x17: 0.000</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[0.245928794998704]</t>
+          <t>[0.24591831425294383]</t>
         </is>
       </c>
       <c r="H112" t="b">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[0.37114080817000045]</t>
+          <t>[0.37108109973861103]</t>
         </is>
       </c>
       <c r="H113" t="b">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[0.3094440834422906, 0.20527589989673936]</t>
+          <t>[0.30941594802133054, 0.20528719396718612]</t>
         </is>
       </c>
       <c r="H114" t="b">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[0.24056984422962485]</t>
+          <t>[0.24069062332151547]</t>
         </is>
       </c>
       <c r="H115" t="b">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[0.5103322158058962, 0.21861572517174263]</t>
+          <t>[0.5104896160874384, 0.21858250207526347]</t>
         </is>
       </c>
       <c r="H116" t="b">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.101|x3: 0.342|x4: 0.000|x5: 0.000|x6: 0.176|x7: 0.078|x8: 0.172|x9: 0.000|x10: 0.116|x11: 0.000|x12: 0.110|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.156|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.101|x3: 0.342|x4: 0.000|x5: 0.000|x6: 0.176|x7: 0.078|x8: 0.171|x9: 0.000|x10: 0.116|x11: 0.000|x12: 0.110|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.156|x17: 0.000</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[0.34236673175895876]</t>
+          <t>[0.34228064979702016]</t>
         </is>
       </c>
       <c r="H117" t="b">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.040|x3: 0.317|x4: 0.090|x5: 0.000|x6: 0.191|x7: 0.111|x8: 0.000|x9: 0.077|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.050|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.040|x3: 0.317|x4: 0.091|x5: 0.000|x6: 0.191|x7: 0.111|x8: 0.000|x9: 0.077|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.050|x17: 0.000</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[0.3170274635210577]</t>
+          <t>[0.31695866918664745]</t>
         </is>
       </c>
       <c r="H118" t="b">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.278|x4: 0.000|x5: 0.000|x6: 0.056|x7: 0.000|x8: 0.036|x9: 0.000|x10: 0.027|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.067|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.278|x4: 0.000|x5: 0.000|x6: 0.056|x7: 0.000|x8: 0.036|x9: 0.000|x10: 0.028|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.067|x17: 0.000</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[0.27819258323905566]</t>
+          <t>[0.27840046062234397]</t>
         </is>
       </c>
       <c r="H119" t="b">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[0.29596305799061473]</t>
+          <t>[0.2958736235654249]</t>
         </is>
       </c>
       <c r="H120" t="b">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[0.2581295413058014]</t>
+          <t>[0.2583210662153851]</t>
         </is>
       </c>
       <c r="H121" t="b">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[0.3539937832912275, 0.20023126743218228]</t>
+          <t>[0.35407124097873777, 0.20026209888749816]</t>
         </is>
       </c>
       <c r="H122" t="b">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[0.3579936256020034, 0.21434645935543112]</t>
+          <t>[0.3580163390444805, 0.21437779434401022]</t>
         </is>
       </c>
       <c r="H123" t="b">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[0.2586971960243938]</t>
+          <t>[0.2587416213614746]</t>
         </is>
       </c>
       <c r="H125" t="b">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[0.27515143428232286]</t>
+          <t>[0.27520900742790516]</t>
         </is>
       </c>
       <c r="H127" t="b">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[0.39515208350167286]</t>
+          <t>[0.3950897250532536]</t>
         </is>
       </c>
       <c r="H128" t="b">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[0.39904032467295525, 0.2173954531035411]</t>
+          <t>[0.39913484100618, 0.21740849823765482]</t>
         </is>
       </c>
       <c r="H129" t="b">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[0.38777518677851924]</t>
+          <t>[0.3876394533795466]</t>
         </is>
       </c>
       <c r="H130" t="b">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.033|x3: 0.252|x4: 0.000|x5: 0.033|x6: 0.149|x7: 0.051|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.027|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.033|x3: 0.252|x4: 0.000|x5: 0.033|x6: 0.149|x7: 0.050|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.027|x17: 0.000</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[0.2519446987255268]</t>
+          <t>[0.25167744219356547]</t>
         </is>
       </c>
       <c r="H131" t="b">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[0.38882829134423086]</t>
+          <t>[0.3887557430254028]</t>
         </is>
       </c>
       <c r="H132" t="b">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>x1: 0.085|x2: 0.000|x3: 0.385|x4: 0.061|x5: 0.074|x6: 0.040|x7: 0.141|x8: 0.147|x9: 0.169|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.059|x17: 0.000</t>
+          <t>x1: 0.085|x2: 0.000|x3: 0.385|x4: 0.061|x5: 0.074|x6: 0.040|x7: 0.141|x8: 0.147|x9: 0.169|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.058|x17: 0.000</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[0.38529201445994105]</t>
+          <t>[0.38524330127044015]</t>
         </is>
       </c>
       <c r="H133" t="b">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>x1: 0.087|x2: 0.000|x3: 0.238|x4: 0.043|x5: 0.098|x6: 0.047|x7: 0.000|x8: 0.058|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
+          <t>x1: 0.087|x2: 0.000|x3: 0.238|x4: 0.043|x5: 0.097|x6: 0.047|x7: 0.000|x8: 0.058|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[0.23802551670157215]</t>
+          <t>[0.23778839328957346]</t>
         </is>
       </c>
       <c r="H134" t="b">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[0.3944535240821175]</t>
+          <t>[0.39440054816687414]</t>
         </is>
       </c>
       <c r="H135" t="b">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>x1: 0.077|x2: 0.000|x3: 0.415|x4: 0.000|x5: 0.000|x6: 0.175|x7: 0.070|x8: 0.106|x9: 0.000|x10: 0.000|x11: 0.041|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000</t>
+          <t>x1: 0.077|x2: 0.000|x3: 0.415|x4: 0.000|x5: 0.000|x6: 0.175|x7: 0.070|x8: 0.105|x9: 0.000|x10: 0.000|x11: 0.041|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[0.41478378571599656]</t>
+          <t>[0.41490618878417956]</t>
         </is>
       </c>
       <c r="H136" t="b">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[0.41211718487922716]</t>
+          <t>[0.4121211453556876]</t>
         </is>
       </c>
       <c r="H137" t="b">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[0.3109448225793638]</t>
+          <t>[0.3108743165787593]</t>
         </is>
       </c>
       <c r="H138" t="b">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.40]</t>
+          <t>[0.00, 0.06, 0.39]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[0.3950088857123349]</t>
+          <t>[0.3949171500396385]</t>
         </is>
       </c>
       <c r="H139" t="b">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>x1: 0.048|x2: 0.000|x3: 0.292|x4: 0.051|x5: 0.094|x6: 0.057|x7: 0.000|x8: 0.110|x9: 0.065|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.048|x2: 0.000|x3: 0.291|x4: 0.051|x5: 0.094|x6: 0.057|x7: 0.000|x8: 0.110|x9: 0.065|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[0.2917134398187273]</t>
+          <t>[0.2914988970000355]</t>
         </is>
       </c>
       <c r="H140" t="b">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[0.4042513244387239, 0.2809961958760676]</t>
+          <t>[0.40424953667550934, 0.2810140603403878]</t>
         </is>
       </c>
       <c r="H141" t="b">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[0.38778062697944715]</t>
+          <t>[0.3875358720925991]</t>
         </is>
       </c>
       <c r="H142" t="b">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>x1: 0.062|x2: 0.000|x3: 0.431|x4: 0.000|x5: 0.000|x6: 0.114|x7: 0.051|x8: 0.118|x9: 0.064|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.063|x2: 0.000|x3: 0.431|x4: 0.000|x5: 0.000|x6: 0.114|x7: 0.051|x8: 0.118|x9: 0.064|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[0.4314185629527044]</t>
+          <t>[0.43128428932747415]</t>
         </is>
       </c>
       <c r="H143" t="b">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[0.33604585866232645, 0.20468987078973705]</t>
+          <t>[0.33618220384438985, 0.2046553359926071]</t>
         </is>
       </c>
       <c r="H144" t="b">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[0.3816630080941909]</t>
+          <t>[0.38159196567690157]</t>
         </is>
       </c>
       <c r="H145" t="b">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[0.43186146099213585]</t>
+          <t>[0.43199166751438695]</t>
         </is>
       </c>
       <c r="H146" t="b">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[0.4656999619147579]</t>
+          <t>[0.4656708689901288]</t>
         </is>
       </c>
       <c r="H147" t="b">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[0.32039289657664244]</t>
+          <t>[0.3203889468515904]</t>
         </is>
       </c>
       <c r="H148" t="b">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.511|x4: 0.000|x5: 0.075|x6: 0.311|x7: 0.169|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.072|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.054|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.511|x4: 0.000|x5: 0.075|x6: 0.311|x7: 0.169|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.072|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.055|x17: 0.000</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[0.5108485739841565, 0.31115474311625485]</t>
+          <t>[0.5108373436483722, 0.31113162732925936]</t>
         </is>
       </c>
       <c r="H149" t="b">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[0.34533788301913737]</t>
+          <t>[0.345452806658069]</t>
         </is>
       </c>
       <c r="H150" t="b">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>[0.3379116291549544]</t>
+          <t>[0.33791322423639025]</t>
         </is>
       </c>
       <c r="H152" t="b">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>x1: 0.046|x2: 0.000|x3: 0.325|x4: 0.000|x5: 0.109|x6: 0.095|x7: 0.000|x8: 0.081|x9: 0.035|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.040|x17: 0.000</t>
+          <t>x1: 0.046|x2: 0.000|x3: 0.325|x4: 0.000|x5: 0.108|x6: 0.095|x7: 0.000|x8: 0.081|x9: 0.035|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.040|x17: 0.000</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>[0.3252366599969292]</t>
+          <t>[0.32503452358614443]</t>
         </is>
       </c>
       <c r="H153" t="b">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.127|x3: 0.378|x4: 0.098|x5: 0.120|x6: 0.000|x7: 0.000|x8: 0.081|x9: 0.038|x10: 0.048|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.099|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.127|x3: 0.379|x4: 0.098|x5: 0.120|x6: 0.000|x7: 0.000|x8: 0.081|x9: 0.038|x10: 0.048|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.099|x17: 0.000</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>[0.3784912605519274]</t>
+          <t>[0.3785724209678378]</t>
         </is>
       </c>
       <c r="H154" t="b">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>[0.44724976675956174]</t>
+          <t>[0.4473046779825537]</t>
         </is>
       </c>
       <c r="H155" t="b">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>[0.4121151945342306, 0.2040215365490006]</t>
+          <t>[0.4120856340887281, 0.2040223772169758]</t>
         </is>
       </c>
       <c r="H156" t="b">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>x1: 0.074|x2: 0.050|x3: 0.188|x4: 0.052|x5: 0.105|x6: 0.000|x7: 0.000|x8: 0.045|x9: 0.000|x10: 0.086|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.097|x17: 0.000</t>
+          <t>x1: 0.074|x2: 0.050|x3: 0.188|x4: 0.052|x5: 0.105|x6: 0.000|x7: 0.000|x8: 0.045|x9: 0.000|x10: 0.086|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.096|x17: 0.000</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>x1: 0.075|x2: 0.060|x3: 0.290|x4: 0.000|x5: 0.048|x6: 0.164|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.058|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.129|x17: 0.000</t>
+          <t>x1: 0.076|x2: 0.060|x3: 0.290|x4: 0.000|x5: 0.048|x6: 0.164|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.058|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.129|x17: 0.000</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>[0.2897991058059485]</t>
+          <t>[0.2897302106472045]</t>
         </is>
       </c>
       <c r="H159" t="b">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>[0.284618086433015]</t>
+          <t>[0.2848697988428969]</t>
         </is>
       </c>
       <c r="H160" t="b">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>[0.39424877196505365]</t>
+          <t>[0.3942812613463993]</t>
         </is>
       </c>
       <c r="H161" t="b">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>[0.307086353135503]</t>
+          <t>[0.30716656158338546]</t>
         </is>
       </c>
       <c r="H162" t="b">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>[0.4324813158137098]</t>
+          <t>[0.43233636572699324]</t>
         </is>
       </c>
       <c r="H163" t="b">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>[0.3971678510031945]</t>
+          <t>[0.3971359108707201]</t>
         </is>
       </c>
       <c r="H164" t="b">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[0.21305740244156618]</t>
+          <t>[0.21292891496720315]</t>
         </is>
       </c>
       <c r="H165" t="b">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>x1: 0.174|x2: 0.131|x3: 0.371|x4: 0.000|x5: 0.000|x6: 0.047|x7: 0.000|x8: 0.182|x9: 0.043|x10: 0.184|x11: 0.000|x12: 0.000|x13: 0.046|x14: 0.000|x15: 0.000|x16: 0.087|x17: 0.000</t>
+          <t>x1: 0.175|x2: 0.131|x3: 0.371|x4: 0.000|x5: 0.000|x6: 0.047|x7: 0.000|x8: 0.182|x9: 0.043|x10: 0.185|x11: 0.000|x12: 0.000|x13: 0.046|x14: 0.000|x15: 0.000|x16: 0.088|x17: 0.000</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>[0.3712438124613986]</t>
+          <t>[0.3713450279852569]</t>
         </is>
       </c>
       <c r="H166" t="b">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>x1: 0.115|x2: 0.108|x3: 0.157|x4: 0.000|x5: 0.070|x6: 0.000|x7: 0.000|x8: 0.132|x9: 0.146|x10: 0.126|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.084|x17: 0.000</t>
+          <t>x1: 0.116|x2: 0.108|x3: 0.157|x4: 0.000|x5: 0.070|x6: 0.000|x7: 0.000|x8: 0.132|x9: 0.146|x10: 0.126|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.084|x17: 0.000</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -7312,7 +7312,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>[0.44820287689783594, 0.20083511786885566]</t>
+          <t>[0.44833335381901207, 0.20096631362907694]</t>
         </is>
       </c>
       <c r="H168" t="b">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.296|x4: 0.000|x5: 0.000|x6: 0.087|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.136|x13: 0.075|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.297|x4: 0.000|x5: 0.000|x6: 0.088|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.136|x13: 0.075|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>[0.29645971650004443]</t>
+          <t>[0.2967475234156895]</t>
         </is>
       </c>
       <c r="H169" t="b">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>[0.3063225444092022]</t>
+          <t>[0.3060125069066313]</t>
         </is>
       </c>
       <c r="H171" t="b">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>[0.3275670149951608]</t>
+          <t>[0.3277045341356074]</t>
         </is>
       </c>
       <c r="H172" t="b">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>[0.2492375401177572]</t>
+          <t>[0.2491680170748209]</t>
         </is>
       </c>
       <c r="H174" t="b">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>[0.3077320933570691]</t>
+          <t>[0.3076427167659047]</t>
         </is>
       </c>
       <c r="H175" t="b">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>[0.3704923201876074]</t>
+          <t>[0.37042973988809186]</t>
         </is>
       </c>
       <c r="H176" t="b">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>[0.23197204013720896]</t>
+          <t>[0.2319304405392587]</t>
         </is>
       </c>
       <c r="H177" t="b">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>[0.38245385396264675]</t>
+          <t>[0.38237403814014176]</t>
         </is>
       </c>
       <c r="H178" t="b">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>[0.3959511195052024]</t>
+          <t>[0.3958784094215212]</t>
         </is>
       </c>
       <c r="H179" t="b">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>[0.3827607195685697]</t>
+          <t>[0.3825271629927939]</t>
         </is>
       </c>
       <c r="H180" t="b">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>[0.4781442245417631]</t>
+          <t>[0.4783424936613039]</t>
         </is>
       </c>
       <c r="H181" t="b">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>[0.33125317058464676]</t>
+          <t>[0.3312981484154338]</t>
         </is>
       </c>
       <c r="H182" t="b">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>[0.2357450534528164]</t>
+          <t>[0.23599882527006724]</t>
         </is>
       </c>
       <c r="H184" t="b">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>[0.419902679324402]</t>
+          <t>[0.41993067477177404]</t>
         </is>
       </c>
       <c r="H185" t="b">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>[0.26155688854183845]</t>
+          <t>[0.26158290208806995]</t>
         </is>
       </c>
       <c r="H186" t="b">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>[0.419713053878915, 0.2481716419690218]</t>
+          <t>[0.4197268274748605, 0.2481525845209671]</t>
         </is>
       </c>
       <c r="H187" t="b">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>[0.27002991278667343]</t>
+          <t>[0.2700009956534702]</t>
         </is>
       </c>
       <c r="H188" t="b">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>[0.36569485151425996]</t>
+          <t>[0.36558537837090876]</t>
         </is>
       </c>
       <c r="H189" t="b">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>x1: 0.082|x2: 0.056|x3: 0.042|x4: 0.331|x5: 0.131|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
+          <t>x1: 0.082|x2: 0.056|x3: 0.042|x4: 0.330|x5: 0.131|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>[0.3305437310716642]</t>
+          <t>[0.33046477157833404]</t>
         </is>
       </c>
       <c r="H190" t="b">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>[0.26052731144485874]</t>
+          <t>[0.2606252597995639]</t>
         </is>
       </c>
       <c r="H193" t="b">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>[0.3516069946960569]</t>
+          <t>[0.35156309545918324]</t>
         </is>
       </c>
       <c r="H194" t="b">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>[0.4355844368562298]</t>
+          <t>[0.43551552572767555]</t>
         </is>
       </c>
       <c r="H195" t="b">
@@ -8460,7 +8460,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>[0.292050954174235]</t>
+          <t>[0.2921596860216183]</t>
         </is>
       </c>
       <c r="H196" t="b">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>x1: 0.063|x2: 0.041|x3: 0.000|x4: 0.341|x5: 0.052|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.087|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.063|x2: 0.041|x3: 0.000|x4: 0.340|x5: 0.052|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.087|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>[0.340542635788848]</t>
+          <t>[0.3402095575301854]</t>
         </is>
       </c>
       <c r="H197" t="b">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>[0.37937474178846]</t>
+          <t>[0.3793836074107446]</t>
         </is>
       </c>
       <c r="H198" t="b">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>x1: 0.043|x2: 0.000|x3: 0.000|x4: 0.385|x5: 0.180|x6: 0.000|x7: 0.070|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.043|x2: 0.000|x3: 0.000|x4: 0.384|x5: 0.180|x6: 0.000|x7: 0.070|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>[0.38457564274141603]</t>
+          <t>[0.3844407339341611]</t>
         </is>
       </c>
       <c r="H199" t="b">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>x1: 0.076|x2: 0.000|x3: 0.097|x4: 0.333|x5: 0.091|x6: 0.100|x7: 0.000|x8: 0.048|x9: 0.042|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.064|x17: 0.000</t>
+          <t>x1: 0.076|x2: 0.000|x3: 0.097|x4: 0.333|x5: 0.091|x6: 0.100|x7: 0.000|x8: 0.048|x9: 0.041|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.063|x17: 0.000</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>[0.3327938398076471]</t>
+          <t>[0.3325630447008777]</t>
         </is>
       </c>
       <c r="H200" t="b">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>[0.20344135190535753]</t>
+          <t>[0.20346545001267882]</t>
         </is>
       </c>
       <c r="H201" t="b">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>[0.24885862428471098]</t>
+          <t>[0.2488976439135912]</t>
         </is>
       </c>
       <c r="H202" t="b">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>[0.30669868597215805]</t>
+          <t>[0.3065373895620393]</t>
         </is>
       </c>
       <c r="H203" t="b">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>[0.23158782229511302]</t>
+          <t>[0.23166058125441538]</t>
         </is>
       </c>
       <c r="H204" t="b">
@@ -8829,7 +8829,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>[0.2693140412298609]</t>
+          <t>[0.26941377562674995]</t>
         </is>
       </c>
       <c r="H205" t="b">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>[0.2505347640806051]</t>
+          <t>[0.2505042112686443]</t>
         </is>
       </c>
       <c r="H206" t="b">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>[0.3789847339550937]</t>
+          <t>[0.37909944806793255]</t>
         </is>
       </c>
       <c r="H207" t="b">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>[0.39722901579854414]</t>
+          <t>[0.39727804179080567]</t>
         </is>
       </c>
       <c r="H208" t="b">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>[0.2039716576916679]</t>
+          <t>[0.20410016765770497]</t>
         </is>
       </c>
       <c r="H209" t="b">
@@ -9019,7 +9019,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>x1: 0.069|x2: 0.081|x3: 0.044|x4: 0.127|x5: 0.331|x6: 0.000|x7: 0.000|x8: 0.036|x9: 0.000|x10: 0.087|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.160|x17: 0.000</t>
+          <t>x1: 0.069|x2: 0.081|x3: 0.044|x4: 0.127|x5: 0.330|x6: 0.000|x7: 0.000|x8: 0.036|x9: 0.000|x10: 0.087|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.160|x17: 0.000</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>[0.3305094510271245]</t>
+          <t>[0.33041573450590456]</t>
         </is>
       </c>
       <c r="H210" t="b">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>x1: 0.154|x2: 0.000|x3: 0.059|x4: 0.069|x5: 0.387|x6: 0.000|x7: 0.000|x8: 0.082|x9: 0.000|x10: 0.000|x11: 0.079|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.038|x16: 0.166|x17: 0.000</t>
+          <t>x1: 0.154|x2: 0.000|x3: 0.059|x4: 0.069|x5: 0.387|x6: 0.000|x7: 0.000|x8: 0.083|x9: 0.000|x10: 0.000|x11: 0.079|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.038|x16: 0.166|x17: 0.000</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>[0.38658760013080534]</t>
+          <t>[0.3866611903309589]</t>
         </is>
       </c>
       <c r="H211" t="b">
@@ -9116,7 +9116,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>[0.36527736488198187]</t>
+          <t>[0.3652999038087144]</t>
         </is>
       </c>
       <c r="H212" t="b">
@@ -9157,7 +9157,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>[0.30485030059502993]</t>
+          <t>[0.3049541620906779]</t>
         </is>
       </c>
       <c r="H213" t="b">
@@ -9198,7 +9198,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>[0.3783815342427622]</t>
+          <t>[0.3783682621988644]</t>
         </is>
       </c>
       <c r="H214" t="b">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>[0.20216219880526048, 0.20196133723926266]</t>
+          <t>[0.20218398959928036, 0.2019897439365194]</t>
         </is>
       </c>
       <c r="H215" t="b">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>[0.29109832551033177, 0.24969851326597028]</t>
+          <t>[0.29110909379916233, 0.2496933983477231]</t>
         </is>
       </c>
       <c r="H217" t="b">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.093|x4: 0.107|x5: 0.328|x6: 0.073|x7: 0.060|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.046|x16: 0.120|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.093|x4: 0.107|x5: 0.327|x6: 0.073|x7: 0.060|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.046|x16: 0.120|x17: 0.000</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -9362,7 +9362,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>[0.3277296662358548]</t>
+          <t>[0.3274988097721679]</t>
         </is>
       </c>
       <c r="H218" t="b">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>x1: 0.066|x2: 0.044|x3: 0.091|x4: 0.161|x5: 0.514|x6: 0.057|x7: 0.059|x8: 0.000|x9: 0.000|x10: 0.135|x11: 0.120|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.227|x17: 0.000</t>
+          <t>x1: 0.066|x2: 0.044|x3: 0.091|x4: 0.161|x5: 0.515|x6: 0.057|x7: 0.059|x8: 0.000|x9: 0.000|x10: 0.135|x11: 0.120|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.227|x17: 0.000</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>[0.5144451773789135, 0.22677591227617555]</t>
+          <t>[0.5145065016084854, 0.22682302918959488]</t>
         </is>
       </c>
       <c r="H219" t="b">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.066|x4: 0.055|x5: 0.280|x6: 0.000|x7: 0.000|x8: 0.044|x9: 0.000|x10: 0.000|x11: 0.036|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.063|x16: 0.125|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.066|x4: 0.055|x5: 0.279|x6: 0.000|x7: 0.000|x8: 0.044|x9: 0.000|x10: 0.000|x11: 0.036|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.063|x16: 0.125|x17: 0.000</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>[0.2796824216654434]</t>
+          <t>[0.2794535638342072]</t>
         </is>
       </c>
       <c r="H220" t="b">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.064|x5: 0.324|x6: 0.066|x7: 0.036|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.041|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.108|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.064|x5: 0.324|x6: 0.066|x7: 0.037|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.041|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.108|x17: 0.000</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>[0.3240181143524123]</t>
+          <t>[0.3242081609166151]</t>
         </is>
       </c>
       <c r="H221" t="b">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>x1: 0.148|x2: 0.000|x3: 0.125|x4: 0.133|x5: 0.430|x6: 0.074|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.081|x17: 0.000</t>
+          <t>x1: 0.148|x2: 0.000|x3: 0.125|x4: 0.133|x5: 0.430|x6: 0.075|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.081|x17: 0.000</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>[0.4300731026928372]</t>
+          <t>[0.4298029946728735]</t>
         </is>
       </c>
       <c r="H222" t="b">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>[0.46218982935501857, 0.28556481515914495]</t>
+          <t>[0.46233419787728064, 0.2856624918852929]</t>
         </is>
       </c>
       <c r="H223" t="b">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>[0.4414908382373835]</t>
+          <t>[0.4414130478111433]</t>
         </is>
       </c>
       <c r="H224" t="b">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>[0.29354257018076696]</t>
+          <t>[0.2936181224424067]</t>
         </is>
       </c>
       <c r="H225" t="b">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>[0.28574366304994564]</t>
+          <t>[0.28575675417805463]</t>
         </is>
       </c>
       <c r="H226" t="b">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>x1: 0.056|x2: 0.090|x3: 0.108|x4: 0.044|x5: 0.445|x6: 0.096|x7: 0.135|x8: 0.000|x9: 0.000|x10: 0.050|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.243|x17: 0.000</t>
+          <t>x1: 0.056|x2: 0.090|x3: 0.107|x4: 0.044|x5: 0.445|x6: 0.096|x7: 0.135|x8: 0.000|x9: 0.000|x10: 0.050|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.243|x17: 0.000</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>[0.44468240519028973, 0.24323740015595935]</t>
+          <t>[0.44477554013707066, 0.24332032189606348]</t>
         </is>
       </c>
       <c r="H228" t="b">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>[0.5391784393748547, 0.2720931649916351]</t>
+          <t>[0.5391168380114244, 0.27209051125920153]</t>
         </is>
       </c>
       <c r="H229" t="b">
@@ -9854,7 +9854,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>[0.38033250865085555]</t>
+          <t>[0.3802672086462923]</t>
         </is>
       </c>
       <c r="H230" t="b">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>[0.20212089480181528]</t>
+          <t>[0.20219184268515197]</t>
         </is>
       </c>
       <c r="H231" t="b">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>[0.2812977455454747]</t>
+          <t>[0.281340652907772]</t>
         </is>
       </c>
       <c r="H232" t="b">
@@ -9962,7 +9962,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.039|x4: 0.129|x5: 0.349|x6: 0.085|x7: 0.151|x8: 0.000|x9: 0.000|x10: 0.039|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.138|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.038|x4: 0.129|x5: 0.349|x6: 0.085|x7: 0.151|x8: 0.000|x9: 0.000|x10: 0.039|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.138|x17: 0.000</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>[0.34880623672531413]</t>
+          <t>[0.3487506807569642]</t>
         </is>
       </c>
       <c r="H233" t="b">
@@ -10044,7 +10044,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>x1: 0.026|x2: 0.000|x3: 0.031|x4: 0.032|x5: 0.129|x6: 0.000|x7: 0.020|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.021|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.068|x17: 0.000</t>
+          <t>x1: 0.026|x2: 0.000|x3: 0.032|x4: 0.032|x5: 0.129|x6: 0.000|x7: 0.020|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.021|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.068|x17: 0.000</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>[0.2387630428973809]</t>
+          <t>[0.23865154433794927]</t>
         </is>
       </c>
       <c r="H236" t="b">
@@ -10167,7 +10167,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>x1: 0.079|x2: 0.083|x3: 0.119|x4: 0.091|x5: 0.501|x6: 0.054|x7: 0.104|x8: 0.000|x9: 0.000|x10: 0.115|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.288|x17: 0.000</t>
+          <t>x1: 0.079|x2: 0.083|x3: 0.119|x4: 0.091|x5: 0.502|x6: 0.054|x7: 0.104|x8: 0.000|x9: 0.000|x10: 0.115|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.288|x17: 0.000</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>[0.501419763021992, 0.2879266669781118]</t>
+          <t>[0.5016235662259201, 0.287978261891054]</t>
         </is>
       </c>
       <c r="H238" t="b">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>[0.5696504484105831, 0.20604377984291075]</t>
+          <t>[0.5696456883466057, 0.20607600319939998]</t>
         </is>
       </c>
       <c r="H239" t="b">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>[0.4353008609667396, 0.27570724163187527, 0.20578534182831998]</t>
+          <t>[0.43526202073890796, 0.27567258211191775, 0.20579001243870368]</t>
         </is>
       </c>
       <c r="H240" t="b">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>[0.4083748154835995]</t>
+          <t>[0.4083647373739549]</t>
         </is>
       </c>
       <c r="H241" t="b">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>x1: 0.111|x2: 0.035|x3: 0.099|x4: 0.122|x5: 0.360|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.136|x17: 0.000</t>
+          <t>x1: 0.111|x2: 0.035|x3: 0.099|x4: 0.122|x5: 0.359|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.136|x17: 0.000</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>[0.3595981684771205]</t>
+          <t>[0.3593956008754146]</t>
         </is>
       </c>
       <c r="H242" t="b">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>[0.4418931150282266]</t>
+          <t>[0.4417907981103228]</t>
         </is>
       </c>
       <c r="H243" t="b">
@@ -10428,7 +10428,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>[0.5657619272683326, 0.2314925560614527, 0.21002251419650236]</t>
+          <t>[0.565807123078774, 0.23143254659864873, 0.21004249105237435]</t>
         </is>
       </c>
       <c r="H244" t="b">
@@ -10469,7 +10469,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>[0.2718526646337726]</t>
+          <t>[0.2720130850387306]</t>
         </is>
       </c>
       <c r="H245" t="b">
@@ -10510,7 +10510,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>[0.31239087969307877]</t>
+          <t>[0.31230364389089516]</t>
         </is>
       </c>
       <c r="H246" t="b">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>[0.24705986456520737]</t>
+          <t>[0.24700641209226004]</t>
         </is>
       </c>
       <c r="H247" t="b">
@@ -10592,7 +10592,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>[0.3466770601067055]</t>
+          <t>[0.34673663904573526]</t>
         </is>
       </c>
       <c r="H248" t="b">
@@ -10633,7 +10633,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>[0.25122560896015894]</t>
+          <t>[0.2511989737440168]</t>
         </is>
       </c>
       <c r="H249" t="b">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>x1: 0.091|x2: 0.000|x3: 0.112|x4: 0.079|x5: 0.380|x6: 0.102|x7: 0.000|x8: 0.088|x9: 0.000|x10: 0.116|x11: 0.000|x12: 0.105|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.196|x17: 0.000</t>
+          <t>x1: 0.091|x2: 0.000|x3: 0.112|x4: 0.079|x5: 0.380|x6: 0.102|x7: 0.000|x8: 0.088|x9: 0.000|x10: 0.116|x11: 0.000|x12: 0.106|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.196|x17: 0.000</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>[0.3795821338362498]</t>
+          <t>[0.37965933581792]</t>
         </is>
       </c>
       <c r="H250" t="b">
@@ -10700,7 +10700,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>x1: 0.071|x2: 0.062|x3: 0.077|x4: 0.116|x5: 0.270|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.035|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.054|x15: 0.038|x16: 0.116|x17: 0.000</t>
+          <t>x1: 0.071|x2: 0.063|x3: 0.077|x4: 0.116|x5: 0.271|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.035|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.054|x15: 0.038|x16: 0.116|x17: 0.000</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>[0.27047805291385546]</t>
+          <t>[0.27055758463944446]</t>
         </is>
       </c>
       <c r="H251" t="b">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>[0.40925435187202663, 0.22916916866358325]</t>
+          <t>[0.4091836574234444, 0.22911602039764697]</t>
         </is>
       </c>
       <c r="H252" t="b">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>x1: 0.116|x2: 0.000|x3: 0.111|x4: 0.123|x5: 0.359|x6: 0.000|x7: 0.121|x8: 0.164|x9: 0.142|x10: 0.101|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.164|x17: 0.000</t>
+          <t>x1: 0.116|x2: 0.000|x3: 0.111|x4: 0.123|x5: 0.359|x6: 0.000|x7: 0.121|x8: 0.164|x9: 0.142|x10: 0.100|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.164|x17: 0.000</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -10797,7 +10797,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>[0.3592674280523792]</t>
+          <t>[0.35921762496044535]</t>
         </is>
       </c>
       <c r="H253" t="b">
@@ -10864,7 +10864,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.075|x5: 0.189|x6: 0.000|x7: 0.066|x8: 0.000|x9: 0.000|x10: 0.083|x11: 0.000|x12: 0.090|x13: 0.000|x14: 0.053|x15: 0.000|x16: 0.081|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.074|x5: 0.188|x6: 0.000|x7: 0.066|x8: 0.000|x9: 0.000|x10: 0.083|x11: 0.000|x12: 0.090|x13: 0.000|x14: 0.053|x15: 0.000|x16: 0.080|x17: 0.000</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -10905,7 +10905,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.151|x3: 0.129|x4: 0.000|x5: 0.000|x6: 0.202|x7: 0.045|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.113|x12: 0.072|x13: 0.000|x14: 0.071|x15: 0.064|x16: 0.036|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.151|x3: 0.129|x4: 0.000|x5: 0.000|x6: 0.202|x7: 0.045|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.113|x12: 0.072|x13: 0.000|x14: 0.071|x15: 0.064|x16: 0.037|x17: 0.000</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>[0.20173582354954628]</t>
+          <t>[0.2018102922458263]</t>
         </is>
       </c>
       <c r="H256" t="b">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>x1: 0.097|x2: 0.000|x3: 0.081|x4: 0.000|x5: 0.000|x6: 0.376|x7: 0.060|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.122|x12: 0.000|x13: 0.036|x14: 0.000|x15: 0.082|x16: 0.052|x17: 0.000</t>
+          <t>x1: 0.097|x2: 0.000|x3: 0.081|x4: 0.000|x5: 0.000|x6: 0.377|x7: 0.060|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.122|x12: 0.000|x13: 0.036|x14: 0.000|x15: 0.082|x16: 0.052|x17: 0.000</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -11002,7 +11002,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>[0.37645584544219285]</t>
+          <t>[0.3765290674647532]</t>
         </is>
       </c>
       <c r="H258" t="b">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.027|x4: 0.000|x5: 0.000|x6: 0.212|x7: 0.052|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.065|x12: 0.067|x13: 0.025|x14: 0.048|x15: 0.067|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.027|x4: 0.000|x5: 0.000|x6: 0.212|x7: 0.052|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.064|x12: 0.067|x13: 0.025|x14: 0.048|x15: 0.067|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>[0.2122302173694923]</t>
+          <t>[0.21209346801731993]</t>
         </is>
       </c>
       <c r="H259" t="b">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>[0.40761301898897817]</t>
+          <t>[0.40758655918912595]</t>
         </is>
       </c>
       <c r="H260" t="b">
@@ -11125,7 +11125,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>[0.2006220116829695]</t>
+          <t>[0.20067053981054572]</t>
         </is>
       </c>
       <c r="H261" t="b">
@@ -11151,7 +11151,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.069|x6: 0.199|x7: 0.120|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.044|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.058|x16: 0.039|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.069|x6: 0.199|x7: 0.120|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.045|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.058|x16: 0.038|x17: 0.000</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>[0.35179072143429707]</t>
+          <t>[0.35183219814005007]</t>
         </is>
       </c>
       <c r="H263" t="b">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>x1: 0.034|x2: 0.000|x3: 0.039|x4: 0.079|x5: 0.086|x6: 0.296|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.065|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.056|x16: 0.053|x17: 0.000</t>
+          <t>x1: 0.034|x2: 0.000|x3: 0.039|x4: 0.079|x5: 0.086|x6: 0.295|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.065|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.056|x16: 0.053|x17: 0.000</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -11248,7 +11248,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>[0.2955379099669494]</t>
+          <t>[0.29547751384955695]</t>
         </is>
       </c>
       <c r="H264" t="b">
@@ -11289,7 +11289,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>[0.40708205164696104]</t>
+          <t>[0.407014254659161]</t>
         </is>
       </c>
       <c r="H265" t="b">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>[0.2317294556738119]</t>
+          <t>[0.2316067566513255]</t>
         </is>
       </c>
       <c r="H266" t="b">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>[0.4689796949474815]</t>
+          <t>[0.4691308893244051]</t>
         </is>
       </c>
       <c r="H267" t="b">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>[0.34682803997283235]</t>
+          <t>[0.34684810919549913]</t>
         </is>
       </c>
       <c r="H268" t="b">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>[0.24781776657285662]</t>
+          <t>[0.2477731507227346]</t>
         </is>
       </c>
       <c r="H269" t="b">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>[0.35796677957022144, 0.21761437370583456]</t>
+          <t>[0.35799615904793164, 0.21758174295722213]</t>
         </is>
       </c>
       <c r="H270" t="b">
@@ -11535,7 +11535,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>[0.39321765155551247]</t>
+          <t>[0.39324458981286675]</t>
         </is>
       </c>
       <c r="H271" t="b">
@@ -11617,7 +11617,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>[0.24199912401837317]</t>
+          <t>[0.2420598307640854]</t>
         </is>
       </c>
       <c r="H273" t="b">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>[0.32119126266415254]</t>
+          <t>[0.3213180101747064]</t>
         </is>
       </c>
       <c r="H275" t="b">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>[0.24481288661396858]</t>
+          <t>[0.2448241840861554]</t>
         </is>
       </c>
       <c r="H276" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>[0.21314485901160762]</t>
+          <t>[0.21327861036371187]</t>
         </is>
       </c>
       <c r="H277" t="b">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>[0.34750895023941164]</t>
+          <t>[0.34763970203327044]</t>
         </is>
       </c>
       <c r="H279" t="b">
@@ -11904,7 +11904,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>[0.37382586110773997]</t>
+          <t>[0.37384142289280514]</t>
         </is>
       </c>
       <c r="H280" t="b">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>[0.21687766767063635]</t>
+          <t>[0.21697380179089862]</t>
         </is>
       </c>
       <c r="H281" t="b">
@@ -11986,7 +11986,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>[0.5031989219147326]</t>
+          <t>[0.5030948890827045]</t>
         </is>
       </c>
       <c r="H282" t="b">
@@ -12012,7 +12012,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.041|x4: 0.000|x5: 0.000|x6: 0.271|x7: 0.083|x8: 0.000|x9: 0.041|x10: 0.000|x11: 0.034|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.054|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.041|x4: 0.000|x5: 0.000|x6: 0.271|x7: 0.083|x8: 0.000|x9: 0.041|x10: 0.000|x11: 0.034|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.053|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -12027,7 +12027,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>[0.27089706449952905]</t>
+          <t>[0.27082049523043245]</t>
         </is>
       </c>
       <c r="H283" t="b">
@@ -12068,7 +12068,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>[0.3568415754346339]</t>
+          <t>[0.3567989445663864]</t>
         </is>
       </c>
       <c r="H284" t="b">
@@ -12094,7 +12094,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.093|x3: 0.091|x4: 0.052|x5: 0.098|x6: 0.400|x7: 0.000|x8: 0.045|x9: 0.106|x10: 0.072|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.092|x16: 0.089|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.093|x3: 0.091|x4: 0.052|x5: 0.097|x6: 0.400|x7: 0.000|x8: 0.045|x9: 0.106|x10: 0.072|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.092|x16: 0.089|x17: 0.000</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>[0.4001285251078198]</t>
+          <t>[0.4000359211778093]</t>
         </is>
       </c>
       <c r="H285" t="b">
@@ -12150,7 +12150,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>[0.41219987581521017]</t>
+          <t>[0.41209521133676974]</t>
         </is>
       </c>
       <c r="H286" t="b">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>[0.4138880719581621]</t>
+          <t>[0.4139862458162845]</t>
         </is>
       </c>
       <c r="H287" t="b">
@@ -12217,7 +12217,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.035|x6: 0.173|x7: 0.037|x8: 0.000|x9: 0.000|x10: 0.056|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.100|x15: 0.068|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.035|x6: 0.173|x7: 0.037|x8: 0.000|x9: 0.000|x10: 0.057|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.100|x15: 0.068|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>x1: 0.145|x2: 0.050|x3: 0.142|x4: 0.058|x5: 0.000|x6: 0.462|x7: 0.082|x8: 0.058|x9: 0.000|x10: 0.000|x11: 0.061|x12: 0.000|x13: 0.045|x14: 0.000|x15: 0.075|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.145|x2: 0.050|x3: 0.142|x4: 0.057|x5: 0.000|x6: 0.462|x7: 0.082|x8: 0.058|x9: 0.000|x10: 0.000|x11: 0.061|x12: 0.000|x13: 0.045|x14: 0.000|x15: 0.075|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>[0.4621010219827736]</t>
+          <t>[0.46202060609279744]</t>
         </is>
       </c>
       <c r="H289" t="b">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.247|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.058|x12: 0.079|x13: 0.000|x14: 0.092|x15: 0.106|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.248|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.058|x12: 0.079|x13: 0.000|x14: 0.092|x15: 0.106|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>[0.24747703148389671]</t>
+          <t>[0.2475579076948233]</t>
         </is>
       </c>
       <c r="H290" t="b">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.054|x4: 0.000|x5: 0.079|x6: 0.337|x7: 0.084|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.103|x12: 0.135|x13: 0.126|x14: 0.204|x15: 0.300|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.054|x4: 0.000|x5: 0.079|x6: 0.337|x7: 0.083|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.103|x12: 0.135|x13: 0.126|x14: 0.204|x15: 0.300|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>[0.3366314091288044, 0.30002731428916973, 0.20400507784847935]</t>
+          <t>[0.3366505054055067, 0.2999952059696519, 0.20399956242046607]</t>
         </is>
       </c>
       <c r="H292" t="b">
@@ -12437,7 +12437,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>[0.2061619940575599]</t>
+          <t>[0.20610653871541262]</t>
         </is>
       </c>
       <c r="H293" t="b">
@@ -12478,7 +12478,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>[0.2756187048843053]</t>
+          <t>[0.275663704562632]</t>
         </is>
       </c>
       <c r="H294" t="b">
@@ -12519,7 +12519,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>[0.21363632186165507]</t>
+          <t>[0.2137093300172918]</t>
         </is>
       </c>
       <c r="H295" t="b">
@@ -12545,7 +12545,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.064|x7: 0.353|x8: 0.000|x9: 0.113|x10: 0.000|x11: 0.069|x12: 0.046|x13: 0.037|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.064|x7: 0.352|x8: 0.000|x9: 0.113|x10: 0.000|x11: 0.069|x12: 0.046|x13: 0.037|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -12560,7 +12560,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>[0.35252733137544684]</t>
+          <t>[0.3524944839635261]</t>
         </is>
       </c>
       <c r="H296" t="b">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>[0.3824092950269952]</t>
+          <t>[0.3823287738933971]</t>
         </is>
       </c>
       <c r="H297" t="b">
@@ -12627,7 +12627,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.138|x4: 0.088|x5: 0.104|x6: 0.175|x7: 0.272|x8: 0.000|x9: 0.127|x10: 0.000|x11: 0.150|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.137|x4: 0.088|x5: 0.104|x6: 0.175|x7: 0.272|x8: 0.000|x9: 0.127|x10: 0.000|x11: 0.150|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -12642,7 +12642,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>[0.27177725957692916]</t>
+          <t>[0.2716832806411933]</t>
         </is>
       </c>
       <c r="H298" t="b">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>[0.3896740023623855]</t>
+          <t>[0.3897896845698906]</t>
         </is>
       </c>
       <c r="H299" t="b">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>[0.4672849359341653]</t>
+          <t>[0.46715566346925913]</t>
         </is>
       </c>
       <c r="H300" t="b">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.138|x4: 0.000|x5: 0.000|x6: 0.070|x7: 0.467|x8: 0.052|x9: 0.192|x10: 0.000|x11: 0.089|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.138|x4: 0.000|x5: 0.000|x6: 0.071|x7: 0.468|x8: 0.052|x9: 0.192|x10: 0.000|x11: 0.089|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -12765,7 +12765,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>[0.46728016400178246]</t>
+          <t>[0.46761192029504606]</t>
         </is>
       </c>
       <c r="H301" t="b">
@@ -12806,7 +12806,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>[0.4139462400447508]</t>
+          <t>[0.41406810529856974]</t>
         </is>
       </c>
       <c r="H302" t="b">
@@ -12832,7 +12832,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.165|x7: 0.391|x8: 0.000|x9: 0.106|x10: 0.000|x11: 0.088|x12: 0.000|x13: 0.039|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.165|x7: 0.391|x8: 0.000|x9: 0.107|x10: 0.000|x11: 0.088|x12: 0.000|x13: 0.039|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -12847,7 +12847,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>[0.3907131854852347]</t>
+          <t>[0.3909277092381674]</t>
         </is>
       </c>
       <c r="H303" t="b">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>[0.5284161597079707]</t>
+          <t>[0.5284297436059044]</t>
         </is>
       </c>
       <c r="H304" t="b">
@@ -12929,7 +12929,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>[0.29455519424465326]</t>
+          <t>[0.2946587589380481]</t>
         </is>
       </c>
       <c r="H305" t="b">
@@ -12970,7 +12970,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>[0.36721529022386856]</t>
+          <t>[0.36726090637454567]</t>
         </is>
       </c>
       <c r="H306" t="b">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>[0.4106367921455823]</t>
+          <t>[0.41059461440838757]</t>
         </is>
       </c>
       <c r="H307" t="b">
@@ -13052,7 +13052,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>[0.30855288525820335]</t>
+          <t>[0.3086135171466885]</t>
         </is>
       </c>
       <c r="H308" t="b">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.031|x7: 0.253|x8: 0.000|x9: 0.093|x10: 0.039|x11: 0.077|x12: 0.000|x13: 0.029|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.032|x7: 0.253|x8: 0.000|x9: 0.093|x10: 0.040|x11: 0.077|x12: 0.000|x13: 0.030|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -13093,7 +13093,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>[0.2531078620963455]</t>
+          <t>[0.253209424220619]</t>
         </is>
       </c>
       <c r="H309" t="b">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.131|x4: 0.000|x5: 0.098|x6: 0.000|x7: 0.284|x8: 0.057|x9: 0.068|x10: 0.000|x11: 0.083|x12: 0.057|x13: 0.000|x14: 0.084|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.131|x4: 0.000|x5: 0.098|x6: 0.000|x7: 0.284|x8: 0.057|x9: 0.069|x10: 0.000|x11: 0.083|x12: 0.057|x13: 0.000|x14: 0.084|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -13134,7 +13134,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>[0.2836233828345925]</t>
+          <t>[0.28360111449719005]</t>
         </is>
       </c>
       <c r="H310" t="b">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>[0.41977307216706655]</t>
+          <t>[0.41982836874274243]</t>
         </is>
       </c>
       <c r="H311" t="b">
@@ -13216,7 +13216,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>[0.624855867837492]</t>
+          <t>[0.6249728820045434]</t>
         </is>
       </c>
       <c r="H312" t="b">
@@ -13257,7 +13257,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>[0.37258458782836984]</t>
+          <t>[0.3726605056086777]</t>
         </is>
       </c>
       <c r="H313" t="b">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.087|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.533|x8: 0.109|x9: 0.113|x10: 0.000|x11: 0.000|x12: 0.128|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.087|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.533|x8: 0.109|x9: 0.113|x10: 0.000|x11: 0.000|x12: 0.129|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>[0.5332196060241972]</t>
+          <t>[0.5330980696058094]</t>
         </is>
       </c>
       <c r="H314" t="b">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>[0.389682984561201]</t>
+          <t>[0.3899465748992584]</t>
         </is>
       </c>
       <c r="H315" t="b">
@@ -13365,7 +13365,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.152|x4: 0.000|x5: 0.000|x6: 0.110|x7: 0.551|x8: 0.052|x9: 0.149|x10: 0.000|x11: 0.166|x12: 0.000|x13: 0.080|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.152|x4: 0.000|x5: 0.000|x6: 0.110|x7: 0.550|x8: 0.052|x9: 0.149|x10: 0.000|x11: 0.166|x12: 0.000|x13: 0.080|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -13380,7 +13380,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>[0.5506282117390132]</t>
+          <t>[0.5504001806511795]</t>
         </is>
       </c>
       <c r="H316" t="b">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.187|x4: 0.000|x5: 0.000|x6: 0.126|x7: 0.449|x8: 0.000|x9: 0.113|x10: 0.054|x11: 0.096|x12: 0.080|x13: 0.075|x14: 0.050|x15: 0.058|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.187|x4: 0.000|x5: 0.000|x6: 0.126|x7: 0.449|x8: 0.000|x9: 0.113|x10: 0.054|x11: 0.096|x12: 0.080|x13: 0.074|x14: 0.050|x15: 0.058|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -13421,7 +13421,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>[0.4494382994813087]</t>
+          <t>[0.4491933959188856]</t>
         </is>
       </c>
       <c r="H317" t="b">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.040|x6: 0.081|x7: 0.236|x8: 0.000|x9: 0.097|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.040|x6: 0.080|x7: 0.236|x8: 0.000|x9: 0.097|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -13462,7 +13462,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>[0.23592314277366971]</t>
+          <t>[0.23576317150863849]</t>
         </is>
       </c>
       <c r="H318" t="b">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>[0.3169472391136954]</t>
+          <t>[0.3169950618754374]</t>
         </is>
       </c>
       <c r="H319" t="b">
@@ -13529,7 +13529,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.053|x4: 0.000|x5: 0.000|x6: 0.060|x7: 0.269|x8: 0.000|x9: 0.088|x10: 0.000|x11: 0.026|x12: 0.000|x13: 0.028|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.053|x4: 0.000|x5: 0.000|x6: 0.060|x7: 0.270|x8: 0.000|x9: 0.088|x10: 0.000|x11: 0.026|x12: 0.000|x13: 0.028|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>[0.269466433545909]</t>
+          <t>[0.26953796506592037]</t>
         </is>
       </c>
       <c r="H320" t="b">
@@ -13585,7 +13585,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>[0.21424968006960582]</t>
+          <t>[0.21421882443792137]</t>
         </is>
       </c>
       <c r="H321" t="b">
@@ -13667,7 +13667,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>[0.3838066113729081]</t>
+          <t>[0.38377647814607596]</t>
         </is>
       </c>
       <c r="H323" t="b">
@@ -13708,7 +13708,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>[0.45132854418010593, 0.21957688817908305, 0.2095407011314607]</t>
+          <t>[0.45143793115351394, 0.21962387052776902, 0.20962008665450027]</t>
         </is>
       </c>
       <c r="H324" t="b">
@@ -13749,7 +13749,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>[0.3310079620014296]</t>
+          <t>[0.3309904708932792]</t>
         </is>
       </c>
       <c r="H325" t="b">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>[0.3510535861251165]</t>
+          <t>[0.3511244487759174]</t>
         </is>
       </c>
       <c r="H327" t="b">
@@ -13913,7 +13913,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>[0.2936252970262703, 0.27982667365951436]</t>
+          <t>[0.2936849319197483, 0.2797716730967391]</t>
         </is>
       </c>
       <c r="H329" t="b">
@@ -13954,7 +13954,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>[0.2715509902303352, 0.21375812712673853]</t>
+          <t>[0.2716697371010852, 0.21383985508649422]</t>
         </is>
       </c>
       <c r="H330" t="b">
@@ -13980,7 +13980,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>x1: 0.127|x2: 0.000|x3: 0.000|x4: 0.067|x5: 0.052|x6: 0.000|x7: 0.000|x8: 0.208|x9: 0.046|x10: 0.000|x11: 0.067|x12: 0.059|x13: 0.040|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.127|x2: 0.000|x3: 0.000|x4: 0.067|x5: 0.052|x6: 0.000|x7: 0.000|x8: 0.208|x9: 0.046|x10: 0.000|x11: 0.067|x12: 0.059|x13: 0.039|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -13995,7 +13995,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>[0.20780143372304494]</t>
+          <t>[0.20774633308260748]</t>
         </is>
       </c>
       <c r="H331" t="b">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>x1: 0.074|x2: 0.000|x3: 0.041|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.056|x8: 0.266|x9: 0.180|x10: 0.128|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.074|x2: 0.000|x3: 0.041|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.056|x8: 0.265|x9: 0.180|x10: 0.128|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>[0.2655177333791839]</t>
+          <t>[0.2654689408566243]</t>
         </is>
       </c>
       <c r="H332" t="b">
@@ -14077,7 +14077,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>[0.37587410437867147]</t>
+          <t>[0.3759770938577782]</t>
         </is>
       </c>
       <c r="H333" t="b">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>[0.27626642296814946]</t>
+          <t>[0.2762246947181376]</t>
         </is>
       </c>
       <c r="H334" t="b">
@@ -14159,7 +14159,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>[0.2008479194897703]</t>
+          <t>[0.20094239887422408]</t>
         </is>
       </c>
       <c r="H335" t="b">
@@ -14282,7 +14282,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>[0.29662432811613376]</t>
+          <t>[0.2966185006214489]</t>
         </is>
       </c>
       <c r="H338" t="b">
@@ -14349,7 +14349,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.100|x8: 0.278|x9: 0.229|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.040|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.100|x8: 0.279|x9: 0.229|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.040|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -14364,7 +14364,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>[0.2784803682955352, 0.22875017826856117]</t>
+          <t>[0.27851484725870473, 0.22882037903504612]</t>
         </is>
       </c>
       <c r="H340" t="b">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>x1: 0.175|x2: 0.000|x3: 0.077|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.327|x9: 0.169|x10: 0.061|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.175|x2: 0.000|x3: 0.076|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.327|x9: 0.169|x10: 0.061|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -14405,7 +14405,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>[0.3273795681672435]</t>
+          <t>[0.3272876111845894]</t>
         </is>
       </c>
       <c r="H341" t="b">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>[0.2522232702935327]</t>
+          <t>[0.2521460368325655]</t>
         </is>
       </c>
       <c r="H342" t="b">
@@ -14513,7 +14513,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>x1: 0.047|x2: 0.037|x3: 0.000|x4: 0.060|x5: 0.000|x6: 0.000|x7: 0.054|x8: 0.276|x9: 0.209|x10: 0.119|x11: 0.000|x12: 0.103|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.085|x17: 0.000</t>
+          <t>x1: 0.048|x2: 0.037|x3: 0.000|x4: 0.060|x5: 0.000|x6: 0.000|x7: 0.054|x8: 0.276|x9: 0.209|x10: 0.119|x11: 0.000|x12: 0.103|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.085|x17: 0.000</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>[0.27588526643213973, 0.20855843198344096]</t>
+          <t>[0.2759460247661736, 0.20857506910139645]</t>
         </is>
       </c>
       <c r="H344" t="b">
@@ -14610,7 +14610,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>[0.2511069195599183]</t>
+          <t>[0.2512795033705811]</t>
         </is>
       </c>
       <c r="H346" t="b">
@@ -14636,7 +14636,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>x1: 0.045|x2: 0.000|x3: 0.036|x4: 0.082|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.326|x9: 0.163|x10: 0.180|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.042|x17: 0.000</t>
+          <t>x1: 0.046|x2: 0.000|x3: 0.036|x4: 0.082|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.326|x9: 0.163|x10: 0.180|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.042|x17: 0.000</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -14651,7 +14651,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>[0.32581961223371575]</t>
+          <t>[0.3257152531196521]</t>
         </is>
       </c>
       <c r="H347" t="b">
@@ -14692,7 +14692,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>[0.2482318221741587, 0.22172950353850923]</t>
+          <t>[0.2482657017007184, 0.22172916176735902]</t>
         </is>
       </c>
       <c r="H348" t="b">
@@ -14733,7 +14733,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>[0.23136236395031787]</t>
+          <t>[0.2312862483503381]</t>
         </is>
       </c>
       <c r="H349" t="b">
@@ -14774,7 +14774,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>[0.24641763982417186]</t>
+          <t>[0.24641865274259014]</t>
         </is>
       </c>
       <c r="H350" t="b">
@@ -14815,7 +14815,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>[0.2844689106452525]</t>
+          <t>[0.2844562970582738]</t>
         </is>
       </c>
       <c r="H351" t="b">
@@ -14856,7 +14856,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>[0.24509841910015706]</t>
+          <t>[0.245163904188443]</t>
         </is>
       </c>
       <c r="H352" t="b">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>[0.3992242190505139, 0.2683738624945391, 0.20743939762510755]</t>
+          <t>[0.3993744714975376, 0.2684245802589594, 0.20749346912398686]</t>
         </is>
       </c>
       <c r="H354" t="b">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>[0.25209165730741706]</t>
+          <t>[0.25212404423293266]</t>
         </is>
       </c>
       <c r="H355" t="b">
@@ -15020,7 +15020,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>[0.2702786913722313]</t>
+          <t>[0.2703701947267192]</t>
         </is>
       </c>
       <c r="H356" t="b">
@@ -15061,7 +15061,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>[0.22611346815882238]</t>
+          <t>[0.22612768983012513]</t>
         </is>
       </c>
       <c r="H357" t="b">
@@ -15102,7 +15102,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>[0.3479876819632402]</t>
+          <t>[0.34801146965375906]</t>
         </is>
       </c>
       <c r="H358" t="b">
@@ -15184,7 +15184,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>[0.2406807442517825]</t>
+          <t>[0.24065205702939274]</t>
         </is>
       </c>
       <c r="H360" t="b">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>x1: 0.137|x2: 0.051|x3: 0.075|x4: 0.176|x5: 0.101|x6: 0.000|x7: 0.000|x8: 0.366|x9: 0.104|x10: 0.099|x11: 0.042|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.137|x2: 0.051|x3: 0.075|x4: 0.176|x5: 0.101|x6: 0.000|x7: 0.000|x8: 0.366|x9: 0.105|x10: 0.099|x11: 0.042|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -15225,7 +15225,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>[0.36628038487053816]</t>
+          <t>[0.36639205855107443]</t>
         </is>
       </c>
       <c r="H361" t="b">
@@ -15251,7 +15251,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.135|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.122|x8: 0.308|x9: 0.188|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.050|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.135|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.122|x8: 0.308|x9: 0.188|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.049|x17: 0.000</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -15266,7 +15266,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>[0.30827657498934063]</t>
+          <t>[0.3081539989799475]</t>
         </is>
       </c>
       <c r="H362" t="b">
@@ -15307,7 +15307,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>[0.38019908328138563, 0.2084719975893296]</t>
+          <t>[0.3801372601068985, 0.2084105296089242]</t>
         </is>
       </c>
       <c r="H363" t="b">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>[0.3374459899035821]</t>
+          <t>[0.33739703702784685]</t>
         </is>
       </c>
       <c r="H364" t="b">
@@ -15389,7 +15389,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>[0.2857368229020186]</t>
+          <t>[0.2856645807034636]</t>
         </is>
       </c>
       <c r="H365" t="b">
@@ -15415,7 +15415,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>x1: 0.097|x2: 0.069|x3: 0.110|x4: 0.047|x5: 0.074|x6: 0.000|x7: 0.000|x8: 0.315|x9: 0.114|x10: 0.152|x11: 0.000|x12: 0.045|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.073|x17: 0.000</t>
+          <t>x1: 0.097|x2: 0.069|x3: 0.110|x4: 0.047|x5: 0.074|x6: 0.000|x7: 0.000|x8: 0.314|x9: 0.114|x10: 0.152|x11: 0.000|x12: 0.045|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.073|x17: 0.000</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -15430,7 +15430,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>[0.31450211366077147]</t>
+          <t>[0.3144819071106152]</t>
         </is>
       </c>
       <c r="H366" t="b">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>[0.2221815150945313]</t>
+          <t>[0.22245294179251693]</t>
         </is>
       </c>
       <c r="H367" t="b">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>[0.29198397850095203]</t>
+          <t>[0.2920613159754603]</t>
         </is>
       </c>
       <c r="H368" t="b">
@@ -15594,7 +15594,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>[0.32971399808287294, 0.23943478657061917]</t>
+          <t>[0.3295845969979615, 0.23932587194943472]</t>
         </is>
       </c>
       <c r="H370" t="b">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>[0.2530731598997582]</t>
+          <t>[0.253212073285414]</t>
         </is>
       </c>
       <c r="H372" t="b">
@@ -15758,7 +15758,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>[0.2918233838416257]</t>
+          <t>[0.2918030910289675]</t>
         </is>
       </c>
       <c r="H374" t="b">
@@ -15799,7 +15799,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>[0.22298704267786598]</t>
+          <t>[0.22298517696092035]</t>
         </is>
       </c>
       <c r="H375" t="b">
@@ -15866,7 +15866,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.137|x3: 0.000|x4: 0.060|x5: 0.000|x6: 0.000|x7: 0.090|x8: 0.070|x9: 0.285|x10: 0.000|x11: 0.105|x12: 0.068|x13: 0.067|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.138|x3: 0.000|x4: 0.060|x5: 0.000|x6: 0.000|x7: 0.090|x8: 0.069|x9: 0.285|x10: 0.000|x11: 0.105|x12: 0.068|x13: 0.067|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -15881,7 +15881,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>[0.28541481861042994]</t>
+          <t>[0.2854041765176677]</t>
         </is>
       </c>
       <c r="H377" t="b">
@@ -16004,7 +16004,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>[0.45664641635384845]</t>
+          <t>[0.4565882764012676]</t>
         </is>
       </c>
       <c r="H380" t="b">
@@ -16030,7 +16030,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.055|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.094|x8: 0.122|x9: 0.345|x10: 0.053|x11: 0.000|x12: 0.055|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.056|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.094|x8: 0.122|x9: 0.345|x10: 0.053|x11: 0.000|x12: 0.055|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -16045,7 +16045,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>[0.34486094131631706]</t>
+          <t>[0.3448178711833625]</t>
         </is>
       </c>
       <c r="H381" t="b">
@@ -16086,7 +16086,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>[0.3831859378405184]</t>
+          <t>[0.3833420834644494]</t>
         </is>
       </c>
       <c r="H382" t="b">
@@ -16127,7 +16127,7 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>[0.2789763811016404]</t>
+          <t>[0.27881079437044815]</t>
         </is>
       </c>
       <c r="H383" t="b">
@@ -16153,7 +16153,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.184|x8: 0.147|x9: 0.466|x10: 0.055|x11: 0.097|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.184|x8: 0.147|x9: 0.466|x10: 0.056|x11: 0.097|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>[0.4663756317518135]</t>
+          <t>[0.46637354835845357]</t>
         </is>
       </c>
       <c r="H384" t="b">
@@ -16209,7 +16209,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>[0.3518117375064896]</t>
+          <t>[0.35170645722857535]</t>
         </is>
       </c>
       <c r="H385" t="b">
@@ -16250,7 +16250,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>[0.26648333305719907]</t>
+          <t>[0.266480883821907]</t>
         </is>
       </c>
       <c r="H386" t="b">
@@ -16276,7 +16276,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>x1: 0.069|x2: 0.000|x3: 0.000|x4: 0.040|x5: 0.000|x6: 0.000|x7: 0.065|x8: 0.115|x9: 0.303|x10: 0.089|x11: 0.106|x12: 0.052|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.069|x2: 0.000|x3: 0.000|x4: 0.040|x5: 0.000|x6: 0.000|x7: 0.065|x8: 0.115|x9: 0.302|x10: 0.089|x11: 0.106|x12: 0.052|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>[0.30255149742853477]</t>
+          <t>[0.30249395993196215]</t>
         </is>
       </c>
       <c r="H387" t="b">
@@ -16317,7 +16317,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.063|x4: 0.039|x5: 0.000|x6: 0.000|x7: 0.043|x8: 0.128|x9: 0.329|x10: 0.081|x11: 0.117|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.046|x16: 0.040|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.063|x4: 0.039|x5: 0.000|x6: 0.000|x7: 0.044|x8: 0.128|x9: 0.329|x10: 0.080|x11: 0.117|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.046|x16: 0.040|x17: 0.000</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>[0.3287779467654505]</t>
+          <t>[0.32871914834306415]</t>
         </is>
       </c>
       <c r="H388" t="b">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>[0.22876062185128707]</t>
+          <t>[0.22874663541502133]</t>
         </is>
       </c>
       <c r="H389" t="b">
@@ -16414,7 +16414,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>[0.4981300365424677, 0.21892967223618032]</t>
+          <t>[0.4981396621029482, 0.2188754882690433]</t>
         </is>
       </c>
       <c r="H390" t="b">
@@ -16455,7 +16455,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>[0.39842031785130255]</t>
+          <t>[0.3983894389807709]</t>
         </is>
       </c>
       <c r="H391" t="b">
@@ -16481,7 +16481,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.096|x8: 0.054|x9: 0.152|x10: 0.035|x11: 0.000|x12: 0.085|x13: 0.040|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.096|x8: 0.054|x9: 0.153|x10: 0.035|x11: 0.000|x12: 0.085|x13: 0.040|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.114|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.108|x9: 0.378|x10: 0.087|x11: 0.000|x12: 0.000|x13: 0.050|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.115|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.108|x9: 0.378|x10: 0.086|x11: 0.000|x12: 0.000|x13: 0.050|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -16537,7 +16537,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>[0.3778903624871481]</t>
+          <t>[0.3780224096369027]</t>
         </is>
       </c>
       <c r="H393" t="b">
@@ -16578,7 +16578,7 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>[0.4637446598440405]</t>
+          <t>[0.4637229854722484]</t>
         </is>
       </c>
       <c r="H394" t="b">
@@ -16619,7 +16619,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>[0.2781132531344024]</t>
+          <t>[0.27813098671601605]</t>
         </is>
       </c>
       <c r="H395" t="b">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>[0.41939662461751914, 0.22599966548836042]</t>
+          <t>[0.4193439072144233, 0.2259636463773176]</t>
         </is>
       </c>
       <c r="H396" t="b">
@@ -16701,7 +16701,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>[0.4223929581199509, 0.21613549434955004]</t>
+          <t>[0.4224260025495234, 0.21613331384836093]</t>
         </is>
       </c>
       <c r="H397" t="b">
@@ -16727,7 +16727,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.062|x3: 0.042|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.136|x8: 0.162|x9: 0.399|x10: 0.105|x11: 0.081|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.062|x3: 0.042|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.136|x8: 0.162|x9: 0.400|x10: 0.105|x11: 0.081|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -16742,7 +16742,7 @@
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>[0.39940918830967365]</t>
+          <t>[0.399543674181466]</t>
         </is>
       </c>
       <c r="H398" t="b">
@@ -16783,7 +16783,7 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>[0.36521695145459737]</t>
+          <t>[0.3653618676307903]</t>
         </is>
       </c>
       <c r="H399" t="b">
@@ -16809,7 +16809,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.025|x3: 0.025|x4: 0.017|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.078|x9: 0.156|x10: 0.027|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.040|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.025|x3: 0.025|x4: 0.017|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.078|x9: 0.157|x10: 0.027|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.040|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -16865,7 +16865,7 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>[0.39296745222687757]</t>
+          <t>[0.39313316578896057]</t>
         </is>
       </c>
       <c r="H401" t="b">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>[0.33611022691087045]</t>
+          <t>[0.3360108647139162]</t>
         </is>
       </c>
       <c r="H402" t="b">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>[0.3798781153297027]</t>
+          <t>[0.3800310764971082]</t>
         </is>
       </c>
       <c r="H403" t="b">
@@ -16973,7 +16973,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.028|x3: 0.084|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.036|x8: 0.155|x9: 0.296|x10: 0.077|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.028|x3: 0.084|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.036|x8: 0.155|x9: 0.296|x10: 0.078|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -16988,7 +16988,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>[0.29573699505635076]</t>
+          <t>[0.2958203063016915]</t>
         </is>
       </c>
       <c r="H404" t="b">
@@ -17029,7 +17029,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>[0.4716643025182972]</t>
+          <t>[0.47169141071782944]</t>
         </is>
       </c>
       <c r="H405" t="b">
@@ -17055,7 +17055,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.108|x8: 0.223|x9: 0.302|x10: 0.093|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.109|x8: 0.223|x9: 0.302|x10: 0.093|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -17070,7 +17070,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>[0.30192696803883545, 0.2231535072838004]</t>
+          <t>[0.3019063125695569, 0.22316924457119464]</t>
         </is>
       </c>
       <c r="H406" t="b">
@@ -17111,7 +17111,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>[0.4319640656616198, 0.25466240622068737]</t>
+          <t>[0.4319122107838031, 0.25468197825929423]</t>
         </is>
       </c>
       <c r="H407" t="b">
@@ -17152,7 +17152,7 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>[0.29266895968450557]</t>
+          <t>[0.29273085440281377]</t>
         </is>
       </c>
       <c r="H408" t="b">
@@ -17193,7 +17193,7 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>[0.38260887928376186]</t>
+          <t>[0.3826660184414668]</t>
         </is>
       </c>
       <c r="H409" t="b">
@@ -17219,7 +17219,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.098|x8: 0.054|x9: 0.358|x10: 0.068|x11: 0.000|x12: 0.055|x13: 0.000|x14: 0.086|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.098|x8: 0.054|x9: 0.357|x10: 0.068|x11: 0.000|x12: 0.055|x13: 0.000|x14: 0.086|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -17234,7 +17234,7 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>[0.3575235108178149]</t>
+          <t>[0.3573428483302846]</t>
         </is>
       </c>
       <c r="H410" t="b">
@@ -17275,7 +17275,7 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>[0.30301395839888584, 0.2406934832115961]</t>
+          <t>[0.30301578781591754, 0.24070254934988322]</t>
         </is>
       </c>
       <c r="H411" t="b">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>[0.26634709420629676]</t>
+          <t>[0.2663599380729806]</t>
         </is>
       </c>
       <c r="H412" t="b">
@@ -17357,7 +17357,7 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>[0.27429124918247355]</t>
+          <t>[0.2741886219725003]</t>
         </is>
       </c>
       <c r="H413" t="b">
@@ -17398,7 +17398,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>[0.3371541247807722]</t>
+          <t>[0.3370989775412623]</t>
         </is>
       </c>
       <c r="H414" t="b">
@@ -17439,7 +17439,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>[0.2784152513561683]</t>
+          <t>[0.2784089037036764]</t>
         </is>
       </c>
       <c r="H415" t="b">
@@ -17480,7 +17480,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>[0.28800752430681664]</t>
+          <t>[0.288156276334928]</t>
         </is>
       </c>
       <c r="H416" t="b">
@@ -17521,7 +17521,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>[0.26410122424650023]</t>
+          <t>[0.2641918949763851]</t>
         </is>
       </c>
       <c r="H417" t="b">
@@ -17562,7 +17562,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>[0.3240545340923515]</t>
+          <t>[0.32409372626026745]</t>
         </is>
       </c>
       <c r="H418" t="b">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>[0.3951595730858938, 0.20540047344374912]</t>
+          <t>[0.395109143166545, 0.20535269389916908]</t>
         </is>
       </c>
       <c r="H419" t="b">
@@ -17644,7 +17644,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>[0.331016956247022]</t>
+          <t>[0.33094072833603416]</t>
         </is>
       </c>
       <c r="H420" t="b">
@@ -17808,7 +17808,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>[0.3353739070666688]</t>
+          <t>[0.3353533433552269]</t>
         </is>
       </c>
       <c r="H424" t="b">
@@ -17834,7 +17834,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>x1: 0.083|x2: 0.099|x3: 0.059|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.180|x9: 0.073|x10: 0.217|x11: 0.000|x12: 0.000|x13: 0.052|x14: 0.000|x15: 0.000|x16: 0.087|x17: 0.000</t>
+          <t>x1: 0.083|x2: 0.099|x3: 0.059|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.179|x9: 0.073|x10: 0.217|x11: 0.000|x12: 0.000|x13: 0.052|x14: 0.000|x15: 0.000|x16: 0.087|x17: 0.000</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -17849,7 +17849,7 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>[0.21706443975813738]</t>
+          <t>[0.21692768290581294]</t>
         </is>
       </c>
       <c r="H425" t="b">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>[0.26020031869899257]</t>
+          <t>[0.2600908571719531]</t>
         </is>
       </c>
       <c r="H426" t="b">
@@ -17931,7 +17931,7 @@
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>[0.33504588525155854, 0.20311208205010134]</t>
+          <t>[0.33514504505207093, 0.203169793462789]</t>
         </is>
       </c>
       <c r="H427" t="b">
@@ -17972,7 +17972,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>[0.44877051501321974]</t>
+          <t>[0.4487723977073766]</t>
         </is>
       </c>
       <c r="H428" t="b">
@@ -18013,7 +18013,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>[0.3632312565389608]</t>
+          <t>[0.3633041001861952]</t>
         </is>
       </c>
       <c r="H429" t="b">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>[0.3950853015853299]</t>
+          <t>[0.3950499167775968]</t>
         </is>
       </c>
       <c r="H430" t="b">
@@ -18095,7 +18095,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>[0.33105158589229566]</t>
+          <t>[0.3310234995720987]</t>
         </is>
       </c>
       <c r="H431" t="b">
@@ -18121,7 +18121,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.104|x3: 0.000|x4: 0.066|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.196|x9: 0.190|x10: 0.383|x11: 0.000|x12: 0.000|x13: 0.113|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.104|x3: 0.000|x4: 0.066|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.197|x9: 0.190|x10: 0.383|x11: 0.000|x12: 0.000|x13: 0.113|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>[0.3831215313811274]</t>
+          <t>[0.38324009192275804]</t>
         </is>
       </c>
       <c r="H432" t="b">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>[0.32178150040538933]</t>
+          <t>[0.3215335831660975]</t>
         </is>
       </c>
       <c r="H433" t="b">
@@ -18218,7 +18218,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>[0.4583138647709294, 0.24865080857831515, 0.22782866781841976]</t>
+          <t>[0.45831316650210857, 0.24871034312093085, 0.2278397458202737]</t>
         </is>
       </c>
       <c r="H434" t="b">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>[0.4666561853651301, 0.27291365772562437, 0.2334734136338672]</t>
+          <t>[0.4666554385145642, 0.27287542188994796, 0.23348630146219077]</t>
         </is>
       </c>
       <c r="H435" t="b">
@@ -18285,7 +18285,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.034|x9: 0.096|x10: 0.233|x11: 0.000|x12: 0.000|x13: 0.032|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.034|x9: 0.096|x10: 0.233|x11: 0.000|x12: 0.000|x13: 0.032|x14: 0.000|x15: 0.000|x16: 0.044|x17: 0.000</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>[0.23333852954389422]</t>
+          <t>[0.23310935511893044]</t>
         </is>
       </c>
       <c r="H436" t="b">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>[0.4597315995508313]</t>
+          <t>[0.4597726101319965]</t>
         </is>
       </c>
       <c r="H437" t="b">
@@ -18382,7 +18382,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>[0.30550968965498176]</t>
+          <t>[0.30550073872102856]</t>
         </is>
       </c>
       <c r="H438" t="b">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>[0.3124288391476135]</t>
+          <t>[0.3121904841594893]</t>
         </is>
       </c>
       <c r="H439" t="b">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>[0.4518432560911137]</t>
+          <t>[0.4518045445453645]</t>
         </is>
       </c>
       <c r="H440" t="b">
@@ -18505,7 +18505,7 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>[0.38417681943869825]</t>
+          <t>[0.3842639104526884]</t>
         </is>
       </c>
       <c r="H441" t="b">
@@ -18546,7 +18546,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>[0.3731241338927943]</t>
+          <t>[0.3731138700413444]</t>
         </is>
       </c>
       <c r="H442" t="b">
@@ -18587,7 +18587,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>[0.36698054246203626]</t>
+          <t>[0.3670419441631993]</t>
         </is>
       </c>
       <c r="H443" t="b">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.131|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.062|x9: 0.131|x10: 0.392|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.078|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.131|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.062|x9: 0.131|x10: 0.393|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.078|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -18628,7 +18628,7 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>[0.3924339662970864]</t>
+          <t>[0.3925970640108861]</t>
         </is>
       </c>
       <c r="H444" t="b">
@@ -18669,7 +18669,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>[0.41271250746624705]</t>
+          <t>[0.4125927318933534]</t>
         </is>
       </c>
       <c r="H445" t="b">
@@ -18695,7 +18695,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.046|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.130|x8: 0.073|x9: 0.077|x10: 0.339|x11: 0.040|x12: 0.000|x13: 0.050|x14: 0.000|x15: 0.000|x16: 0.092|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.046|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.130|x8: 0.072|x9: 0.077|x10: 0.339|x11: 0.040|x12: 0.000|x13: 0.050|x14: 0.000|x15: 0.000|x16: 0.092|x17: 0.000</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -18710,7 +18710,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>[0.3388500121212822]</t>
+          <t>[0.3388434976847356]</t>
         </is>
       </c>
       <c r="H446" t="b">
@@ -18751,7 +18751,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>[0.3020558182345798, 0.22617362243601946]</t>
+          <t>[0.302039742605098, 0.226185159527005]</t>
         </is>
       </c>
       <c r="H447" t="b">
@@ -18792,7 +18792,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>[0.24087000841778825]</t>
+          <t>[0.24081599136461324]</t>
         </is>
       </c>
       <c r="H448" t="b">
@@ -18833,7 +18833,7 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>[0.43140379381557087, 0.24213434813842238, 0.2159488225889653]</t>
+          <t>[0.43138665301145507, 0.2421385674513487, 0.2159635260454246]</t>
         </is>
       </c>
       <c r="H449" t="b">
@@ -18874,7 +18874,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>[0.3298823349205009]</t>
+          <t>[0.32982486370694514]</t>
         </is>
       </c>
       <c r="H450" t="b">
@@ -18900,7 +18900,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>x1: 0.096|x2: 0.105|x3: 0.121|x4: 0.061|x5: 0.223|x6: 0.084|x7: 0.000|x8: 0.189|x9: 0.000|x10: 0.332|x11: 0.000|x12: 0.000|x13: 0.070|x14: 0.000|x15: 0.000|x16: 0.208|x17: 0.000</t>
+          <t>x1: 0.097|x2: 0.105|x3: 0.121|x4: 0.061|x5: 0.223|x6: 0.084|x7: 0.000|x8: 0.189|x9: 0.000|x10: 0.332|x11: 0.000|x12: 0.000|x13: 0.070|x14: 0.000|x15: 0.000|x16: 0.208|x17: 0.000</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -18915,7 +18915,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>[0.3316204231128448, 0.2229441547869976, 0.20794712199664284]</t>
+          <t>[0.33165051704861176, 0.22298752165737815, 0.20796274216487798]</t>
         </is>
       </c>
       <c r="H451" t="b">
@@ -18956,7 +18956,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>[0.2640100216303108, 0.2563312669414157]</t>
+          <t>[0.2640276423753374, 0.2563768642269051]</t>
         </is>
       </c>
       <c r="H452" t="b">
@@ -18997,7 +18997,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>[0.346881336286833]</t>
+          <t>[0.34691355709992827]</t>
         </is>
       </c>
       <c r="H453" t="b">
@@ -19023,7 +19023,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.087|x3: 0.000|x4: 0.000|x5: 0.106|x6: 0.000|x7: 0.000|x8: 0.110|x9: 0.052|x10: 0.456|x11: 0.000|x12: 0.000|x13: 0.076|x14: 0.000|x15: 0.000|x16: 0.142|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.087|x3: 0.000|x4: 0.000|x5: 0.106|x6: 0.000|x7: 0.000|x8: 0.110|x9: 0.052|x10: 0.456|x11: 0.000|x12: 0.000|x13: 0.075|x14: 0.000|x15: 0.000|x16: 0.142|x17: 0.000</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -19038,7 +19038,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>[0.45613275284633625]</t>
+          <t>[0.4561813873492132]</t>
         </is>
       </c>
       <c r="H454" t="b">
@@ -19079,7 +19079,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>[0.27482764025382167]</t>
+          <t>[0.2747722536350255]</t>
         </is>
       </c>
       <c r="H455" t="b">
@@ -19105,7 +19105,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.164|x7: 0.169|x8: 0.000|x9: 0.072|x10: 0.000|x11: 0.334|x12: 0.088|x13: 0.000|x14: 0.000|x15: 0.071|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.164|x7: 0.169|x8: 0.000|x9: 0.072|x10: 0.000|x11: 0.334|x12: 0.089|x13: 0.000|x14: 0.000|x15: 0.071|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -19120,7 +19120,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>[0.33387852636617094]</t>
+          <t>[0.3340066055769202]</t>
         </is>
       </c>
       <c r="H456" t="b">
@@ -19146,7 +19146,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.081|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.366|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.047|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.081|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.367|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.047|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -19161,7 +19161,7 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>[0.3663968883982282]</t>
+          <t>[0.36662836138108434]</t>
         </is>
       </c>
       <c r="H457" t="b">
@@ -19187,7 +19187,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.034|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.277|x12: 0.047|x13: 0.123|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.034|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.277|x12: 0.047|x13: 0.124|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -19202,7 +19202,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>[0.2769996546506626]</t>
+          <t>[0.2770486200976336]</t>
         </is>
       </c>
       <c r="H458" t="b">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>[0.3272972543718181, 0.2122738025849103]</t>
+          <t>[0.32731535668808526, 0.21229450684467613]</t>
         </is>
       </c>
       <c r="H460" t="b">
@@ -19325,7 +19325,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>[0.48393992814003806]</t>
+          <t>[0.48383660745483364]</t>
         </is>
       </c>
       <c r="H461" t="b">
@@ -19366,7 +19366,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>[0.4664673480273773]</t>
+          <t>[0.46647718389518944]</t>
         </is>
       </c>
       <c r="H462" t="b">
@@ -19407,7 +19407,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>[0.31937588357809654]</t>
+          <t>[0.31934021150558567]</t>
         </is>
       </c>
       <c r="H463" t="b">
@@ -19448,7 +19448,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>[0.33846756257736726]</t>
+          <t>[0.33848612020314994]</t>
         </is>
       </c>
       <c r="H464" t="b">
@@ -19489,7 +19489,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>[0.5184787790452563]</t>
+          <t>[0.5184259849918632]</t>
         </is>
       </c>
       <c r="H465" t="b">
@@ -19530,7 +19530,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>[0.4186565950319069, 0.22464017477506207]</t>
+          <t>[0.4188322973634215, 0.22475820711631192]</t>
         </is>
       </c>
       <c r="H466" t="b">
@@ -19571,7 +19571,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>[0.32867924185929526]</t>
+          <t>[0.3287363904635352]</t>
         </is>
       </c>
       <c r="H467" t="b">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>[0.3378357152667487]</t>
+          <t>[0.3376294538176115]</t>
         </is>
       </c>
       <c r="H468" t="b">
@@ -19653,7 +19653,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>[0.388378474252923]</t>
+          <t>[0.3883858679442383]</t>
         </is>
       </c>
       <c r="H469" t="b">
@@ -19679,7 +19679,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>x1: 0.039|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.074|x7: 0.078|x8: 0.000|x9: 0.046|x10: 0.000|x11: 0.210|x12: 0.000|x13: 0.050|x14: 0.054|x15: 0.060|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.039|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.074|x7: 0.078|x8: 0.000|x9: 0.046|x10: 0.000|x11: 0.209|x12: 0.000|x13: 0.050|x14: 0.054|x15: 0.060|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>[0.20955213579935889]</t>
+          <t>[0.2094698182533164]</t>
         </is>
       </c>
       <c r="H470" t="b">
@@ -19735,7 +19735,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>[0.2518726553005188]</t>
+          <t>[0.2517902272292454]</t>
         </is>
       </c>
       <c r="H471" t="b">
@@ -19776,7 +19776,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>[0.29372637290420706]</t>
+          <t>[0.2937562377146704]</t>
         </is>
       </c>
       <c r="H472" t="b">
@@ -19817,7 +19817,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>[0.3933141214894549]</t>
+          <t>[0.3933717548569728]</t>
         </is>
       </c>
       <c r="H473" t="b">
@@ -19899,7 +19899,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>[0.3934578163402437]</t>
+          <t>[0.3934854332598214]</t>
         </is>
       </c>
       <c r="H475" t="b">
@@ -19940,7 +19940,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>[0.49891529224369574]</t>
+          <t>[0.49859821024724793]</t>
         </is>
       </c>
       <c r="H476" t="b">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>x1: 0.077|x2: 0.000|x3: 0.067|x4: 0.000|x5: 0.124|x6: 0.000|x7: 0.071|x8: 0.094|x9: 0.108|x10: 0.000|x11: 0.296|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.052|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.078|x2: 0.000|x3: 0.067|x4: 0.000|x5: 0.124|x6: 0.000|x7: 0.071|x8: 0.094|x9: 0.108|x10: 0.000|x11: 0.296|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.052|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>[0.2962817277139081]</t>
+          <t>[0.2962736235529256]</t>
         </is>
       </c>
       <c r="H477" t="b">
@@ -20022,7 +20022,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>[0.2765334334181053]</t>
+          <t>[0.2765055357189315]</t>
         </is>
       </c>
       <c r="H478" t="b">
@@ -20063,7 +20063,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>[0.4174583455042849]</t>
+          <t>[0.417263592423171]</t>
         </is>
       </c>
       <c r="H479" t="b">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>[0.3407187343274148]</t>
+          <t>[0.34071437280401884]</t>
         </is>
       </c>
       <c r="H480" t="b">
@@ -20145,7 +20145,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>[0.4363022753508834]</t>
+          <t>[0.4363212727909662]</t>
         </is>
       </c>
       <c r="H481" t="b">
@@ -20186,7 +20186,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>[0.38493017906194305]</t>
+          <t>[0.3848823045928981]</t>
         </is>
       </c>
       <c r="H482" t="b">
@@ -20212,7 +20212,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>x1: 0.102|x2: 0.000|x3: 0.069|x4: 0.000|x5: 0.052|x6: 0.000|x7: 0.092|x8: 0.056|x9: 0.085|x10: 0.000|x11: 0.470|x12: 0.058|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.102|x2: 0.000|x3: 0.069|x4: 0.000|x5: 0.052|x6: 0.000|x7: 0.092|x8: 0.057|x9: 0.085|x10: 0.000|x11: 0.470|x12: 0.058|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
@@ -20227,7 +20227,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>[0.47044065085198833]</t>
+          <t>[0.4704289559431966]</t>
         </is>
       </c>
       <c r="H483" t="b">
@@ -20268,7 +20268,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>[0.3546751916323331]</t>
+          <t>[0.35464931325276977]</t>
         </is>
       </c>
       <c r="H484" t="b">
@@ -20294,7 +20294,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>x1: 0.074|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.085|x6: 0.166|x7: 0.180|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.537|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.074|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.085|x6: 0.166|x7: 0.181|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.537|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -20309,7 +20309,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>[0.5372877988804641]</t>
+          <t>[0.5374168940166192]</t>
         </is>
       </c>
       <c r="H485" t="b">
@@ -20335,7 +20335,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>x1: 0.112|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.093|x7: 0.093|x8: 0.086|x9: 0.178|x10: 0.000|x11: 0.442|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.075|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.112|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.094|x7: 0.093|x8: 0.086|x9: 0.178|x10: 0.000|x11: 0.443|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.075|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -20350,7 +20350,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>[0.4424528996835697]</t>
+          <t>[0.4426821871466241]</t>
         </is>
       </c>
       <c r="H486" t="b">
@@ -20391,7 +20391,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>[0.3861208339075946, 0.20728913950672365]</t>
+          <t>[0.38634326374334005, 0.20741409967043573]</t>
         </is>
       </c>
       <c r="H487" t="b">
@@ -20417,7 +20417,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>x1: 0.091|x2: 0.122|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.396|x12: 0.000|x13: 0.191|x14: 0.082|x15: 0.157|x16: 0.120|x17: 0.000</t>
+          <t>x1: 0.091|x2: 0.122|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.397|x12: 0.000|x13: 0.191|x14: 0.082|x15: 0.157|x16: 0.120|x17: 0.000</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -20432,7 +20432,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>[0.3964833130903916]</t>
+          <t>[0.39657304042502506]</t>
         </is>
       </c>
       <c r="H488" t="b">
@@ -20473,7 +20473,7 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>[0.2797048153745895]</t>
+          <t>[0.2797875724139897]</t>
         </is>
       </c>
       <c r="H489" t="b">
@@ -20540,7 +20540,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.088|x7: 0.158|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.129|x12: 0.343|x13: 0.049|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.089|x7: 0.158|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.130|x12: 0.344|x13: 0.049|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -20555,7 +20555,7 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>[0.3434647138513533]</t>
+          <t>[0.34363243448534514]</t>
         </is>
       </c>
       <c r="H491" t="b">
@@ -20596,7 +20596,7 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>[0.3257263480961785, 0.25797214128576923]</t>
+          <t>[0.32569845489240695, 0.2579642528777787]</t>
         </is>
       </c>
       <c r="H492" t="b">
@@ -20637,7 +20637,7 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>[0.2535152590339344, 0.20519075085934485]</t>
+          <t>[0.2535807297002143, 0.2051868955227657]</t>
         </is>
       </c>
       <c r="H493" t="b">
@@ -20678,7 +20678,7 @@
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>[0.26327788506229294]</t>
+          <t>[0.2632880319691796]</t>
         </is>
       </c>
       <c r="H494" t="b">
@@ -20719,7 +20719,7 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>[0.4843991284608653]</t>
+          <t>[0.48430724655078444]</t>
         </is>
       </c>
       <c r="H495" t="b">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>[0.20241797337552175]</t>
+          <t>[0.20231598569863618]</t>
         </is>
       </c>
       <c r="H496" t="b">
@@ -20827,7 +20827,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.150|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.048|x8: 0.000|x9: 0.000|x10: 0.097|x11: 0.000|x12: 0.231|x13: 0.200|x14: 0.142|x15: 0.063|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.150|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.048|x8: 0.000|x9: 0.000|x10: 0.097|x11: 0.000|x12: 0.231|x13: 0.201|x14: 0.142|x15: 0.063|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -20842,7 +20842,7 @@
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>[0.2309394485677686, 0.20047345741196915]</t>
+          <t>[0.23097780464811335, 0.20052952561374782]</t>
         </is>
       </c>
       <c r="H498" t="b">
@@ -20883,7 +20883,7 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>[0.2697797382317823]</t>
+          <t>[0.269955849726271]</t>
         </is>
       </c>
       <c r="H499" t="b">
@@ -20924,7 +20924,7 @@
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>[0.3510933706213564]</t>
+          <t>[0.35132323672333243]</t>
         </is>
       </c>
       <c r="H500" t="b">
@@ -20950,7 +20950,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.041|x6: 0.050|x7: 0.074|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.054|x12: 0.347|x13: 0.053|x14: 0.074|x15: 0.048|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.041|x6: 0.051|x7: 0.074|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.054|x12: 0.347|x13: 0.053|x14: 0.074|x15: 0.048|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -20965,7 +20965,7 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>[0.3472358805879081]</t>
+          <t>[0.34732832326648044]</t>
         </is>
       </c>
       <c r="H501" t="b">
@@ -21006,7 +21006,7 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>[0.4347724058355932]</t>
+          <t>[0.4346203507465562]</t>
         </is>
       </c>
       <c r="H502" t="b">
@@ -21047,7 +21047,7 @@
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>[0.2373479724505513]</t>
+          <t>[0.23740264829646343]</t>
         </is>
       </c>
       <c r="H503" t="b">
@@ -21073,7 +21073,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.102|x4: 0.000|x5: 0.000|x6: 0.071|x7: 0.083|x8: 0.070|x9: 0.075|x10: 0.000|x11: 0.056|x12: 0.552|x13: 0.000|x14: 0.059|x15: 0.071|x16: 0.093|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.102|x4: 0.000|x5: 0.000|x6: 0.071|x7: 0.083|x8: 0.070|x9: 0.075|x10: 0.000|x11: 0.056|x12: 0.552|x13: 0.000|x14: 0.058|x15: 0.071|x16: 0.093|x17: 0.000</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>[0.5517484373785683]</t>
+          <t>[0.5517140442968572]</t>
         </is>
       </c>
       <c r="H504" t="b">
@@ -21129,7 +21129,7 @@
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>[0.36217584524183527]</t>
+          <t>[0.36207565265607733]</t>
         </is>
       </c>
       <c r="H505" t="b">
@@ -21170,7 +21170,7 @@
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>[0.3439552918257634]</t>
+          <t>[0.343815956430162]</t>
         </is>
       </c>
       <c r="H506" t="b">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>[0.6242280252324827]</t>
+          <t>[0.6239364498743464]</t>
         </is>
       </c>
       <c r="H508" t="b">
@@ -21293,7 +21293,7 @@
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>[0.20061664043834332]</t>
+          <t>[0.20067170393742292]</t>
         </is>
       </c>
       <c r="H509" t="b">
@@ -21319,12 +21319,12 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.041|x8: 0.000|x9: 0.067|x10: 0.000|x11: 0.000|x12: 0.318|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.041|x8: 0.000|x9: 0.066|x10: 0.000|x11: 0.000|x12: 0.317|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>[0.00, 0.03, 0.32]</t>
+          <t>[0.00, 0.02, 0.32]</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -21334,7 +21334,7 @@
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>[0.31811431234599674]</t>
+          <t>[0.31727611138961465]</t>
         </is>
       </c>
       <c r="H510" t="b">
@@ -21375,7 +21375,7 @@
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>[0.4883008014276131]</t>
+          <t>[0.4883171625242939]</t>
         </is>
       </c>
       <c r="H511" t="b">
@@ -21416,7 +21416,7 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>[0.34370844994983796]</t>
+          <t>[0.3435782043741117]</t>
         </is>
       </c>
       <c r="H512" t="b">
@@ -21457,7 +21457,7 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>[0.2403242133672464]</t>
+          <t>[0.24009461532702978]</t>
         </is>
       </c>
       <c r="H513" t="b">
@@ -21483,7 +21483,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.075|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.292|x13: 0.117|x14: 0.092|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.075|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.292|x13: 0.117|x14: 0.093|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -21498,7 +21498,7 @@
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>[0.2915656963911603]</t>
+          <t>[0.2917273727019659]</t>
         </is>
       </c>
       <c r="H514" t="b">
@@ -21539,7 +21539,7 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>[0.26856712019072265]</t>
+          <t>[0.26852022971024014]</t>
         </is>
       </c>
       <c r="H515" t="b">
@@ -21565,7 +21565,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.019|x10: 0.000|x11: 0.000|x12: 0.107|x13: 0.000|x14: 0.018|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.019|x10: 0.000|x11: 0.000|x12: 0.108|x13: 0.000|x14: 0.018|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -21621,7 +21621,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>[0.2674155228126603]</t>
+          <t>[0.26722340888582174]</t>
         </is>
       </c>
       <c r="H517" t="b">
@@ -21647,7 +21647,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.024|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.040|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.180|x13: 0.097|x14: 0.093|x15: 0.031|x16: 0.027|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.024|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.040|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.179|x13: 0.097|x14: 0.093|x15: 0.031|x16: 0.027|x17: 0.000</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -21703,7 +21703,7 @@
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>[0.4066881370503425]</t>
+          <t>[0.40673104294059137]</t>
         </is>
       </c>
       <c r="H519" t="b">
@@ -21744,7 +21744,7 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>[0.22279190977738117]</t>
+          <t>[0.22282593329170938]</t>
         </is>
       </c>
       <c r="H520" t="b">
@@ -21785,7 +21785,7 @@
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>[0.3864606104324904]</t>
+          <t>[0.3862430749937589]</t>
         </is>
       </c>
       <c r="H521" t="b">
@@ -21826,7 +21826,7 @@
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>[0.41439104732492954]</t>
+          <t>[0.41440434356081374]</t>
         </is>
       </c>
       <c r="H522" t="b">
@@ -21908,7 +21908,7 @@
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>[0.30956319564324325]</t>
+          <t>[0.3095283468563867]</t>
         </is>
       </c>
       <c r="H524" t="b">
@@ -21949,7 +21949,7 @@
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>[0.26722786083177585]</t>
+          <t>[0.26722649791827885]</t>
         </is>
       </c>
       <c r="H525" t="b">
@@ -21990,7 +21990,7 @@
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>[0.32622525249290596, 0.21858460734344948]</t>
+          <t>[0.3262302607266593, 0.21863884771762143]</t>
         </is>
       </c>
       <c r="H526" t="b">
@@ -22031,7 +22031,7 @@
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>[0.2456216344254488]</t>
+          <t>[0.24560740745844553]</t>
         </is>
       </c>
       <c r="H527" t="b">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>[0.25669058670114575]</t>
+          <t>[0.25667155328186664]</t>
         </is>
       </c>
       <c r="H528" t="b">
@@ -22113,7 +22113,7 @@
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>[0.23771563385052957]</t>
+          <t>[0.23776990582563196]</t>
         </is>
       </c>
       <c r="H529" t="b">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.065|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.070|x12: 0.075|x13: 0.191|x14: 0.000|x15: 0.029|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.065|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.070|x12: 0.075|x13: 0.192|x14: 0.000|x15: 0.029|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -22236,7 +22236,7 @@
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>[0.3554544928552666]</t>
+          <t>[0.3553597052810125]</t>
         </is>
       </c>
       <c r="H532" t="b">
@@ -22262,7 +22262,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.065|x8: 0.000|x9: 0.052|x10: 0.119|x11: 0.000|x12: 0.054|x13: 0.493|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.065|x8: 0.000|x9: 0.052|x10: 0.119|x11: 0.000|x12: 0.055|x13: 0.493|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -22277,7 +22277,7 @@
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>[0.4932863838252967]</t>
+          <t>[0.4934502080387618]</t>
         </is>
       </c>
       <c r="H533" t="b">
@@ -22318,7 +22318,7 @@
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>[0.4895349587920891]</t>
+          <t>[0.4895685678859795]</t>
         </is>
       </c>
       <c r="H534" t="b">
@@ -22359,7 +22359,7 @@
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>[0.3100370346151288]</t>
+          <t>[0.310014920383492]</t>
         </is>
       </c>
       <c r="H535" t="b">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>[0.2572974073536907]</t>
+          <t>[0.25726728342352173]</t>
         </is>
       </c>
       <c r="H536" t="b">
@@ -22467,7 +22467,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.081|x13: 0.223|x14: 0.054|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.081|x13: 0.224|x14: 0.054|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>[0.22344113794999745]</t>
+          <t>[0.2236536901474045]</t>
         </is>
       </c>
       <c r="H538" t="b">
@@ -22508,7 +22508,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>x1: 0.044|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.071|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.097|x13: 0.319|x14: 0.050|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.043|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.071|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.097|x13: 0.319|x14: 0.050|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -22523,7 +22523,7 @@
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>[0.3192204320033608]</t>
+          <t>[0.3190926255657496]</t>
         </is>
       </c>
       <c r="H539" t="b">
@@ -22564,7 +22564,7 @@
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>[0.3058256739286734]</t>
+          <t>[0.30577988426421515]</t>
         </is>
       </c>
       <c r="H540" t="b">
@@ -22646,7 +22646,7 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>[0.37085190477573404]</t>
+          <t>[0.37083420934251027]</t>
         </is>
       </c>
       <c r="H542" t="b">
@@ -22672,7 +22672,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.085|x7: 0.146|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.040|x13: 0.162|x14: 0.063|x15: 0.058|x16: 0.058|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.085|x7: 0.146|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.040|x13: 0.162|x14: 0.063|x15: 0.057|x16: 0.058|x17: 0.000</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
@@ -22728,7 +22728,7 @@
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>[0.26455036418493133, 0.2581600081556824]</t>
+          <t>[0.2645521088558492, 0.2582395570490361]</t>
         </is>
       </c>
       <c r="H544" t="b">
@@ -22769,7 +22769,7 @@
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>[0.20010226031448536]</t>
+          <t>[0.20010210582565627]</t>
         </is>
       </c>
       <c r="H545" t="b">
@@ -22795,12 +22795,12 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.068|x8: 0.000|x9: 0.000|x10: 0.033|x11: 0.075|x12: 0.083|x13: 0.201|x14: 0.031|x15: 0.037|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.074|x8: 0.000|x9: 0.000|x10: 0.038|x11: 0.084|x12: 0.081|x13: 0.213|x14: 0.030|x15: 0.041|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>[0.00, 0.03, 0.20]</t>
+          <t>[0.00, 0.03, 0.21]</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
@@ -22810,7 +22810,7 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>[0.2013658887984302]</t>
+          <t>[0.21252813145635102]</t>
         </is>
       </c>
       <c r="H546" t="b">
@@ -22892,7 +22892,7 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>[0.42697491941571086]</t>
+          <t>[0.42707494685979397]</t>
         </is>
       </c>
       <c r="H548" t="b">
@@ -22933,7 +22933,7 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>[0.33278288955819174]</t>
+          <t>[0.33304520365048235]</t>
         </is>
       </c>
       <c r="H549" t="b">
@@ -22974,7 +22974,7 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>[0.5396805083956718]</t>
+          <t>[0.5396863761700466]</t>
         </is>
       </c>
       <c r="H550" t="b">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>[0.26466060262135793]</t>
+          <t>[0.26460334342796604]</t>
         </is>
       </c>
       <c r="H551" t="b">
@@ -23056,7 +23056,7 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>[0.3189598022832548]</t>
+          <t>[0.31895329591562643]</t>
         </is>
       </c>
       <c r="H552" t="b">
@@ -23097,7 +23097,7 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>[0.342203570829448, 0.2670971728672991]</t>
+          <t>[0.34216565199789156, 0.2669833157767808]</t>
         </is>
       </c>
       <c r="H553" t="b">
@@ -23138,7 +23138,7 @@
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>[0.32466629181689827]</t>
+          <t>[0.32467839563531986]</t>
         </is>
       </c>
       <c r="H554" t="b">
@@ -23179,7 +23179,7 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>[0.20361981361451587, 0.2013469922954471]</t>
+          <t>[0.20366869759329798, 0.2014473708162259]</t>
         </is>
       </c>
       <c r="H555" t="b">
@@ -23220,7 +23220,7 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>[0.315209460641686]</t>
+          <t>[0.31517300240105145]</t>
         </is>
       </c>
       <c r="H556" t="b">
@@ -23261,7 +23261,7 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>[0.2764479436155857]</t>
+          <t>[0.27642231587634586]</t>
         </is>
       </c>
       <c r="H557" t="b">
@@ -23302,7 +23302,7 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>[0.5100083954194917]</t>
+          <t>[0.5101209033309766]</t>
         </is>
       </c>
       <c r="H558" t="b">
@@ -23384,7 +23384,7 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>[0.2822820703345754]</t>
+          <t>[0.28209470491396793]</t>
         </is>
       </c>
       <c r="H560" t="b">
@@ -23425,7 +23425,7 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>[0.3055517295928709]</t>
+          <t>[0.30551404264458887]</t>
         </is>
       </c>
       <c r="H561" t="b">
@@ -23466,7 +23466,7 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>[0.21888321897109259]</t>
+          <t>[0.21893347271127772]</t>
         </is>
       </c>
       <c r="H562" t="b">
@@ -23507,7 +23507,7 @@
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>[0.42314434008299484]</t>
+          <t>[0.42322592784076446]</t>
         </is>
       </c>
       <c r="H563" t="b">
@@ -23533,7 +23533,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.021|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.020|x10: 0.033|x11: 0.000|x12: 0.050|x13: 0.065|x14: 0.155|x15: 0.023|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.021|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.020|x10: 0.033|x11: 0.000|x12: 0.050|x13: 0.064|x14: 0.155|x15: 0.023|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -23574,7 +23574,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.029|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.026|x7: 0.058|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.059|x12: 0.081|x13: 0.060|x14: 0.187|x15: 0.102|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.029|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.026|x7: 0.058|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.059|x12: 0.080|x13: 0.060|x14: 0.187|x15: 0.102|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
@@ -23615,7 +23615,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>x1: 0.110|x2: 0.000|x3: 0.000|x4: 0.065|x5: 0.056|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.071|x12: 0.042|x13: 0.115|x14: 0.228|x15: 0.109|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.110|x2: 0.000|x3: 0.000|x4: 0.065|x5: 0.056|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.070|x12: 0.042|x13: 0.115|x14: 0.228|x15: 0.109|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
@@ -23630,7 +23630,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>[0.22801471942944093]</t>
+          <t>[0.2278410190916825]</t>
         </is>
       </c>
       <c r="H566" t="b">
@@ -23712,7 +23712,7 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>[0.2947134225824593, 0.205939212024242]</t>
+          <t>[0.2947137790614212, 0.20598903161231635]</t>
         </is>
       </c>
       <c r="H568" t="b">
@@ -23861,7 +23861,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.054|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.076|x13: 0.043|x14: 0.323|x15: 0.160|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.054|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.076|x13: 0.042|x14: 0.323|x15: 0.160|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>[0.3233895565228895]</t>
+          <t>[0.323342251848175]</t>
         </is>
       </c>
       <c r="H572" t="b">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>[0.2405097474082495]</t>
+          <t>[0.24057845611151635]</t>
         </is>
       </c>
       <c r="H573" t="b">
@@ -23943,7 +23943,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>x1: 0.060|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.030|x13: 0.000|x14: 0.207|x15: 0.030|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.060|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.030|x13: 0.000|x14: 0.206|x15: 0.030|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -23958,7 +23958,7 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>[0.2065559723302015]</t>
+          <t>[0.20635060651240975]</t>
         </is>
       </c>
       <c r="H574" t="b">
@@ -23999,7 +23999,7 @@
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>[0.2526225380389446]</t>
+          <t>[0.2525252533617591]</t>
         </is>
       </c>
       <c r="H575" t="b">
@@ -24040,7 +24040,7 @@
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>[0.29255089648015875]</t>
+          <t>[0.292525376683861]</t>
         </is>
       </c>
       <c r="H576" t="b">
@@ -24066,7 +24066,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>x1: 0.080|x2: 0.083|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.060|x13: 0.000|x14: 0.482|x15: 0.236|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.080|x2: 0.082|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.060|x13: 0.000|x14: 0.482|x15: 0.236|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -24081,7 +24081,7 @@
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>[0.4822432455089042, 0.23618961188123913]</t>
+          <t>[0.48219324159968063, 0.23613743542373944]</t>
         </is>
       </c>
       <c r="H577" t="b">
@@ -24122,7 +24122,7 @@
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>[0.21660541150723803]</t>
+          <t>[0.21663947650773813]</t>
         </is>
       </c>
       <c r="H578" t="b">
@@ -24245,7 +24245,7 @@
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>[0.25304947314488657]</t>
+          <t>[0.2529630127891357]</t>
         </is>
       </c>
       <c r="H581" t="b">
@@ -24312,7 +24312,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>x1: 0.121|x2: 0.098|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.037|x11: 0.000|x12: 0.000|x13: 0.067|x14: 0.320|x15: 0.172|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.121|x2: 0.098|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.037|x11: 0.000|x12: 0.000|x13: 0.067|x14: 0.320|x15: 0.173|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
@@ -24327,7 +24327,7 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>[0.31991037871443]</t>
+          <t>[0.3200273503448451]</t>
         </is>
       </c>
       <c r="H583" t="b">
@@ -24353,7 +24353,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>x1: 0.101|x2: 0.185|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.057|x7: 0.000|x8: 0.108|x9: 0.066|x10: 0.165|x11: 0.000|x12: 0.090|x13: 0.084|x14: 0.227|x15: 0.090|x16: 0.062|x17: 0.000</t>
+          <t>x1: 0.101|x2: 0.184|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.056|x7: 0.000|x8: 0.108|x9: 0.066|x10: 0.165|x11: 0.000|x12: 0.090|x13: 0.084|x14: 0.227|x15: 0.090|x16: 0.062|x17: 0.000</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -24368,7 +24368,7 @@
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>[0.2266690736618365]</t>
+          <t>[0.2266682862640097]</t>
         </is>
       </c>
       <c r="H584" t="b">
@@ -24450,7 +24450,7 @@
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>[0.40286651703698334, 0.22400875603887002]</t>
+          <t>[0.4028488368787255, 0.22393035439617498]</t>
         </is>
       </c>
       <c r="H586" t="b">
@@ -24476,7 +24476,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>x1: 0.094|x2: 0.032|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.040|x12: 0.029|x13: 0.062|x14: 0.244|x15: 0.075|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.094|x2: 0.032|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.040|x12: 0.029|x13: 0.062|x14: 0.243|x15: 0.075|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
@@ -24491,7 +24491,7 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>[0.24361131058514351]</t>
+          <t>[0.24349261477249495]</t>
         </is>
       </c>
       <c r="H587" t="b">
@@ -24517,7 +24517,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>x1: 0.042|x2: 0.072|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.052|x7: 0.077|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.044|x12: 0.148|x13: 0.121|x14: 0.321|x15: 0.136|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.042|x2: 0.071|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.052|x7: 0.077|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.044|x12: 0.149|x13: 0.121|x14: 0.321|x15: 0.136|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -24532,7 +24532,7 @@
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>[0.3206204739560161]</t>
+          <t>[0.3206502452242503]</t>
         </is>
       </c>
       <c r="H588" t="b">
@@ -24573,7 +24573,7 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>[0.21728658315054075]</t>
+          <t>[0.21704718397579642]</t>
         </is>
       </c>
       <c r="H589" t="b">
@@ -24614,7 +24614,7 @@
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>[0.3276363616170528]</t>
+          <t>[0.32776372961951916]</t>
         </is>
       </c>
       <c r="H590" t="b">
@@ -24696,7 +24696,7 @@
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>[0.27207806970148346]</t>
+          <t>[0.27210060017153287]</t>
         </is>
       </c>
       <c r="H592" t="b">
@@ -24722,7 +24722,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.025|x14: 0.198|x15: 0.091|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.026|x14: 0.198|x15: 0.091|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -24763,7 +24763,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.007|x13: 0.009|x14: 0.074|x15: 0.028|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.007|x13: 0.009|x14: 0.075|x15: 0.028|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -24860,7 +24860,7 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>[0.3017678893714584]</t>
+          <t>[0.3016481543765157]</t>
         </is>
       </c>
       <c r="H596" t="b">
@@ -24927,7 +24927,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.118|x3: 0.000|x4: 0.059|x5: 0.047|x6: 0.049|x7: 0.073|x8: 0.000|x9: 0.081|x10: 0.000|x11: 0.000|x12: 0.053|x13: 0.046|x14: 0.420|x15: 0.157|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.117|x3: 0.000|x4: 0.059|x5: 0.047|x6: 0.049|x7: 0.073|x8: 0.000|x9: 0.081|x10: 0.000|x11: 0.000|x12: 0.053|x13: 0.046|x14: 0.420|x15: 0.157|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -24942,7 +24942,7 @@
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>[0.420258321850494]</t>
+          <t>[0.4201962092308615]</t>
         </is>
       </c>
       <c r="H598" t="b">
@@ -25106,7 +25106,7 @@
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>[0.24894376315483288]</t>
+          <t>[0.24910012937494197]</t>
         </is>
       </c>
       <c r="H602" t="b">
@@ -25132,7 +25132,7 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.046|x13: 0.000|x14: 0.103|x15: 0.036|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.045|x13: 0.000|x14: 0.102|x15: 0.036|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -25188,7 +25188,7 @@
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>[0.2656759191241022]</t>
+          <t>[0.26560901643258067]</t>
         </is>
       </c>
       <c r="H604" t="b">
@@ -25214,7 +25214,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>x1: 0.040|x2: 0.035|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.061|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.051|x13: 0.104|x14: 0.131|x15: 0.089|x16: 0.066|x17: 0.000</t>
+          <t>x1: 0.040|x2: 0.035|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.061|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.052|x13: 0.104|x14: 0.131|x15: 0.089|x16: 0.066|x17: 0.000</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -25255,7 +25255,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>x1: 0.035|x2: 0.132|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.034|x9: 0.049|x10: 0.030|x11: 0.000|x12: 0.000|x13: 0.064|x14: 0.173|x15: 0.254|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.035|x2: 0.132|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.033|x9: 0.049|x10: 0.030|x11: 0.000|x12: 0.000|x13: 0.064|x14: 0.173|x15: 0.254|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -25270,7 +25270,7 @@
       </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>[0.25375425729382706]</t>
+          <t>[0.2537871186388148]</t>
         </is>
       </c>
       <c r="H606" t="b">
@@ -25311,7 +25311,7 @@
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>[0.2513719584150599]</t>
+          <t>[0.251337277926285]</t>
         </is>
       </c>
       <c r="H607" t="b">
@@ -25434,7 +25434,7 @@
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>[0.2924581302435726, 0.20458941426211305]</t>
+          <t>[0.2924669448980861, 0.20456548984508688]</t>
         </is>
       </c>
       <c r="H610" t="b">
@@ -25475,7 +25475,7 @@
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>[0.2476040056134084, 0.24457943876740992]</t>
+          <t>[0.24759865273604564, 0.24452654456822615]</t>
         </is>
       </c>
       <c r="H611" t="b">
@@ -25516,7 +25516,7 @@
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>[0.24289315156377997, 0.21138394527515028]</t>
+          <t>[0.2428499818194463, 0.21143629945495895]</t>
         </is>
       </c>
       <c r="H612" t="b">
@@ -25598,7 +25598,7 @@
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>[0.20788949819548627]</t>
+          <t>[0.2079202364775338]</t>
         </is>
       </c>
       <c r="H614" t="b">
@@ -25639,7 +25639,7 @@
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>[0.40238690983686604, 0.2136916736518676]</t>
+          <t>[0.40236140379630525, 0.21366462246929555]</t>
         </is>
       </c>
       <c r="H615" t="b">
@@ -25665,7 +25665,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.070|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.055|x13: 0.000|x14: 0.147|x15: 0.320|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.070|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.055|x13: 0.000|x14: 0.147|x15: 0.319|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
@@ -25680,7 +25680,7 @@
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>[0.3196210022029532]</t>
+          <t>[0.3193793581643201]</t>
         </is>
       </c>
       <c r="H616" t="b">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>[0.30352003854781606]</t>
+          <t>[0.3035446605086252]</t>
         </is>
       </c>
       <c r="H617" t="b">
@@ -25747,7 +25747,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.145|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.062|x7: 0.000|x8: 0.000|x9: 0.084|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.263|x15: 0.542|x16: 0.102|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.144|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.062|x7: 0.000|x8: 0.000|x9: 0.084|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.263|x15: 0.542|x16: 0.102|x17: 0.000</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
@@ -25762,7 +25762,7 @@
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>[0.5417031762369967, 0.2625818355868094]</t>
+          <t>[0.541669457259481, 0.2625706079164849]</t>
         </is>
       </c>
       <c r="H618" t="b">
@@ -25788,7 +25788,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.039|x7: 0.000|x8: 0.000|x9: 0.034|x10: 0.000|x11: 0.038|x12: 0.000|x13: 0.000|x14: 0.078|x15: 0.228|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.039|x7: 0.000|x8: 0.000|x9: 0.034|x10: 0.000|x11: 0.038|x12: 0.000|x13: 0.000|x14: 0.078|x15: 0.227|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
@@ -25803,7 +25803,7 @@
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>[0.22755738025980296]</t>
+          <t>[0.22739611005126784]</t>
         </is>
       </c>
       <c r="H619" t="b">
@@ -25844,7 +25844,7 @@
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>[0.2191862122592292]</t>
+          <t>[0.21911420178327037]</t>
         </is>
       </c>
       <c r="H620" t="b">
@@ -25870,7 +25870,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.049|x3: 0.000|x4: 0.054|x5: 0.049|x6: 0.107|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.143|x15: 0.423|x16: 0.109|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.049|x3: 0.000|x4: 0.055|x5: 0.049|x6: 0.107|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.143|x15: 0.423|x16: 0.109|x17: 0.000</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
@@ -25885,7 +25885,7 @@
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>[0.42345181995314257]</t>
+          <t>[0.423440474635178]</t>
         </is>
       </c>
       <c r="H621" t="b">
@@ -25926,7 +25926,7 @@
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>[0.23767863080867227]</t>
+          <t>[0.2376454919310769]</t>
         </is>
       </c>
       <c r="H622" t="b">
@@ -25993,7 +25993,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.039|x3: 0.000|x4: 0.000|x5: 0.036|x6: 0.069|x7: 0.000|x8: 0.000|x9: 0.044|x10: 0.000|x11: 0.055|x12: 0.000|x13: 0.000|x14: 0.138|x15: 0.396|x16: 0.075|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.039|x3: 0.000|x4: 0.000|x5: 0.036|x6: 0.069|x7: 0.000|x8: 0.000|x9: 0.045|x10: 0.000|x11: 0.055|x12: 0.000|x13: 0.000|x14: 0.138|x15: 0.396|x16: 0.075|x17: 0.000</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
@@ -26008,7 +26008,7 @@
       </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>[0.3958197351216482]</t>
+          <t>[0.3959558247217865]</t>
         </is>
       </c>
       <c r="H624" t="b">
@@ -26075,7 +26075,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.055|x7: 0.056|x8: 0.000|x9: 0.032|x10: 0.000|x11: 0.000|x12: 0.033|x13: 0.000|x14: 0.100|x15: 0.311|x16: 0.096|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.055|x7: 0.056|x8: 0.000|x9: 0.032|x10: 0.000|x11: 0.000|x12: 0.033|x13: 0.000|x14: 0.100|x15: 0.312|x16: 0.096|x17: 0.000</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
@@ -26090,7 +26090,7 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>[0.31142077740183094]</t>
+          <t>[0.31153528407094755]</t>
         </is>
       </c>
       <c r="H626" t="b">
@@ -26131,7 +26131,7 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>[0.3309200262502984]</t>
+          <t>[0.33090590905362316]</t>
         </is>
       </c>
       <c r="H627" t="b">
@@ -26157,7 +26157,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.006|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.010|x12: 0.016|x13: 0.000|x14: 0.006|x15: 0.023|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.006|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.010|x12: 0.016|x13: 0.000|x14: 0.005|x15: 0.023|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
@@ -26213,7 +26213,7 @@
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>[0.3149149417452266]</t>
+          <t>[0.3149180237307896]</t>
         </is>
       </c>
       <c r="H629" t="b">
@@ -26295,7 +26295,7 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>[0.3271012388528509]</t>
+          <t>[0.3271166241574074]</t>
         </is>
       </c>
       <c r="H631" t="b">
@@ -26336,7 +26336,7 @@
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>[0.34192825383258707]</t>
+          <t>[0.34197610663693173]</t>
         </is>
       </c>
       <c r="H632" t="b">
@@ -26418,7 +26418,7 @@
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>[0.39077164926758495]</t>
+          <t>[0.39083989039018446]</t>
         </is>
       </c>
       <c r="H634" t="b">
@@ -26459,7 +26459,7 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>[0.4170575802298603]</t>
+          <t>[0.41711374827729636]</t>
         </is>
       </c>
       <c r="H635" t="b">
@@ -26500,7 +26500,7 @@
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>[0.4207839881097269, 0.22211343568742734]</t>
+          <t>[0.42112791549011075, 0.22227185481852327]</t>
         </is>
       </c>
       <c r="H636" t="b">
@@ -26541,7 +26541,7 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>[0.3060056068630436]</t>
+          <t>[0.3060265361698629]</t>
         </is>
       </c>
       <c r="H637" t="b">
@@ -26567,7 +26567,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.046|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.075|x12: 0.000|x13: 0.021|x14: 0.051|x15: 0.200|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.046|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.075|x12: 0.000|x13: 0.020|x14: 0.051|x15: 0.200|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
@@ -26582,7 +26582,7 @@
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>[0.20020554222625084]</t>
+          <t>[0.20010003278561136]</t>
         </is>
       </c>
       <c r="H638" t="b">
@@ -26623,7 +26623,7 @@
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>[0.35029412706170204]</t>
+          <t>[0.35018770449268666]</t>
         </is>
       </c>
       <c r="H639" t="b">
@@ -26664,7 +26664,7 @@
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>[0.26676287290563866]</t>
+          <t>[0.2666318893668897]</t>
         </is>
       </c>
       <c r="H640" t="b">
@@ -26690,7 +26690,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>x1: 0.080|x2: 0.067|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.053|x9: 0.107|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.153|x15: 0.385|x16: 0.099|x17: 0.000</t>
+          <t>x1: 0.080|x2: 0.067|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.053|x9: 0.107|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.153|x15: 0.384|x16: 0.099|x17: 0.000</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
@@ -26705,7 +26705,7 @@
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>[0.38454854880205597]</t>
+          <t>[0.3844802843724525]</t>
         </is>
       </c>
       <c r="H641" t="b">
@@ -26787,7 +26787,7 @@
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>[0.3870311564782843]</t>
+          <t>[0.3870685673565575]</t>
         </is>
       </c>
       <c r="H643" t="b">
@@ -26828,7 +26828,7 @@
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>[0.368731474349633]</t>
+          <t>[0.3687406679702313]</t>
         </is>
       </c>
       <c r="H644" t="b">
@@ -26854,7 +26854,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.048|x7: 0.000|x8: 0.000|x9: 0.042|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.125|x15: 0.322|x16: 0.086|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.048|x7: 0.000|x8: 0.000|x9: 0.042|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.125|x15: 0.322|x16: 0.087|x17: 0.000</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
@@ -26869,7 +26869,7 @@
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>[0.3219625051131021]</t>
+          <t>[0.32198644626958045]</t>
         </is>
       </c>
       <c r="H645" t="b">
@@ -26895,7 +26895,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.054|x10: 0.000|x11: 0.000|x12: 0.072|x13: 0.033|x14: 0.103|x15: 0.147|x16: 0.055|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.037|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.054|x10: 0.000|x11: 0.000|x12: 0.072|x13: 0.033|x14: 0.102|x15: 0.147|x16: 0.055|x17: 0.000</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.022|x7: 0.000|x8: 0.000|x9: 0.014|x10: 0.000|x11: 0.022|x12: 0.047|x13: 0.000|x14: 0.028|x15: 0.116|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.022|x7: 0.000|x8: 0.000|x9: 0.014|x10: 0.000|x11: 0.023|x12: 0.047|x13: 0.000|x14: 0.028|x15: 0.116|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -26977,7 +26977,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.028|x12: 0.038|x13: 0.036|x14: 0.053|x15: 0.179|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.028|x12: 0.038|x13: 0.036|x14: 0.053|x15: 0.178|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -27033,7 +27033,7 @@
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>[0.27019454665484394]</t>
+          <t>[0.270278881710991]</t>
         </is>
       </c>
       <c r="H649" t="b">
@@ -27074,7 +27074,7 @@
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>[0.27417561713793703]</t>
+          <t>[0.2742541736117817]</t>
         </is>
       </c>
       <c r="H650" t="b">
@@ -27100,7 +27100,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>x1: 0.045|x2: 0.048|x3: 0.066|x4: 0.107|x5: 0.104|x6: 0.105|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.037|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.221|x17: 0.000</t>
+          <t>x1: 0.045|x2: 0.048|x3: 0.066|x4: 0.107|x5: 0.105|x6: 0.105|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.037|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.221|x17: 0.000</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
@@ -27115,7 +27115,7 @@
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>[0.2206317989334424]</t>
+          <t>[0.22091783146369867]</t>
         </is>
       </c>
       <c r="H651" t="b">
@@ -27156,7 +27156,7 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>[0.34387846853812476, 0.207122261558639]</t>
+          <t>[0.34399929297956117, 0.20719044921922347]</t>
         </is>
       </c>
       <c r="H652" t="b">
@@ -27197,7 +27197,7 @@
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>[0.36829759528305034]</t>
+          <t>[0.3682623899437674]</t>
         </is>
       </c>
       <c r="H653" t="b">
@@ -27238,7 +27238,7 @@
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>[0.24001539429202653]</t>
+          <t>[0.24000141540972803]</t>
         </is>
       </c>
       <c r="H654" t="b">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>[0.2865541496201308, 0.20089264952974314]</t>
+          <t>[0.2865866142382498, 0.20092101640701274]</t>
         </is>
       </c>
       <c r="H655" t="b">
@@ -27305,7 +27305,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.084|x3: 0.000|x4: 0.072|x5: 0.167|x6: 0.111|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.157|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.054|x16: 0.391|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.084|x3: 0.000|x4: 0.071|x5: 0.167|x6: 0.111|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.157|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.054|x16: 0.391|x17: 0.000</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
@@ -27320,7 +27320,7 @@
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>[0.39145733159976026]</t>
+          <t>[0.391454364305129]</t>
         </is>
       </c>
       <c r="H656" t="b">
@@ -27361,7 +27361,7 @@
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>[0.2992401663861006]</t>
+          <t>[0.2992802081087079]</t>
         </is>
       </c>
       <c r="H657" t="b">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>x1: 0.061|x2: 0.189|x3: 0.133|x4: 0.000|x5: 0.042|x6: 0.000|x7: 0.000|x8: 0.195|x9: 0.056|x10: 0.145|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.072|x16: 0.357|x17: 0.000</t>
+          <t>x1: 0.061|x2: 0.189|x3: 0.133|x4: 0.000|x5: 0.042|x6: 0.000|x7: 0.000|x8: 0.196|x9: 0.056|x10: 0.145|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.072|x16: 0.357|x17: 0.000</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -27402,7 +27402,7 @@
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>[0.35652180470385547]</t>
+          <t>[0.35652771620156054]</t>
         </is>
       </c>
       <c r="H658" t="b">
@@ -27443,7 +27443,7 @@
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>[0.4171900626608511, 0.20912107683259873]</t>
+          <t>[0.4171142315828342, 0.20905846836360764]</t>
         </is>
       </c>
       <c r="H659" t="b">
@@ -27484,7 +27484,7 @@
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>[0.3567079335920598]</t>
+          <t>[0.35655719792534757]</t>
         </is>
       </c>
       <c r="H660" t="b">
@@ -27525,7 +27525,7 @@
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>[0.36013913495756417]</t>
+          <t>[0.36017522282221015]</t>
         </is>
       </c>
       <c r="H661" t="b">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>x1: 0.039|x2: 0.137|x3: 0.000|x4: 0.058|x5: 0.133|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.074|x11: 0.000|x12: 0.064|x13: 0.000|x14: 0.000|x15: 0.055|x16: 0.383|x17: 0.000</t>
+          <t>x1: 0.039|x2: 0.137|x3: 0.000|x4: 0.059|x5: 0.133|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.074|x11: 0.000|x12: 0.064|x13: 0.000|x14: 0.000|x15: 0.055|x16: 0.383|x17: 0.000</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
@@ -27566,7 +27566,7 @@
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>[0.3834119359661766]</t>
+          <t>[0.3833687000755483]</t>
         </is>
       </c>
       <c r="H662" t="b">
@@ -27607,7 +27607,7 @@
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>[0.3687329983153855, 0.2233612858584182]</t>
+          <t>[0.36864172467770784, 0.22333960407226974]</t>
         </is>
       </c>
       <c r="H663" t="b">
@@ -27633,7 +27633,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.083|x3: 0.080|x4: 0.054|x5: 0.153|x6: 0.000|x7: 0.000|x8: 0.076|x9: 0.000|x10: 0.083|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.258|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.083|x3: 0.080|x4: 0.054|x5: 0.153|x6: 0.000|x7: 0.000|x8: 0.077|x9: 0.000|x10: 0.083|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.258|x17: 0.000</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
@@ -27648,7 +27648,7 @@
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>[0.2580182579027744]</t>
+          <t>[0.25806418338577924]</t>
         </is>
       </c>
       <c r="H664" t="b">
@@ -27689,7 +27689,7 @@
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>[0.27084112155143214]</t>
+          <t>[0.2708403341614046]</t>
         </is>
       </c>
       <c r="H665" t="b">
@@ -27715,7 +27715,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>x1: 0.072|x2: 0.143|x3: 0.043|x4: 0.075|x5: 0.085|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.076|x11: 0.000|x12: 0.000|x13: 0.061|x14: 0.000|x15: 0.063|x16: 0.258|x17: 0.000</t>
+          <t>x1: 0.072|x2: 0.143|x3: 0.043|x4: 0.075|x5: 0.085|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.076|x11: 0.000|x12: 0.000|x13: 0.061|x14: 0.000|x15: 0.062|x16: 0.258|x17: 0.000</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
@@ -27730,7 +27730,7 @@
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>[0.25798821856793125]</t>
+          <t>[0.2579824139291702]</t>
         </is>
       </c>
       <c r="H666" t="b">
@@ -27771,7 +27771,7 @@
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>[0.3807038722486572]</t>
+          <t>[0.3806143309252028]</t>
         </is>
       </c>
       <c r="H667" t="b">
@@ -27812,7 +27812,7 @@
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>[0.28917989735578054]</t>
+          <t>[0.2893093193750757]</t>
         </is>
       </c>
       <c r="H668" t="b">
@@ -27853,7 +27853,7 @@
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>[0.463504890096879, 0.25298966559918035, 0.2191692977067853, 0.21076600299910536]</t>
+          <t>[0.463611951086412, 0.2530406730971082, 0.21916259277449993, 0.21081132299083868]</t>
         </is>
       </c>
       <c r="H669" t="b">
@@ -27894,7 +27894,7 @@
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>[0.38472774430805784]</t>
+          <t>[0.3847781725535174]</t>
         </is>
       </c>
       <c r="H670" t="b">
@@ -27920,7 +27920,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>x1: 0.053|x2: 0.139|x3: 0.086|x4: 0.057|x5: 0.125|x6: 0.000|x7: 0.000|x8: 0.063|x9: 0.000|x10: 0.137|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.040|x16: 0.358|x17: 0.000</t>
+          <t>x1: 0.052|x2: 0.139|x3: 0.086|x4: 0.057|x5: 0.125|x6: 0.000|x7: 0.000|x8: 0.063|x9: 0.000|x10: 0.137|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.040|x16: 0.358|x17: 0.000</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
@@ -27935,7 +27935,7 @@
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>[0.3584872192395099]</t>
+          <t>[0.35832774336458706]</t>
         </is>
       </c>
       <c r="H671" t="b">
@@ -27976,7 +27976,7 @@
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>[0.35813194367737194]</t>
+          <t>[0.35827355943126304]</t>
         </is>
       </c>
       <c r="H672" t="b">
@@ -28017,7 +28017,7 @@
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>[0.2367919061287744]</t>
+          <t>[0.23688334797657382]</t>
         </is>
       </c>
       <c r="H673" t="b">
@@ -28058,7 +28058,7 @@
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>[0.30797974043720744, 0.20533603245911455]</t>
+          <t>[0.3080267992649805, 0.20542517889435555]</t>
         </is>
       </c>
       <c r="H674" t="b">
@@ -28099,7 +28099,7 @@
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>[0.4689814570441273, 0.3179456617759998, 0.2722564359897862]</t>
+          <t>[0.46897928838675934, 0.31797114672792565, 0.27223626981968635]</t>
         </is>
       </c>
       <c r="H675" t="b">
@@ -28140,7 +28140,7 @@
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>[0.36635611502576015, 0.28081886086357]</t>
+          <t>[0.3664223909686617, 0.2808355579066819]</t>
         </is>
       </c>
       <c r="H676" t="b">
@@ -28166,7 +28166,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.172|x4: 0.168|x5: 0.248|x6: 0.076|x7: 0.050|x8: 0.052|x9: 0.000|x10: 0.087|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.397|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.172|x4: 0.168|x5: 0.248|x6: 0.077|x7: 0.050|x8: 0.052|x9: 0.000|x10: 0.087|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.397|x17: 0.000</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -28181,7 +28181,7 @@
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>[0.3968071151257219, 0.24792090860577298]</t>
+          <t>[0.39664158012221046, 0.24784209259020118]</t>
         </is>
       </c>
       <c r="H677" t="b">
@@ -28222,7 +28222,7 @@
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>[0.3586158526789182]</t>
+          <t>[0.3586153622151645]</t>
         </is>
       </c>
       <c r="H678" t="b">
@@ -28248,7 +28248,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.068|x3: 0.027|x4: 0.037|x5: 0.099|x6: 0.000|x7: 0.000|x8: 0.032|x9: 0.000|x10: 0.102|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.018|x16: 0.181|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.068|x3: 0.027|x4: 0.037|x5: 0.099|x6: 0.000|x7: 0.000|x8: 0.032|x9: 0.000|x10: 0.102|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.018|x16: 0.182|x17: 0.000</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -28304,7 +28304,7 @@
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>[0.3799844019049168]</t>
+          <t>[0.3800567983907789]</t>
         </is>
       </c>
       <c r="H680" t="b">
@@ -28345,7 +28345,7 @@
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>[0.316357935873922, 0.20520780377518566]</t>
+          <t>[0.3163703447330798, 0.20532043593859292]</t>
         </is>
       </c>
       <c r="H681" t="b">
@@ -28371,7 +28371,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>x1: 0.085|x2: 0.119|x3: 0.079|x4: 0.000|x5: 0.251|x6: 0.000|x7: 0.000|x8: 0.114|x9: 0.000|x10: 0.223|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.531|x17: 0.000</t>
+          <t>x1: 0.085|x2: 0.119|x3: 0.078|x4: 0.000|x5: 0.251|x6: 0.000|x7: 0.000|x8: 0.114|x9: 0.000|x10: 0.223|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.531|x17: 0.000</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
@@ -28386,7 +28386,7 @@
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>[0.5309159529624954, 0.2510971691977659, 0.2226168925048952]</t>
+          <t>[0.5309726175287023, 0.2510626968991361, 0.22271760920742315]</t>
         </is>
       </c>
       <c r="H682" t="b">
@@ -28427,7 +28427,7 @@
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>[0.42144458048423383, 0.20380936312795653]</t>
+          <t>[0.4214434055983872, 0.20382129813763347]</t>
         </is>
       </c>
       <c r="H683" t="b">
@@ -28468,7 +28468,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>[0.4039310304859506]</t>
+          <t>[0.4039103579395331]</t>
         </is>
       </c>
       <c r="H684" t="b">
@@ -28494,7 +28494,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.141|x3: 0.136|x4: 0.044|x5: 0.243|x6: 0.000|x7: 0.000|x8: 0.047|x9: 0.000|x10: 0.180|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.484|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.141|x3: 0.136|x4: 0.044|x5: 0.242|x6: 0.000|x7: 0.000|x8: 0.047|x9: 0.000|x10: 0.180|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.484|x17: 0.000</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
@@ -28509,7 +28509,7 @@
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>[0.48396834865629934, 0.24251630029750218]</t>
+          <t>[0.48391561540667666, 0.24245770795785893]</t>
         </is>
       </c>
       <c r="H685" t="b">
@@ -28550,7 +28550,7 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>[0.33395777582192965]</t>
+          <t>[0.33411435871772666]</t>
         </is>
       </c>
       <c r="H686" t="b">
@@ -28591,7 +28591,7 @@
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>[0.40735726928183635]</t>
+          <t>[0.4073307134081557]</t>
         </is>
       </c>
       <c r="H687" t="b">
@@ -28632,7 +28632,7 @@
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>[0.3669248746409714]</t>
+          <t>[0.36684084628635455]</t>
         </is>
       </c>
       <c r="H688" t="b">
@@ -28673,7 +28673,7 @@
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>[0.29760446882998726]</t>
+          <t>[0.2976563155641845]</t>
         </is>
       </c>
       <c r="H689" t="b">
@@ -28714,7 +28714,7 @@
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>[0.32297489826616194]</t>
+          <t>[0.32294051675171603]</t>
         </is>
       </c>
       <c r="H690" t="b">
@@ -28755,7 +28755,7 @@
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>[0.3470709165830257]</t>
+          <t>[0.3470089925556764]</t>
         </is>
       </c>
       <c r="H691" t="b">
@@ -28796,7 +28796,7 @@
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>[0.2894023371252511]</t>
+          <t>[0.28938835910877314]</t>
         </is>
       </c>
       <c r="H692" t="b">
@@ -28822,7 +28822,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>x1: 0.045|x2: 0.106|x3: 0.193|x4: 0.081|x5: 0.198|x6: 0.000|x7: 0.000|x8: 0.086|x9: 0.000|x10: 0.121|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.357|x17: 0.000</t>
+          <t>x1: 0.045|x2: 0.106|x3: 0.193|x4: 0.081|x5: 0.198|x6: 0.000|x7: 0.000|x8: 0.086|x9: 0.000|x10: 0.120|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.357|x17: 0.000</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
@@ -28837,7 +28837,7 @@
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>[0.3568981215711943]</t>
+          <t>[0.3568286716779689]</t>
         </is>
       </c>
       <c r="H693" t="b">
@@ -28878,7 +28878,7 @@
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>[0.36084857678264565]</t>
+          <t>[0.36081502209363786]</t>
         </is>
       </c>
       <c r="H694" t="b">
@@ -28904,7 +28904,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>x1: 0.085|x2: 0.129|x3: 0.000|x4: 0.049|x5: 0.166|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.129|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.048|x15: 0.092|x16: 0.369|x17: 0.000</t>
+          <t>x1: 0.084|x2: 0.129|x3: 0.000|x4: 0.049|x5: 0.166|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.129|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.048|x15: 0.092|x16: 0.369|x17: 0.000</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -28919,7 +28919,7 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>[0.36875085099356797]</t>
+          <t>[0.3686644923175999]</t>
         </is>
       </c>
       <c r="H695" t="b">
@@ -28945,7 +28945,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.106|x3: 0.102|x4: 0.078|x5: 0.203|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.105|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.077|x16: 0.358|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.106|x3: 0.102|x4: 0.079|x5: 0.203|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.105|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.077|x16: 0.358|x17: 0.000</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
@@ -28960,7 +28960,7 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>[0.3578572809721065, 0.20341711998335277]</t>
+          <t>[0.35782674806672615, 0.20343523984984455]</t>
         </is>
       </c>
       <c r="H696" t="b">
@@ -29001,7 +29001,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>[0.31412544789183916]</t>
+          <t>[0.31413004085473667]</t>
         </is>
       </c>
       <c r="H697" t="b">
@@ -29042,7 +29042,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>[0.3775821475258291, 0.2188031730686545]</t>
+          <t>[0.37757513191887987, 0.2188267934363191]</t>
         </is>
       </c>
       <c r="H698" t="b">
@@ -29083,7 +29083,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>[0.32832908116693976]</t>
+          <t>[0.3283744151868135]</t>
         </is>
       </c>
       <c r="H699" t="b">
@@ -29109,7 +29109,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.064|x3: 0.000|x4: 0.000|x5: 0.203|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.120|x11: 0.065|x12: 0.044|x13: 0.000|x14: 0.053|x15: 0.000|x16: 0.316|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.064|x3: 0.000|x4: 0.000|x5: 0.203|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.121|x11: 0.065|x12: 0.044|x13: 0.000|x14: 0.053|x15: 0.000|x16: 0.316|x17: 0.000</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
@@ -29124,7 +29124,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>[0.3156593088825466, 0.203006709833237]</t>
+          <t>[0.31573534382904106, 0.20307116797443242]</t>
         </is>
       </c>
       <c r="H700" t="b">
@@ -29191,7 +29191,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.066|x5: 0.000|x6: 0.077|x7: 0.191|x8: 0.000|x9: 0.000|x10: 0.052|x11: 0.085|x12: 0.116|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.066|x5: 0.000|x6: 0.077|x7: 0.190|x8: 0.000|x9: 0.000|x10: 0.052|x11: 0.085|x12: 0.116|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
@@ -29232,7 +29232,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.051|x3: 0.000|x4: 0.033|x5: 0.000|x6: 0.046|x7: 0.067|x8: 0.000|x9: 0.000|x10: 0.038|x11: 0.037|x12: 0.000|x13: 0.122|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.051|x3: 0.000|x4: 0.033|x5: 0.000|x6: 0.046|x7: 0.067|x8: 0.000|x9: 0.000|x10: 0.039|x11: 0.037|x12: 0.000|x13: 0.122|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
@@ -29355,7 +29355,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.140|x5: 0.112|x6: 0.000|x7: 0.151|x8: 0.000|x9: 0.000|x10: 0.089|x11: 0.131|x12: 0.047|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.078|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.140|x5: 0.112|x6: 0.000|x7: 0.151|x8: 0.000|x9: 0.000|x10: 0.089|x11: 0.130|x12: 0.047|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.078|x17: 0.000</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
@@ -29493,7 +29493,7 @@
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>[0.20576746724540182]</t>
+          <t>[0.20576690722178098]</t>
         </is>
       </c>
       <c r="H709" t="b">
@@ -29534,7 +29534,7 @@
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>[0.21433386911897212]</t>
+          <t>[0.2143526701329105]</t>
         </is>
       </c>
       <c r="H710" t="b">
@@ -29765,7 +29765,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>x1: 0.053|x2: 0.132|x3: 0.000|x4: 0.158|x5: 0.124|x6: 0.092|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.154|x11: 0.000|x12: 0.000|x13: 0.110|x14: 0.000|x15: 0.105|x16: 0.161|x17: 0.000</t>
+          <t>x1: 0.053|x2: 0.132|x3: 0.000|x4: 0.158|x5: 0.124|x6: 0.092|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.154|x11: 0.000|x12: 0.000|x13: 0.110|x14: 0.000|x15: 0.104|x16: 0.161|x17: 0.000</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
@@ -29806,7 +29806,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.094|x3: 0.000|x4: 0.149|x5: 0.174|x6: 0.000|x7: 0.000|x8: 0.073|x9: 0.080|x10: 0.131|x11: 0.000|x12: 0.000|x13: 0.123|x14: 0.000|x15: 0.000|x16: 0.216|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.094|x3: 0.000|x4: 0.149|x5: 0.174|x6: 0.000|x7: 0.000|x8: 0.073|x9: 0.080|x10: 0.131|x11: 0.000|x12: 0.000|x13: 0.123|x14: 0.000|x15: 0.000|x16: 0.215|x17: 0.000</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
@@ -29821,7 +29821,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>[0.21552218927639685]</t>
+          <t>[0.21546774232409457]</t>
         </is>
       </c>
       <c r="H717" t="b">
@@ -29888,7 +29888,7 @@
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.047|x6: 0.054|x7: 0.108|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.186|x12: 0.033|x13: 0.087|x14: 0.033|x15: 0.050|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.047|x6: 0.055|x7: 0.108|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.186|x12: 0.033|x13: 0.087|x14: 0.033|x15: 0.050|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
@@ -29929,7 +29929,7 @@
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>x1: 0.067|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.135|x8: 0.000|x9: 0.063|x10: 0.000|x11: 0.362|x12: 0.070|x13: 0.121|x14: 0.046|x15: 0.054|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.067|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.135|x8: 0.000|x9: 0.063|x10: 0.000|x11: 0.361|x12: 0.070|x13: 0.120|x14: 0.046|x15: 0.054|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
@@ -29944,7 +29944,7 @@
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>[0.36151172260046843]</t>
+          <t>[0.3613520205648544]</t>
         </is>
       </c>
       <c r="H720" t="b">
@@ -29985,7 +29985,7 @@
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>[0.3007514016575898]</t>
+          <t>[0.30078045418736726]</t>
         </is>
       </c>
       <c r="H721" t="b">
@@ -30067,7 +30067,7 @@
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>[0.2517231778920092]</t>
+          <t>[0.25170991362402306]</t>
         </is>
       </c>
       <c r="H723" t="b">
@@ -30108,7 +30108,7 @@
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>[0.25426936405281736]</t>
+          <t>[0.2543214167666101]</t>
         </is>
       </c>
       <c r="H724" t="b">
@@ -30354,7 +30354,7 @@
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>[0.2129280522120238]</t>
+          <t>[0.21301475269494233]</t>
         </is>
       </c>
       <c r="H730" t="b">
@@ -30380,7 +30380,7 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>x1: 0.089|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.303|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.090|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.303|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E731" t="inlineStr">
@@ -30395,7 +30395,7 @@
       </c>
       <c r="G731" t="inlineStr">
         <is>
-          <t>[0.3026110581103525]</t>
+          <t>[0.3026892503087487]</t>
         </is>
       </c>
       <c r="H731" t="b">
@@ -30559,7 +30559,7 @@
       </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>[0.21671562750358658]</t>
+          <t>[0.21663555156222428]</t>
         </is>
       </c>
       <c r="H735" t="b">
@@ -30667,7 +30667,7 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.094|x5: 0.000|x6: 0.000|x7: 0.140|x8: 0.000|x9: 0.043|x10: 0.000|x11: 0.153|x12: 0.048|x13: 0.049|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.094|x5: 0.000|x6: 0.000|x7: 0.140|x8: 0.000|x9: 0.043|x10: 0.000|x11: 0.152|x12: 0.048|x13: 0.049|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -30708,7 +30708,7 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.011|x8: 0.000|x9: 0.000|x10: 0.000|x11: -0.006|x12: -0.022|x13: -0.008|x14: -0.006|x15: -0.003|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.011|x8: 0.000|x9: 0.000|x10: 0.000|x11: -0.006|x12: -0.021|x13: -0.008|x14: -0.006|x15: -0.003|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E739" t="inlineStr">
@@ -30969,7 +30969,7 @@
       </c>
       <c r="G745" t="inlineStr">
         <is>
-          <t>[0.2396588918517527]</t>
+          <t>[0.23965655069967368]</t>
         </is>
       </c>
       <c r="H745" t="b">
@@ -31010,7 +31010,7 @@
       </c>
       <c r="G746" t="inlineStr">
         <is>
-          <t>[0.2732705056161575]</t>
+          <t>[0.2733987532011675]</t>
         </is>
       </c>
       <c r="H746" t="b">
@@ -31215,7 +31215,7 @@
       </c>
       <c r="G751" t="inlineStr">
         <is>
-          <t>[0.2161892621030677]</t>
+          <t>[0.21613078803551755]</t>
         </is>
       </c>
       <c r="H751" t="b">
@@ -31282,7 +31282,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.202|x8: 0.092|x9: 0.241|x10: 0.108|x11: 0.056|x12: 0.280|x13: 0.100|x14: 0.104|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.202|x8: 0.093|x9: 0.241|x10: 0.108|x11: 0.056|x12: 0.280|x13: 0.100|x14: 0.104|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E753" t="inlineStr">
@@ -31297,7 +31297,7 @@
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>[0.28036405528118963, 0.2409745338376049, 0.2018527265241466]</t>
+          <t>[0.28038329571180753, 0.24097809554818977, 0.20184852028845468]</t>
         </is>
       </c>
       <c r="H753" t="b">
@@ -31487,7 +31487,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.053|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.144|x8: 0.000|x9: 0.000|x10: 0.049|x11: 0.085|x12: 0.349|x13: 0.076|x14: 0.077|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.053|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.144|x8: 0.000|x9: 0.000|x10: 0.049|x11: 0.085|x12: 0.348|x13: 0.076|x14: 0.077|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
@@ -31502,7 +31502,7 @@
       </c>
       <c r="G758" t="inlineStr">
         <is>
-          <t>[0.3485721197100117]</t>
+          <t>[0.348495232069118]</t>
         </is>
       </c>
       <c r="H758" t="b">
@@ -31774,7 +31774,7 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>x1: 0.017|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.058|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.163|x13: 0.019|x14: 0.040|x15: 0.030|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.017|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.058|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.163|x13: 0.019|x14: 0.039|x15: 0.030|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
@@ -31815,7 +31815,7 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.028|x8: 0.000|x9: -0.011|x10: 0.000|x11: -0.027|x12: -0.047|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.028|x8: 0.000|x9: -0.011|x10: 0.000|x11: -0.027|x12: -0.046|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
@@ -31856,7 +31856,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.057|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.053|x12: 0.045|x13: 0.083|x14: 0.058|x15: 0.017|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.057|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.053|x12: 0.045|x13: 0.084|x14: 0.058|x15: 0.017|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
@@ -31912,7 +31912,7 @@
       </c>
       <c r="G768" t="inlineStr">
         <is>
-          <t>[0.32908246377380446]</t>
+          <t>[0.32916736623379317]</t>
         </is>
       </c>
       <c r="H768" t="b">
@@ -31953,7 +31953,7 @@
       </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>[0.3619259966178906, 0.2535531349577033]</t>
+          <t>[0.36195120487805077, 0.25361795796468006]</t>
         </is>
       </c>
       <c r="H769" t="b">
@@ -31994,7 +31994,7 @@
       </c>
       <c r="G770" t="inlineStr">
         <is>
-          <t>[0.2511136865033201]</t>
+          <t>[0.25111974160856104]</t>
         </is>
       </c>
       <c r="H770" t="b">
@@ -32020,7 +32020,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>x1: 0.121|x2: 0.138|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.063|x8: 0.048|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.115|x13: 0.062|x14: 0.195|x15: 0.247|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.121|x2: 0.138|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.063|x8: 0.048|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.115|x13: 0.061|x14: 0.195|x15: 0.247|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E771" t="inlineStr">
@@ -32035,7 +32035,7 @@
       </c>
       <c r="G771" t="inlineStr">
         <is>
-          <t>[0.24655667593577058]</t>
+          <t>[0.24652709884434745]</t>
         </is>
       </c>
       <c r="H771" t="b">
@@ -32143,7 +32143,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.078|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.288|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.050|x12: 0.279|x13: 0.259|x14: 0.190|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.078|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.289|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.050|x12: 0.279|x13: 0.259|x14: 0.190|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
@@ -32158,7 +32158,7 @@
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>[0.2884988336337523, 0.2791992715997474, 0.2585055465682953]</t>
+          <t>[0.2885808601018402, 0.27923450101849007, 0.2585306423521468]</t>
         </is>
       </c>
       <c r="H774" t="b">
@@ -32281,7 +32281,7 @@
       </c>
       <c r="G777" t="inlineStr">
         <is>
-          <t>[0.22332367195555414]</t>
+          <t>[0.2233444676556403]</t>
         </is>
       </c>
       <c r="H777" t="b">
@@ -32348,7 +32348,7 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>x1: 0.094|x2: 0.050|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.054|x7: 0.062|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.074|x12: 0.000|x13: 0.163|x14: 0.106|x15: 0.096|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.094|x2: 0.050|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.054|x7: 0.062|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.075|x12: 0.000|x13: 0.163|x14: 0.106|x15: 0.096|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
@@ -32594,7 +32594,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>x1: 0.052|x2: 0.000|x3: 0.000|x4: 0.051|x5: 0.000|x6: 0.000|x7: 0.053|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.087|x12: 0.100|x13: 0.123|x14: 0.058|x15: 0.088|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.053|x2: 0.000|x3: 0.000|x4: 0.051|x5: 0.000|x6: 0.000|x7: 0.053|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.087|x12: 0.100|x13: 0.124|x14: 0.058|x15: 0.088|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
@@ -32650,7 +32650,7 @@
       </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>[0.20936297624465994]</t>
+          <t>[0.20936125471523168]</t>
         </is>
       </c>
       <c r="H786" t="b">
@@ -32691,7 +32691,7 @@
       </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>[0.36109982243374256, 0.20319181374012307]</t>
+          <t>[0.36116024442785616, 0.20322106735470058]</t>
         </is>
       </c>
       <c r="H787" t="b">
@@ -32732,7 +32732,7 @@
       </c>
       <c r="G788" t="inlineStr">
         <is>
-          <t>[0.21419066077998955]</t>
+          <t>[0.21420104401730677]</t>
         </is>
       </c>
       <c r="H788" t="b">
@@ -32763,7 +32763,7 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>[-0.09, -0.02, 0.00]</t>
+          <t>[-0.10, -0.02, 0.00]</t>
         </is>
       </c>
       <c r="F789" t="inlineStr">
@@ -33019,7 +33019,7 @@
       </c>
       <c r="G795" t="inlineStr">
         <is>
-          <t>[0.29890570819880213]</t>
+          <t>[0.2989015293972076]</t>
         </is>
       </c>
       <c r="H795" t="b">
@@ -33168,7 +33168,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.019|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.016|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.072|x14: 0.075|x15: 0.067|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.019|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.016|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.072|x14: 0.075|x15: 0.068|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
@@ -33209,7 +33209,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.041|x8: 0.000|x9: 0.046|x10: 0.056|x11: 0.000|x12: 0.079|x13: 0.000|x14: 0.153|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.041|x8: 0.000|x9: 0.046|x10: 0.057|x11: 0.000|x12: 0.079|x13: 0.000|x14: 0.153|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E800" t="inlineStr">
@@ -33347,7 +33347,7 @@
       </c>
       <c r="G803" t="inlineStr">
         <is>
-          <t>[0.266378479060145, 0.20535091745088727]</t>
+          <t>[0.26636223322302394, 0.20533479242129327]</t>
         </is>
       </c>
       <c r="H803" t="b">
@@ -33552,7 +33552,7 @@
       </c>
       <c r="G808" t="inlineStr">
         <is>
-          <t>[0.2140966336450039]</t>
+          <t>[0.21416907553905698]</t>
         </is>
       </c>
       <c r="H808" t="b">
@@ -33593,7 +33593,7 @@
       </c>
       <c r="G809" t="inlineStr">
         <is>
-          <t>[0.219675725446891]</t>
+          <t>[0.21968947006063064]</t>
         </is>
       </c>
       <c r="H809" t="b">
@@ -33798,7 +33798,7 @@
       </c>
       <c r="G814" t="inlineStr">
         <is>
-          <t>[0.23107624902475793]</t>
+          <t>[0.23105338944735648]</t>
         </is>
       </c>
       <c r="H814" t="b">
@@ -33947,7 +33947,7 @@
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>x1: 0.085|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.055|x7: 0.079|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.233|x12: 0.127|x13: 0.000|x14: 0.000|x15: 0.084|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.085|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.055|x7: 0.079|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.232|x12: 0.127|x13: 0.000|x14: 0.000|x15: 0.084|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E818" t="inlineStr">
@@ -33962,7 +33962,7 @@
       </c>
       <c r="G818" t="inlineStr">
         <is>
-          <t>[0.23258844265083517]</t>
+          <t>[0.2324995687795258]</t>
         </is>
       </c>
       <c r="H818" t="b">
@@ -34029,7 +34029,7 @@
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.055|x5: 0.108|x6: 0.046|x7: 0.075|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.152|x12: 0.064|x13: 0.041|x14: 0.060|x15: 0.000|x16: 0.068|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.055|x5: 0.108|x6: 0.046|x7: 0.075|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.152|x12: 0.064|x13: 0.041|x14: 0.060|x15: 0.000|x16: 0.067|x17: 0.000</t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
@@ -34070,7 +34070,7 @@
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.039|x7: 0.025|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.080|x12: 0.037|x13: 0.057|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.039|x7: 0.026|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.080|x12: 0.037|x13: 0.057|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E821" t="inlineStr">
@@ -34480,7 +34480,7 @@
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t>x1: 0.224|x2: 0.000|x3: 0.000|x4: 0.068|x5: 0.085|x6: 0.100|x7: 0.000|x8: 0.186|x9: 0.000|x10: 0.116|x11: 0.119|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.103|x17: 0.000</t>
+          <t>x1: 0.224|x2: 0.000|x3: 0.000|x4: 0.069|x5: 0.085|x6: 0.100|x7: 0.000|x8: 0.186|x9: 0.000|x10: 0.116|x11: 0.119|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.103|x17: 0.000</t>
         </is>
       </c>
       <c r="E831" t="inlineStr">
@@ -34495,7 +34495,7 @@
       </c>
       <c r="G831" t="inlineStr">
         <is>
-          <t>[0.223638819073694]</t>
+          <t>[0.22355592707300587]</t>
         </is>
       </c>
       <c r="H831" t="b">
@@ -34577,7 +34577,7 @@
       </c>
       <c r="G833" t="inlineStr">
         <is>
-          <t>[0.2929663544729143, 0.27272581805880325]</t>
+          <t>[0.29295456453391494, 0.2726847774412539]</t>
         </is>
       </c>
       <c r="H833" t="b">
@@ -34972,7 +34972,7 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.120|x5: 0.000|x6: 0.000|x7: 0.210|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.143|x12: 0.091|x13: 0.142|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.121|x5: 0.000|x6: 0.000|x7: 0.210|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.143|x12: 0.091|x13: 0.142|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E843" t="inlineStr">
@@ -34987,7 +34987,7 @@
       </c>
       <c r="G843" t="inlineStr">
         <is>
-          <t>[0.2102687511903636]</t>
+          <t>[0.2102894288172324]</t>
         </is>
       </c>
       <c r="H843" t="b">
@@ -35095,7 +35095,7 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>x1: 0.124|x2: 0.000|x3: 0.000|x4: 0.063|x5: 0.113|x6: 0.000|x7: 0.000|x8: 0.056|x9: 0.000|x10: 0.147|x11: 0.149|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.180|x17: 0.000</t>
+          <t>x1: 0.124|x2: 0.000|x3: 0.000|x4: 0.063|x5: 0.112|x6: 0.000|x7: 0.000|x8: 0.056|x9: 0.000|x10: 0.147|x11: 0.149|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.180|x17: 0.000</t>
         </is>
       </c>
       <c r="E846" t="inlineStr">
@@ -35218,7 +35218,7 @@
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>x1: 0.048|x2: 0.000|x3: 0.000|x4: 0.063|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.061|x12: 0.000|x13: 0.064|x14: 0.038|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.048|x2: 0.000|x3: 0.000|x4: 0.062|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.061|x12: 0.000|x13: 0.064|x14: 0.038|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E849" t="inlineStr">
@@ -35259,7 +35259,7 @@
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t>x1: 0.140|x2: 0.114|x3: 0.000|x4: 0.099|x5: 0.098|x6: 0.000|x7: 0.000|x8: 0.094|x9: 0.054|x10: 0.173|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.133|x15: 0.086|x16: 0.077|x17: 0.000</t>
+          <t>x1: 0.140|x2: 0.114|x3: 0.000|x4: 0.099|x5: 0.098|x6: 0.000|x7: 0.000|x8: 0.093|x9: 0.054|x10: 0.173|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.133|x15: 0.086|x16: 0.077|x17: 0.000</t>
         </is>
       </c>
       <c r="E850" t="inlineStr">
@@ -35643,7 +35643,7 @@
       </c>
       <c r="G859" t="inlineStr">
         <is>
-          <t>[0.28828972222295923, 0.21945776989427906]</t>
+          <t>[0.28832059634040164, 0.21945739347238585]</t>
         </is>
       </c>
       <c r="H859" t="b">
@@ -35874,7 +35874,7 @@
       </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t>x1: 0.065|x2: 0.118|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.092|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.053|x12: 0.095|x13: 0.066|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.065|x2: 0.117|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.092|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.053|x12: 0.095|x13: 0.066|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E865" t="inlineStr">
@@ -35971,7 +35971,7 @@
       </c>
       <c r="G867" t="inlineStr">
         <is>
-          <t>[0.23101909765285267, 0.20028927738090077]</t>
+          <t>[0.23105847817787697, 0.20026915487730898]</t>
         </is>
       </c>
       <c r="H867" t="b">
@@ -36012,7 +36012,7 @@
       </c>
       <c r="G868" t="inlineStr">
         <is>
-          <t>[0.2657095241400152]</t>
+          <t>[0.2655932679207942]</t>
         </is>
       </c>
       <c r="H868" t="b">
@@ -36094,7 +36094,7 @@
       </c>
       <c r="G870" t="inlineStr">
         <is>
-          <t>[0.22957425719634894]</t>
+          <t>[0.2295995452870781]</t>
         </is>
       </c>
       <c r="H870" t="b">
@@ -36120,7 +36120,7 @@
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>x1: 0.118|x2: 0.000|x3: 0.137|x4: 0.065|x5: 0.000|x6: 0.366|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.131|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.118|x2: 0.000|x3: 0.137|x4: 0.065|x5: 0.000|x6: 0.366|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.130|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E871" t="inlineStr">
@@ -36135,7 +36135,7 @@
       </c>
       <c r="G871" t="inlineStr">
         <is>
-          <t>[0.366482372156397]</t>
+          <t>[0.36626972317245443]</t>
         </is>
       </c>
       <c r="H871" t="b">
@@ -36176,7 +36176,7 @@
       </c>
       <c r="G872" t="inlineStr">
         <is>
-          <t>[0.2818024315624414, 0.26155655004379413]</t>
+          <t>[0.28168808959786473, 0.26157927929248753]</t>
         </is>
       </c>
       <c r="H872" t="b">
@@ -36217,7 +36217,7 @@
       </c>
       <c r="G873" t="inlineStr">
         <is>
-          <t>[0.3355886793058427]</t>
+          <t>[0.3355701009674752]</t>
         </is>
       </c>
       <c r="H873" t="b">
@@ -36284,7 +36284,7 @@
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>x1: 0.086|x2: 0.000|x3: 0.316|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.157|x8: 0.071|x9: 0.074|x10: 0.086|x11: 0.000|x12: 0.113|x13: 0.092|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.086|x2: 0.000|x3: 0.316|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.156|x8: 0.071|x9: 0.074|x10: 0.086|x11: 0.000|x12: 0.113|x13: 0.092|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E875" t="inlineStr">
@@ -36299,7 +36299,7 @@
       </c>
       <c r="G875" t="inlineStr">
         <is>
-          <t>[0.3157445397043121]</t>
+          <t>[0.3156590793031333]</t>
         </is>
       </c>
       <c r="H875" t="b">
@@ -36340,7 +36340,7 @@
       </c>
       <c r="G876" t="inlineStr">
         <is>
-          <t>[0.2105545557249909]</t>
+          <t>[0.2105597672329713]</t>
         </is>
       </c>
       <c r="H876" t="b">
@@ -36463,7 +36463,7 @@
       </c>
       <c r="G879" t="inlineStr">
         <is>
-          <t>[0.21795145446855527]</t>
+          <t>[0.21792550797063473]</t>
         </is>
       </c>
       <c r="H879" t="b">
@@ -36750,7 +36750,7 @@
       </c>
       <c r="G886" t="inlineStr">
         <is>
-          <t>[0.20831553693214652]</t>
+          <t>[0.20834111183556442]</t>
         </is>
       </c>
       <c r="H886" t="b">
@@ -36776,7 +36776,7 @@
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.073|x3: 0.000|x4: 0.033|x5: 0.000|x6: 0.000|x7: 0.041|x8: 0.082|x9: 0.061|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.073|x3: 0.000|x4: 0.033|x5: 0.000|x6: 0.000|x7: 0.040|x8: 0.082|x9: 0.061|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.045|x17: 0.000</t>
         </is>
       </c>
       <c r="E887" t="inlineStr">
@@ -36996,7 +36996,7 @@
       </c>
       <c r="G892" t="inlineStr">
         <is>
-          <t>[0.31060767701608966]</t>
+          <t>[0.3106574007461348]</t>
         </is>
       </c>
       <c r="H892" t="b">
@@ -37022,7 +37022,7 @@
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.215|x5: 0.036|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.047|x13: 0.043|x14: 0.000|x15: 0.000|x16: 0.035|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.215|x5: 0.036|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.047|x13: 0.044|x14: 0.000|x15: 0.000|x16: 0.035|x17: 0.000</t>
         </is>
       </c>
       <c r="E893" t="inlineStr">
@@ -37037,7 +37037,7 @@
       </c>
       <c r="G893" t="inlineStr">
         <is>
-          <t>[0.21454544996369115]</t>
+          <t>[0.2147785618662292]</t>
         </is>
       </c>
       <c r="H893" t="b">
@@ -37324,7 +37324,7 @@
       </c>
       <c r="G900" t="inlineStr">
         <is>
-          <t>[0.20141998175410078]</t>
+          <t>[0.20149624814727604]</t>
         </is>
       </c>
       <c r="H900" t="b">
@@ -37365,7 +37365,7 @@
       </c>
       <c r="G901" t="inlineStr">
         <is>
-          <t>[0.26561741601671174]</t>
+          <t>[0.2656422460429364]</t>
         </is>
       </c>
       <c r="H901" t="b">
@@ -37473,7 +37473,7 @@
       </c>
       <c r="D904" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.081|x8: 0.040|x9: 0.000|x10: 0.000|x11: 0.156|x12: 0.000|x13: 0.029|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.081|x8: 0.040|x9: 0.000|x10: 0.000|x11: 0.157|x12: 0.000|x13: 0.029|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E904" t="inlineStr">
@@ -37596,7 +37596,7 @@
       </c>
       <c r="D907" t="inlineStr">
         <is>
-          <t>x1: 0.049|x2: 0.000|x3: 0.000|x4: 0.049|x5: 0.064|x6: 0.000|x7: 0.103|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.053|x12: 0.080|x13: 0.077|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.049|x2: 0.000|x3: 0.000|x4: 0.049|x5: 0.064|x6: 0.000|x7: 0.103|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.053|x12: 0.081|x13: 0.077|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E907" t="inlineStr">
@@ -37637,7 +37637,7 @@
       </c>
       <c r="D908" t="inlineStr">
         <is>
-          <t>x1: 0.139|x2: 0.000|x3: 0.000|x4: 0.125|x5: 0.238|x6: 0.000|x7: 0.000|x8: 0.083|x9: 0.000|x10: 0.036|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.140|x2: 0.000|x3: 0.000|x4: 0.125|x5: 0.239|x6: 0.000|x7: 0.000|x8: 0.083|x9: 0.000|x10: 0.036|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E908" t="inlineStr">
@@ -37652,7 +37652,7 @@
       </c>
       <c r="G908" t="inlineStr">
         <is>
-          <t>[0.23842511868481986]</t>
+          <t>[0.2386533621410552]</t>
         </is>
       </c>
       <c r="H908" t="b">
@@ -37801,7 +37801,7 @@
       </c>
       <c r="D912" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.037|x5: 0.044|x6: 0.011|x7: 0.027|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.032|x12: 0.046|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.037|x5: 0.044|x6: 0.011|x7: 0.027|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.032|x12: 0.045|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E912" t="inlineStr">
@@ -37857,7 +37857,7 @@
       </c>
       <c r="G913" t="inlineStr">
         <is>
-          <t>[0.2555495252974547]</t>
+          <t>[0.25561686766871106]</t>
         </is>
       </c>
       <c r="H913" t="b">
@@ -37924,7 +37924,7 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>x1: 0.072|x2: 0.022|x3: 0.000|x4: 0.040|x5: 0.000|x6: 0.000|x7: 0.043|x8: 0.082|x9: 0.000|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.021|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.072|x2: 0.022|x3: 0.000|x4: 0.040|x5: 0.000|x6: 0.000|x7: 0.043|x8: 0.083|x9: 0.000|x10: 0.040|x11: 0.000|x12: 0.000|x13: 0.021|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E915" t="inlineStr">
@@ -38006,7 +38006,7 @@
       </c>
       <c r="D917" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.224|x6: 0.067|x7: 0.117|x8: 0.000|x9: 0.000|x10: 0.061|x11: 0.123|x12: 0.097|x13: 0.068|x14: 0.045|x15: 0.053|x16: 0.144|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.224|x6: 0.068|x7: 0.117|x8: 0.000|x9: 0.000|x10: 0.061|x11: 0.123|x12: 0.097|x13: 0.068|x14: 0.045|x15: 0.053|x16: 0.144|x17: 0.000</t>
         </is>
       </c>
       <c r="E917" t="inlineStr">
@@ -38021,7 +38021,7 @@
       </c>
       <c r="G917" t="inlineStr">
         <is>
-          <t>[0.22407949641927244]</t>
+          <t>[0.22408620038437652]</t>
         </is>
       </c>
       <c r="H917" t="b">
@@ -38088,7 +38088,7 @@
       </c>
       <c r="D919" t="inlineStr">
         <is>
-          <t>x1: 0.225|x2: 0.107|x3: 0.050|x4: 0.101|x5: 0.070|x6: 0.000|x7: 0.000|x8: 0.129|x9: 0.000|x10: 0.087|x11: 0.069|x12: 0.000|x13: 0.063|x14: 0.000|x15: 0.054|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.225|x2: 0.107|x3: 0.050|x4: 0.101|x5: 0.070|x6: 0.000|x7: 0.000|x8: 0.129|x9: 0.000|x10: 0.087|x11: 0.069|x12: 0.000|x13: 0.063|x14: 0.000|x15: 0.055|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E919" t="inlineStr">
@@ -38103,7 +38103,7 @@
       </c>
       <c r="G919" t="inlineStr">
         <is>
-          <t>[0.22524979340127319]</t>
+          <t>[0.22524212742820712]</t>
         </is>
       </c>
       <c r="H919" t="b">
@@ -38144,7 +38144,7 @@
       </c>
       <c r="G920" t="inlineStr">
         <is>
-          <t>[0.3384907432930212]</t>
+          <t>[0.33849731605942324]</t>
         </is>
       </c>
       <c r="H920" t="b">
@@ -38349,7 +38349,7 @@
       </c>
       <c r="G925" t="inlineStr">
         <is>
-          <t>[0.24422484740362513, 0.20289143891997133]</t>
+          <t>[0.24436497363781803, 0.20301254996568624]</t>
         </is>
       </c>
       <c r="H925" t="b">
@@ -38375,7 +38375,7 @@
       </c>
       <c r="D926" t="inlineStr">
         <is>
-          <t>x1: 0.075|x2: 0.130|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.135|x7: 0.000|x8: 0.055|x9: 0.105|x10: 0.092|x11: 0.109|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.074|x2: 0.130|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.135|x7: 0.000|x8: 0.055|x9: 0.105|x10: 0.092|x11: 0.109|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E926" t="inlineStr">
@@ -38457,7 +38457,7 @@
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>x1: 0.085|x2: 0.000|x3: 0.000|x4: 0.092|x5: 0.059|x6: 0.100|x7: 0.229|x8: 0.000|x9: 0.057|x10: 0.123|x11: 0.102|x12: 0.141|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.085|x2: 0.000|x3: 0.000|x4: 0.092|x5: 0.059|x6: 0.100|x7: 0.230|x8: 0.000|x9: 0.057|x10: 0.123|x11: 0.102|x12: 0.141|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E928" t="inlineStr">
@@ -38472,7 +38472,7 @@
       </c>
       <c r="G928" t="inlineStr">
         <is>
-          <t>[0.22943205776037046]</t>
+          <t>[0.2295231916642932]</t>
         </is>
       </c>
       <c r="H928" t="b">
@@ -38662,7 +38662,7 @@
       </c>
       <c r="D933" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.197|x7: 0.202|x8: 0.000|x9: 0.000|x10: 0.110|x11: 0.095|x12: 0.066|x13: 0.056|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.196|x7: 0.202|x8: 0.000|x9: 0.000|x10: 0.110|x11: 0.095|x12: 0.066|x13: 0.056|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E933" t="inlineStr">
@@ -38677,7 +38677,7 @@
       </c>
       <c r="G933" t="inlineStr">
         <is>
-          <t>[0.2018083091374438]</t>
+          <t>[0.2017054154067245]</t>
         </is>
       </c>
       <c r="H933" t="b">
@@ -38703,7 +38703,7 @@
       </c>
       <c r="D934" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.043|x7: 0.056|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.027|x13: 0.000|x14: 0.000|x15: 0.017|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.043|x7: 0.056|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.028|x13: 0.000|x14: 0.000|x15: 0.017|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E934" t="inlineStr">
@@ -39087,7 +39087,7 @@
       </c>
       <c r="G943" t="inlineStr">
         <is>
-          <t>[0.2143631086573401]</t>
+          <t>[0.21448670794567024]</t>
         </is>
       </c>
       <c r="H943" t="b">
@@ -39210,7 +39210,7 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>[0.37431965204909556]</t>
+          <t>[0.3742457040884256]</t>
         </is>
       </c>
       <c r="H946" t="b">
@@ -39277,7 +39277,7 @@
       </c>
       <c r="D948" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.253|x8: 0.000|x9: 0.101|x10: 0.000|x11: 0.042|x12: 0.238|x13: 0.000|x14: 0.064|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.252|x8: 0.000|x9: 0.101|x10: 0.000|x11: 0.042|x12: 0.238|x13: 0.000|x14: 0.064|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E948" t="inlineStr">
@@ -39292,7 +39292,7 @@
       </c>
       <c r="G948" t="inlineStr">
         <is>
-          <t>[0.25252418961900064, 0.23764227205838115]</t>
+          <t>[0.2524646348542083, 0.23767422735575502]</t>
         </is>
       </c>
       <c r="H948" t="b">
@@ -39374,7 +39374,7 @@
       </c>
       <c r="G950" t="inlineStr">
         <is>
-          <t>[0.25629598675169607]</t>
+          <t>[0.2561950601346175]</t>
         </is>
       </c>
       <c r="H950" t="b">
@@ -39415,7 +39415,7 @@
       </c>
       <c r="G951" t="inlineStr">
         <is>
-          <t>[0.25722830638224703]</t>
+          <t>[0.2572057991240455]</t>
         </is>
       </c>
       <c r="H951" t="b">
@@ -39441,7 +39441,7 @@
       </c>
       <c r="D952" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.161|x8: 0.000|x9: 0.041|x10: 0.000|x11: 0.000|x12: 0.083|x13: 0.093|x14: 0.026|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.161|x8: 0.000|x9: 0.041|x10: 0.000|x11: 0.000|x12: 0.083|x13: 0.093|x14: 0.027|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E952" t="inlineStr">
@@ -39523,7 +39523,7 @@
       </c>
       <c r="D954" t="inlineStr">
         <is>
-          <t>x1: 0.028|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.025|x7: 0.154|x8: 0.000|x9: 0.026|x10: 0.000|x11: 0.111|x12: 0.000|x13: 0.047|x14: 0.000|x15: 0.021|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.028|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.025|x7: 0.154|x8: 0.000|x9: 0.026|x10: 0.000|x11: 0.111|x12: 0.000|x13: 0.047|x14: 0.000|x15: 0.022|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E954" t="inlineStr">
@@ -39620,7 +39620,7 @@
       </c>
       <c r="G956" t="inlineStr">
         <is>
-          <t>[0.25877443891757873]</t>
+          <t>[0.2588314834313087]</t>
         </is>
       </c>
       <c r="H956" t="b">
@@ -39866,7 +39866,7 @@
       </c>
       <c r="G962" t="inlineStr">
         <is>
-          <t>[0.30676983728624463]</t>
+          <t>[0.30676629022900515]</t>
         </is>
       </c>
       <c r="H962" t="b">
@@ -39907,7 +39907,7 @@
       </c>
       <c r="G963" t="inlineStr">
         <is>
-          <t>[0.20356773134535944]</t>
+          <t>[0.20356660191735532]</t>
         </is>
       </c>
       <c r="H963" t="b">
@@ -39974,7 +39974,7 @@
       </c>
       <c r="D965" t="inlineStr">
         <is>
-          <t>x1: 0.041|x2: 0.000|x3: 0.000|x4: 0.043|x5: 0.000|x6: 0.000|x7: 0.118|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.038|x12: 0.155|x13: 0.000|x14: 0.030|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.041|x2: 0.000|x3: 0.000|x4: 0.043|x5: 0.000|x6: 0.000|x7: 0.118|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.039|x12: 0.155|x13: 0.000|x14: 0.030|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E965" t="inlineStr">
@@ -40020,7 +40020,7 @@
       </c>
       <c r="E966" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.27]</t>
+          <t>[0.00, 0.04, 0.26]</t>
         </is>
       </c>
       <c r="F966" t="inlineStr">
@@ -40030,7 +40030,7 @@
       </c>
       <c r="G966" t="inlineStr">
         <is>
-          <t>[0.2650158151232128, 0.2346071233175891]</t>
+          <t>[0.26492768411402257, 0.23461150353425672]</t>
         </is>
       </c>
       <c r="H966" t="b">
@@ -40194,7 +40194,7 @@
       </c>
       <c r="G970" t="inlineStr">
         <is>
-          <t>[0.20601424768136573]</t>
+          <t>[0.20603945369117588]</t>
         </is>
       </c>
       <c r="H970" t="b">
@@ -40261,7 +40261,7 @@
       </c>
       <c r="D972" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.030|x8: 0.000|x9: -0.005|x10: 0.000|x11: -0.008|x12: -0.021|x13: -0.005|x14: -0.010|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.030|x8: 0.000|x9: -0.005|x10: 0.000|x11: -0.008|x12: -0.021|x13: -0.006|x14: -0.010|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E972" t="inlineStr">
@@ -40317,7 +40317,7 @@
       </c>
       <c r="G973" t="inlineStr">
         <is>
-          <t>[0.23492262916179643]</t>
+          <t>[0.23496141581548452]</t>
         </is>
       </c>
       <c r="H973" t="b">
@@ -40425,7 +40425,7 @@
       </c>
       <c r="D976" t="inlineStr">
         <is>
-          <t>x1: 0.153|x2: 0.098|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.217|x8: 0.000|x9: 0.147|x10: 0.000|x11: 0.000|x12: 0.160|x13: 0.059|x14: 0.080|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.153|x2: 0.098|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.217|x8: 0.000|x9: 0.147|x10: 0.000|x11: 0.000|x12: 0.161|x13: 0.059|x14: 0.080|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E976" t="inlineStr">
@@ -40440,7 +40440,7 @@
       </c>
       <c r="G976" t="inlineStr">
         <is>
-          <t>[0.21743880499256374]</t>
+          <t>[0.21747318110789754]</t>
         </is>
       </c>
       <c r="H976" t="b">
@@ -40548,7 +40548,7 @@
       </c>
       <c r="D979" t="inlineStr">
         <is>
-          <t>x1: 0.174|x2: 0.000|x3: 0.051|x4: 0.130|x5: 0.214|x6: 0.050|x7: 0.000|x8: 0.087|x9: 0.000|x10: 0.055|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.088|x17: 0.000</t>
+          <t>x1: 0.174|x2: 0.000|x3: 0.051|x4: 0.130|x5: 0.214|x6: 0.050|x7: 0.000|x8: 0.088|x9: 0.000|x10: 0.055|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.088|x17: 0.000</t>
         </is>
       </c>
       <c r="E979" t="inlineStr">
@@ -40563,7 +40563,7 @@
       </c>
       <c r="G979" t="inlineStr">
         <is>
-          <t>[0.21409506313001414]</t>
+          <t>[0.21413349297863501]</t>
         </is>
       </c>
       <c r="H979" t="b">
@@ -40794,7 +40794,7 @@
       </c>
       <c r="D985" t="inlineStr">
         <is>
-          <t>x1: 0.073|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.144|x9: 0.118|x10: 0.000|x11: 0.164|x12: 0.000|x13: 0.044|x14: 0.044|x15: 0.074|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.073|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.144|x9: 0.118|x10: 0.000|x11: 0.163|x12: 0.000|x13: 0.044|x14: 0.044|x15: 0.074|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E985" t="inlineStr">
@@ -40876,7 +40876,7 @@
       </c>
       <c r="D987" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.076|x5: 0.000|x6: 0.000|x7: 0.102|x8: 0.000|x9: 0.044|x10: 0.000|x11: 0.000|x12: 0.219|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.076|x5: 0.000|x6: 0.000|x7: 0.102|x8: 0.000|x9: 0.044|x10: 0.000|x11: 0.000|x12: 0.218|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E987" t="inlineStr">
@@ -40891,7 +40891,7 @@
       </c>
       <c r="G987" t="inlineStr">
         <is>
-          <t>[0.21852236158125887]</t>
+          <t>[0.21849348610690614]</t>
         </is>
       </c>
       <c r="H987" t="b">
@@ -40958,7 +40958,7 @@
       </c>
       <c r="D989" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.020|x8: 0.000|x9: 0.000|x10: 0.015|x11: 0.000|x12: 0.019|x13: 0.031|x14: 0.015|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.019|x8: 0.000|x9: 0.000|x10: 0.015|x11: 0.000|x12: 0.019|x13: 0.031|x14: 0.015|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E989" t="inlineStr">
@@ -41040,7 +41040,7 @@
       </c>
       <c r="D991" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.106|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.093|x12: 0.085|x13: 0.087|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.106|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.094|x12: 0.085|x13: 0.087|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E991" t="inlineStr">
@@ -41204,7 +41204,7 @@
       </c>
       <c r="D995" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.100|x8: 0.000|x9: 0.042|x10: 0.000|x11: 0.077|x12: 0.065|x13: 0.000|x14: 0.065|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.100|x8: 0.000|x9: 0.041|x10: 0.000|x11: 0.077|x12: 0.065|x13: 0.000|x14: 0.065|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E995" t="inlineStr">
@@ -41245,7 +41245,7 @@
       </c>
       <c r="D996" t="inlineStr">
         <is>
-          <t>x1: 0.031|x2: 0.000|x3: 0.000|x4: 0.066|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.081|x10: 0.000|x11: 0.054|x12: 0.000|x13: 0.000|x14: 0.039|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.031|x2: 0.000|x3: 0.000|x4: 0.066|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.081|x10: 0.000|x11: 0.054|x12: 0.000|x13: 0.000|x14: 0.038|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E996" t="inlineStr">
